--- a/excels/units/monster/boss.xlsx
+++ b/excels/units/monster/boss.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="148">
   <si>
     <t>主键</t>
   </si>
@@ -252,6 +252,9 @@
   </si>
   <si>
     <t>models/heroes/brewmaster/brewmaster.vmdl</t>
+  </si>
+  <si>
+    <t>public_creature</t>
   </si>
   <si>
     <t>DOTA_UNIT_CAP_MOVE_GROUND</t>
@@ -1865,9 +1868,9 @@
   <dimension ref="A1:BC27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" topLeftCell="P1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="A3" sqref="A3"/>
+      <selection pane="topRight" activeCell="Y26" sqref="Y26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2255,7 +2258,9 @@
         <f>100+W3*60</f>
         <v>238</v>
       </c>
-      <c r="Y3" s="11"/>
+      <c r="Y3" s="11" t="s">
+        <v>75</v>
+      </c>
       <c r="Z3" s="11"/>
       <c r="AA3" s="11"/>
       <c r="AB3" s="11"/>
@@ -2270,15 +2275,15 @@
         <v>180</v>
       </c>
       <c r="AI3" s="11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ3" s="11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK3" s="30"/>
       <c r="AL3" s="11"/>
       <c r="AM3" s="11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN3" s="11">
         <v>1</v>
@@ -2287,7 +2292,7 @@
         <v>1</v>
       </c>
       <c r="AP3" s="11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AQ3" s="11">
         <v>0</v>
@@ -2325,10 +2330,10 @@
     </row>
     <row r="4" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:55">
       <c r="A4" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C4" s="12">
         <v>10000</v>
@@ -2384,7 +2389,9 @@
         <f>100+W4*60</f>
         <v>238</v>
       </c>
-      <c r="Y4" s="11"/>
+      <c r="Y4" s="11" t="s">
+        <v>75</v>
+      </c>
       <c r="Z4" s="11"/>
       <c r="AA4" s="11"/>
       <c r="AB4" s="11"/>
@@ -2399,15 +2406,15 @@
         <v>180</v>
       </c>
       <c r="AI4" s="11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ4" s="11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK4" s="30"/>
       <c r="AL4" s="11"/>
       <c r="AM4" s="11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN4" s="11">
         <v>1</v>
@@ -2416,7 +2423,7 @@
         <v>1</v>
       </c>
       <c r="AP4" s="11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AQ4" s="11">
         <v>0</v>
@@ -2454,10 +2461,10 @@
     </row>
     <row r="5" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:55">
       <c r="A5" s="13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C5" s="12">
         <f>10000</f>
@@ -2483,7 +2490,7 @@
         <v>73</v>
       </c>
       <c r="J5" s="14" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K5" s="14"/>
       <c r="L5" s="14"/>
@@ -2512,7 +2519,9 @@
         <f t="shared" ref="X5:X27" si="1">100+W5*60</f>
         <v>220</v>
       </c>
-      <c r="Y5" s="14"/>
+      <c r="Y5" s="11" t="s">
+        <v>75</v>
+      </c>
       <c r="Z5" s="14"/>
       <c r="AA5" s="14"/>
       <c r="AB5" s="14"/>
@@ -2527,15 +2536,15 @@
         <v>180</v>
       </c>
       <c r="AI5" s="14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ5" s="14" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK5" s="32"/>
       <c r="AL5" s="14"/>
       <c r="AM5" s="14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN5" s="14">
         <v>1</v>
@@ -2544,7 +2553,7 @@
         <v>1</v>
       </c>
       <c r="AP5" s="14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AQ5" s="14">
         <v>0</v>
@@ -2582,10 +2591,10 @@
     </row>
     <row r="6" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:55">
       <c r="A6" s="10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C6" s="12">
         <f t="shared" ref="C5:C14" si="2">10000</f>
@@ -2611,7 +2620,7 @@
         <v>73</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K6" s="11"/>
       <c r="L6" s="11"/>
@@ -2642,7 +2651,9 @@
         <f t="shared" si="1"/>
         <v>256</v>
       </c>
-      <c r="Y6" s="11"/>
+      <c r="Y6" s="11" t="s">
+        <v>75</v>
+      </c>
       <c r="Z6" s="11"/>
       <c r="AA6" s="11"/>
       <c r="AB6" s="11"/>
@@ -2657,15 +2668,15 @@
         <v>180</v>
       </c>
       <c r="AI6" s="11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ6" s="11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK6" s="30"/>
       <c r="AL6" s="11"/>
       <c r="AM6" s="11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN6" s="11">
         <v>1</v>
@@ -2674,7 +2685,7 @@
         <v>1</v>
       </c>
       <c r="AP6" s="11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AQ6" s="11">
         <v>0</v>
@@ -2712,10 +2723,10 @@
     </row>
     <row r="7" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:55">
       <c r="A7" s="13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C7" s="12">
         <f t="shared" si="2"/>
@@ -2741,7 +2752,7 @@
         <v>73</v>
       </c>
       <c r="J7" s="14" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K7" s="14"/>
       <c r="L7" s="14"/>
@@ -2772,7 +2783,9 @@
         <f t="shared" si="1"/>
         <v>220</v>
       </c>
-      <c r="Y7" s="14"/>
+      <c r="Y7" s="11" t="s">
+        <v>75</v>
+      </c>
       <c r="Z7" s="14"/>
       <c r="AA7" s="14"/>
       <c r="AB7" s="14"/>
@@ -2787,15 +2800,15 @@
         <v>180</v>
       </c>
       <c r="AI7" s="14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ7" s="14" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK7" s="32"/>
       <c r="AL7" s="14"/>
       <c r="AM7" s="14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN7" s="14">
         <v>1</v>
@@ -2804,7 +2817,7 @@
         <v>1</v>
       </c>
       <c r="AP7" s="14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AQ7" s="14">
         <v>0</v>
@@ -2842,10 +2855,10 @@
     </row>
     <row r="8" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:55">
       <c r="A8" s="10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C8" s="12">
         <f t="shared" si="2"/>
@@ -2871,7 +2884,7 @@
         <v>73</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K8" s="11"/>
       <c r="L8" s="11"/>
@@ -2896,7 +2909,9 @@
         <f t="shared" si="1"/>
         <v>232</v>
       </c>
-      <c r="Y8" s="11"/>
+      <c r="Y8" s="11" t="s">
+        <v>75</v>
+      </c>
       <c r="Z8" s="11"/>
       <c r="AA8" s="11"/>
       <c r="AB8" s="11"/>
@@ -2911,15 +2926,15 @@
         <v>180</v>
       </c>
       <c r="AI8" s="11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ8" s="11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK8" s="30"/>
       <c r="AL8" s="11"/>
       <c r="AM8" s="11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN8" s="11">
         <v>1</v>
@@ -2928,7 +2943,7 @@
         <v>1</v>
       </c>
       <c r="AP8" s="11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AQ8" s="11">
         <v>0</v>
@@ -2966,10 +2981,10 @@
     </row>
     <row r="9" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:55">
       <c r="A9" s="13" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C9" s="12">
         <f t="shared" si="2"/>
@@ -2995,7 +3010,7 @@
         <v>73</v>
       </c>
       <c r="J9" s="14" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K9" s="14"/>
       <c r="L9" s="14"/>
@@ -3028,7 +3043,9 @@
         <f t="shared" si="1"/>
         <v>226</v>
       </c>
-      <c r="Y9" s="14"/>
+      <c r="Y9" s="11" t="s">
+        <v>75</v>
+      </c>
       <c r="Z9" s="14"/>
       <c r="AA9" s="14"/>
       <c r="AB9" s="14"/>
@@ -3043,15 +3060,15 @@
         <v>180</v>
       </c>
       <c r="AI9" s="14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ9" s="14" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK9" s="32"/>
       <c r="AL9" s="14"/>
       <c r="AM9" s="14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN9" s="14">
         <v>1</v>
@@ -3060,7 +3077,7 @@
         <v>1</v>
       </c>
       <c r="AP9" s="14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AQ9" s="14">
         <v>0</v>
@@ -3098,10 +3115,10 @@
     </row>
     <row r="10" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:55">
       <c r="A10" s="10" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C10" s="12">
         <f t="shared" si="2"/>
@@ -3127,7 +3144,7 @@
         <v>73</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K10" s="11"/>
       <c r="L10" s="11"/>
@@ -3160,7 +3177,9 @@
         <f t="shared" si="1"/>
         <v>226</v>
       </c>
-      <c r="Y10" s="11"/>
+      <c r="Y10" s="11" t="s">
+        <v>75</v>
+      </c>
       <c r="Z10" s="11"/>
       <c r="AA10" s="11"/>
       <c r="AB10" s="11"/>
@@ -3175,15 +3194,15 @@
         <v>180</v>
       </c>
       <c r="AI10" s="11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ10" s="11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK10" s="30"/>
       <c r="AL10" s="11"/>
       <c r="AM10" s="11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN10" s="11">
         <v>1</v>
@@ -3192,7 +3211,7 @@
         <v>1</v>
       </c>
       <c r="AP10" s="11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AQ10" s="11">
         <v>0</v>
@@ -3230,10 +3249,10 @@
     </row>
     <row r="11" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:55">
       <c r="A11" s="13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C11" s="12">
         <f t="shared" si="2"/>
@@ -3259,7 +3278,7 @@
         <v>73</v>
       </c>
       <c r="J11" s="14" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K11" s="14"/>
       <c r="L11" s="14"/>
@@ -3288,7 +3307,9 @@
         <f t="shared" si="1"/>
         <v>226</v>
       </c>
-      <c r="Y11" s="14"/>
+      <c r="Y11" s="11" t="s">
+        <v>75</v>
+      </c>
       <c r="Z11" s="14"/>
       <c r="AA11" s="14"/>
       <c r="AB11" s="14"/>
@@ -3303,15 +3324,15 @@
         <v>180</v>
       </c>
       <c r="AI11" s="14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ11" s="14" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK11" s="32"/>
       <c r="AL11" s="14"/>
       <c r="AM11" s="14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN11" s="14">
         <v>1</v>
@@ -3320,7 +3341,7 @@
         <v>1</v>
       </c>
       <c r="AP11" s="14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AQ11" s="14">
         <v>0</v>
@@ -3358,10 +3379,10 @@
     </row>
     <row r="12" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:55">
       <c r="A12" s="10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C12" s="12">
         <f t="shared" si="2"/>
@@ -3387,7 +3408,7 @@
         <v>73</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K12" s="11"/>
       <c r="L12" s="11"/>
@@ -3412,7 +3433,9 @@
         <f t="shared" si="1"/>
         <v>226</v>
       </c>
-      <c r="Y12" s="11"/>
+      <c r="Y12" s="11" t="s">
+        <v>75</v>
+      </c>
       <c r="Z12" s="11"/>
       <c r="AA12" s="11"/>
       <c r="AB12" s="11"/>
@@ -3427,15 +3450,15 @@
         <v>180</v>
       </c>
       <c r="AI12" s="11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ12" s="11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK12" s="30"/>
       <c r="AL12" s="11"/>
       <c r="AM12" s="11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN12" s="11">
         <v>1</v>
@@ -3444,7 +3467,7 @@
         <v>1</v>
       </c>
       <c r="AP12" s="11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AQ12" s="11">
         <v>0</v>
@@ -3482,10 +3505,10 @@
     </row>
     <row r="13" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:55">
       <c r="A13" s="13" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C13" s="12">
         <f t="shared" si="2"/>
@@ -3511,7 +3534,7 @@
         <v>73</v>
       </c>
       <c r="J13" s="14" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K13" s="14"/>
       <c r="L13" s="14"/>
@@ -3538,7 +3561,9 @@
         <f t="shared" si="1"/>
         <v>244</v>
       </c>
-      <c r="Y13" s="14"/>
+      <c r="Y13" s="11" t="s">
+        <v>75</v>
+      </c>
       <c r="Z13" s="14"/>
       <c r="AA13" s="14"/>
       <c r="AB13" s="14"/>
@@ -3553,15 +3578,15 @@
         <v>180</v>
       </c>
       <c r="AI13" s="14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ13" s="14" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK13" s="32"/>
       <c r="AL13" s="14"/>
       <c r="AM13" s="14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN13" s="14">
         <v>1</v>
@@ -3570,7 +3595,7 @@
         <v>1</v>
       </c>
       <c r="AP13" s="14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AQ13" s="14">
         <v>0</v>
@@ -3608,10 +3633,10 @@
     </row>
     <row r="14" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:55">
       <c r="A14" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C14" s="12">
         <f t="shared" si="2"/>
@@ -3637,7 +3662,7 @@
         <v>73</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K14" s="11"/>
       <c r="L14" s="11"/>
@@ -3666,7 +3691,9 @@
         <f t="shared" si="1"/>
         <v>226</v>
       </c>
-      <c r="Y14" s="11"/>
+      <c r="Y14" s="11" t="s">
+        <v>75</v>
+      </c>
       <c r="Z14" s="11"/>
       <c r="AA14" s="11"/>
       <c r="AB14" s="11"/>
@@ -3681,15 +3708,15 @@
         <v>180</v>
       </c>
       <c r="AI14" s="11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ14" s="11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK14" s="30"/>
       <c r="AL14" s="11"/>
       <c r="AM14" s="11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN14" s="11">
         <v>1</v>
@@ -3698,7 +3725,7 @@
         <v>1</v>
       </c>
       <c r="AP14" s="11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AQ14" s="11">
         <v>0</v>
@@ -3736,10 +3763,10 @@
     </row>
     <row r="15" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:55">
       <c r="A15" s="13" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C15" s="12">
         <f t="shared" ref="C15:C27" si="3">10000</f>
@@ -3765,7 +3792,7 @@
         <v>73</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K15" s="14"/>
       <c r="L15" s="14"/>
@@ -3796,7 +3823,9 @@
         <f t="shared" si="1"/>
         <v>226</v>
       </c>
-      <c r="Y15" s="14"/>
+      <c r="Y15" s="11" t="s">
+        <v>75</v>
+      </c>
       <c r="Z15" s="14"/>
       <c r="AA15" s="14"/>
       <c r="AB15" s="14"/>
@@ -3811,15 +3840,15 @@
         <v>180</v>
       </c>
       <c r="AI15" s="14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ15" s="14" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK15" s="32"/>
       <c r="AL15" s="14"/>
       <c r="AM15" s="14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN15" s="14">
         <v>1</v>
@@ -3828,7 +3857,7 @@
         <v>1</v>
       </c>
       <c r="AP15" s="14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AQ15" s="14">
         <v>0</v>
@@ -3866,10 +3895,10 @@
     </row>
     <row r="16" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:55">
       <c r="A16" s="10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C16" s="12">
         <f t="shared" si="3"/>
@@ -3895,7 +3924,7 @@
         <v>73</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K16" s="11"/>
       <c r="L16" s="11"/>
@@ -3926,7 +3955,9 @@
         <f t="shared" si="1"/>
         <v>226</v>
       </c>
-      <c r="Y16" s="11"/>
+      <c r="Y16" s="11" t="s">
+        <v>75</v>
+      </c>
       <c r="Z16" s="11"/>
       <c r="AA16" s="11"/>
       <c r="AB16" s="11"/>
@@ -3941,15 +3972,15 @@
         <v>180</v>
       </c>
       <c r="AI16" s="11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ16" s="11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK16" s="30"/>
       <c r="AL16" s="11"/>
       <c r="AM16" s="11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN16" s="11">
         <v>1</v>
@@ -3958,7 +3989,7 @@
         <v>1</v>
       </c>
       <c r="AP16" s="11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AQ16" s="11">
         <v>0</v>
@@ -3996,10 +4027,10 @@
     </row>
     <row r="17" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:55">
       <c r="A17" s="13" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C17" s="12">
         <f t="shared" si="3"/>
@@ -4025,7 +4056,7 @@
         <v>73</v>
       </c>
       <c r="J17" s="14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K17" s="14"/>
       <c r="L17" s="14"/>
@@ -4056,7 +4087,9 @@
         <f t="shared" si="1"/>
         <v>226</v>
       </c>
-      <c r="Y17" s="14"/>
+      <c r="Y17" s="11" t="s">
+        <v>75</v>
+      </c>
       <c r="Z17" s="14"/>
       <c r="AA17" s="14"/>
       <c r="AB17" s="14"/>
@@ -4071,15 +4104,15 @@
         <v>180</v>
       </c>
       <c r="AI17" s="14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ17" s="14" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK17" s="32"/>
       <c r="AL17" s="14"/>
       <c r="AM17" s="14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN17" s="14">
         <v>1</v>
@@ -4088,7 +4121,7 @@
         <v>1</v>
       </c>
       <c r="AP17" s="14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AQ17" s="14">
         <v>0</v>
@@ -4126,10 +4159,10 @@
     </row>
     <row r="18" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:55">
       <c r="A18" s="10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C18" s="12">
         <f t="shared" si="3"/>
@@ -4155,7 +4188,7 @@
         <v>73</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K18" s="11"/>
       <c r="L18" s="11"/>
@@ -4184,7 +4217,9 @@
         <f t="shared" si="1"/>
         <v>226</v>
       </c>
-      <c r="Y18" s="11"/>
+      <c r="Y18" s="11" t="s">
+        <v>75</v>
+      </c>
       <c r="Z18" s="11"/>
       <c r="AA18" s="11"/>
       <c r="AB18" s="11"/>
@@ -4199,15 +4234,15 @@
         <v>180</v>
       </c>
       <c r="AI18" s="11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ18" s="11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK18" s="30"/>
       <c r="AL18" s="11"/>
       <c r="AM18" s="11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN18" s="11">
         <v>1</v>
@@ -4216,7 +4251,7 @@
         <v>1</v>
       </c>
       <c r="AP18" s="11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AQ18" s="11">
         <v>0</v>
@@ -4254,10 +4289,10 @@
     </row>
     <row r="19" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:55">
       <c r="A19" s="13" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C19" s="12">
         <f t="shared" si="3"/>
@@ -4283,7 +4318,7 @@
         <v>73</v>
       </c>
       <c r="J19" s="14" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K19" s="14"/>
       <c r="L19" s="14"/>
@@ -4312,7 +4347,9 @@
         <f t="shared" si="1"/>
         <v>226</v>
       </c>
-      <c r="Y19" s="14"/>
+      <c r="Y19" s="11" t="s">
+        <v>75</v>
+      </c>
       <c r="Z19" s="14"/>
       <c r="AA19" s="14"/>
       <c r="AB19" s="14"/>
@@ -4327,15 +4364,15 @@
         <v>180</v>
       </c>
       <c r="AI19" s="14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ19" s="14" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK19" s="32"/>
       <c r="AL19" s="14"/>
       <c r="AM19" s="14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN19" s="14">
         <v>1</v>
@@ -4344,7 +4381,7 @@
         <v>1</v>
       </c>
       <c r="AP19" s="14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AQ19" s="14">
         <v>0</v>
@@ -4382,10 +4419,10 @@
     </row>
     <row r="20" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:55">
       <c r="A20" s="10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C20" s="12">
         <f t="shared" si="3"/>
@@ -4411,7 +4448,7 @@
         <v>73</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K20" s="11"/>
       <c r="L20" s="11"/>
@@ -4442,7 +4479,9 @@
         <f t="shared" si="1"/>
         <v>220</v>
       </c>
-      <c r="Y20" s="11"/>
+      <c r="Y20" s="11" t="s">
+        <v>75</v>
+      </c>
       <c r="Z20" s="11"/>
       <c r="AA20" s="11"/>
       <c r="AB20" s="11"/>
@@ -4457,15 +4496,15 @@
         <v>180</v>
       </c>
       <c r="AI20" s="11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ20" s="11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK20" s="30"/>
       <c r="AL20" s="11"/>
       <c r="AM20" s="11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN20" s="11">
         <v>1</v>
@@ -4474,7 +4513,7 @@
         <v>1</v>
       </c>
       <c r="AP20" s="11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AQ20" s="11">
         <v>0</v>
@@ -4512,10 +4551,10 @@
     </row>
     <row r="21" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:55">
       <c r="A21" s="13" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C21" s="12">
         <f t="shared" si="3"/>
@@ -4541,7 +4580,7 @@
         <v>73</v>
       </c>
       <c r="J21" s="14" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K21" s="14"/>
       <c r="L21" s="14"/>
@@ -4570,7 +4609,9 @@
         <f t="shared" si="1"/>
         <v>220</v>
       </c>
-      <c r="Y21" s="14"/>
+      <c r="Y21" s="11" t="s">
+        <v>75</v>
+      </c>
       <c r="Z21" s="14"/>
       <c r="AA21" s="14"/>
       <c r="AB21" s="14"/>
@@ -4585,15 +4626,15 @@
         <v>180</v>
       </c>
       <c r="AI21" s="14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ21" s="14" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK21" s="32"/>
       <c r="AL21" s="14"/>
       <c r="AM21" s="14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN21" s="14">
         <v>1</v>
@@ -4602,7 +4643,7 @@
         <v>1</v>
       </c>
       <c r="AP21" s="14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AQ21" s="14">
         <v>0</v>
@@ -4640,10 +4681,10 @@
     </row>
     <row r="22" s="3" customFormat="1" ht="39" customHeight="1" spans="1:55">
       <c r="A22" s="10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C22" s="12">
         <f t="shared" si="3"/>
@@ -4669,7 +4710,7 @@
         <v>73</v>
       </c>
       <c r="J22" s="11" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K22" s="11"/>
       <c r="L22" s="11"/>
@@ -4690,7 +4731,9 @@
         <f t="shared" si="1"/>
         <v>220</v>
       </c>
-      <c r="Y22" s="11"/>
+      <c r="Y22" s="11" t="s">
+        <v>75</v>
+      </c>
       <c r="Z22" s="11"/>
       <c r="AA22" s="11"/>
       <c r="AB22" s="11"/>
@@ -4705,19 +4748,19 @@
         <v>180</v>
       </c>
       <c r="AI22" s="11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ22" s="11" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AK22" s="30" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AL22" s="11">
         <v>800</v>
       </c>
       <c r="AM22" s="11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN22" s="11">
         <v>1</v>
@@ -4726,7 +4769,7 @@
         <v>1</v>
       </c>
       <c r="AP22" s="11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AQ22" s="11">
         <v>0</v>
@@ -4764,10 +4807,10 @@
     </row>
     <row r="23" s="3" customFormat="1" ht="39" customHeight="1" spans="1:55">
       <c r="A23" s="13" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C23" s="12">
         <f t="shared" si="3"/>
@@ -4793,7 +4836,7 @@
         <v>73</v>
       </c>
       <c r="J23" s="14" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K23" s="14"/>
       <c r="L23" s="14"/>
@@ -4824,7 +4867,9 @@
         <f t="shared" si="1"/>
         <v>220</v>
       </c>
-      <c r="Y23" s="14"/>
+      <c r="Y23" s="11" t="s">
+        <v>75</v>
+      </c>
       <c r="Z23" s="14"/>
       <c r="AA23" s="14"/>
       <c r="AB23" s="14"/>
@@ -4839,19 +4884,19 @@
         <v>180</v>
       </c>
       <c r="AI23" s="14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ23" s="14" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AK23" s="32" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AL23" s="14">
         <v>600</v>
       </c>
       <c r="AM23" s="14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN23" s="14">
         <v>1</v>
@@ -4860,7 +4905,7 @@
         <v>1</v>
       </c>
       <c r="AP23" s="14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AQ23" s="14">
         <v>0</v>
@@ -4898,10 +4943,10 @@
     </row>
     <row r="24" s="3" customFormat="1" ht="39" customHeight="1" spans="1:55">
       <c r="A24" s="13" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C24" s="12">
         <f t="shared" si="3"/>
@@ -4927,7 +4972,7 @@
         <v>73</v>
       </c>
       <c r="J24" s="14" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K24" s="14"/>
       <c r="L24" s="14"/>
@@ -4960,7 +5005,9 @@
         <f t="shared" si="1"/>
         <v>220</v>
       </c>
-      <c r="Y24" s="14"/>
+      <c r="Y24" s="11" t="s">
+        <v>75</v>
+      </c>
       <c r="Z24" s="14"/>
       <c r="AA24" s="14"/>
       <c r="AB24" s="14"/>
@@ -4975,17 +5022,17 @@
         <v>180</v>
       </c>
       <c r="AI24" s="14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ24" s="14" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK24" s="32"/>
       <c r="AL24" s="14">
         <v>600</v>
       </c>
       <c r="AM24" s="14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN24" s="14">
         <v>1</v>
@@ -4994,7 +5041,7 @@
         <v>1</v>
       </c>
       <c r="AP24" s="14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AQ24" s="14">
         <v>0</v>
@@ -5032,10 +5079,10 @@
     </row>
     <row r="25" s="3" customFormat="1" ht="39" customHeight="1" spans="1:55">
       <c r="A25" s="13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C25" s="12">
         <f t="shared" si="3"/>
@@ -5061,7 +5108,7 @@
         <v>73</v>
       </c>
       <c r="J25" s="14" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K25" s="14"/>
       <c r="L25" s="14"/>
@@ -5092,7 +5139,9 @@
         <f t="shared" si="1"/>
         <v>220</v>
       </c>
-      <c r="Y25" s="14"/>
+      <c r="Y25" s="11" t="s">
+        <v>75</v>
+      </c>
       <c r="Z25" s="14"/>
       <c r="AA25" s="14"/>
       <c r="AB25" s="14"/>
@@ -5107,17 +5156,17 @@
         <v>180</v>
       </c>
       <c r="AI25" s="14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ25" s="14" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK25" s="32"/>
       <c r="AL25" s="14">
         <v>600</v>
       </c>
       <c r="AM25" s="14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN25" s="14">
         <v>1</v>
@@ -5126,7 +5175,7 @@
         <v>1</v>
       </c>
       <c r="AP25" s="14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AQ25" s="14">
         <v>0</v>
@@ -5164,10 +5213,10 @@
     </row>
     <row r="26" s="3" customFormat="1" ht="39" customHeight="1" spans="1:55">
       <c r="A26" s="13" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C26" s="12">
         <f t="shared" si="3"/>
@@ -5193,7 +5242,7 @@
         <v>73</v>
       </c>
       <c r="J26" s="14" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K26" s="14"/>
       <c r="L26" s="14"/>
@@ -5220,7 +5269,9 @@
         <f t="shared" si="1"/>
         <v>220</v>
       </c>
-      <c r="Y26" s="14"/>
+      <c r="Y26" s="11" t="s">
+        <v>75</v>
+      </c>
       <c r="Z26" s="14"/>
       <c r="AA26" s="14"/>
       <c r="AB26" s="14"/>
@@ -5235,17 +5286,17 @@
         <v>180</v>
       </c>
       <c r="AI26" s="14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ26" s="14" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK26" s="32"/>
       <c r="AL26" s="14">
         <v>600</v>
       </c>
       <c r="AM26" s="14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN26" s="14">
         <v>1</v>
@@ -5254,7 +5305,7 @@
         <v>1</v>
       </c>
       <c r="AP26" s="14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AQ26" s="14">
         <v>0</v>
@@ -5292,10 +5343,10 @@
     </row>
     <row r="27" s="3" customFormat="1" ht="39" customHeight="1" spans="1:55">
       <c r="A27" s="13" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C27" s="12">
         <f t="shared" si="3"/>
@@ -5321,7 +5372,7 @@
         <v>73</v>
       </c>
       <c r="J27" s="14" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K27" s="14"/>
       <c r="L27" s="14"/>
@@ -5358,7 +5409,9 @@
         <f t="shared" si="1"/>
         <v>220</v>
       </c>
-      <c r="Y27" s="14"/>
+      <c r="Y27" s="11" t="s">
+        <v>75</v>
+      </c>
       <c r="Z27" s="14"/>
       <c r="AA27" s="14"/>
       <c r="AB27" s="14"/>
@@ -5373,17 +5426,17 @@
         <v>180</v>
       </c>
       <c r="AI27" s="14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ27" s="14" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK27" s="32"/>
       <c r="AL27" s="14">
         <v>600</v>
       </c>
       <c r="AM27" s="14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN27" s="14">
         <v>1</v>
@@ -5392,7 +5445,7 @@
         <v>1</v>
       </c>
       <c r="AP27" s="14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AQ27" s="14">
         <v>0</v>

--- a/excels/units/monster/boss.xlsx
+++ b/excels/units/monster/boss.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="149">
   <si>
     <t>主键</t>
   </si>
@@ -111,6 +111,9 @@
   </si>
   <si>
     <t>UnitName</t>
+  </si>
+  <si>
+    <t>#Loc{}</t>
   </si>
   <si>
     <t>StatusHealth</t>
@@ -1870,7 +1873,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="P1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="Y26" sqref="Y26"/>
+      <selection pane="topRight" activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2037,36 +2040,38 @@
       <c r="A2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="8"/>
+      <c r="B2" s="8" t="s">
+        <v>28</v>
+      </c>
       <c r="C2" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M2" s="8">
         <v>1</v>
@@ -2093,117 +2098,117 @@
         <v>8</v>
       </c>
       <c r="U2" s="22" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V2" s="23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W2" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="X2" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z2" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA2" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB2" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC2" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD2" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE2" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF2" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG2" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH2" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI2" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ2" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AK2" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL2" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM2" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN2" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO2" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP2" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="AQ2" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="AR2" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AS2" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT2" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="AU2" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="AV2" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW2" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX2" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="AY2" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="AZ2" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="BA2" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="BB2" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="X2" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y2" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z2" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA2" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB2" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC2" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD2" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="AE2" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF2" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="AG2" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="AH2" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="AI2" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AJ2" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="AK2" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="AL2" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="AM2" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="AN2" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="AO2" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="AP2" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ2" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="AR2" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="AS2" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="AT2" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="AU2" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="AV2" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AW2" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="AX2" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="AY2" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="AZ2" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="BA2" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="BB2" s="36" t="s">
-        <v>38</v>
-      </c>
       <c r="BC2" s="37" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:55">
       <c r="A3" s="10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C3" s="12">
         <v>100000</v>
@@ -2224,10 +2229,10 @@
         <v>125</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K3" s="11"/>
       <c r="L3" s="11"/>
@@ -2259,7 +2264,7 @@
         <v>238</v>
       </c>
       <c r="Y3" s="11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z3" s="11"/>
       <c r="AA3" s="11"/>
@@ -2275,15 +2280,15 @@
         <v>180</v>
       </c>
       <c r="AI3" s="11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ3" s="11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK3" s="30"/>
       <c r="AL3" s="11"/>
       <c r="AM3" s="11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN3" s="11">
         <v>1</v>
@@ -2292,7 +2297,7 @@
         <v>1</v>
       </c>
       <c r="AP3" s="11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AQ3" s="11">
         <v>0</v>
@@ -2330,10 +2335,10 @@
     </row>
     <row r="4" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:55">
       <c r="A4" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C4" s="12">
         <v>10000</v>
@@ -2355,10 +2360,10 @@
         <v>125</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K4" s="11"/>
       <c r="L4" s="11"/>
@@ -2390,7 +2395,7 @@
         <v>238</v>
       </c>
       <c r="Y4" s="11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z4" s="11"/>
       <c r="AA4" s="11"/>
@@ -2406,15 +2411,15 @@
         <v>180</v>
       </c>
       <c r="AI4" s="11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ4" s="11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK4" s="30"/>
       <c r="AL4" s="11"/>
       <c r="AM4" s="11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN4" s="11">
         <v>1</v>
@@ -2423,7 +2428,7 @@
         <v>1</v>
       </c>
       <c r="AP4" s="11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AQ4" s="11">
         <v>0</v>
@@ -2461,10 +2466,10 @@
     </row>
     <row r="5" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:55">
       <c r="A5" s="13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C5" s="12">
         <f>10000</f>
@@ -2487,10 +2492,10 @@
         <v>125</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J5" s="14" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K5" s="14"/>
       <c r="L5" s="14"/>
@@ -2520,7 +2525,7 @@
         <v>220</v>
       </c>
       <c r="Y5" s="11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z5" s="14"/>
       <c r="AA5" s="14"/>
@@ -2536,15 +2541,15 @@
         <v>180</v>
       </c>
       <c r="AI5" s="14" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ5" s="14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK5" s="32"/>
       <c r="AL5" s="14"/>
       <c r="AM5" s="14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN5" s="14">
         <v>1</v>
@@ -2553,7 +2558,7 @@
         <v>1</v>
       </c>
       <c r="AP5" s="14" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AQ5" s="14">
         <v>0</v>
@@ -2591,10 +2596,10 @@
     </row>
     <row r="6" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:55">
       <c r="A6" s="10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C6" s="12">
         <f t="shared" ref="C5:C14" si="2">10000</f>
@@ -2617,10 +2622,10 @@
         <v>125</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K6" s="11"/>
       <c r="L6" s="11"/>
@@ -2652,7 +2657,7 @@
         <v>256</v>
       </c>
       <c r="Y6" s="11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z6" s="11"/>
       <c r="AA6" s="11"/>
@@ -2668,15 +2673,15 @@
         <v>180</v>
       </c>
       <c r="AI6" s="11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ6" s="11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK6" s="30"/>
       <c r="AL6" s="11"/>
       <c r="AM6" s="11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN6" s="11">
         <v>1</v>
@@ -2685,7 +2690,7 @@
         <v>1</v>
       </c>
       <c r="AP6" s="11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AQ6" s="11">
         <v>0</v>
@@ -2723,10 +2728,10 @@
     </row>
     <row r="7" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:55">
       <c r="A7" s="13" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C7" s="12">
         <f t="shared" si="2"/>
@@ -2749,10 +2754,10 @@
         <v>125</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J7" s="14" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K7" s="14"/>
       <c r="L7" s="14"/>
@@ -2784,7 +2789,7 @@
         <v>220</v>
       </c>
       <c r="Y7" s="11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z7" s="14"/>
       <c r="AA7" s="14"/>
@@ -2800,15 +2805,15 @@
         <v>180</v>
       </c>
       <c r="AI7" s="14" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ7" s="14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK7" s="32"/>
       <c r="AL7" s="14"/>
       <c r="AM7" s="14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN7" s="14">
         <v>1</v>
@@ -2817,7 +2822,7 @@
         <v>1</v>
       </c>
       <c r="AP7" s="14" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AQ7" s="14">
         <v>0</v>
@@ -2855,10 +2860,10 @@
     </row>
     <row r="8" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:55">
       <c r="A8" s="10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C8" s="12">
         <f t="shared" si="2"/>
@@ -2881,10 +2886,10 @@
         <v>125</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K8" s="11"/>
       <c r="L8" s="11"/>
@@ -2910,7 +2915,7 @@
         <v>232</v>
       </c>
       <c r="Y8" s="11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z8" s="11"/>
       <c r="AA8" s="11"/>
@@ -2926,15 +2931,15 @@
         <v>180</v>
       </c>
       <c r="AI8" s="11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ8" s="11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK8" s="30"/>
       <c r="AL8" s="11"/>
       <c r="AM8" s="11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN8" s="11">
         <v>1</v>
@@ -2943,7 +2948,7 @@
         <v>1</v>
       </c>
       <c r="AP8" s="11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AQ8" s="11">
         <v>0</v>
@@ -2981,10 +2986,10 @@
     </row>
     <row r="9" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:55">
       <c r="A9" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C9" s="12">
         <f t="shared" si="2"/>
@@ -3007,10 +3012,10 @@
         <v>125</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J9" s="14" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K9" s="14"/>
       <c r="L9" s="14"/>
@@ -3044,7 +3049,7 @@
         <v>226</v>
       </c>
       <c r="Y9" s="11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z9" s="14"/>
       <c r="AA9" s="14"/>
@@ -3060,15 +3065,15 @@
         <v>180</v>
       </c>
       <c r="AI9" s="14" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ9" s="14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK9" s="32"/>
       <c r="AL9" s="14"/>
       <c r="AM9" s="14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN9" s="14">
         <v>1</v>
@@ -3077,7 +3082,7 @@
         <v>1</v>
       </c>
       <c r="AP9" s="14" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AQ9" s="14">
         <v>0</v>
@@ -3115,10 +3120,10 @@
     </row>
     <row r="10" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:55">
       <c r="A10" s="10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C10" s="12">
         <f t="shared" si="2"/>
@@ -3141,10 +3146,10 @@
         <v>125</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K10" s="11"/>
       <c r="L10" s="11"/>
@@ -3178,7 +3183,7 @@
         <v>226</v>
       </c>
       <c r="Y10" s="11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z10" s="11"/>
       <c r="AA10" s="11"/>
@@ -3194,15 +3199,15 @@
         <v>180</v>
       </c>
       <c r="AI10" s="11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ10" s="11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK10" s="30"/>
       <c r="AL10" s="11"/>
       <c r="AM10" s="11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN10" s="11">
         <v>1</v>
@@ -3211,7 +3216,7 @@
         <v>1</v>
       </c>
       <c r="AP10" s="11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AQ10" s="11">
         <v>0</v>
@@ -3249,10 +3254,10 @@
     </row>
     <row r="11" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:55">
       <c r="A11" s="13" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C11" s="12">
         <f t="shared" si="2"/>
@@ -3275,10 +3280,10 @@
         <v>125</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J11" s="14" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K11" s="14"/>
       <c r="L11" s="14"/>
@@ -3308,7 +3313,7 @@
         <v>226</v>
       </c>
       <c r="Y11" s="11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z11" s="14"/>
       <c r="AA11" s="14"/>
@@ -3324,15 +3329,15 @@
         <v>180</v>
       </c>
       <c r="AI11" s="14" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ11" s="14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK11" s="32"/>
       <c r="AL11" s="14"/>
       <c r="AM11" s="14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN11" s="14">
         <v>1</v>
@@ -3341,7 +3346,7 @@
         <v>1</v>
       </c>
       <c r="AP11" s="14" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AQ11" s="14">
         <v>0</v>
@@ -3379,10 +3384,10 @@
     </row>
     <row r="12" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:55">
       <c r="A12" s="10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C12" s="12">
         <f t="shared" si="2"/>
@@ -3405,10 +3410,10 @@
         <v>125</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K12" s="11"/>
       <c r="L12" s="11"/>
@@ -3434,7 +3439,7 @@
         <v>226</v>
       </c>
       <c r="Y12" s="11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z12" s="11"/>
       <c r="AA12" s="11"/>
@@ -3450,15 +3455,15 @@
         <v>180</v>
       </c>
       <c r="AI12" s="11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ12" s="11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK12" s="30"/>
       <c r="AL12" s="11"/>
       <c r="AM12" s="11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN12" s="11">
         <v>1</v>
@@ -3467,7 +3472,7 @@
         <v>1</v>
       </c>
       <c r="AP12" s="11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AQ12" s="11">
         <v>0</v>
@@ -3505,10 +3510,10 @@
     </row>
     <row r="13" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:55">
       <c r="A13" s="13" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C13" s="12">
         <f t="shared" si="2"/>
@@ -3531,10 +3536,10 @@
         <v>125</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J13" s="14" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K13" s="14"/>
       <c r="L13" s="14"/>
@@ -3562,7 +3567,7 @@
         <v>244</v>
       </c>
       <c r="Y13" s="11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z13" s="14"/>
       <c r="AA13" s="14"/>
@@ -3578,15 +3583,15 @@
         <v>180</v>
       </c>
       <c r="AI13" s="14" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ13" s="14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK13" s="32"/>
       <c r="AL13" s="14"/>
       <c r="AM13" s="14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN13" s="14">
         <v>1</v>
@@ -3595,7 +3600,7 @@
         <v>1</v>
       </c>
       <c r="AP13" s="14" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AQ13" s="14">
         <v>0</v>
@@ -3633,10 +3638,10 @@
     </row>
     <row r="14" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:55">
       <c r="A14" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C14" s="12">
         <f t="shared" si="2"/>
@@ -3659,10 +3664,10 @@
         <v>125</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K14" s="11"/>
       <c r="L14" s="11"/>
@@ -3692,7 +3697,7 @@
         <v>226</v>
       </c>
       <c r="Y14" s="11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z14" s="11"/>
       <c r="AA14" s="11"/>
@@ -3708,15 +3713,15 @@
         <v>180</v>
       </c>
       <c r="AI14" s="11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ14" s="11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK14" s="30"/>
       <c r="AL14" s="11"/>
       <c r="AM14" s="11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN14" s="11">
         <v>1</v>
@@ -3725,7 +3730,7 @@
         <v>1</v>
       </c>
       <c r="AP14" s="11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AQ14" s="11">
         <v>0</v>
@@ -3763,10 +3768,10 @@
     </row>
     <row r="15" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:55">
       <c r="A15" s="13" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C15" s="12">
         <f t="shared" ref="C15:C27" si="3">10000</f>
@@ -3789,10 +3794,10 @@
         <v>125</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K15" s="14"/>
       <c r="L15" s="14"/>
@@ -3824,7 +3829,7 @@
         <v>226</v>
       </c>
       <c r="Y15" s="11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z15" s="14"/>
       <c r="AA15" s="14"/>
@@ -3840,15 +3845,15 @@
         <v>180</v>
       </c>
       <c r="AI15" s="14" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ15" s="14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK15" s="32"/>
       <c r="AL15" s="14"/>
       <c r="AM15" s="14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN15" s="14">
         <v>1</v>
@@ -3857,7 +3862,7 @@
         <v>1</v>
       </c>
       <c r="AP15" s="14" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AQ15" s="14">
         <v>0</v>
@@ -3895,10 +3900,10 @@
     </row>
     <row r="16" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:55">
       <c r="A16" s="10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C16" s="12">
         <f t="shared" si="3"/>
@@ -3921,10 +3926,10 @@
         <v>125</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K16" s="11"/>
       <c r="L16" s="11"/>
@@ -3956,7 +3961,7 @@
         <v>226</v>
       </c>
       <c r="Y16" s="11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z16" s="11"/>
       <c r="AA16" s="11"/>
@@ -3972,15 +3977,15 @@
         <v>180</v>
       </c>
       <c r="AI16" s="11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ16" s="11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK16" s="30"/>
       <c r="AL16" s="11"/>
       <c r="AM16" s="11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN16" s="11">
         <v>1</v>
@@ -3989,7 +3994,7 @@
         <v>1</v>
       </c>
       <c r="AP16" s="11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AQ16" s="11">
         <v>0</v>
@@ -4027,10 +4032,10 @@
     </row>
     <row r="17" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:55">
       <c r="A17" s="13" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C17" s="12">
         <f t="shared" si="3"/>
@@ -4053,10 +4058,10 @@
         <v>125</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J17" s="14" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K17" s="14"/>
       <c r="L17" s="14"/>
@@ -4088,7 +4093,7 @@
         <v>226</v>
       </c>
       <c r="Y17" s="11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z17" s="14"/>
       <c r="AA17" s="14"/>
@@ -4104,15 +4109,15 @@
         <v>180</v>
       </c>
       <c r="AI17" s="14" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ17" s="14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK17" s="32"/>
       <c r="AL17" s="14"/>
       <c r="AM17" s="14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN17" s="14">
         <v>1</v>
@@ -4121,7 +4126,7 @@
         <v>1</v>
       </c>
       <c r="AP17" s="14" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AQ17" s="14">
         <v>0</v>
@@ -4159,10 +4164,10 @@
     </row>
     <row r="18" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:55">
       <c r="A18" s="10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C18" s="12">
         <f t="shared" si="3"/>
@@ -4185,10 +4190,10 @@
         <v>125</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K18" s="11"/>
       <c r="L18" s="11"/>
@@ -4218,7 +4223,7 @@
         <v>226</v>
       </c>
       <c r="Y18" s="11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z18" s="11"/>
       <c r="AA18" s="11"/>
@@ -4234,15 +4239,15 @@
         <v>180</v>
       </c>
       <c r="AI18" s="11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ18" s="11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK18" s="30"/>
       <c r="AL18" s="11"/>
       <c r="AM18" s="11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN18" s="11">
         <v>1</v>
@@ -4251,7 +4256,7 @@
         <v>1</v>
       </c>
       <c r="AP18" s="11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AQ18" s="11">
         <v>0</v>
@@ -4289,10 +4294,10 @@
     </row>
     <row r="19" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:55">
       <c r="A19" s="13" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C19" s="12">
         <f t="shared" si="3"/>
@@ -4315,10 +4320,10 @@
         <v>125</v>
       </c>
       <c r="I19" s="14" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J19" s="14" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K19" s="14"/>
       <c r="L19" s="14"/>
@@ -4348,7 +4353,7 @@
         <v>226</v>
       </c>
       <c r="Y19" s="11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z19" s="14"/>
       <c r="AA19" s="14"/>
@@ -4364,15 +4369,15 @@
         <v>180</v>
       </c>
       <c r="AI19" s="14" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ19" s="14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK19" s="32"/>
       <c r="AL19" s="14"/>
       <c r="AM19" s="14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN19" s="14">
         <v>1</v>
@@ -4381,7 +4386,7 @@
         <v>1</v>
       </c>
       <c r="AP19" s="14" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AQ19" s="14">
         <v>0</v>
@@ -4419,10 +4424,10 @@
     </row>
     <row r="20" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:55">
       <c r="A20" s="10" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C20" s="12">
         <f t="shared" si="3"/>
@@ -4445,10 +4450,10 @@
         <v>125</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K20" s="11"/>
       <c r="L20" s="11"/>
@@ -4480,7 +4485,7 @@
         <v>220</v>
       </c>
       <c r="Y20" s="11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z20" s="11"/>
       <c r="AA20" s="11"/>
@@ -4496,15 +4501,15 @@
         <v>180</v>
       </c>
       <c r="AI20" s="11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ20" s="11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK20" s="30"/>
       <c r="AL20" s="11"/>
       <c r="AM20" s="11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN20" s="11">
         <v>1</v>
@@ -4513,7 +4518,7 @@
         <v>1</v>
       </c>
       <c r="AP20" s="11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AQ20" s="11">
         <v>0</v>
@@ -4551,10 +4556,10 @@
     </row>
     <row r="21" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:55">
       <c r="A21" s="13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C21" s="12">
         <f t="shared" si="3"/>
@@ -4577,10 +4582,10 @@
         <v>125</v>
       </c>
       <c r="I21" s="14" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J21" s="14" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K21" s="14"/>
       <c r="L21" s="14"/>
@@ -4610,7 +4615,7 @@
         <v>220</v>
       </c>
       <c r="Y21" s="11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z21" s="14"/>
       <c r="AA21" s="14"/>
@@ -4626,15 +4631,15 @@
         <v>180</v>
       </c>
       <c r="AI21" s="14" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ21" s="14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK21" s="32"/>
       <c r="AL21" s="14"/>
       <c r="AM21" s="14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN21" s="14">
         <v>1</v>
@@ -4643,7 +4648,7 @@
         <v>1</v>
       </c>
       <c r="AP21" s="14" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AQ21" s="14">
         <v>0</v>
@@ -4681,10 +4686,10 @@
     </row>
     <row r="22" s="3" customFormat="1" ht="39" customHeight="1" spans="1:55">
       <c r="A22" s="10" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C22" s="12">
         <f t="shared" si="3"/>
@@ -4707,10 +4712,10 @@
         <v>400</v>
       </c>
       <c r="I22" s="11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J22" s="11" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K22" s="11"/>
       <c r="L22" s="11"/>
@@ -4732,7 +4737,7 @@
         <v>220</v>
       </c>
       <c r="Y22" s="11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z22" s="11"/>
       <c r="AA22" s="11"/>
@@ -4748,19 +4753,19 @@
         <v>180</v>
       </c>
       <c r="AI22" s="11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ22" s="11" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AK22" s="30" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AL22" s="11">
         <v>800</v>
       </c>
       <c r="AM22" s="11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN22" s="11">
         <v>1</v>
@@ -4769,7 +4774,7 @@
         <v>1</v>
       </c>
       <c r="AP22" s="11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AQ22" s="11">
         <v>0</v>
@@ -4807,10 +4812,10 @@
     </row>
     <row r="23" s="3" customFormat="1" ht="39" customHeight="1" spans="1:55">
       <c r="A23" s="13" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C23" s="12">
         <f t="shared" si="3"/>
@@ -4833,10 +4838,10 @@
         <v>400</v>
       </c>
       <c r="I23" s="14" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J23" s="14" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K23" s="14"/>
       <c r="L23" s="14"/>
@@ -4868,7 +4873,7 @@
         <v>220</v>
       </c>
       <c r="Y23" s="11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z23" s="14"/>
       <c r="AA23" s="14"/>
@@ -4884,19 +4889,19 @@
         <v>180</v>
       </c>
       <c r="AI23" s="14" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ23" s="14" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AK23" s="32" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AL23" s="14">
         <v>600</v>
       </c>
       <c r="AM23" s="14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN23" s="14">
         <v>1</v>
@@ -4905,7 +4910,7 @@
         <v>1</v>
       </c>
       <c r="AP23" s="14" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AQ23" s="14">
         <v>0</v>
@@ -4943,10 +4948,10 @@
     </row>
     <row r="24" s="3" customFormat="1" ht="39" customHeight="1" spans="1:55">
       <c r="A24" s="13" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C24" s="12">
         <f t="shared" si="3"/>
@@ -4969,10 +4974,10 @@
         <v>125</v>
       </c>
       <c r="I24" s="14" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J24" s="14" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K24" s="14"/>
       <c r="L24" s="14"/>
@@ -5006,7 +5011,7 @@
         <v>220</v>
       </c>
       <c r="Y24" s="11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z24" s="14"/>
       <c r="AA24" s="14"/>
@@ -5022,17 +5027,17 @@
         <v>180</v>
       </c>
       <c r="AI24" s="14" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ24" s="14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK24" s="32"/>
       <c r="AL24" s="14">
         <v>600</v>
       </c>
       <c r="AM24" s="14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN24" s="14">
         <v>1</v>
@@ -5041,7 +5046,7 @@
         <v>1</v>
       </c>
       <c r="AP24" s="14" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AQ24" s="14">
         <v>0</v>
@@ -5079,10 +5084,10 @@
     </row>
     <row r="25" s="3" customFormat="1" ht="39" customHeight="1" spans="1:55">
       <c r="A25" s="13" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C25" s="12">
         <f t="shared" si="3"/>
@@ -5105,10 +5110,10 @@
         <v>125</v>
       </c>
       <c r="I25" s="14" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J25" s="14" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K25" s="14"/>
       <c r="L25" s="14"/>
@@ -5140,7 +5145,7 @@
         <v>220</v>
       </c>
       <c r="Y25" s="11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z25" s="14"/>
       <c r="AA25" s="14"/>
@@ -5156,17 +5161,17 @@
         <v>180</v>
       </c>
       <c r="AI25" s="14" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ25" s="14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK25" s="32"/>
       <c r="AL25" s="14">
         <v>600</v>
       </c>
       <c r="AM25" s="14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN25" s="14">
         <v>1</v>
@@ -5175,7 +5180,7 @@
         <v>1</v>
       </c>
       <c r="AP25" s="14" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AQ25" s="14">
         <v>0</v>
@@ -5213,10 +5218,10 @@
     </row>
     <row r="26" s="3" customFormat="1" ht="39" customHeight="1" spans="1:55">
       <c r="A26" s="13" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C26" s="12">
         <f t="shared" si="3"/>
@@ -5239,10 +5244,10 @@
         <v>125</v>
       </c>
       <c r="I26" s="14" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J26" s="14" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K26" s="14"/>
       <c r="L26" s="14"/>
@@ -5270,7 +5275,7 @@
         <v>220</v>
       </c>
       <c r="Y26" s="11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z26" s="14"/>
       <c r="AA26" s="14"/>
@@ -5286,17 +5291,17 @@
         <v>180</v>
       </c>
       <c r="AI26" s="14" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ26" s="14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK26" s="32"/>
       <c r="AL26" s="14">
         <v>600</v>
       </c>
       <c r="AM26" s="14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN26" s="14">
         <v>1</v>
@@ -5305,7 +5310,7 @@
         <v>1</v>
       </c>
       <c r="AP26" s="14" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AQ26" s="14">
         <v>0</v>
@@ -5343,10 +5348,10 @@
     </row>
     <row r="27" s="3" customFormat="1" ht="39" customHeight="1" spans="1:55">
       <c r="A27" s="13" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C27" s="12">
         <f t="shared" si="3"/>
@@ -5369,10 +5374,10 @@
         <v>125</v>
       </c>
       <c r="I27" s="14" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J27" s="14" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K27" s="14"/>
       <c r="L27" s="14"/>
@@ -5410,7 +5415,7 @@
         <v>220</v>
       </c>
       <c r="Y27" s="11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z27" s="14"/>
       <c r="AA27" s="14"/>
@@ -5426,17 +5431,17 @@
         <v>180</v>
       </c>
       <c r="AI27" s="14" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ27" s="14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK27" s="32"/>
       <c r="AL27" s="14">
         <v>600</v>
       </c>
       <c r="AM27" s="14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN27" s="14">
         <v>1</v>
@@ -5445,7 +5450,7 @@
         <v>1</v>
       </c>
       <c r="AP27" s="14" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AQ27" s="14">
         <v>0</v>

--- a/excels/units/monster/boss.xlsx
+++ b/excels/units/monster/boss.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12345"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="boss" sheetId="1" r:id="rId1"/>
@@ -1871,9 +1871,9 @@
   <dimension ref="A1:BC27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="P1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="Q4" sqref="Q4"/>
+      <selection pane="topRight" activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2341,17 +2341,17 @@
         <v>82</v>
       </c>
       <c r="C4" s="12">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="D4" s="11">
         <v>0</v>
       </c>
       <c r="E4" s="11">
-        <v>2500</v>
+        <v>50</v>
       </c>
       <c r="F4" s="11">
-        <f>E4*1.5</f>
-        <v>3750</v>
+        <f>E4*1</f>
+        <v>50</v>
       </c>
       <c r="G4" s="11">
         <v>1</v>
@@ -2481,9 +2481,9 @@
       <c r="E5" s="14">
         <v>2500</v>
       </c>
-      <c r="F5" s="14">
-        <f t="shared" ref="F5:F27" si="0">E5*1.5</f>
-        <v>3750</v>
+      <c r="F5" s="11">
+        <f t="shared" ref="F5:F27" si="0">E5*1</f>
+        <v>2500</v>
       </c>
       <c r="G5" s="14">
         <v>1</v>
@@ -2613,7 +2613,7 @@
       </c>
       <c r="F6" s="11">
         <f t="shared" si="0"/>
-        <v>3750</v>
+        <v>2500</v>
       </c>
       <c r="G6" s="11">
         <v>1</v>
@@ -2743,9 +2743,9 @@
       <c r="E7" s="14">
         <v>2500</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="11">
         <f t="shared" si="0"/>
-        <v>3750</v>
+        <v>2500</v>
       </c>
       <c r="G7" s="14">
         <v>1</v>
@@ -2877,7 +2877,7 @@
       </c>
       <c r="F8" s="11">
         <f t="shared" si="0"/>
-        <v>3750</v>
+        <v>2500</v>
       </c>
       <c r="G8" s="11">
         <v>1</v>
@@ -3001,9 +3001,9 @@
       <c r="E9" s="14">
         <v>2500</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="11">
         <f t="shared" si="0"/>
-        <v>3750</v>
+        <v>2500</v>
       </c>
       <c r="G9" s="14">
         <v>1</v>
@@ -3137,7 +3137,7 @@
       </c>
       <c r="F10" s="11">
         <f t="shared" si="0"/>
-        <v>3750</v>
+        <v>2500</v>
       </c>
       <c r="G10" s="11">
         <v>1</v>
@@ -3269,9 +3269,9 @@
       <c r="E11" s="14">
         <v>2500</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="11">
         <f t="shared" si="0"/>
-        <v>3750</v>
+        <v>2500</v>
       </c>
       <c r="G11" s="14">
         <v>1</v>
@@ -3401,7 +3401,7 @@
       </c>
       <c r="F12" s="11">
         <f t="shared" si="0"/>
-        <v>3750</v>
+        <v>2500</v>
       </c>
       <c r="G12" s="11">
         <v>1</v>
@@ -3525,9 +3525,9 @@
       <c r="E13" s="14">
         <v>2500</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F13" s="11">
         <f t="shared" si="0"/>
-        <v>3750</v>
+        <v>2500</v>
       </c>
       <c r="G13" s="14">
         <v>1</v>
@@ -3655,7 +3655,7 @@
       </c>
       <c r="F14" s="11">
         <f t="shared" si="0"/>
-        <v>3750</v>
+        <v>2500</v>
       </c>
       <c r="G14" s="11">
         <v>1</v>
@@ -3783,9 +3783,9 @@
       <c r="E15" s="14">
         <v>2500</v>
       </c>
-      <c r="F15" s="14">
+      <c r="F15" s="11">
         <f t="shared" si="0"/>
-        <v>3750</v>
+        <v>2500</v>
       </c>
       <c r="G15" s="14">
         <v>1</v>
@@ -3917,7 +3917,7 @@
       </c>
       <c r="F16" s="11">
         <f t="shared" si="0"/>
-        <v>3750</v>
+        <v>2500</v>
       </c>
       <c r="G16" s="11">
         <v>1</v>
@@ -4047,9 +4047,9 @@
       <c r="E17" s="14">
         <v>2500</v>
       </c>
-      <c r="F17" s="14">
+      <c r="F17" s="11">
         <f t="shared" si="0"/>
-        <v>3750</v>
+        <v>2500</v>
       </c>
       <c r="G17" s="14">
         <v>1</v>
@@ -4181,7 +4181,7 @@
       </c>
       <c r="F18" s="11">
         <f t="shared" si="0"/>
-        <v>3750</v>
+        <v>2500</v>
       </c>
       <c r="G18" s="11">
         <v>1</v>
@@ -4309,9 +4309,9 @@
       <c r="E19" s="14">
         <v>2500</v>
       </c>
-      <c r="F19" s="14">
+      <c r="F19" s="11">
         <f t="shared" si="0"/>
-        <v>3750</v>
+        <v>2500</v>
       </c>
       <c r="G19" s="14">
         <v>1</v>
@@ -4441,7 +4441,7 @@
       </c>
       <c r="F20" s="11">
         <f t="shared" si="0"/>
-        <v>3750</v>
+        <v>2500</v>
       </c>
       <c r="G20" s="11">
         <v>1</v>
@@ -4571,9 +4571,9 @@
       <c r="E21" s="14">
         <v>2500</v>
       </c>
-      <c r="F21" s="14">
+      <c r="F21" s="11">
         <f t="shared" si="0"/>
-        <v>3750</v>
+        <v>2500</v>
       </c>
       <c r="G21" s="14">
         <v>1</v>
@@ -4703,7 +4703,7 @@
       </c>
       <c r="F22" s="11">
         <f t="shared" si="0"/>
-        <v>3750</v>
+        <v>2500</v>
       </c>
       <c r="G22" s="11">
         <v>1</v>
@@ -4827,9 +4827,9 @@
       <c r="E23" s="14">
         <v>5000</v>
       </c>
-      <c r="F23" s="14">
+      <c r="F23" s="11">
         <f t="shared" si="0"/>
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="G23" s="14">
         <v>1</v>
@@ -4963,9 +4963,9 @@
       <c r="E24" s="14">
         <v>5000</v>
       </c>
-      <c r="F24" s="14">
+      <c r="F24" s="11">
         <f t="shared" si="0"/>
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="G24" s="14">
         <v>1</v>
@@ -5099,9 +5099,9 @@
       <c r="E25" s="14">
         <v>5000</v>
       </c>
-      <c r="F25" s="14">
+      <c r="F25" s="11">
         <f t="shared" si="0"/>
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="G25" s="14">
         <v>1</v>
@@ -5233,9 +5233,9 @@
       <c r="E26" s="14">
         <v>5000</v>
       </c>
-      <c r="F26" s="14">
+      <c r="F26" s="11">
         <f t="shared" si="0"/>
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="G26" s="14">
         <v>1</v>
@@ -5363,9 +5363,9 @@
       <c r="E27" s="14">
         <v>5000</v>
       </c>
-      <c r="F27" s="14">
+      <c r="F27" s="11">
         <f t="shared" si="0"/>
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="G27" s="14">
         <v>1</v>

--- a/excels/units/monster/boss.xlsx
+++ b/excels/units/monster/boss.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12345"/>
   </bookViews>
   <sheets>
     <sheet name="boss" sheetId="1" r:id="rId1"/>
@@ -1873,7 +1873,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="H26" sqref="H26"/>
+      <selection pane="topRight" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2226,7 +2226,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="11">
-        <v>125</v>
+        <v>25</v>
       </c>
       <c r="I3" s="11" t="s">
         <v>74</v>
@@ -2357,7 +2357,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="11">
-        <v>125</v>
+        <v>25</v>
       </c>
       <c r="I4" s="11" t="s">
         <v>74</v>
@@ -2488,8 +2488,8 @@
       <c r="G5" s="14">
         <v>1</v>
       </c>
-      <c r="H5" s="14">
-        <v>125</v>
+      <c r="H5" s="11">
+        <v>25</v>
       </c>
       <c r="I5" s="14" t="s">
         <v>74</v>
@@ -2619,7 +2619,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="11">
-        <v>125</v>
+        <v>25</v>
       </c>
       <c r="I6" s="11" t="s">
         <v>74</v>
@@ -2750,8 +2750,8 @@
       <c r="G7" s="14">
         <v>1</v>
       </c>
-      <c r="H7" s="14">
-        <v>125</v>
+      <c r="H7" s="11">
+        <v>25</v>
       </c>
       <c r="I7" s="14" t="s">
         <v>74</v>
@@ -2883,7 +2883,7 @@
         <v>1</v>
       </c>
       <c r="H8" s="11">
-        <v>125</v>
+        <v>25</v>
       </c>
       <c r="I8" s="11" t="s">
         <v>74</v>
@@ -3008,8 +3008,8 @@
       <c r="G9" s="14">
         <v>1</v>
       </c>
-      <c r="H9" s="14">
-        <v>125</v>
+      <c r="H9" s="11">
+        <v>25</v>
       </c>
       <c r="I9" s="14" t="s">
         <v>74</v>
@@ -3143,7 +3143,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="11">
-        <v>125</v>
+        <v>25</v>
       </c>
       <c r="I10" s="11" t="s">
         <v>74</v>
@@ -3276,8 +3276,8 @@
       <c r="G11" s="14">
         <v>1</v>
       </c>
-      <c r="H11" s="14">
-        <v>125</v>
+      <c r="H11" s="11">
+        <v>25</v>
       </c>
       <c r="I11" s="14" t="s">
         <v>74</v>
@@ -3407,7 +3407,7 @@
         <v>1</v>
       </c>
       <c r="H12" s="11">
-        <v>125</v>
+        <v>25</v>
       </c>
       <c r="I12" s="11" t="s">
         <v>74</v>
@@ -3532,8 +3532,8 @@
       <c r="G13" s="14">
         <v>1</v>
       </c>
-      <c r="H13" s="14">
-        <v>125</v>
+      <c r="H13" s="11">
+        <v>25</v>
       </c>
       <c r="I13" s="14" t="s">
         <v>74</v>
@@ -3661,7 +3661,7 @@
         <v>1</v>
       </c>
       <c r="H14" s="11">
-        <v>125</v>
+        <v>25</v>
       </c>
       <c r="I14" s="11" t="s">
         <v>74</v>
@@ -3790,8 +3790,8 @@
       <c r="G15" s="14">
         <v>1</v>
       </c>
-      <c r="H15" s="14">
-        <v>125</v>
+      <c r="H15" s="11">
+        <v>25</v>
       </c>
       <c r="I15" s="14" t="s">
         <v>74</v>
@@ -3923,7 +3923,7 @@
         <v>1</v>
       </c>
       <c r="H16" s="11">
-        <v>125</v>
+        <v>25</v>
       </c>
       <c r="I16" s="11" t="s">
         <v>74</v>
@@ -4054,8 +4054,8 @@
       <c r="G17" s="14">
         <v>1</v>
       </c>
-      <c r="H17" s="14">
-        <v>125</v>
+      <c r="H17" s="11">
+        <v>25</v>
       </c>
       <c r="I17" s="14" t="s">
         <v>74</v>
@@ -4187,7 +4187,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="11">
-        <v>125</v>
+        <v>25</v>
       </c>
       <c r="I18" s="11" t="s">
         <v>74</v>
@@ -4316,8 +4316,8 @@
       <c r="G19" s="14">
         <v>1</v>
       </c>
-      <c r="H19" s="14">
-        <v>125</v>
+      <c r="H19" s="11">
+        <v>25</v>
       </c>
       <c r="I19" s="14" t="s">
         <v>74</v>
@@ -4447,7 +4447,7 @@
         <v>1</v>
       </c>
       <c r="H20" s="11">
-        <v>125</v>
+        <v>25</v>
       </c>
       <c r="I20" s="11" t="s">
         <v>74</v>
@@ -4578,8 +4578,8 @@
       <c r="G21" s="14">
         <v>1</v>
       </c>
-      <c r="H21" s="14">
-        <v>125</v>
+      <c r="H21" s="11">
+        <v>25</v>
       </c>
       <c r="I21" s="14" t="s">
         <v>74</v>
@@ -4709,7 +4709,7 @@
         <v>1</v>
       </c>
       <c r="H22" s="11">
-        <v>400</v>
+        <v>25</v>
       </c>
       <c r="I22" s="11" t="s">
         <v>74</v>
@@ -4834,8 +4834,8 @@
       <c r="G23" s="14">
         <v>1</v>
       </c>
-      <c r="H23" s="14">
-        <v>400</v>
+      <c r="H23" s="11">
+        <v>25</v>
       </c>
       <c r="I23" s="14" t="s">
         <v>74</v>
@@ -4970,8 +4970,8 @@
       <c r="G24" s="14">
         <v>1</v>
       </c>
-      <c r="H24" s="14">
-        <v>125</v>
+      <c r="H24" s="11">
+        <v>25</v>
       </c>
       <c r="I24" s="14" t="s">
         <v>74</v>
@@ -5106,8 +5106,8 @@
       <c r="G25" s="14">
         <v>1</v>
       </c>
-      <c r="H25" s="14">
-        <v>125</v>
+      <c r="H25" s="11">
+        <v>25</v>
       </c>
       <c r="I25" s="14" t="s">
         <v>74</v>
@@ -5240,8 +5240,8 @@
       <c r="G26" s="14">
         <v>1</v>
       </c>
-      <c r="H26" s="14">
-        <v>125</v>
+      <c r="H26" s="11">
+        <v>25</v>
       </c>
       <c r="I26" s="14" t="s">
         <v>74</v>
@@ -5370,8 +5370,8 @@
       <c r="G27" s="14">
         <v>1</v>
       </c>
-      <c r="H27" s="14">
-        <v>125</v>
+      <c r="H27" s="11">
+        <v>25</v>
       </c>
       <c r="I27" s="14" t="s">
         <v>74</v>

--- a/excels/units/monster/boss.xlsx
+++ b/excels/units/monster/boss.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12345"/>
+    <workbookView windowWidth="22185" windowHeight="10155"/>
   </bookViews>
   <sheets>
     <sheet name="boss" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="152">
   <si>
     <t>主键</t>
   </si>
@@ -275,124 +275,133 @@
     <t>npc_creature_boss_1</t>
   </si>
   <si>
-    <t>酒仙</t>
+    <t>祈风使</t>
   </si>
   <si>
     <t>npc_creature_boss_2</t>
   </si>
   <si>
+    <t>寒冰使</t>
+  </si>
+  <si>
+    <t>models/heroes/treant_protector/treant_protector.vmdl</t>
+  </si>
+  <si>
+    <t>npc_creature_boss_3</t>
+  </si>
+  <si>
+    <t>霹雳使</t>
+  </si>
+  <si>
+    <t>models/heroes/juggernaut/juggernaut.vmdl</t>
+  </si>
+  <si>
+    <t>npc_creature_boss_4</t>
+  </si>
+  <si>
+    <t>烈火使</t>
+  </si>
+  <si>
+    <t>models/heroes/elder_titan/elder_titan.vmdl</t>
+  </si>
+  <si>
+    <t>npc_creature_boss_5</t>
+  </si>
+  <si>
+    <t>元素之主</t>
+  </si>
+  <si>
+    <t>models/heroes/primal_beast/primal_beast_base.vmdl</t>
+  </si>
+  <si>
+    <t>npc_creature_boss_6</t>
+  </si>
+  <si>
+    <t>伐木机</t>
+  </si>
+  <si>
+    <t>models/heroes/shredder/shredder.vmdl</t>
+  </si>
+  <si>
+    <t>npc_creature_boss_7</t>
+  </si>
+  <si>
+    <t>帕吉</t>
+  </si>
+  <si>
+    <t>models/heroes/pudge/pudge.vmdl</t>
+  </si>
+  <si>
+    <t>npc_creature_boss_8</t>
+  </si>
+  <si>
+    <t>小小</t>
+  </si>
+  <si>
+    <t>models/heroes/tiny/tiny_04/tiny_04.vmdl</t>
+  </si>
+  <si>
+    <t>npc_creature_boss_9</t>
+  </si>
+  <si>
+    <t>寒冰飞龙</t>
+  </si>
+  <si>
+    <t>models/heroes/winterwyvern/winterwyvern.vmdl</t>
+  </si>
+  <si>
+    <t>npc_creature_boss_10</t>
+  </si>
+  <si>
+    <t>育母蜘蛛</t>
+  </si>
+  <si>
+    <t>models/heroes/broodmother/broodmother.vmdl</t>
+  </si>
+  <si>
+    <t>npc_creature_boss_11</t>
+  </si>
+  <si>
+    <t>马尔斯</t>
+  </si>
+  <si>
+    <t>models/heroes/mars/mars.vmdl</t>
+  </si>
+  <si>
+    <t>npc_creature_boss_12</t>
+  </si>
+  <si>
+    <t>主宰</t>
+  </si>
+  <si>
+    <t>npc_creature_boss_13</t>
+  </si>
+  <si>
+    <t>斯拉克</t>
+  </si>
+  <si>
+    <t>models/heroes/slark/slark.vmdl</t>
+  </si>
+  <si>
+    <t>npc_creature_boss_14</t>
+  </si>
+  <si>
+    <t>黑暗贤者</t>
+  </si>
+  <si>
+    <t>models/heroes/dark_seer/dark_seer.vmdl</t>
+  </si>
+  <si>
+    <t>npc_creature_boss_15</t>
+  </si>
+  <si>
     <t>树精卫士</t>
   </si>
   <si>
-    <t>models/heroes/treant_protector/treant_protector.vmdl</t>
-  </si>
-  <si>
-    <t>npc_creature_boss_3</t>
-  </si>
-  <si>
-    <t>主宰</t>
-  </si>
-  <si>
-    <t>models/heroes/juggernaut/juggernaut.vmdl</t>
-  </si>
-  <si>
-    <t>npc_creature_boss_4</t>
-  </si>
-  <si>
-    <t>上古巨神</t>
-  </si>
-  <si>
-    <t>models/heroes/elder_titan/elder_titan.vmdl</t>
-  </si>
-  <si>
-    <t>npc_creature_boss_5</t>
+    <t>npc_creature_boss_16</t>
   </si>
   <si>
     <t>獸</t>
-  </si>
-  <si>
-    <t>models/heroes/primal_beast/primal_beast_base.vmdl</t>
-  </si>
-  <si>
-    <t>npc_creature_boss_6</t>
-  </si>
-  <si>
-    <t>伐木机</t>
-  </si>
-  <si>
-    <t>models/heroes/shredder/shredder.vmdl</t>
-  </si>
-  <si>
-    <t>npc_creature_boss_7</t>
-  </si>
-  <si>
-    <t>帕吉</t>
-  </si>
-  <si>
-    <t>models/heroes/pudge/pudge.vmdl</t>
-  </si>
-  <si>
-    <t>npc_creature_boss_8</t>
-  </si>
-  <si>
-    <t>小小</t>
-  </si>
-  <si>
-    <t>models/heroes/tiny/tiny_04/tiny_04.vmdl</t>
-  </si>
-  <si>
-    <t>npc_creature_boss_9</t>
-  </si>
-  <si>
-    <t>寒冰飞龙</t>
-  </si>
-  <si>
-    <t>models/heroes/winterwyvern/winterwyvern.vmdl</t>
-  </si>
-  <si>
-    <t>npc_creature_boss_10</t>
-  </si>
-  <si>
-    <t>育母蜘蛛</t>
-  </si>
-  <si>
-    <t>models/heroes/broodmother/broodmother.vmdl</t>
-  </si>
-  <si>
-    <t>npc_creature_boss_11</t>
-  </si>
-  <si>
-    <t>马尔斯</t>
-  </si>
-  <si>
-    <t>models/heroes/mars/mars.vmdl</t>
-  </si>
-  <si>
-    <t>npc_creature_boss_12</t>
-  </si>
-  <si>
-    <t>npc_creature_boss_13</t>
-  </si>
-  <si>
-    <t>斯拉克</t>
-  </si>
-  <si>
-    <t>models/heroes/slark/slark.vmdl</t>
-  </si>
-  <si>
-    <t>npc_creature_boss_14</t>
-  </si>
-  <si>
-    <t>黑暗贤者</t>
-  </si>
-  <si>
-    <t>models/heroes/dark_seer/dark_seer.vmdl</t>
-  </si>
-  <si>
-    <t>npc_creature_boss_15</t>
-  </si>
-  <si>
-    <t>npc_creature_boss_16</t>
   </si>
   <si>
     <t>npc_creature_boss_17</t>
@@ -1873,7 +1882,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="F11" sqref="F11"/>
+      <selection pane="topRight" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2472,18 +2481,17 @@
         <v>84</v>
       </c>
       <c r="C5" s="12">
-        <f>10000</f>
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="D5" s="14">
         <v>0</v>
       </c>
-      <c r="E5" s="14">
-        <v>2500</v>
+      <c r="E5" s="11">
+        <v>50</v>
       </c>
       <c r="F5" s="11">
         <f t="shared" ref="F5:F27" si="0">E5*1</f>
-        <v>2500</v>
+        <v>50</v>
       </c>
       <c r="G5" s="14">
         <v>1</v>
@@ -2602,18 +2610,17 @@
         <v>87</v>
       </c>
       <c r="C6" s="12">
-        <f t="shared" ref="C5:C14" si="2">10000</f>
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="D6" s="11">
         <v>0</v>
       </c>
       <c r="E6" s="11">
-        <v>2500</v>
+        <v>50</v>
       </c>
       <c r="F6" s="11">
         <f t="shared" si="0"/>
-        <v>2500</v>
+        <v>50</v>
       </c>
       <c r="G6" s="11">
         <v>1</v>
@@ -2734,18 +2741,17 @@
         <v>90</v>
       </c>
       <c r="C7" s="12">
-        <f t="shared" si="2"/>
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="D7" s="14">
         <v>0</v>
       </c>
-      <c r="E7" s="14">
-        <v>2500</v>
+      <c r="E7" s="11">
+        <v>50</v>
       </c>
       <c r="F7" s="11">
         <f t="shared" si="0"/>
-        <v>2500</v>
+        <v>50</v>
       </c>
       <c r="G7" s="14">
         <v>1</v>
@@ -2866,18 +2872,17 @@
         <v>93</v>
       </c>
       <c r="C8" s="12">
-        <f t="shared" si="2"/>
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="D8" s="11">
         <v>0</v>
       </c>
       <c r="E8" s="11">
-        <v>2500</v>
+        <v>50</v>
       </c>
       <c r="F8" s="11">
         <f t="shared" si="0"/>
-        <v>2500</v>
+        <v>50</v>
       </c>
       <c r="G8" s="11">
         <v>1</v>
@@ -2992,7 +2997,7 @@
         <v>96</v>
       </c>
       <c r="C9" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="C5:C14" si="2">10000</f>
         <v>10000</v>
       </c>
       <c r="D9" s="14">
@@ -3771,7 +3776,7 @@
         <v>113</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>87</v>
+        <v>114</v>
       </c>
       <c r="C15" s="12">
         <f t="shared" ref="C15:C27" si="3">10000</f>
@@ -3900,10 +3905,10 @@
     </row>
     <row r="16" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:55">
       <c r="A16" s="10" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C16" s="12">
         <f t="shared" si="3"/>
@@ -3929,7 +3934,7 @@
         <v>74</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K16" s="11"/>
       <c r="L16" s="11"/>
@@ -4032,10 +4037,10 @@
     </row>
     <row r="17" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:55">
       <c r="A17" s="13" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C17" s="12">
         <f t="shared" si="3"/>
@@ -4061,7 +4066,7 @@
         <v>74</v>
       </c>
       <c r="J17" s="14" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K17" s="14"/>
       <c r="L17" s="14"/>
@@ -4164,10 +4169,10 @@
     </row>
     <row r="18" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:55">
       <c r="A18" s="10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>84</v>
+        <v>122</v>
       </c>
       <c r="C18" s="12">
         <f t="shared" si="3"/>
@@ -4294,10 +4299,10 @@
     </row>
     <row r="19" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:55">
       <c r="A19" s="13" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>93</v>
+        <v>124</v>
       </c>
       <c r="C19" s="12">
         <f t="shared" si="3"/>
@@ -4424,10 +4429,10 @@
     </row>
     <row r="20" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:55">
       <c r="A20" s="10" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C20" s="12">
         <f t="shared" si="3"/>
@@ -4453,7 +4458,7 @@
         <v>74</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="K20" s="11"/>
       <c r="L20" s="11"/>
@@ -4556,10 +4561,10 @@
     </row>
     <row r="21" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:55">
       <c r="A21" s="13" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C21" s="12">
         <f t="shared" si="3"/>
@@ -4585,7 +4590,7 @@
         <v>74</v>
       </c>
       <c r="J21" s="14" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="K21" s="14"/>
       <c r="L21" s="14"/>
@@ -4686,10 +4691,10 @@
     </row>
     <row r="22" s="3" customFormat="1" ht="39" customHeight="1" spans="1:55">
       <c r="A22" s="10" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C22" s="12">
         <f t="shared" si="3"/>
@@ -4715,7 +4720,7 @@
         <v>74</v>
       </c>
       <c r="J22" s="11" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="K22" s="11"/>
       <c r="L22" s="11"/>
@@ -4756,10 +4761,10 @@
         <v>77</v>
       </c>
       <c r="AJ22" s="11" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="AK22" s="30" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="AL22" s="11">
         <v>800</v>
@@ -4812,10 +4817,10 @@
     </row>
     <row r="23" s="3" customFormat="1" ht="39" customHeight="1" spans="1:55">
       <c r="A23" s="13" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C23" s="12">
         <f t="shared" si="3"/>
@@ -4841,7 +4846,7 @@
         <v>74</v>
       </c>
       <c r="J23" s="14" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="K23" s="14"/>
       <c r="L23" s="14"/>
@@ -4892,10 +4897,10 @@
         <v>77</v>
       </c>
       <c r="AJ23" s="14" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="AK23" s="32" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="AL23" s="14">
         <v>600</v>
@@ -4948,10 +4953,10 @@
     </row>
     <row r="24" s="3" customFormat="1" ht="39" customHeight="1" spans="1:55">
       <c r="A24" s="13" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C24" s="12">
         <f t="shared" si="3"/>
@@ -4977,7 +4982,7 @@
         <v>74</v>
       </c>
       <c r="J24" s="14" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="K24" s="14"/>
       <c r="L24" s="14"/>
@@ -5084,10 +5089,10 @@
     </row>
     <row r="25" s="3" customFormat="1" ht="39" customHeight="1" spans="1:55">
       <c r="A25" s="13" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C25" s="12">
         <f t="shared" si="3"/>
@@ -5113,7 +5118,7 @@
         <v>74</v>
       </c>
       <c r="J25" s="14" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="K25" s="14"/>
       <c r="L25" s="14"/>
@@ -5218,10 +5223,10 @@
     </row>
     <row r="26" s="3" customFormat="1" ht="39" customHeight="1" spans="1:55">
       <c r="A26" s="13" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C26" s="12">
         <f t="shared" si="3"/>
@@ -5247,7 +5252,7 @@
         <v>74</v>
       </c>
       <c r="J26" s="14" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="K26" s="14"/>
       <c r="L26" s="14"/>
@@ -5348,10 +5353,10 @@
     </row>
     <row r="27" s="3" customFormat="1" ht="39" customHeight="1" spans="1:55">
       <c r="A27" s="13" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C27" s="12">
         <f t="shared" si="3"/>
@@ -5377,7 +5382,7 @@
         <v>74</v>
       </c>
       <c r="J27" s="14" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="K27" s="14"/>
       <c r="L27" s="14"/>

--- a/excels/units/monster/boss.xlsx
+++ b/excels/units/monster/boss.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22185" windowHeight="10155"/>
+    <workbookView windowWidth="27945" windowHeight="12345"/>
   </bookViews>
   <sheets>
     <sheet name="boss" sheetId="1" r:id="rId1"/>
@@ -497,7 +497,7 @@
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -540,13 +540,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Microsoft YaHei"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1252,148 +1245,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1510,7 +1503,7 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1880,9 +1873,9 @@
   <dimension ref="A1:BC27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" topLeftCell="AS1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="E7" sqref="E7"/>
+      <selection pane="topRight" activeCell="AZ2" sqref="AZ2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1931,7 +1924,7 @@
     <col min="52" max="52" width="8.00833333333333" customWidth="1"/>
     <col min="53" max="53" width="12.0083333333333" customWidth="1"/>
     <col min="54" max="54" width="3.625" customWidth="1"/>
-    <col min="55" max="55" width="6.24166666666667" customWidth="1"/>
+    <col min="55" max="55" width="20.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="39" customHeight="1" spans="1:55">

--- a/excels/units/monster/boss.xlsx
+++ b/excels/units/monster/boss.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12345"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="boss" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="173">
   <si>
     <t>主键</t>
   </si>
@@ -179,6 +179,12 @@
     <t>Ability8</t>
   </si>
   <si>
+    <t>Ability9</t>
+  </si>
+  <si>
+    <t>Ability10</t>
+  </si>
+  <si>
     <t>MovementSpeed</t>
   </si>
   <si>
@@ -278,6 +284,21 @@
     <t>祈风使</t>
   </si>
   <si>
+    <t>creature_boss_4</t>
+  </si>
+  <si>
+    <t>creature_boss_17</t>
+  </si>
+  <si>
+    <t>creature_boss_7</t>
+  </si>
+  <si>
+    <t>creature_boss_8</t>
+  </si>
+  <si>
+    <t>creature_boss_19</t>
+  </si>
+  <si>
     <t>npc_creature_boss_2</t>
   </si>
   <si>
@@ -287,6 +308,12 @@
     <t>models/heroes/treant_protector/treant_protector.vmdl</t>
   </si>
   <si>
+    <t>creature_boss_21</t>
+  </si>
+  <si>
+    <t>creature_boss_6</t>
+  </si>
+  <si>
     <t>npc_creature_boss_3</t>
   </si>
   <si>
@@ -296,6 +323,12 @@
     <t>models/heroes/juggernaut/juggernaut.vmdl</t>
   </si>
   <si>
+    <t>creature_boss_3</t>
+  </si>
+  <si>
+    <t>creature_boss_16</t>
+  </si>
+  <si>
     <t>npc_creature_boss_4</t>
   </si>
   <si>
@@ -305,6 +338,12 @@
     <t>models/heroes/elder_titan/elder_titan.vmdl</t>
   </si>
   <si>
+    <t>creature_boss_1</t>
+  </si>
+  <si>
+    <t>creature_boss_2</t>
+  </si>
+  <si>
     <t>npc_creature_boss_5</t>
   </si>
   <si>
@@ -312,6 +351,30 @@
   </si>
   <si>
     <t>models/heroes/primal_beast/primal_beast_base.vmdl</t>
+  </si>
+  <si>
+    <t>creature_boss_9</t>
+  </si>
+  <si>
+    <t>creature_boss_10</t>
+  </si>
+  <si>
+    <t>creature_boss_15</t>
+  </si>
+  <si>
+    <t>creature_boss_22</t>
+  </si>
+  <si>
+    <t>creature_boss_23</t>
+  </si>
+  <si>
+    <t>creature_boss_24</t>
+  </si>
+  <si>
+    <t>creature_boss_25</t>
+  </si>
+  <si>
+    <t>creature_boss_20</t>
   </si>
   <si>
     <t>npc_creature_boss_6</t>
@@ -1491,28 +1554,28 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1870,12 +1933,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:BC27"/>
+  <dimension ref="A1:BE27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="AS1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" topLeftCell="Y1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="AZ2" sqref="AZ2"/>
+      <selection pane="topRight" activeCell="AC10" sqref="AC10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1902,32 +1965,32 @@
     <col min="30" max="30" width="16.5083333333333" customWidth="1"/>
     <col min="31" max="31" width="23.3416666666667" customWidth="1"/>
     <col min="32" max="32" width="21.75" customWidth="1"/>
-    <col min="33" max="33" width="21.8416666666667" customWidth="1"/>
-    <col min="34" max="34" width="24.3416666666667" customWidth="1"/>
-    <col min="35" max="35" width="32.5083333333333" customWidth="1"/>
-    <col min="36" max="36" width="33.5083333333333" customWidth="1"/>
-    <col min="37" max="37" width="50.625" customWidth="1"/>
-    <col min="38" max="38" width="18.5083333333333" customWidth="1"/>
-    <col min="39" max="39" width="16.175" customWidth="1"/>
-    <col min="40" max="40" width="14.625" customWidth="1"/>
-    <col min="41" max="41" width="17.675" customWidth="1"/>
-    <col min="42" max="42" width="27.0083333333333" customWidth="1"/>
-    <col min="43" max="43" width="13.3416666666667" customWidth="1"/>
-    <col min="44" max="44" width="14.0083333333333" customWidth="1"/>
-    <col min="45" max="45" width="12.3416666666667" customWidth="1"/>
-    <col min="46" max="46" width="14.625" customWidth="1"/>
-    <col min="47" max="47" width="15.8416666666667" customWidth="1"/>
-    <col min="48" max="48" width="25.0083333333333" customWidth="1"/>
-    <col min="49" max="49" width="14.625" customWidth="1"/>
-    <col min="50" max="50" width="21.625" customWidth="1"/>
-    <col min="51" max="51" width="9.00833333333333" customWidth="1"/>
-    <col min="52" max="52" width="8.00833333333333" customWidth="1"/>
-    <col min="53" max="53" width="12.0083333333333" customWidth="1"/>
-    <col min="54" max="54" width="3.625" customWidth="1"/>
-    <col min="55" max="55" width="20.75" customWidth="1"/>
+    <col min="33" max="35" width="21.8416666666667" customWidth="1"/>
+    <col min="36" max="36" width="24.3416666666667" customWidth="1"/>
+    <col min="37" max="37" width="32.5083333333333" customWidth="1"/>
+    <col min="38" max="38" width="33.5083333333333" customWidth="1"/>
+    <col min="39" max="39" width="50.625" customWidth="1"/>
+    <col min="40" max="40" width="18.5083333333333" customWidth="1"/>
+    <col min="41" max="41" width="16.175" customWidth="1"/>
+    <col min="42" max="42" width="14.625" customWidth="1"/>
+    <col min="43" max="43" width="17.675" customWidth="1"/>
+    <col min="44" max="44" width="27.0083333333333" customWidth="1"/>
+    <col min="45" max="45" width="13.3416666666667" customWidth="1"/>
+    <col min="46" max="46" width="14.0083333333333" customWidth="1"/>
+    <col min="47" max="47" width="12.3416666666667" customWidth="1"/>
+    <col min="48" max="48" width="14.625" customWidth="1"/>
+    <col min="49" max="49" width="15.8416666666667" customWidth="1"/>
+    <col min="50" max="50" width="25.0083333333333" customWidth="1"/>
+    <col min="51" max="51" width="14.625" customWidth="1"/>
+    <col min="52" max="52" width="21.625" customWidth="1"/>
+    <col min="53" max="53" width="9.00833333333333" customWidth="1"/>
+    <col min="54" max="54" width="8.00833333333333" customWidth="1"/>
+    <col min="55" max="55" width="12.0083333333333" customWidth="1"/>
+    <col min="56" max="56" width="3.625" customWidth="1"/>
+    <col min="57" max="57" width="20.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="39" customHeight="1" spans="1:55">
+    <row r="1" s="1" customFormat="1" ht="39" customHeight="1" spans="1:57">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1984,61 +2047,63 @@
       <c r="AD1" s="5"/>
       <c r="AE1" s="5"/>
       <c r="AF1" s="5"/>
-      <c r="AG1" s="5" t="s">
+      <c r="AG1" s="5"/>
+      <c r="AH1" s="5"/>
+      <c r="AI1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="AH1" s="27" t="s">
+      <c r="AJ1" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="AI1" s="5" t="s">
+      <c r="AK1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="AJ1" s="5" t="s">
+      <c r="AL1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="AK1" s="5"/>
-      <c r="AL1" s="5"/>
-      <c r="AM1" s="5" t="s">
+      <c r="AM1" s="5"/>
+      <c r="AN1" s="5"/>
+      <c r="AO1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="AN1" s="5" t="s">
+      <c r="AP1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AO1" s="5" t="s">
+      <c r="AQ1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="AP1" s="5" t="s">
+      <c r="AR1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="AQ1" s="5" t="s">
+      <c r="AS1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="AR1" s="5" t="s">
+      <c r="AT1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="AS1" s="5" t="s">
+      <c r="AU1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="AT1" s="5" t="s">
+      <c r="AV1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="AU1" s="5" t="s">
+      <c r="AW1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="AV1" s="5" t="s">
+      <c r="AX1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="AW1" s="5" t="s">
+      <c r="AY1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="AX1" s="5"/>
-      <c r="AY1" s="5"/>
       <c r="AZ1" s="5"/>
-      <c r="BA1" s="15"/>
-      <c r="BB1" s="34"/>
-      <c r="BC1" s="35"/>
+      <c r="BA1" s="5"/>
+      <c r="BB1" s="5"/>
+      <c r="BC1" s="15"/>
+      <c r="BD1" s="33"/>
+      <c r="BE1" s="38"/>
     </row>
-    <row r="2" s="2" customFormat="1" ht="118.5" customHeight="1" spans="1:55">
+    <row r="2" s="2" customFormat="1" ht="118.5" customHeight="1" spans="1:57">
       <c r="A2" s="7" t="s">
         <v>27</v>
       </c>
@@ -2138,13 +2203,13 @@
       <c r="AG2" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="AH2" s="28" t="s">
+      <c r="AH2" s="8" t="s">
         <v>51</v>
       </c>
       <c r="AI2" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="AJ2" s="8" t="s">
+      <c r="AJ2" s="28" t="s">
         <v>53</v>
       </c>
       <c r="AK2" s="8" t="s">
@@ -2195,22 +2260,28 @@
       <c r="AZ2" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="BA2" s="20" t="s">
+      <c r="BA2" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="BB2" s="36" t="s">
+      <c r="BB2" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="BC2" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="BD2" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="BC2" s="37" t="s">
-        <v>71</v>
+      <c r="BE2" s="39" t="s">
+        <v>73</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:55">
+    <row r="3" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:57">
       <c r="A3" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C3" s="12">
         <v>100000</v>
@@ -2231,10 +2302,10 @@
         <v>25</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K3" s="11"/>
       <c r="L3" s="11"/>
@@ -2266,7 +2337,7 @@
         <v>238</v>
       </c>
       <c r="Y3" s="11" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Z3" s="11"/>
       <c r="AA3" s="11"/>
@@ -2275,72 +2346,74 @@
       <c r="AD3" s="25"/>
       <c r="AE3" s="11"/>
       <c r="AF3" s="11"/>
-      <c r="AG3" s="11">
+      <c r="AG3" s="11"/>
+      <c r="AH3" s="11"/>
+      <c r="AI3" s="11">
         <v>225</v>
       </c>
-      <c r="AH3" s="29">
+      <c r="AJ3" s="29">
         <v>180</v>
       </c>
-      <c r="AI3" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="AJ3" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="AK3" s="30"/>
-      <c r="AL3" s="11"/>
-      <c r="AM3" s="11" t="s">
+      <c r="AK3" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="AN3" s="11">
-        <v>1</v>
-      </c>
-      <c r="AO3" s="11">
-        <v>1</v>
-      </c>
-      <c r="AP3" s="11" t="s">
+      <c r="AL3" s="11" t="s">
         <v>80</v>
       </c>
+      <c r="AM3" s="30"/>
+      <c r="AN3" s="11"/>
+      <c r="AO3" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="AP3" s="11">
+        <v>1</v>
+      </c>
       <c r="AQ3" s="11">
-        <v>0</v>
-      </c>
-      <c r="AR3" s="11">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AR3" s="11" t="s">
+        <v>82</v>
       </c>
       <c r="AS3" s="11">
         <v>0</v>
       </c>
       <c r="AT3" s="11">
+        <v>0</v>
+      </c>
+      <c r="AU3" s="11">
+        <v>0</v>
+      </c>
+      <c r="AV3" s="11">
         <v>20000</v>
       </c>
-      <c r="AU3" s="12"/>
-      <c r="AV3" s="11">
+      <c r="AW3" s="12"/>
+      <c r="AX3" s="11">
         <v>8192</v>
       </c>
-      <c r="AW3" s="11">
+      <c r="AY3" s="11">
         <v>8192</v>
       </c>
-      <c r="AX3" s="11"/>
-      <c r="AY3" s="11">
-        <v>0</v>
-      </c>
-      <c r="AZ3" s="11">
+      <c r="AZ3" s="11"/>
+      <c r="BA3" s="11">
+        <v>0</v>
+      </c>
+      <c r="BB3" s="11">
         <v>345</v>
       </c>
-      <c r="BA3" s="11">
+      <c r="BC3" s="11">
         <v>373</v>
       </c>
-      <c r="BB3" s="38"/>
-      <c r="BC3" s="39">
+      <c r="BD3" s="35"/>
+      <c r="BE3" s="40">
         <v>0</v>
       </c>
     </row>
-    <row r="4" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:55">
+    <row r="4" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:57">
       <c r="A4" s="10" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C4" s="12">
         <v>2000</v>
@@ -2362,10 +2435,10 @@
         <v>25</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K4" s="11"/>
       <c r="L4" s="11"/>
@@ -2397,81 +2470,93 @@
         <v>238</v>
       </c>
       <c r="Y4" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="Z4" s="11"/>
-      <c r="AA4" s="11"/>
-      <c r="AB4" s="11"/>
-      <c r="AC4" s="11"/>
-      <c r="AD4" s="25"/>
+        <v>78</v>
+      </c>
+      <c r="Z4" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA4" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB4" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC4" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD4" s="25" t="s">
+        <v>89</v>
+      </c>
       <c r="AE4" s="11"/>
       <c r="AF4" s="11"/>
-      <c r="AG4" s="11">
+      <c r="AG4" s="11"/>
+      <c r="AH4" s="11"/>
+      <c r="AI4" s="11">
         <v>225</v>
       </c>
-      <c r="AH4" s="29">
+      <c r="AJ4" s="29">
         <v>180</v>
       </c>
-      <c r="AI4" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="AJ4" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="AK4" s="30"/>
-      <c r="AL4" s="11"/>
-      <c r="AM4" s="11" t="s">
+      <c r="AK4" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="AN4" s="11">
-        <v>1</v>
-      </c>
-      <c r="AO4" s="11">
-        <v>1</v>
-      </c>
-      <c r="AP4" s="11" t="s">
+      <c r="AL4" s="11" t="s">
         <v>80</v>
       </c>
+      <c r="AM4" s="30"/>
+      <c r="AN4" s="11"/>
+      <c r="AO4" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="AP4" s="11">
+        <v>1</v>
+      </c>
       <c r="AQ4" s="11">
-        <v>0</v>
-      </c>
-      <c r="AR4" s="11">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AR4" s="11" t="s">
+        <v>82</v>
       </c>
       <c r="AS4" s="11">
         <v>0</v>
       </c>
       <c r="AT4" s="11">
+        <v>0</v>
+      </c>
+      <c r="AU4" s="11">
+        <v>0</v>
+      </c>
+      <c r="AV4" s="11">
         <v>20000</v>
       </c>
-      <c r="AU4" s="12"/>
-      <c r="AV4" s="11">
+      <c r="AW4" s="12"/>
+      <c r="AX4" s="11">
         <v>8192</v>
       </c>
-      <c r="AW4" s="11">
+      <c r="AY4" s="11">
         <v>8192</v>
       </c>
-      <c r="AX4" s="11"/>
-      <c r="AY4" s="11">
-        <v>0</v>
-      </c>
-      <c r="AZ4" s="11">
+      <c r="AZ4" s="11"/>
+      <c r="BA4" s="11">
+        <v>0</v>
+      </c>
+      <c r="BB4" s="11">
         <v>345</v>
       </c>
-      <c r="BA4" s="11">
+      <c r="BC4" s="11">
         <v>373</v>
       </c>
-      <c r="BB4" s="38"/>
-      <c r="BC4" s="39">
+      <c r="BD4" s="35"/>
+      <c r="BE4" s="40">
         <v>0</v>
       </c>
     </row>
-    <row r="5" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:55">
+    <row r="5" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:57">
       <c r="A5" s="13" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="C5" s="12">
         <v>2000</v>
@@ -2493,10 +2578,10 @@
         <v>25</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J5" s="14" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="K5" s="14"/>
       <c r="L5" s="14"/>
@@ -2526,81 +2611,93 @@
         <v>220</v>
       </c>
       <c r="Y5" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="Z5" s="14"/>
-      <c r="AA5" s="14"/>
-      <c r="AB5" s="14"/>
-      <c r="AC5" s="14"/>
-      <c r="AD5" s="26"/>
+        <v>78</v>
+      </c>
+      <c r="Z5" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA5" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB5" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC5" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="AD5" s="26" t="s">
+        <v>94</v>
+      </c>
       <c r="AE5" s="14"/>
       <c r="AF5" s="14"/>
-      <c r="AG5" s="14">
+      <c r="AG5" s="14"/>
+      <c r="AH5" s="14"/>
+      <c r="AI5" s="14">
         <v>225</v>
       </c>
-      <c r="AH5" s="31">
+      <c r="AJ5" s="31">
         <v>180</v>
       </c>
-      <c r="AI5" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="AJ5" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="AK5" s="32"/>
-      <c r="AL5" s="14"/>
-      <c r="AM5" s="14" t="s">
+      <c r="AK5" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="AN5" s="14">
-        <v>1</v>
-      </c>
-      <c r="AO5" s="14">
-        <v>1</v>
-      </c>
-      <c r="AP5" s="14" t="s">
+      <c r="AL5" s="14" t="s">
         <v>80</v>
       </c>
+      <c r="AM5" s="32"/>
+      <c r="AN5" s="14"/>
+      <c r="AO5" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="AP5" s="14">
+        <v>1</v>
+      </c>
       <c r="AQ5" s="14">
-        <v>0</v>
-      </c>
-      <c r="AR5" s="14">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AR5" s="14" t="s">
+        <v>82</v>
       </c>
       <c r="AS5" s="14">
         <v>0</v>
       </c>
       <c r="AT5" s="14">
+        <v>0</v>
+      </c>
+      <c r="AU5" s="14">
+        <v>0</v>
+      </c>
+      <c r="AV5" s="14">
         <v>20000</v>
       </c>
-      <c r="AU5" s="33"/>
-      <c r="AV5" s="14">
+      <c r="AW5" s="36"/>
+      <c r="AX5" s="14">
         <v>8192</v>
       </c>
-      <c r="AW5" s="14">
+      <c r="AY5" s="14">
         <v>8192</v>
       </c>
-      <c r="AX5" s="14"/>
-      <c r="AY5" s="14">
-        <v>0</v>
-      </c>
-      <c r="AZ5" s="14">
+      <c r="AZ5" s="14"/>
+      <c r="BA5" s="14">
+        <v>0</v>
+      </c>
+      <c r="BB5" s="14">
         <v>345</v>
       </c>
-      <c r="BA5" s="14">
+      <c r="BC5" s="14">
         <v>373</v>
       </c>
-      <c r="BB5" s="40"/>
-      <c r="BC5" s="41">
+      <c r="BD5" s="37"/>
+      <c r="BE5" s="41">
         <v>0</v>
       </c>
     </row>
-    <row r="6" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:55">
+    <row r="6" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:57">
       <c r="A6" s="10" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="C6" s="12">
         <v>2000</v>
@@ -2622,10 +2719,10 @@
         <v>25</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="K6" s="11"/>
       <c r="L6" s="11"/>
@@ -2657,81 +2754,93 @@
         <v>256</v>
       </c>
       <c r="Y6" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="Z6" s="11"/>
-      <c r="AA6" s="11"/>
-      <c r="AB6" s="11"/>
-      <c r="AC6" s="11"/>
-      <c r="AD6" s="25"/>
+        <v>78</v>
+      </c>
+      <c r="Z6" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA6" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB6" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC6" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD6" s="25" t="s">
+        <v>99</v>
+      </c>
       <c r="AE6" s="11"/>
       <c r="AF6" s="11"/>
-      <c r="AG6" s="11">
+      <c r="AG6" s="11"/>
+      <c r="AH6" s="11"/>
+      <c r="AI6" s="11">
         <v>225</v>
       </c>
-      <c r="AH6" s="29">
+      <c r="AJ6" s="29">
         <v>180</v>
       </c>
-      <c r="AI6" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="AJ6" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="AK6" s="30"/>
-      <c r="AL6" s="11"/>
-      <c r="AM6" s="11" t="s">
+      <c r="AK6" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="AN6" s="11">
-        <v>1</v>
-      </c>
-      <c r="AO6" s="11">
-        <v>1</v>
-      </c>
-      <c r="AP6" s="11" t="s">
+      <c r="AL6" s="11" t="s">
         <v>80</v>
       </c>
+      <c r="AM6" s="30"/>
+      <c r="AN6" s="11"/>
+      <c r="AO6" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="AP6" s="11">
+        <v>1</v>
+      </c>
       <c r="AQ6" s="11">
-        <v>0</v>
-      </c>
-      <c r="AR6" s="11">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AR6" s="11" t="s">
+        <v>82</v>
       </c>
       <c r="AS6" s="11">
         <v>0</v>
       </c>
       <c r="AT6" s="11">
+        <v>0</v>
+      </c>
+      <c r="AU6" s="11">
+        <v>0</v>
+      </c>
+      <c r="AV6" s="11">
         <v>20000</v>
       </c>
-      <c r="AU6" s="12"/>
-      <c r="AV6" s="11">
+      <c r="AW6" s="12"/>
+      <c r="AX6" s="11">
         <v>8192</v>
       </c>
-      <c r="AW6" s="11">
+      <c r="AY6" s="11">
         <v>8192</v>
       </c>
-      <c r="AX6" s="11"/>
-      <c r="AY6" s="11">
-        <v>0</v>
-      </c>
-      <c r="AZ6" s="11">
+      <c r="AZ6" s="11"/>
+      <c r="BA6" s="11">
+        <v>0</v>
+      </c>
+      <c r="BB6" s="11">
         <v>345</v>
       </c>
-      <c r="BA6" s="11">
+      <c r="BC6" s="11">
         <v>373</v>
       </c>
-      <c r="BB6" s="38"/>
-      <c r="BC6" s="42">
+      <c r="BD6" s="35"/>
+      <c r="BE6" s="42">
         <v>1</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:55">
+    <row r="7" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:57">
       <c r="A7" s="13" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="C7" s="12">
         <v>2000</v>
@@ -2753,10 +2862,10 @@
         <v>25</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J7" s="14" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="K7" s="14"/>
       <c r="L7" s="14"/>
@@ -2788,81 +2897,93 @@
         <v>220</v>
       </c>
       <c r="Y7" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="Z7" s="14"/>
-      <c r="AA7" s="14"/>
-      <c r="AB7" s="14"/>
-      <c r="AC7" s="14"/>
-      <c r="AD7" s="26"/>
+        <v>78</v>
+      </c>
+      <c r="Z7" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA7" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB7" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC7" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD7" s="26" t="s">
+        <v>104</v>
+      </c>
       <c r="AE7" s="14"/>
       <c r="AF7" s="14"/>
-      <c r="AG7" s="14">
+      <c r="AG7" s="14"/>
+      <c r="AH7" s="14"/>
+      <c r="AI7" s="14">
         <v>225</v>
       </c>
-      <c r="AH7" s="31">
+      <c r="AJ7" s="31">
         <v>180</v>
       </c>
-      <c r="AI7" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="AJ7" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="AK7" s="32"/>
-      <c r="AL7" s="14"/>
-      <c r="AM7" s="14" t="s">
+      <c r="AK7" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="AN7" s="14">
-        <v>1</v>
-      </c>
-      <c r="AO7" s="14">
-        <v>1</v>
-      </c>
-      <c r="AP7" s="14" t="s">
+      <c r="AL7" s="14" t="s">
         <v>80</v>
       </c>
+      <c r="AM7" s="32"/>
+      <c r="AN7" s="14"/>
+      <c r="AO7" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="AP7" s="14">
+        <v>1</v>
+      </c>
       <c r="AQ7" s="14">
-        <v>0</v>
-      </c>
-      <c r="AR7" s="14">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AR7" s="14" t="s">
+        <v>82</v>
       </c>
       <c r="AS7" s="14">
         <v>0</v>
       </c>
       <c r="AT7" s="14">
+        <v>0</v>
+      </c>
+      <c r="AU7" s="14">
+        <v>0</v>
+      </c>
+      <c r="AV7" s="14">
         <v>20000</v>
       </c>
-      <c r="AU7" s="33"/>
-      <c r="AV7" s="14">
+      <c r="AW7" s="36"/>
+      <c r="AX7" s="14">
         <v>8192</v>
       </c>
-      <c r="AW7" s="14">
+      <c r="AY7" s="14">
         <v>8192</v>
       </c>
-      <c r="AX7" s="14"/>
-      <c r="AY7" s="14">
-        <v>0</v>
-      </c>
-      <c r="AZ7" s="14">
+      <c r="AZ7" s="14"/>
+      <c r="BA7" s="14">
+        <v>0</v>
+      </c>
+      <c r="BB7" s="14">
         <v>345</v>
       </c>
-      <c r="BA7" s="14">
+      <c r="BC7" s="14">
         <v>373</v>
       </c>
-      <c r="BB7" s="40"/>
-      <c r="BC7" s="41">
+      <c r="BD7" s="37"/>
+      <c r="BE7" s="41">
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:55">
+    <row r="8" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:57">
       <c r="A8" s="10" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="C8" s="12">
         <v>2000</v>
@@ -2884,10 +3005,10 @@
         <v>25</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="K8" s="11"/>
       <c r="L8" s="11"/>
@@ -2913,81 +3034,101 @@
         <v>232</v>
       </c>
       <c r="Y8" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="Z8" s="11"/>
-      <c r="AA8" s="11"/>
-      <c r="AB8" s="11"/>
-      <c r="AC8" s="11"/>
-      <c r="AD8" s="25"/>
-      <c r="AE8" s="11"/>
-      <c r="AF8" s="11"/>
-      <c r="AG8" s="11">
+        <v>78</v>
+      </c>
+      <c r="Z8" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA8" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB8" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="AC8" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="AD8" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE8" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF8" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG8" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="AH8" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="AI8" s="11">
         <v>225</v>
       </c>
-      <c r="AH8" s="29">
+      <c r="AJ8" s="29">
         <v>180</v>
       </c>
-      <c r="AI8" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="AJ8" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="AK8" s="30"/>
-      <c r="AL8" s="11"/>
-      <c r="AM8" s="11" t="s">
+      <c r="AK8" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="AN8" s="11">
-        <v>1</v>
-      </c>
-      <c r="AO8" s="11">
-        <v>1</v>
-      </c>
-      <c r="AP8" s="11" t="s">
+      <c r="AL8" s="11" t="s">
         <v>80</v>
       </c>
+      <c r="AM8" s="30"/>
+      <c r="AN8" s="11"/>
+      <c r="AO8" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="AP8" s="11">
+        <v>1</v>
+      </c>
       <c r="AQ8" s="11">
-        <v>0</v>
-      </c>
-      <c r="AR8" s="11">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AR8" s="11" t="s">
+        <v>82</v>
       </c>
       <c r="AS8" s="11">
         <v>0</v>
       </c>
       <c r="AT8" s="11">
+        <v>0</v>
+      </c>
+      <c r="AU8" s="11">
+        <v>0</v>
+      </c>
+      <c r="AV8" s="11">
         <v>20000</v>
       </c>
-      <c r="AU8" s="12"/>
-      <c r="AV8" s="11">
+      <c r="AW8" s="12"/>
+      <c r="AX8" s="11">
         <v>8192</v>
       </c>
-      <c r="AW8" s="11">
+      <c r="AY8" s="11">
         <v>8192</v>
       </c>
-      <c r="AX8" s="11"/>
-      <c r="AY8" s="11">
-        <v>0</v>
-      </c>
-      <c r="AZ8" s="11">
+      <c r="AZ8" s="11"/>
+      <c r="BA8" s="11">
+        <v>0</v>
+      </c>
+      <c r="BB8" s="11">
         <v>345</v>
       </c>
-      <c r="BA8" s="11">
+      <c r="BC8" s="11">
         <v>373</v>
       </c>
-      <c r="BB8" s="38"/>
-      <c r="BC8" s="42">
+      <c r="BD8" s="35"/>
+      <c r="BE8" s="42">
         <v>0</v>
       </c>
     </row>
-    <row r="9" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:55">
+    <row r="9" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:57">
       <c r="A9" s="13" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="C9" s="12">
         <f t="shared" ref="C5:C14" si="2">10000</f>
@@ -3010,10 +3151,10 @@
         <v>25</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J9" s="14" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="K9" s="14"/>
       <c r="L9" s="14"/>
@@ -3047,7 +3188,7 @@
         <v>226</v>
       </c>
       <c r="Y9" s="11" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Z9" s="14"/>
       <c r="AA9" s="14"/>
@@ -3056,72 +3197,74 @@
       <c r="AD9" s="26"/>
       <c r="AE9" s="14"/>
       <c r="AF9" s="14"/>
-      <c r="AG9" s="14">
+      <c r="AG9" s="14"/>
+      <c r="AH9" s="14"/>
+      <c r="AI9" s="14">
         <v>225</v>
       </c>
-      <c r="AH9" s="31">
+      <c r="AJ9" s="31">
         <v>180</v>
       </c>
-      <c r="AI9" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="AJ9" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="AK9" s="32"/>
-      <c r="AL9" s="14"/>
-      <c r="AM9" s="14" t="s">
+      <c r="AK9" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="AN9" s="14">
-        <v>1</v>
-      </c>
-      <c r="AO9" s="14">
-        <v>1</v>
-      </c>
-      <c r="AP9" s="14" t="s">
+      <c r="AL9" s="14" t="s">
         <v>80</v>
       </c>
+      <c r="AM9" s="32"/>
+      <c r="AN9" s="14"/>
+      <c r="AO9" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="AP9" s="14">
+        <v>1</v>
+      </c>
       <c r="AQ9" s="14">
-        <v>0</v>
-      </c>
-      <c r="AR9" s="14">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AR9" s="14" t="s">
+        <v>82</v>
       </c>
       <c r="AS9" s="14">
         <v>0</v>
       </c>
       <c r="AT9" s="14">
+        <v>0</v>
+      </c>
+      <c r="AU9" s="14">
+        <v>0</v>
+      </c>
+      <c r="AV9" s="14">
         <v>20000</v>
       </c>
-      <c r="AU9" s="33"/>
-      <c r="AV9" s="14">
+      <c r="AW9" s="36"/>
+      <c r="AX9" s="14">
         <v>8192</v>
       </c>
-      <c r="AW9" s="14">
+      <c r="AY9" s="14">
         <v>8192</v>
       </c>
-      <c r="AX9" s="14"/>
-      <c r="AY9" s="14">
-        <v>0</v>
-      </c>
-      <c r="AZ9" s="14">
+      <c r="AZ9" s="14"/>
+      <c r="BA9" s="14">
+        <v>0</v>
+      </c>
+      <c r="BB9" s="14">
         <v>345</v>
       </c>
-      <c r="BA9" s="14">
+      <c r="BC9" s="14">
         <v>373</v>
       </c>
-      <c r="BB9" s="40"/>
-      <c r="BC9" s="41">
+      <c r="BD9" s="37"/>
+      <c r="BE9" s="41">
         <v>0</v>
       </c>
     </row>
-    <row r="10" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:55">
+    <row r="10" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:57">
       <c r="A10" s="10" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="C10" s="12">
         <f t="shared" si="2"/>
@@ -3144,10 +3287,10 @@
         <v>25</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="K10" s="11"/>
       <c r="L10" s="11"/>
@@ -3181,7 +3324,7 @@
         <v>226</v>
       </c>
       <c r="Y10" s="11" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Z10" s="11"/>
       <c r="AA10" s="11"/>
@@ -3190,72 +3333,74 @@
       <c r="AD10" s="25"/>
       <c r="AE10" s="11"/>
       <c r="AF10" s="11"/>
-      <c r="AG10" s="11">
+      <c r="AG10" s="11"/>
+      <c r="AH10" s="11"/>
+      <c r="AI10" s="11">
         <v>225</v>
       </c>
-      <c r="AH10" s="29">
+      <c r="AJ10" s="29">
         <v>180</v>
       </c>
-      <c r="AI10" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="AJ10" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="AK10" s="30"/>
-      <c r="AL10" s="11"/>
-      <c r="AM10" s="11" t="s">
+      <c r="AK10" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="AN10" s="11">
-        <v>1</v>
-      </c>
-      <c r="AO10" s="11">
-        <v>1</v>
-      </c>
-      <c r="AP10" s="11" t="s">
+      <c r="AL10" s="11" t="s">
         <v>80</v>
       </c>
+      <c r="AM10" s="30"/>
+      <c r="AN10" s="11"/>
+      <c r="AO10" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="AP10" s="11">
+        <v>1</v>
+      </c>
       <c r="AQ10" s="11">
-        <v>0</v>
-      </c>
-      <c r="AR10" s="11">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AR10" s="11" t="s">
+        <v>82</v>
       </c>
       <c r="AS10" s="11">
         <v>0</v>
       </c>
       <c r="AT10" s="11">
+        <v>0</v>
+      </c>
+      <c r="AU10" s="11">
+        <v>0</v>
+      </c>
+      <c r="AV10" s="11">
         <v>20000</v>
       </c>
-      <c r="AU10" s="12"/>
-      <c r="AV10" s="11">
+      <c r="AW10" s="12"/>
+      <c r="AX10" s="11">
         <v>8192</v>
       </c>
-      <c r="AW10" s="11">
+      <c r="AY10" s="11">
         <v>8192</v>
       </c>
-      <c r="AX10" s="11"/>
-      <c r="AY10" s="11">
-        <v>0</v>
-      </c>
-      <c r="AZ10" s="11">
+      <c r="AZ10" s="11"/>
+      <c r="BA10" s="11">
+        <v>0</v>
+      </c>
+      <c r="BB10" s="11">
         <v>345</v>
       </c>
-      <c r="BA10" s="11">
+      <c r="BC10" s="11">
         <v>373</v>
       </c>
-      <c r="BB10" s="38"/>
-      <c r="BC10" s="42">
+      <c r="BD10" s="35"/>
+      <c r="BE10" s="42">
         <v>0</v>
       </c>
     </row>
-    <row r="11" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:55">
+    <row r="11" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:57">
       <c r="A11" s="13" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="C11" s="12">
         <f t="shared" si="2"/>
@@ -3278,10 +3423,10 @@
         <v>25</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J11" s="14" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="K11" s="14"/>
       <c r="L11" s="14"/>
@@ -3311,7 +3456,7 @@
         <v>226</v>
       </c>
       <c r="Y11" s="11" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Z11" s="14"/>
       <c r="AA11" s="14"/>
@@ -3320,72 +3465,74 @@
       <c r="AD11" s="26"/>
       <c r="AE11" s="14"/>
       <c r="AF11" s="14"/>
-      <c r="AG11" s="14">
+      <c r="AG11" s="14"/>
+      <c r="AH11" s="14"/>
+      <c r="AI11" s="14">
         <v>225</v>
       </c>
-      <c r="AH11" s="31">
+      <c r="AJ11" s="31">
         <v>180</v>
       </c>
-      <c r="AI11" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="AJ11" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="AK11" s="32"/>
-      <c r="AL11" s="14"/>
-      <c r="AM11" s="14" t="s">
+      <c r="AK11" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="AN11" s="14">
-        <v>1</v>
-      </c>
-      <c r="AO11" s="14">
-        <v>1</v>
-      </c>
-      <c r="AP11" s="14" t="s">
+      <c r="AL11" s="14" t="s">
         <v>80</v>
       </c>
+      <c r="AM11" s="32"/>
+      <c r="AN11" s="14"/>
+      <c r="AO11" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="AP11" s="14">
+        <v>1</v>
+      </c>
       <c r="AQ11" s="14">
-        <v>0</v>
-      </c>
-      <c r="AR11" s="14">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AR11" s="14" t="s">
+        <v>82</v>
       </c>
       <c r="AS11" s="14">
         <v>0</v>
       </c>
       <c r="AT11" s="14">
+        <v>0</v>
+      </c>
+      <c r="AU11" s="14">
+        <v>0</v>
+      </c>
+      <c r="AV11" s="14">
         <v>20000</v>
       </c>
-      <c r="AU11" s="33"/>
-      <c r="AV11" s="14">
+      <c r="AW11" s="36"/>
+      <c r="AX11" s="14">
         <v>8192</v>
       </c>
-      <c r="AW11" s="14">
+      <c r="AY11" s="14">
         <v>8192</v>
       </c>
-      <c r="AX11" s="14"/>
-      <c r="AY11" s="14">
-        <v>0</v>
-      </c>
-      <c r="AZ11" s="14">
+      <c r="AZ11" s="14"/>
+      <c r="BA11" s="14">
+        <v>0</v>
+      </c>
+      <c r="BB11" s="14">
         <v>345</v>
       </c>
-      <c r="BA11" s="14">
+      <c r="BC11" s="14">
         <v>373</v>
       </c>
-      <c r="BB11" s="40"/>
-      <c r="BC11" s="41">
+      <c r="BD11" s="37"/>
+      <c r="BE11" s="41">
         <v>0</v>
       </c>
     </row>
-    <row r="12" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:55">
+    <row r="12" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:57">
       <c r="A12" s="10" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="C12" s="12">
         <f t="shared" si="2"/>
@@ -3408,10 +3555,10 @@
         <v>25</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="K12" s="11"/>
       <c r="L12" s="11"/>
@@ -3437,7 +3584,7 @@
         <v>226</v>
       </c>
       <c r="Y12" s="11" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Z12" s="11"/>
       <c r="AA12" s="11"/>
@@ -3446,72 +3593,74 @@
       <c r="AD12" s="25"/>
       <c r="AE12" s="11"/>
       <c r="AF12" s="11"/>
-      <c r="AG12" s="11">
+      <c r="AG12" s="11"/>
+      <c r="AH12" s="11"/>
+      <c r="AI12" s="11">
         <v>225</v>
       </c>
-      <c r="AH12" s="29">
+      <c r="AJ12" s="29">
         <v>180</v>
       </c>
-      <c r="AI12" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="AJ12" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="AK12" s="30"/>
-      <c r="AL12" s="11"/>
-      <c r="AM12" s="11" t="s">
+      <c r="AK12" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="AN12" s="11">
-        <v>1</v>
-      </c>
-      <c r="AO12" s="11">
-        <v>1</v>
-      </c>
-      <c r="AP12" s="11" t="s">
+      <c r="AL12" s="11" t="s">
         <v>80</v>
       </c>
+      <c r="AM12" s="30"/>
+      <c r="AN12" s="11"/>
+      <c r="AO12" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="AP12" s="11">
+        <v>1</v>
+      </c>
       <c r="AQ12" s="11">
-        <v>0</v>
-      </c>
-      <c r="AR12" s="11">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AR12" s="11" t="s">
+        <v>82</v>
       </c>
       <c r="AS12" s="11">
         <v>0</v>
       </c>
       <c r="AT12" s="11">
+        <v>0</v>
+      </c>
+      <c r="AU12" s="11">
+        <v>0</v>
+      </c>
+      <c r="AV12" s="11">
         <v>20000</v>
       </c>
-      <c r="AU12" s="12"/>
-      <c r="AV12" s="11">
+      <c r="AW12" s="12"/>
+      <c r="AX12" s="11">
         <v>8192</v>
       </c>
-      <c r="AW12" s="11">
+      <c r="AY12" s="11">
         <v>8192</v>
       </c>
-      <c r="AX12" s="11"/>
-      <c r="AY12" s="11">
-        <v>0</v>
-      </c>
-      <c r="AZ12" s="11">
+      <c r="AZ12" s="11"/>
+      <c r="BA12" s="11">
+        <v>0</v>
+      </c>
+      <c r="BB12" s="11">
         <v>345</v>
       </c>
-      <c r="BA12" s="11">
+      <c r="BC12" s="11">
         <v>373</v>
       </c>
-      <c r="BB12" s="38"/>
-      <c r="BC12" s="42">
+      <c r="BD12" s="35"/>
+      <c r="BE12" s="42">
         <v>0</v>
       </c>
     </row>
-    <row r="13" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:55">
+    <row r="13" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:57">
       <c r="A13" s="13" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="C13" s="12">
         <f t="shared" si="2"/>
@@ -3534,10 +3683,10 @@
         <v>25</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J13" s="14" t="s">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="K13" s="14"/>
       <c r="L13" s="14"/>
@@ -3565,7 +3714,7 @@
         <v>244</v>
       </c>
       <c r="Y13" s="11" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Z13" s="14"/>
       <c r="AA13" s="14"/>
@@ -3574,72 +3723,74 @@
       <c r="AD13" s="26"/>
       <c r="AE13" s="14"/>
       <c r="AF13" s="14"/>
-      <c r="AG13" s="14">
+      <c r="AG13" s="14"/>
+      <c r="AH13" s="14"/>
+      <c r="AI13" s="14">
         <v>225</v>
       </c>
-      <c r="AH13" s="31">
+      <c r="AJ13" s="31">
         <v>180</v>
       </c>
-      <c r="AI13" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="AJ13" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="AK13" s="32"/>
-      <c r="AL13" s="14"/>
-      <c r="AM13" s="14" t="s">
+      <c r="AK13" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="AN13" s="14">
-        <v>1</v>
-      </c>
-      <c r="AO13" s="14">
-        <v>1</v>
-      </c>
-      <c r="AP13" s="14" t="s">
+      <c r="AL13" s="14" t="s">
         <v>80</v>
       </c>
+      <c r="AM13" s="32"/>
+      <c r="AN13" s="14"/>
+      <c r="AO13" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="AP13" s="14">
+        <v>1</v>
+      </c>
       <c r="AQ13" s="14">
-        <v>0</v>
-      </c>
-      <c r="AR13" s="14">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AR13" s="14" t="s">
+        <v>82</v>
       </c>
       <c r="AS13" s="14">
         <v>0</v>
       </c>
       <c r="AT13" s="14">
+        <v>0</v>
+      </c>
+      <c r="AU13" s="14">
+        <v>0</v>
+      </c>
+      <c r="AV13" s="14">
         <v>20000</v>
       </c>
-      <c r="AU13" s="33"/>
-      <c r="AV13" s="14">
+      <c r="AW13" s="36"/>
+      <c r="AX13" s="14">
         <v>8192</v>
       </c>
-      <c r="AW13" s="14">
+      <c r="AY13" s="14">
         <v>8192</v>
       </c>
-      <c r="AX13" s="14"/>
-      <c r="AY13" s="14">
-        <v>0</v>
-      </c>
-      <c r="AZ13" s="14">
+      <c r="AZ13" s="14"/>
+      <c r="BA13" s="14">
+        <v>0</v>
+      </c>
+      <c r="BB13" s="14">
         <v>345</v>
       </c>
-      <c r="BA13" s="14">
+      <c r="BC13" s="14">
         <v>373</v>
       </c>
-      <c r="BB13" s="40"/>
-      <c r="BC13" s="41">
+      <c r="BD13" s="37"/>
+      <c r="BE13" s="41">
         <v>0</v>
       </c>
     </row>
-    <row r="14" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:55">
+    <row r="14" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:57">
       <c r="A14" s="10" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="C14" s="12">
         <f t="shared" si="2"/>
@@ -3662,10 +3813,10 @@
         <v>25</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="K14" s="11"/>
       <c r="L14" s="11"/>
@@ -3695,7 +3846,7 @@
         <v>226</v>
       </c>
       <c r="Y14" s="11" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Z14" s="11"/>
       <c r="AA14" s="11"/>
@@ -3704,72 +3855,74 @@
       <c r="AD14" s="25"/>
       <c r="AE14" s="11"/>
       <c r="AF14" s="11"/>
-      <c r="AG14" s="11">
+      <c r="AG14" s="11"/>
+      <c r="AH14" s="11"/>
+      <c r="AI14" s="11">
         <v>225</v>
       </c>
-      <c r="AH14" s="29">
+      <c r="AJ14" s="29">
         <v>180</v>
       </c>
-      <c r="AI14" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="AJ14" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="AK14" s="30"/>
-      <c r="AL14" s="11"/>
-      <c r="AM14" s="11" t="s">
+      <c r="AK14" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="AN14" s="11">
-        <v>1</v>
-      </c>
-      <c r="AO14" s="11">
-        <v>1</v>
-      </c>
-      <c r="AP14" s="11" t="s">
+      <c r="AL14" s="11" t="s">
         <v>80</v>
       </c>
+      <c r="AM14" s="30"/>
+      <c r="AN14" s="11"/>
+      <c r="AO14" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="AP14" s="11">
+        <v>1</v>
+      </c>
       <c r="AQ14" s="11">
-        <v>0</v>
-      </c>
-      <c r="AR14" s="11">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AR14" s="11" t="s">
+        <v>82</v>
       </c>
       <c r="AS14" s="11">
         <v>0</v>
       </c>
       <c r="AT14" s="11">
+        <v>0</v>
+      </c>
+      <c r="AU14" s="11">
+        <v>0</v>
+      </c>
+      <c r="AV14" s="11">
         <v>20000</v>
       </c>
-      <c r="AU14" s="12"/>
-      <c r="AV14" s="11">
+      <c r="AW14" s="12"/>
+      <c r="AX14" s="11">
         <v>8192</v>
       </c>
-      <c r="AW14" s="11">
+      <c r="AY14" s="11">
         <v>8192</v>
       </c>
-      <c r="AX14" s="11"/>
-      <c r="AY14" s="11">
-        <v>0</v>
-      </c>
-      <c r="AZ14" s="11">
+      <c r="AZ14" s="11"/>
+      <c r="BA14" s="11">
+        <v>0</v>
+      </c>
+      <c r="BB14" s="11">
         <v>345</v>
       </c>
-      <c r="BA14" s="11">
+      <c r="BC14" s="11">
         <v>373</v>
       </c>
-      <c r="BB14" s="38"/>
-      <c r="BC14" s="42">
+      <c r="BD14" s="35"/>
+      <c r="BE14" s="42">
         <v>1</v>
       </c>
     </row>
-    <row r="15" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:55">
+    <row r="15" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:57">
       <c r="A15" s="13" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="C15" s="12">
         <f t="shared" ref="C15:C27" si="3">10000</f>
@@ -3792,10 +3945,10 @@
         <v>25</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="K15" s="14"/>
       <c r="L15" s="14"/>
@@ -3827,7 +3980,7 @@
         <v>226</v>
       </c>
       <c r="Y15" s="11" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Z15" s="14"/>
       <c r="AA15" s="14"/>
@@ -3836,72 +3989,74 @@
       <c r="AD15" s="26"/>
       <c r="AE15" s="14"/>
       <c r="AF15" s="14"/>
-      <c r="AG15" s="14">
+      <c r="AG15" s="14"/>
+      <c r="AH15" s="14"/>
+      <c r="AI15" s="14">
         <v>225</v>
       </c>
-      <c r="AH15" s="31">
+      <c r="AJ15" s="31">
         <v>180</v>
       </c>
-      <c r="AI15" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="AJ15" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="AK15" s="32"/>
-      <c r="AL15" s="14"/>
-      <c r="AM15" s="14" t="s">
+      <c r="AK15" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="AN15" s="14">
-        <v>1</v>
-      </c>
-      <c r="AO15" s="14">
-        <v>1</v>
-      </c>
-      <c r="AP15" s="14" t="s">
+      <c r="AL15" s="14" t="s">
         <v>80</v>
       </c>
+      <c r="AM15" s="32"/>
+      <c r="AN15" s="14"/>
+      <c r="AO15" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="AP15" s="14">
+        <v>1</v>
+      </c>
       <c r="AQ15" s="14">
-        <v>0</v>
-      </c>
-      <c r="AR15" s="14">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AR15" s="14" t="s">
+        <v>82</v>
       </c>
       <c r="AS15" s="14">
         <v>0</v>
       </c>
       <c r="AT15" s="14">
+        <v>0</v>
+      </c>
+      <c r="AU15" s="14">
+        <v>0</v>
+      </c>
+      <c r="AV15" s="14">
         <v>20000</v>
       </c>
-      <c r="AU15" s="33"/>
-      <c r="AV15" s="14">
+      <c r="AW15" s="36"/>
+      <c r="AX15" s="14">
         <v>8192</v>
       </c>
-      <c r="AW15" s="14">
+      <c r="AY15" s="14">
         <v>8192</v>
       </c>
-      <c r="AX15" s="14"/>
-      <c r="AY15" s="14">
-        <v>0</v>
-      </c>
-      <c r="AZ15" s="14">
+      <c r="AZ15" s="14"/>
+      <c r="BA15" s="14">
+        <v>0</v>
+      </c>
+      <c r="BB15" s="14">
         <v>345</v>
       </c>
-      <c r="BA15" s="14">
+      <c r="BC15" s="14">
         <v>373</v>
       </c>
-      <c r="BB15" s="40"/>
-      <c r="BC15" s="41">
+      <c r="BD15" s="37"/>
+      <c r="BE15" s="41">
         <v>1</v>
       </c>
     </row>
-    <row r="16" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:55">
+    <row r="16" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:57">
       <c r="A16" s="10" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="C16" s="12">
         <f t="shared" si="3"/>
@@ -3924,10 +4079,10 @@
         <v>25</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="K16" s="11"/>
       <c r="L16" s="11"/>
@@ -3959,7 +4114,7 @@
         <v>226</v>
       </c>
       <c r="Y16" s="11" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Z16" s="11"/>
       <c r="AA16" s="11"/>
@@ -3968,72 +4123,74 @@
       <c r="AD16" s="25"/>
       <c r="AE16" s="11"/>
       <c r="AF16" s="11"/>
-      <c r="AG16" s="11">
+      <c r="AG16" s="11"/>
+      <c r="AH16" s="11"/>
+      <c r="AI16" s="11">
         <v>225</v>
       </c>
-      <c r="AH16" s="29">
+      <c r="AJ16" s="29">
         <v>180</v>
       </c>
-      <c r="AI16" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="AJ16" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="AK16" s="30"/>
-      <c r="AL16" s="11"/>
-      <c r="AM16" s="11" t="s">
+      <c r="AK16" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="AN16" s="11">
-        <v>1</v>
-      </c>
-      <c r="AO16" s="11">
-        <v>1</v>
-      </c>
-      <c r="AP16" s="11" t="s">
+      <c r="AL16" s="11" t="s">
         <v>80</v>
       </c>
+      <c r="AM16" s="30"/>
+      <c r="AN16" s="11"/>
+      <c r="AO16" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="AP16" s="11">
+        <v>1</v>
+      </c>
       <c r="AQ16" s="11">
-        <v>0</v>
-      </c>
-      <c r="AR16" s="11">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AR16" s="11" t="s">
+        <v>82</v>
       </c>
       <c r="AS16" s="11">
         <v>0</v>
       </c>
       <c r="AT16" s="11">
+        <v>0</v>
+      </c>
+      <c r="AU16" s="11">
+        <v>0</v>
+      </c>
+      <c r="AV16" s="11">
         <v>20000</v>
       </c>
-      <c r="AU16" s="12"/>
-      <c r="AV16" s="11">
+      <c r="AW16" s="12"/>
+      <c r="AX16" s="11">
         <v>8192</v>
       </c>
-      <c r="AW16" s="11">
+      <c r="AY16" s="11">
         <v>8192</v>
       </c>
-      <c r="AX16" s="11"/>
-      <c r="AY16" s="11">
-        <v>0</v>
-      </c>
-      <c r="AZ16" s="11">
+      <c r="AZ16" s="11"/>
+      <c r="BA16" s="11">
+        <v>0</v>
+      </c>
+      <c r="BB16" s="11">
         <v>345</v>
       </c>
-      <c r="BA16" s="11">
+      <c r="BC16" s="11">
         <v>373</v>
       </c>
-      <c r="BB16" s="38"/>
-      <c r="BC16" s="42">
+      <c r="BD16" s="35"/>
+      <c r="BE16" s="42">
         <v>0</v>
       </c>
     </row>
-    <row r="17" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:55">
+    <row r="17" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:57">
       <c r="A17" s="13" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>119</v>
+        <v>140</v>
       </c>
       <c r="C17" s="12">
         <f t="shared" si="3"/>
@@ -4056,10 +4213,10 @@
         <v>25</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J17" s="14" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="K17" s="14"/>
       <c r="L17" s="14"/>
@@ -4091,7 +4248,7 @@
         <v>226</v>
       </c>
       <c r="Y17" s="11" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Z17" s="14"/>
       <c r="AA17" s="14"/>
@@ -4100,72 +4257,74 @@
       <c r="AD17" s="26"/>
       <c r="AE17" s="14"/>
       <c r="AF17" s="14"/>
-      <c r="AG17" s="14">
+      <c r="AG17" s="14"/>
+      <c r="AH17" s="14"/>
+      <c r="AI17" s="14">
         <v>225</v>
       </c>
-      <c r="AH17" s="31">
+      <c r="AJ17" s="31">
         <v>180</v>
       </c>
-      <c r="AI17" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="AJ17" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="AK17" s="32"/>
-      <c r="AL17" s="14"/>
-      <c r="AM17" s="14" t="s">
+      <c r="AK17" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="AN17" s="14">
-        <v>1</v>
-      </c>
-      <c r="AO17" s="14">
-        <v>1</v>
-      </c>
-      <c r="AP17" s="14" t="s">
+      <c r="AL17" s="14" t="s">
         <v>80</v>
       </c>
+      <c r="AM17" s="32"/>
+      <c r="AN17" s="14"/>
+      <c r="AO17" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="AP17" s="14">
+        <v>1</v>
+      </c>
       <c r="AQ17" s="14">
-        <v>0</v>
-      </c>
-      <c r="AR17" s="14">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AR17" s="14" t="s">
+        <v>82</v>
       </c>
       <c r="AS17" s="14">
         <v>0</v>
       </c>
       <c r="AT17" s="14">
+        <v>0</v>
+      </c>
+      <c r="AU17" s="14">
+        <v>0</v>
+      </c>
+      <c r="AV17" s="14">
         <v>20000</v>
       </c>
-      <c r="AU17" s="33"/>
-      <c r="AV17" s="14">
+      <c r="AW17" s="36"/>
+      <c r="AX17" s="14">
         <v>8192</v>
       </c>
-      <c r="AW17" s="14">
+      <c r="AY17" s="14">
         <v>8192</v>
       </c>
-      <c r="AX17" s="14"/>
-      <c r="AY17" s="14">
-        <v>0</v>
-      </c>
-      <c r="AZ17" s="14">
+      <c r="AZ17" s="14"/>
+      <c r="BA17" s="14">
+        <v>0</v>
+      </c>
+      <c r="BB17" s="14">
         <v>345</v>
       </c>
-      <c r="BA17" s="14">
+      <c r="BC17" s="14">
         <v>373</v>
       </c>
-      <c r="BB17" s="40"/>
-      <c r="BC17" s="41">
+      <c r="BD17" s="37"/>
+      <c r="BE17" s="41">
         <v>0</v>
       </c>
     </row>
-    <row r="18" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:55">
+    <row r="18" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:57">
       <c r="A18" s="10" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="C18" s="12">
         <f t="shared" si="3"/>
@@ -4188,10 +4347,10 @@
         <v>25</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="K18" s="11"/>
       <c r="L18" s="11"/>
@@ -4221,7 +4380,7 @@
         <v>226</v>
       </c>
       <c r="Y18" s="11" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Z18" s="11"/>
       <c r="AA18" s="11"/>
@@ -4230,72 +4389,74 @@
       <c r="AD18" s="25"/>
       <c r="AE18" s="11"/>
       <c r="AF18" s="11"/>
-      <c r="AG18" s="11">
+      <c r="AG18" s="11"/>
+      <c r="AH18" s="11"/>
+      <c r="AI18" s="11">
         <v>225</v>
       </c>
-      <c r="AH18" s="29">
+      <c r="AJ18" s="29">
         <v>180</v>
       </c>
-      <c r="AI18" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="AJ18" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="AK18" s="30"/>
-      <c r="AL18" s="11"/>
-      <c r="AM18" s="11" t="s">
+      <c r="AK18" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="AN18" s="11">
-        <v>1</v>
-      </c>
-      <c r="AO18" s="11">
-        <v>1</v>
-      </c>
-      <c r="AP18" s="11" t="s">
+      <c r="AL18" s="11" t="s">
         <v>80</v>
       </c>
+      <c r="AM18" s="30"/>
+      <c r="AN18" s="11"/>
+      <c r="AO18" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="AP18" s="11">
+        <v>1</v>
+      </c>
       <c r="AQ18" s="11">
-        <v>0</v>
-      </c>
-      <c r="AR18" s="11">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AR18" s="11" t="s">
+        <v>82</v>
       </c>
       <c r="AS18" s="11">
         <v>0</v>
       </c>
       <c r="AT18" s="11">
+        <v>0</v>
+      </c>
+      <c r="AU18" s="11">
+        <v>0</v>
+      </c>
+      <c r="AV18" s="11">
         <v>20000</v>
       </c>
-      <c r="AU18" s="12"/>
-      <c r="AV18" s="11">
+      <c r="AW18" s="12"/>
+      <c r="AX18" s="11">
         <v>8192</v>
       </c>
-      <c r="AW18" s="11">
+      <c r="AY18" s="11">
         <v>8192</v>
       </c>
-      <c r="AX18" s="11"/>
-      <c r="AY18" s="11">
-        <v>0</v>
-      </c>
-      <c r="AZ18" s="11">
+      <c r="AZ18" s="11"/>
+      <c r="BA18" s="11">
+        <v>0</v>
+      </c>
+      <c r="BB18" s="11">
         <v>345</v>
       </c>
-      <c r="BA18" s="11">
+      <c r="BC18" s="11">
         <v>373</v>
       </c>
-      <c r="BB18" s="38"/>
-      <c r="BC18" s="42">
+      <c r="BD18" s="35"/>
+      <c r="BE18" s="42">
         <v>0</v>
       </c>
     </row>
-    <row r="19" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:55">
+    <row r="19" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:57">
       <c r="A19" s="13" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="C19" s="12">
         <f t="shared" si="3"/>
@@ -4318,10 +4479,10 @@
         <v>25</v>
       </c>
       <c r="I19" s="14" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J19" s="14" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="K19" s="14"/>
       <c r="L19" s="14"/>
@@ -4351,7 +4512,7 @@
         <v>226</v>
       </c>
       <c r="Y19" s="11" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Z19" s="14"/>
       <c r="AA19" s="14"/>
@@ -4360,72 +4521,74 @@
       <c r="AD19" s="26"/>
       <c r="AE19" s="14"/>
       <c r="AF19" s="14"/>
-      <c r="AG19" s="14">
+      <c r="AG19" s="14"/>
+      <c r="AH19" s="14"/>
+      <c r="AI19" s="14">
         <v>225</v>
       </c>
-      <c r="AH19" s="31">
+      <c r="AJ19" s="31">
         <v>180</v>
       </c>
-      <c r="AI19" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="AJ19" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="AK19" s="32"/>
-      <c r="AL19" s="14"/>
-      <c r="AM19" s="14" t="s">
+      <c r="AK19" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="AN19" s="14">
-        <v>1</v>
-      </c>
-      <c r="AO19" s="14">
-        <v>1</v>
-      </c>
-      <c r="AP19" s="14" t="s">
+      <c r="AL19" s="14" t="s">
         <v>80</v>
       </c>
+      <c r="AM19" s="32"/>
+      <c r="AN19" s="14"/>
+      <c r="AO19" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="AP19" s="14">
+        <v>1</v>
+      </c>
       <c r="AQ19" s="14">
-        <v>0</v>
-      </c>
-      <c r="AR19" s="14">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AR19" s="14" t="s">
+        <v>82</v>
       </c>
       <c r="AS19" s="14">
         <v>0</v>
       </c>
       <c r="AT19" s="14">
+        <v>0</v>
+      </c>
+      <c r="AU19" s="14">
+        <v>0</v>
+      </c>
+      <c r="AV19" s="14">
         <v>20000</v>
       </c>
-      <c r="AU19" s="33"/>
-      <c r="AV19" s="14">
+      <c r="AW19" s="36"/>
+      <c r="AX19" s="14">
         <v>8192</v>
       </c>
-      <c r="AW19" s="14">
+      <c r="AY19" s="14">
         <v>8192</v>
       </c>
-      <c r="AX19" s="14"/>
-      <c r="AY19" s="14">
-        <v>0</v>
-      </c>
-      <c r="AZ19" s="14">
+      <c r="AZ19" s="14"/>
+      <c r="BA19" s="14">
+        <v>0</v>
+      </c>
+      <c r="BB19" s="14">
         <v>345</v>
       </c>
-      <c r="BA19" s="14">
+      <c r="BC19" s="14">
         <v>373</v>
       </c>
-      <c r="BB19" s="40"/>
-      <c r="BC19" s="41">
+      <c r="BD19" s="37"/>
+      <c r="BE19" s="41">
         <v>0</v>
       </c>
     </row>
-    <row r="20" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:55">
+    <row r="20" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:57">
       <c r="A20" s="10" t="s">
-        <v>125</v>
+        <v>146</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="C20" s="12">
         <f t="shared" si="3"/>
@@ -4448,10 +4611,10 @@
         <v>25</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="K20" s="11"/>
       <c r="L20" s="11"/>
@@ -4483,7 +4646,7 @@
         <v>220</v>
       </c>
       <c r="Y20" s="11" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Z20" s="11"/>
       <c r="AA20" s="11"/>
@@ -4492,72 +4655,74 @@
       <c r="AD20" s="25"/>
       <c r="AE20" s="11"/>
       <c r="AF20" s="11"/>
-      <c r="AG20" s="11">
+      <c r="AG20" s="11"/>
+      <c r="AH20" s="11"/>
+      <c r="AI20" s="11">
         <v>225</v>
       </c>
-      <c r="AH20" s="29">
+      <c r="AJ20" s="29">
         <v>180</v>
       </c>
-      <c r="AI20" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="AJ20" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="AK20" s="30"/>
-      <c r="AL20" s="11"/>
-      <c r="AM20" s="11" t="s">
+      <c r="AK20" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="AN20" s="11">
-        <v>1</v>
-      </c>
-      <c r="AO20" s="11">
-        <v>1</v>
-      </c>
-      <c r="AP20" s="11" t="s">
+      <c r="AL20" s="11" t="s">
         <v>80</v>
       </c>
+      <c r="AM20" s="30"/>
+      <c r="AN20" s="11"/>
+      <c r="AO20" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="AP20" s="11">
+        <v>1</v>
+      </c>
       <c r="AQ20" s="11">
-        <v>0</v>
-      </c>
-      <c r="AR20" s="11">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AR20" s="11" t="s">
+        <v>82</v>
       </c>
       <c r="AS20" s="11">
         <v>0</v>
       </c>
       <c r="AT20" s="11">
+        <v>0</v>
+      </c>
+      <c r="AU20" s="11">
+        <v>0</v>
+      </c>
+      <c r="AV20" s="11">
         <v>20000</v>
       </c>
-      <c r="AU20" s="12"/>
-      <c r="AV20" s="11">
+      <c r="AW20" s="12"/>
+      <c r="AX20" s="11">
         <v>8192</v>
       </c>
-      <c r="AW20" s="11">
+      <c r="AY20" s="11">
         <v>8192</v>
       </c>
-      <c r="AX20" s="11"/>
-      <c r="AY20" s="11">
-        <v>0</v>
-      </c>
-      <c r="AZ20" s="11">
+      <c r="AZ20" s="11"/>
+      <c r="BA20" s="11">
+        <v>0</v>
+      </c>
+      <c r="BB20" s="11">
         <v>345</v>
       </c>
-      <c r="BA20" s="11">
+      <c r="BC20" s="11">
         <v>373</v>
       </c>
-      <c r="BB20" s="38"/>
-      <c r="BC20" s="42">
+      <c r="BD20" s="35"/>
+      <c r="BE20" s="42">
         <v>0</v>
       </c>
     </row>
-    <row r="21" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:55">
+    <row r="21" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:57">
       <c r="A21" s="13" t="s">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="C21" s="12">
         <f t="shared" si="3"/>
@@ -4580,10 +4745,10 @@
         <v>25</v>
       </c>
       <c r="I21" s="14" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J21" s="14" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="K21" s="14"/>
       <c r="L21" s="14"/>
@@ -4613,7 +4778,7 @@
         <v>220</v>
       </c>
       <c r="Y21" s="11" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Z21" s="14"/>
       <c r="AA21" s="14"/>
@@ -4622,72 +4787,74 @@
       <c r="AD21" s="26"/>
       <c r="AE21" s="14"/>
       <c r="AF21" s="14"/>
-      <c r="AG21" s="14">
+      <c r="AG21" s="14"/>
+      <c r="AH21" s="14"/>
+      <c r="AI21" s="14">
         <v>225</v>
       </c>
-      <c r="AH21" s="31">
+      <c r="AJ21" s="31">
         <v>180</v>
       </c>
-      <c r="AI21" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="AJ21" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="AK21" s="32"/>
-      <c r="AL21" s="14"/>
-      <c r="AM21" s="14" t="s">
+      <c r="AK21" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="AN21" s="14">
-        <v>1</v>
-      </c>
-      <c r="AO21" s="14">
-        <v>1</v>
-      </c>
-      <c r="AP21" s="14" t="s">
+      <c r="AL21" s="14" t="s">
         <v>80</v>
       </c>
+      <c r="AM21" s="32"/>
+      <c r="AN21" s="14"/>
+      <c r="AO21" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="AP21" s="14">
+        <v>1</v>
+      </c>
       <c r="AQ21" s="14">
-        <v>0</v>
-      </c>
-      <c r="AR21" s="14">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AR21" s="14" t="s">
+        <v>82</v>
       </c>
       <c r="AS21" s="14">
         <v>0</v>
       </c>
       <c r="AT21" s="14">
+        <v>0</v>
+      </c>
+      <c r="AU21" s="14">
+        <v>0</v>
+      </c>
+      <c r="AV21" s="14">
         <v>20000</v>
       </c>
-      <c r="AU21" s="33"/>
-      <c r="AV21" s="14">
+      <c r="AW21" s="36"/>
+      <c r="AX21" s="14">
         <v>8192</v>
       </c>
-      <c r="AW21" s="14">
+      <c r="AY21" s="14">
         <v>8192</v>
       </c>
-      <c r="AX21" s="14"/>
-      <c r="AY21" s="14">
-        <v>0</v>
-      </c>
-      <c r="AZ21" s="14">
+      <c r="AZ21" s="14"/>
+      <c r="BA21" s="14">
+        <v>0</v>
+      </c>
+      <c r="BB21" s="14">
         <v>345</v>
       </c>
-      <c r="BA21" s="14">
+      <c r="BC21" s="14">
         <v>373</v>
       </c>
-      <c r="BB21" s="40"/>
-      <c r="BC21" s="41">
+      <c r="BD21" s="37"/>
+      <c r="BE21" s="41">
         <v>0</v>
       </c>
     </row>
-    <row r="22" s="3" customFormat="1" ht="39" customHeight="1" spans="1:55">
+    <row r="22" s="3" customFormat="1" ht="39" customHeight="1" spans="1:57">
       <c r="A22" s="10" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="C22" s="12">
         <f t="shared" si="3"/>
@@ -4710,10 +4877,10 @@
         <v>25</v>
       </c>
       <c r="I22" s="11" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J22" s="11" t="s">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="K22" s="11"/>
       <c r="L22" s="11"/>
@@ -4735,7 +4902,7 @@
         <v>220</v>
       </c>
       <c r="Y22" s="11" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Z22" s="11"/>
       <c r="AA22" s="11"/>
@@ -4744,76 +4911,78 @@
       <c r="AD22" s="25"/>
       <c r="AE22" s="11"/>
       <c r="AF22" s="11"/>
-      <c r="AG22" s="11">
+      <c r="AG22" s="11"/>
+      <c r="AH22" s="11"/>
+      <c r="AI22" s="11">
         <v>225</v>
       </c>
-      <c r="AH22" s="29">
+      <c r="AJ22" s="29">
         <v>180</v>
       </c>
-      <c r="AI22" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="AJ22" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="AK22" s="30" t="s">
-        <v>135</v>
-      </c>
-      <c r="AL22" s="11">
+      <c r="AK22" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="AL22" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="AM22" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="AN22" s="11">
         <v>800</v>
       </c>
-      <c r="AM22" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="AN22" s="11">
-        <v>1</v>
-      </c>
-      <c r="AO22" s="11">
-        <v>1</v>
-      </c>
-      <c r="AP22" s="11" t="s">
-        <v>80</v>
+      <c r="AO22" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="AP22" s="11">
+        <v>1</v>
       </c>
       <c r="AQ22" s="11">
-        <v>0</v>
-      </c>
-      <c r="AR22" s="11">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AR22" s="11" t="s">
+        <v>82</v>
       </c>
       <c r="AS22" s="11">
         <v>0</v>
       </c>
       <c r="AT22" s="11">
+        <v>0</v>
+      </c>
+      <c r="AU22" s="11">
+        <v>0</v>
+      </c>
+      <c r="AV22" s="11">
         <v>20000</v>
       </c>
-      <c r="AU22" s="12"/>
-      <c r="AV22" s="11">
+      <c r="AW22" s="12"/>
+      <c r="AX22" s="11">
         <v>8192</v>
       </c>
-      <c r="AW22" s="11">
+      <c r="AY22" s="11">
         <v>8192</v>
       </c>
-      <c r="AX22" s="11"/>
-      <c r="AY22" s="11">
-        <v>0</v>
-      </c>
-      <c r="AZ22" s="11">
+      <c r="AZ22" s="11"/>
+      <c r="BA22" s="11">
+        <v>0</v>
+      </c>
+      <c r="BB22" s="11">
         <v>345</v>
       </c>
-      <c r="BA22" s="11">
+      <c r="BC22" s="11">
         <v>373</v>
       </c>
-      <c r="BB22" s="38"/>
-      <c r="BC22" s="42">
+      <c r="BD22" s="35"/>
+      <c r="BE22" s="42">
         <v>0</v>
       </c>
     </row>
-    <row r="23" s="3" customFormat="1" ht="39" customHeight="1" spans="1:55">
+    <row r="23" s="3" customFormat="1" ht="39" customHeight="1" spans="1:57">
       <c r="A23" s="13" t="s">
-        <v>136</v>
+        <v>157</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>137</v>
+        <v>158</v>
       </c>
       <c r="C23" s="12">
         <f t="shared" si="3"/>
@@ -4836,10 +5005,10 @@
         <v>25</v>
       </c>
       <c r="I23" s="14" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J23" s="14" t="s">
-        <v>138</v>
+        <v>159</v>
       </c>
       <c r="K23" s="14"/>
       <c r="L23" s="14"/>
@@ -4871,7 +5040,7 @@
         <v>220</v>
       </c>
       <c r="Y23" s="11" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Z23" s="14"/>
       <c r="AA23" s="14"/>
@@ -4880,76 +5049,78 @@
       <c r="AD23" s="26"/>
       <c r="AE23" s="14"/>
       <c r="AF23" s="14"/>
-      <c r="AG23" s="14">
+      <c r="AG23" s="14"/>
+      <c r="AH23" s="14"/>
+      <c r="AI23" s="14">
         <v>225</v>
       </c>
-      <c r="AH23" s="31">
+      <c r="AJ23" s="31">
         <v>180</v>
       </c>
-      <c r="AI23" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="AJ23" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="AK23" s="32" t="s">
-        <v>139</v>
-      </c>
-      <c r="AL23" s="14">
+      <c r="AK23" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="AL23" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="AM23" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="AN23" s="14">
         <v>600</v>
       </c>
-      <c r="AM23" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="AN23" s="14">
-        <v>1</v>
-      </c>
-      <c r="AO23" s="14">
-        <v>1</v>
-      </c>
-      <c r="AP23" s="14" t="s">
-        <v>80</v>
+      <c r="AO23" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="AP23" s="14">
+        <v>1</v>
       </c>
       <c r="AQ23" s="14">
-        <v>0</v>
-      </c>
-      <c r="AR23" s="14">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AR23" s="14" t="s">
+        <v>82</v>
       </c>
       <c r="AS23" s="14">
         <v>0</v>
       </c>
       <c r="AT23" s="14">
+        <v>0</v>
+      </c>
+      <c r="AU23" s="14">
+        <v>0</v>
+      </c>
+      <c r="AV23" s="14">
         <v>20000</v>
       </c>
-      <c r="AU23" s="33"/>
-      <c r="AV23" s="14">
+      <c r="AW23" s="36"/>
+      <c r="AX23" s="14">
         <v>8192</v>
       </c>
-      <c r="AW23" s="14">
+      <c r="AY23" s="14">
         <v>8192</v>
       </c>
-      <c r="AX23" s="14"/>
-      <c r="AY23" s="14">
-        <v>0</v>
-      </c>
-      <c r="AZ23" s="14">
+      <c r="AZ23" s="14"/>
+      <c r="BA23" s="14">
+        <v>0</v>
+      </c>
+      <c r="BB23" s="14">
         <v>345</v>
       </c>
-      <c r="BA23" s="14">
+      <c r="BC23" s="14">
         <v>373</v>
       </c>
-      <c r="BB23" s="40"/>
-      <c r="BC23" s="41">
+      <c r="BD23" s="37"/>
+      <c r="BE23" s="41">
         <v>0</v>
       </c>
     </row>
-    <row r="24" s="3" customFormat="1" ht="39" customHeight="1" spans="1:55">
+    <row r="24" s="3" customFormat="1" ht="39" customHeight="1" spans="1:57">
       <c r="A24" s="13" t="s">
-        <v>140</v>
+        <v>161</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>141</v>
+        <v>162</v>
       </c>
       <c r="C24" s="12">
         <f t="shared" si="3"/>
@@ -4972,10 +5143,10 @@
         <v>25</v>
       </c>
       <c r="I24" s="14" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J24" s="14" t="s">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="K24" s="14"/>
       <c r="L24" s="14"/>
@@ -5009,7 +5180,7 @@
         <v>220</v>
       </c>
       <c r="Y24" s="11" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Z24" s="14"/>
       <c r="AA24" s="14"/>
@@ -5018,74 +5189,76 @@
       <c r="AD24" s="26"/>
       <c r="AE24" s="14"/>
       <c r="AF24" s="14"/>
-      <c r="AG24" s="14">
+      <c r="AG24" s="14"/>
+      <c r="AH24" s="14"/>
+      <c r="AI24" s="14">
         <v>225</v>
       </c>
-      <c r="AH24" s="31">
+      <c r="AJ24" s="31">
         <v>180</v>
       </c>
-      <c r="AI24" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="AJ24" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="AK24" s="32"/>
-      <c r="AL24" s="14">
+      <c r="AK24" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="AL24" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="AM24" s="32"/>
+      <c r="AN24" s="14">
         <v>600</v>
       </c>
-      <c r="AM24" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="AN24" s="14">
-        <v>1</v>
-      </c>
-      <c r="AO24" s="14">
-        <v>1</v>
-      </c>
-      <c r="AP24" s="14" t="s">
-        <v>80</v>
+      <c r="AO24" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="AP24" s="14">
+        <v>1</v>
       </c>
       <c r="AQ24" s="14">
-        <v>0</v>
-      </c>
-      <c r="AR24" s="14">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AR24" s="14" t="s">
+        <v>82</v>
       </c>
       <c r="AS24" s="14">
         <v>0</v>
       </c>
       <c r="AT24" s="14">
+        <v>0</v>
+      </c>
+      <c r="AU24" s="14">
+        <v>0</v>
+      </c>
+      <c r="AV24" s="14">
         <v>20000</v>
       </c>
-      <c r="AU24" s="33"/>
-      <c r="AV24" s="14">
+      <c r="AW24" s="36"/>
+      <c r="AX24" s="14">
         <v>8192</v>
       </c>
-      <c r="AW24" s="14">
+      <c r="AY24" s="14">
         <v>8192</v>
       </c>
-      <c r="AX24" s="14"/>
-      <c r="AY24" s="14">
-        <v>0</v>
-      </c>
-      <c r="AZ24" s="14">
+      <c r="AZ24" s="14"/>
+      <c r="BA24" s="14">
+        <v>0</v>
+      </c>
+      <c r="BB24" s="14">
         <v>345</v>
       </c>
-      <c r="BA24" s="14">
+      <c r="BC24" s="14">
         <v>373</v>
       </c>
-      <c r="BB24" s="40"/>
-      <c r="BC24" s="41">
+      <c r="BD24" s="37"/>
+      <c r="BE24" s="41">
         <v>0</v>
       </c>
     </row>
-    <row r="25" s="3" customFormat="1" ht="39" customHeight="1" spans="1:55">
+    <row r="25" s="3" customFormat="1" ht="39" customHeight="1" spans="1:57">
       <c r="A25" s="13" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="C25" s="12">
         <f t="shared" si="3"/>
@@ -5108,10 +5281,10 @@
         <v>25</v>
       </c>
       <c r="I25" s="14" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J25" s="14" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="K25" s="14"/>
       <c r="L25" s="14"/>
@@ -5143,7 +5316,7 @@
         <v>220</v>
       </c>
       <c r="Y25" s="11" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Z25" s="14"/>
       <c r="AA25" s="14"/>
@@ -5152,74 +5325,76 @@
       <c r="AD25" s="26"/>
       <c r="AE25" s="14"/>
       <c r="AF25" s="14"/>
-      <c r="AG25" s="14">
+      <c r="AG25" s="14"/>
+      <c r="AH25" s="14"/>
+      <c r="AI25" s="14">
         <v>225</v>
       </c>
-      <c r="AH25" s="31">
+      <c r="AJ25" s="31">
         <v>180</v>
       </c>
-      <c r="AI25" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="AJ25" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="AK25" s="32"/>
-      <c r="AL25" s="14">
+      <c r="AK25" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="AL25" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="AM25" s="32"/>
+      <c r="AN25" s="14">
         <v>600</v>
       </c>
-      <c r="AM25" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="AN25" s="14">
-        <v>1</v>
-      </c>
-      <c r="AO25" s="14">
-        <v>1</v>
-      </c>
-      <c r="AP25" s="14" t="s">
-        <v>80</v>
+      <c r="AO25" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="AP25" s="14">
+        <v>1</v>
       </c>
       <c r="AQ25" s="14">
-        <v>0</v>
-      </c>
-      <c r="AR25" s="14">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AR25" s="14" t="s">
+        <v>82</v>
       </c>
       <c r="AS25" s="14">
         <v>0</v>
       </c>
       <c r="AT25" s="14">
+        <v>0</v>
+      </c>
+      <c r="AU25" s="14">
+        <v>0</v>
+      </c>
+      <c r="AV25" s="14">
         <v>20000</v>
       </c>
-      <c r="AU25" s="33"/>
-      <c r="AV25" s="14">
+      <c r="AW25" s="36"/>
+      <c r="AX25" s="14">
         <v>8192</v>
       </c>
-      <c r="AW25" s="14">
+      <c r="AY25" s="14">
         <v>8192</v>
       </c>
-      <c r="AX25" s="14"/>
-      <c r="AY25" s="14">
-        <v>0</v>
-      </c>
-      <c r="AZ25" s="14">
+      <c r="AZ25" s="14"/>
+      <c r="BA25" s="14">
+        <v>0</v>
+      </c>
+      <c r="BB25" s="14">
         <v>345</v>
       </c>
-      <c r="BA25" s="14">
+      <c r="BC25" s="14">
         <v>373</v>
       </c>
-      <c r="BB25" s="40"/>
-      <c r="BC25" s="41">
+      <c r="BD25" s="37"/>
+      <c r="BE25" s="41">
         <v>0</v>
       </c>
     </row>
-    <row r="26" s="3" customFormat="1" ht="39" customHeight="1" spans="1:55">
+    <row r="26" s="3" customFormat="1" ht="39" customHeight="1" spans="1:57">
       <c r="A26" s="13" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="C26" s="12">
         <f t="shared" si="3"/>
@@ -5242,10 +5417,10 @@
         <v>25</v>
       </c>
       <c r="I26" s="14" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J26" s="14" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="K26" s="14"/>
       <c r="L26" s="14"/>
@@ -5273,7 +5448,7 @@
         <v>220</v>
       </c>
       <c r="Y26" s="11" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Z26" s="14"/>
       <c r="AA26" s="14"/>
@@ -5282,74 +5457,76 @@
       <c r="AD26" s="26"/>
       <c r="AE26" s="14"/>
       <c r="AF26" s="14"/>
-      <c r="AG26" s="14">
+      <c r="AG26" s="14"/>
+      <c r="AH26" s="14"/>
+      <c r="AI26" s="14">
         <v>225</v>
       </c>
-      <c r="AH26" s="31">
+      <c r="AJ26" s="31">
         <v>180</v>
       </c>
-      <c r="AI26" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="AJ26" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="AK26" s="32"/>
-      <c r="AL26" s="14">
+      <c r="AK26" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="AL26" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="AM26" s="32"/>
+      <c r="AN26" s="14">
         <v>600</v>
       </c>
-      <c r="AM26" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="AN26" s="14">
-        <v>1</v>
-      </c>
-      <c r="AO26" s="14">
-        <v>1</v>
-      </c>
-      <c r="AP26" s="14" t="s">
-        <v>80</v>
+      <c r="AO26" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="AP26" s="14">
+        <v>1</v>
       </c>
       <c r="AQ26" s="14">
-        <v>0</v>
-      </c>
-      <c r="AR26" s="14">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AR26" s="14" t="s">
+        <v>82</v>
       </c>
       <c r="AS26" s="14">
         <v>0</v>
       </c>
       <c r="AT26" s="14">
+        <v>0</v>
+      </c>
+      <c r="AU26" s="14">
+        <v>0</v>
+      </c>
+      <c r="AV26" s="14">
         <v>20000</v>
       </c>
-      <c r="AU26" s="33"/>
-      <c r="AV26" s="14">
+      <c r="AW26" s="36"/>
+      <c r="AX26" s="14">
         <v>8192</v>
       </c>
-      <c r="AW26" s="14">
+      <c r="AY26" s="14">
         <v>8192</v>
       </c>
-      <c r="AX26" s="14"/>
-      <c r="AY26" s="14">
-        <v>0</v>
-      </c>
-      <c r="AZ26" s="14">
+      <c r="AZ26" s="14"/>
+      <c r="BA26" s="14">
+        <v>0</v>
+      </c>
+      <c r="BB26" s="14">
         <v>345</v>
       </c>
-      <c r="BA26" s="14">
+      <c r="BC26" s="14">
         <v>373</v>
       </c>
-      <c r="BB26" s="40"/>
-      <c r="BC26" s="41">
+      <c r="BD26" s="37"/>
+      <c r="BE26" s="41">
         <v>0</v>
       </c>
     </row>
-    <row r="27" s="3" customFormat="1" ht="39" customHeight="1" spans="1:55">
+    <row r="27" s="3" customFormat="1" ht="39" customHeight="1" spans="1:57">
       <c r="A27" s="13" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="C27" s="12">
         <f t="shared" si="3"/>
@@ -5372,10 +5549,10 @@
         <v>25</v>
       </c>
       <c r="I27" s="14" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J27" s="14" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="K27" s="14"/>
       <c r="L27" s="14"/>
@@ -5413,7 +5590,7 @@
         <v>220</v>
       </c>
       <c r="Y27" s="11" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Z27" s="14"/>
       <c r="AA27" s="14"/>
@@ -5422,65 +5599,67 @@
       <c r="AD27" s="26"/>
       <c r="AE27" s="14"/>
       <c r="AF27" s="14"/>
-      <c r="AG27" s="14">
+      <c r="AG27" s="14"/>
+      <c r="AH27" s="14"/>
+      <c r="AI27" s="14">
         <v>225</v>
       </c>
-      <c r="AH27" s="31">
+      <c r="AJ27" s="31">
         <v>180</v>
       </c>
-      <c r="AI27" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="AJ27" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="AK27" s="32"/>
-      <c r="AL27" s="14">
+      <c r="AK27" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="AL27" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="AM27" s="32"/>
+      <c r="AN27" s="14">
         <v>600</v>
       </c>
-      <c r="AM27" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="AN27" s="14">
-        <v>1</v>
-      </c>
-      <c r="AO27" s="14">
-        <v>1</v>
-      </c>
-      <c r="AP27" s="14" t="s">
-        <v>80</v>
+      <c r="AO27" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="AP27" s="14">
+        <v>1</v>
       </c>
       <c r="AQ27" s="14">
-        <v>0</v>
-      </c>
-      <c r="AR27" s="14">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AR27" s="14" t="s">
+        <v>82</v>
       </c>
       <c r="AS27" s="14">
         <v>0</v>
       </c>
       <c r="AT27" s="14">
+        <v>0</v>
+      </c>
+      <c r="AU27" s="14">
+        <v>0</v>
+      </c>
+      <c r="AV27" s="14">
         <v>20000</v>
       </c>
-      <c r="AU27" s="33"/>
-      <c r="AV27" s="14">
+      <c r="AW27" s="36"/>
+      <c r="AX27" s="14">
         <v>8192</v>
       </c>
-      <c r="AW27" s="14">
+      <c r="AY27" s="14">
         <v>8192</v>
       </c>
-      <c r="AX27" s="14"/>
-      <c r="AY27" s="14">
-        <v>0</v>
-      </c>
-      <c r="AZ27" s="14">
+      <c r="AZ27" s="14"/>
+      <c r="BA27" s="14">
+        <v>0</v>
+      </c>
+      <c r="BB27" s="14">
         <v>345</v>
       </c>
-      <c r="BA27" s="14">
+      <c r="BC27" s="14">
         <v>373</v>
       </c>
-      <c r="BB27" s="40"/>
-      <c r="BC27" s="41">
+      <c r="BD27" s="37"/>
+      <c r="BE27" s="41">
         <v>0</v>
       </c>
     </row>

--- a/excels/units/monster/boss.xlsx
+++ b/excels/units/monster/boss.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="174">
   <si>
     <t>主键</t>
   </si>
@@ -284,6 +284,9 @@
     <t>祈风使</t>
   </si>
   <si>
+    <t>models/heroes/invoker/invoker.vmdl</t>
+  </si>
+  <si>
     <t>creature_boss_4</t>
   </si>
   <si>
@@ -305,166 +308,166 @@
     <t>寒冰使</t>
   </si>
   <si>
+    <t>creature_boss_21</t>
+  </si>
+  <si>
+    <t>creature_boss_6</t>
+  </si>
+  <si>
+    <t>npc_creature_boss_3</t>
+  </si>
+  <si>
+    <t>霹雳使</t>
+  </si>
+  <si>
+    <t>creature_boss_3</t>
+  </si>
+  <si>
+    <t>creature_boss_16</t>
+  </si>
+  <si>
+    <t>npc_creature_boss_4</t>
+  </si>
+  <si>
+    <t>烈火使</t>
+  </si>
+  <si>
+    <t>creature_boss_1</t>
+  </si>
+  <si>
+    <t>creature_boss_2</t>
+  </si>
+  <si>
+    <t>npc_creature_boss_5</t>
+  </si>
+  <si>
+    <t>元素之主</t>
+  </si>
+  <si>
+    <t>models/heroes/oracle/oracle.vmdl</t>
+  </si>
+  <si>
+    <t>creature_boss_9</t>
+  </si>
+  <si>
+    <t>creature_boss_10</t>
+  </si>
+  <si>
+    <t>creature_boss_15</t>
+  </si>
+  <si>
+    <t>creature_boss_22</t>
+  </si>
+  <si>
+    <t>creature_boss_23</t>
+  </si>
+  <si>
+    <t>creature_boss_24</t>
+  </si>
+  <si>
+    <t>creature_boss_25</t>
+  </si>
+  <si>
+    <t>creature_boss_20</t>
+  </si>
+  <si>
+    <t>npc_creature_boss_6</t>
+  </si>
+  <si>
+    <t>伐木机</t>
+  </si>
+  <si>
+    <t>models/heroes/shredder/shredder.vmdl</t>
+  </si>
+  <si>
+    <t>npc_creature_boss_7</t>
+  </si>
+  <si>
+    <t>帕吉</t>
+  </si>
+  <si>
+    <t>models/heroes/pudge/pudge.vmdl</t>
+  </si>
+  <si>
+    <t>npc_creature_boss_8</t>
+  </si>
+  <si>
+    <t>小小</t>
+  </si>
+  <si>
+    <t>models/heroes/tiny/tiny_04/tiny_04.vmdl</t>
+  </si>
+  <si>
+    <t>npc_creature_boss_9</t>
+  </si>
+  <si>
+    <t>寒冰飞龙</t>
+  </si>
+  <si>
+    <t>models/heroes/winterwyvern/winterwyvern.vmdl</t>
+  </si>
+  <si>
+    <t>npc_creature_boss_10</t>
+  </si>
+  <si>
+    <t>育母蜘蛛</t>
+  </si>
+  <si>
+    <t>models/heroes/broodmother/broodmother.vmdl</t>
+  </si>
+  <si>
+    <t>npc_creature_boss_11</t>
+  </si>
+  <si>
+    <t>马尔斯</t>
+  </si>
+  <si>
+    <t>models/heroes/mars/mars.vmdl</t>
+  </si>
+  <si>
+    <t>npc_creature_boss_12</t>
+  </si>
+  <si>
+    <t>主宰</t>
+  </si>
+  <si>
+    <t>models/heroes/juggernaut/juggernaut.vmdl</t>
+  </si>
+  <si>
+    <t>npc_creature_boss_13</t>
+  </si>
+  <si>
+    <t>斯拉克</t>
+  </si>
+  <si>
+    <t>models/heroes/slark/slark.vmdl</t>
+  </si>
+  <si>
+    <t>npc_creature_boss_14</t>
+  </si>
+  <si>
+    <t>黑暗贤者</t>
+  </si>
+  <si>
+    <t>models/heroes/dark_seer/dark_seer.vmdl</t>
+  </si>
+  <si>
+    <t>npc_creature_boss_15</t>
+  </si>
+  <si>
+    <t>树精卫士</t>
+  </si>
+  <si>
     <t>models/heroes/treant_protector/treant_protector.vmdl</t>
   </si>
   <si>
-    <t>creature_boss_21</t>
-  </si>
-  <si>
-    <t>creature_boss_6</t>
-  </si>
-  <si>
-    <t>npc_creature_boss_3</t>
-  </si>
-  <si>
-    <t>霹雳使</t>
-  </si>
-  <si>
-    <t>models/heroes/juggernaut/juggernaut.vmdl</t>
-  </si>
-  <si>
-    <t>creature_boss_3</t>
-  </si>
-  <si>
-    <t>creature_boss_16</t>
-  </si>
-  <si>
-    <t>npc_creature_boss_4</t>
-  </si>
-  <si>
-    <t>烈火使</t>
-  </si>
-  <si>
-    <t>models/heroes/elder_titan/elder_titan.vmdl</t>
-  </si>
-  <si>
-    <t>creature_boss_1</t>
-  </si>
-  <si>
-    <t>creature_boss_2</t>
-  </si>
-  <si>
-    <t>npc_creature_boss_5</t>
-  </si>
-  <si>
-    <t>元素之主</t>
+    <t>npc_creature_boss_16</t>
+  </si>
+  <si>
+    <t>獸</t>
   </si>
   <si>
     <t>models/heroes/primal_beast/primal_beast_base.vmdl</t>
-  </si>
-  <si>
-    <t>creature_boss_9</t>
-  </si>
-  <si>
-    <t>creature_boss_10</t>
-  </si>
-  <si>
-    <t>creature_boss_15</t>
-  </si>
-  <si>
-    <t>creature_boss_22</t>
-  </si>
-  <si>
-    <t>creature_boss_23</t>
-  </si>
-  <si>
-    <t>creature_boss_24</t>
-  </si>
-  <si>
-    <t>creature_boss_25</t>
-  </si>
-  <si>
-    <t>creature_boss_20</t>
-  </si>
-  <si>
-    <t>npc_creature_boss_6</t>
-  </si>
-  <si>
-    <t>伐木机</t>
-  </si>
-  <si>
-    <t>models/heroes/shredder/shredder.vmdl</t>
-  </si>
-  <si>
-    <t>npc_creature_boss_7</t>
-  </si>
-  <si>
-    <t>帕吉</t>
-  </si>
-  <si>
-    <t>models/heroes/pudge/pudge.vmdl</t>
-  </si>
-  <si>
-    <t>npc_creature_boss_8</t>
-  </si>
-  <si>
-    <t>小小</t>
-  </si>
-  <si>
-    <t>models/heroes/tiny/tiny_04/tiny_04.vmdl</t>
-  </si>
-  <si>
-    <t>npc_creature_boss_9</t>
-  </si>
-  <si>
-    <t>寒冰飞龙</t>
-  </si>
-  <si>
-    <t>models/heroes/winterwyvern/winterwyvern.vmdl</t>
-  </si>
-  <si>
-    <t>npc_creature_boss_10</t>
-  </si>
-  <si>
-    <t>育母蜘蛛</t>
-  </si>
-  <si>
-    <t>models/heroes/broodmother/broodmother.vmdl</t>
-  </si>
-  <si>
-    <t>npc_creature_boss_11</t>
-  </si>
-  <si>
-    <t>马尔斯</t>
-  </si>
-  <si>
-    <t>models/heroes/mars/mars.vmdl</t>
-  </si>
-  <si>
-    <t>npc_creature_boss_12</t>
-  </si>
-  <si>
-    <t>主宰</t>
-  </si>
-  <si>
-    <t>npc_creature_boss_13</t>
-  </si>
-  <si>
-    <t>斯拉克</t>
-  </si>
-  <si>
-    <t>models/heroes/slark/slark.vmdl</t>
-  </si>
-  <si>
-    <t>npc_creature_boss_14</t>
-  </si>
-  <si>
-    <t>黑暗贤者</t>
-  </si>
-  <si>
-    <t>models/heroes/dark_seer/dark_seer.vmdl</t>
-  </si>
-  <si>
-    <t>npc_creature_boss_15</t>
-  </si>
-  <si>
-    <t>树精卫士</t>
-  </si>
-  <si>
-    <t>npc_creature_boss_16</t>
-  </si>
-  <si>
-    <t>獸</t>
   </si>
   <si>
     <t>npc_creature_boss_17</t>
@@ -1936,9 +1939,9 @@
   <dimension ref="A1:BE27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="Y1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="AC10" sqref="AC10"/>
+      <selection pane="topRight" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2416,7 +2419,7 @@
         <v>84</v>
       </c>
       <c r="C4" s="12">
-        <v>2000</v>
+        <v>20000</v>
       </c>
       <c r="D4" s="11">
         <v>0</v>
@@ -2438,24 +2441,24 @@
         <v>76</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="K4" s="11"/>
       <c r="L4" s="11"/>
       <c r="M4" s="11">
-        <v>158</v>
+        <v>28859</v>
       </c>
       <c r="N4" s="11">
-        <v>159</v>
+        <v>29026</v>
       </c>
       <c r="O4" s="11">
-        <v>160</v>
+        <v>29028</v>
       </c>
       <c r="P4" s="11">
-        <v>161</v>
+        <v>29029</v>
       </c>
       <c r="Q4" s="11">
-        <v>162</v>
+        <v>29031</v>
       </c>
       <c r="R4" s="11"/>
       <c r="S4" s="11"/>
@@ -2473,19 +2476,19 @@
         <v>78</v>
       </c>
       <c r="Z4" s="11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA4" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AB4" s="11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AC4" s="11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AD4" s="25" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AE4" s="11"/>
       <c r="AF4" s="11"/>
@@ -2553,13 +2556,13 @@
     </row>
     <row r="5" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:57">
       <c r="A5" s="13" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C5" s="12">
-        <v>2000</v>
+        <v>20000</v>
       </c>
       <c r="D5" s="14">
         <v>0</v>
@@ -2581,23 +2584,25 @@
         <v>76</v>
       </c>
       <c r="J5" s="14" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="K5" s="14"/>
       <c r="L5" s="14"/>
-      <c r="M5" s="14">
-        <v>227</v>
-      </c>
-      <c r="N5" s="14">
-        <v>228</v>
-      </c>
-      <c r="O5" s="14">
-        <v>229</v>
-      </c>
-      <c r="P5" s="14">
-        <v>230</v>
-      </c>
-      <c r="Q5" s="14"/>
+      <c r="M5" s="11">
+        <v>28859</v>
+      </c>
+      <c r="N5" s="11">
+        <v>29026</v>
+      </c>
+      <c r="O5" s="11">
+        <v>29028</v>
+      </c>
+      <c r="P5" s="11">
+        <v>29029</v>
+      </c>
+      <c r="Q5" s="11">
+        <v>29031</v>
+      </c>
       <c r="R5" s="14"/>
       <c r="S5" s="14"/>
       <c r="T5" s="14"/>
@@ -2614,13 +2619,13 @@
         <v>78</v>
       </c>
       <c r="Z5" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA5" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="AA5" s="14" t="s">
+      <c r="AB5" s="14" t="s">
         <v>88</v>
-      </c>
-      <c r="AB5" s="14" t="s">
-        <v>87</v>
       </c>
       <c r="AC5" s="14" t="s">
         <v>93</v>
@@ -2700,7 +2705,7 @@
         <v>96</v>
       </c>
       <c r="C6" s="12">
-        <v>2000</v>
+        <v>20000</v>
       </c>
       <c r="D6" s="11">
         <v>0</v>
@@ -2722,24 +2727,24 @@
         <v>76</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="K6" s="11"/>
       <c r="L6" s="11"/>
       <c r="M6" s="11">
-        <v>6</v>
+        <v>28859</v>
       </c>
       <c r="N6" s="11">
-        <v>7</v>
+        <v>29026</v>
       </c>
       <c r="O6" s="11">
-        <v>8</v>
+        <v>29028</v>
       </c>
       <c r="P6" s="11">
-        <v>9</v>
+        <v>29029</v>
       </c>
       <c r="Q6" s="11">
-        <v>62</v>
+        <v>29031</v>
       </c>
       <c r="R6" s="11"/>
       <c r="S6" s="11"/>
@@ -2757,19 +2762,19 @@
         <v>78</v>
       </c>
       <c r="Z6" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA6" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="AA6" s="11" t="s">
+      <c r="AB6" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="AB6" s="11" t="s">
-        <v>87</v>
-      </c>
       <c r="AC6" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD6" s="25" t="s">
         <v>98</v>
-      </c>
-      <c r="AD6" s="25" t="s">
-        <v>99</v>
       </c>
       <c r="AE6" s="11"/>
       <c r="AF6" s="11"/>
@@ -2837,13 +2842,13 @@
     </row>
     <row r="7" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:57">
       <c r="A7" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="B7" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="B7" s="14" t="s">
-        <v>101</v>
-      </c>
       <c r="C7" s="12">
-        <v>2000</v>
+        <v>20000</v>
       </c>
       <c r="D7" s="14">
         <v>0</v>
@@ -2865,24 +2870,24 @@
         <v>76</v>
       </c>
       <c r="J7" s="14" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="K7" s="14"/>
       <c r="L7" s="14"/>
-      <c r="M7" s="14">
-        <v>426</v>
-      </c>
-      <c r="N7" s="14">
-        <v>427</v>
-      </c>
-      <c r="O7" s="14">
-        <v>428</v>
-      </c>
-      <c r="P7" s="14">
-        <v>429</v>
-      </c>
-      <c r="Q7" s="14">
-        <v>430</v>
+      <c r="M7" s="11">
+        <v>28859</v>
+      </c>
+      <c r="N7" s="11">
+        <v>29026</v>
+      </c>
+      <c r="O7" s="11">
+        <v>29028</v>
+      </c>
+      <c r="P7" s="11">
+        <v>29029</v>
+      </c>
+      <c r="Q7" s="11">
+        <v>29031</v>
       </c>
       <c r="R7" s="14"/>
       <c r="S7" s="14"/>
@@ -2900,19 +2905,19 @@
         <v>78</v>
       </c>
       <c r="Z7" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA7" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="AA7" s="14" t="s">
+      <c r="AB7" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="AB7" s="14" t="s">
-        <v>87</v>
-      </c>
       <c r="AC7" s="14" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AD7" s="26" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AE7" s="14"/>
       <c r="AF7" s="14"/>
@@ -2980,13 +2985,13 @@
     </row>
     <row r="8" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:57">
       <c r="A8" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C8" s="12">
-        <v>2000</v>
+        <v>20000</v>
       </c>
       <c r="D8" s="11">
         <v>0</v>
@@ -3008,18 +3013,22 @@
         <v>76</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K8" s="11"/>
       <c r="L8" s="11"/>
       <c r="M8" s="11">
-        <v>769</v>
+        <v>26913</v>
       </c>
       <c r="N8" s="11">
-        <v>770</v>
-      </c>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
+        <v>26914</v>
+      </c>
+      <c r="O8" s="11">
+        <v>26915</v>
+      </c>
+      <c r="P8" s="11">
+        <v>26916</v>
+      </c>
       <c r="Q8" s="11"/>
       <c r="R8" s="11"/>
       <c r="S8" s="11"/>
@@ -3037,31 +3046,31 @@
         <v>78</v>
       </c>
       <c r="Z8" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA8" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB8" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="AA8" s="11" t="s">
+      <c r="AC8" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="AB8" s="11" t="s">
+      <c r="AD8" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="AC8" s="11" t="s">
+      <c r="AE8" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="AD8" s="25" t="s">
+      <c r="AF8" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="AE8" s="11" t="s">
+      <c r="AG8" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="AF8" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="AG8" s="11" t="s">
-        <v>115</v>
-      </c>
       <c r="AH8" s="11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI8" s="11">
         <v>225</v>
@@ -3125,10 +3134,10 @@
     </row>
     <row r="9" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:57">
       <c r="A9" s="13" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C9" s="12">
         <f t="shared" ref="C5:C14" si="2">10000</f>
@@ -3154,7 +3163,7 @@
         <v>76</v>
       </c>
       <c r="J9" s="14" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K9" s="14"/>
       <c r="L9" s="14"/>
@@ -3261,10 +3270,10 @@
     </row>
     <row r="10" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:57">
       <c r="A10" s="10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C10" s="12">
         <f t="shared" si="2"/>
@@ -3290,7 +3299,7 @@
         <v>76</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K10" s="11"/>
       <c r="L10" s="11"/>
@@ -3397,10 +3406,10 @@
     </row>
     <row r="11" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:57">
       <c r="A11" s="13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C11" s="12">
         <f t="shared" si="2"/>
@@ -3426,7 +3435,7 @@
         <v>76</v>
       </c>
       <c r="J11" s="14" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K11" s="14"/>
       <c r="L11" s="14"/>
@@ -3529,10 +3538,10 @@
     </row>
     <row r="12" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:57">
       <c r="A12" s="10" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C12" s="12">
         <f t="shared" si="2"/>
@@ -3558,7 +3567,7 @@
         <v>76</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K12" s="11"/>
       <c r="L12" s="11"/>
@@ -3657,10 +3666,10 @@
     </row>
     <row r="13" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:57">
       <c r="A13" s="13" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C13" s="12">
         <f t="shared" si="2"/>
@@ -3686,7 +3695,7 @@
         <v>76</v>
       </c>
       <c r="J13" s="14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K13" s="14"/>
       <c r="L13" s="14"/>
@@ -3787,10 +3796,10 @@
     </row>
     <row r="14" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:57">
       <c r="A14" s="10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C14" s="12">
         <f t="shared" si="2"/>
@@ -3816,7 +3825,7 @@
         <v>76</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K14" s="11"/>
       <c r="L14" s="11"/>
@@ -3919,10 +3928,10 @@
     </row>
     <row r="15" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:57">
       <c r="A15" s="13" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C15" s="12">
         <f t="shared" ref="C15:C27" si="3">10000</f>
@@ -3948,7 +3957,7 @@
         <v>76</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>97</v>
+        <v>134</v>
       </c>
       <c r="K15" s="14"/>
       <c r="L15" s="14"/>
@@ -4053,10 +4062,10 @@
     </row>
     <row r="16" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:57">
       <c r="A16" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="B16" s="11" t="s">
         <v>136</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>137</v>
       </c>
       <c r="C16" s="12">
         <f t="shared" si="3"/>
@@ -4082,7 +4091,7 @@
         <v>76</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K16" s="11"/>
       <c r="L16" s="11"/>
@@ -4187,10 +4196,10 @@
     </row>
     <row r="17" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:57">
       <c r="A17" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="B17" s="14" t="s">
         <v>139</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>140</v>
       </c>
       <c r="C17" s="12">
         <f t="shared" si="3"/>
@@ -4216,7 +4225,7 @@
         <v>76</v>
       </c>
       <c r="J17" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K17" s="14"/>
       <c r="L17" s="14"/>
@@ -4321,10 +4330,10 @@
     </row>
     <row r="18" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:57">
       <c r="A18" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="B18" s="11" t="s">
         <v>142</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>143</v>
       </c>
       <c r="C18" s="12">
         <f t="shared" si="3"/>
@@ -4350,7 +4359,7 @@
         <v>76</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>92</v>
+        <v>143</v>
       </c>
       <c r="K18" s="11"/>
       <c r="L18" s="11"/>
@@ -4482,7 +4491,7 @@
         <v>76</v>
       </c>
       <c r="J19" s="14" t="s">
-        <v>107</v>
+        <v>146</v>
       </c>
       <c r="K19" s="14"/>
       <c r="L19" s="14"/>
@@ -4585,10 +4594,10 @@
     </row>
     <row r="20" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:57">
       <c r="A20" s="10" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C20" s="12">
         <f t="shared" si="3"/>
@@ -4614,7 +4623,7 @@
         <v>76</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K20" s="11"/>
       <c r="L20" s="11"/>
@@ -4719,10 +4728,10 @@
     </row>
     <row r="21" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:57">
       <c r="A21" s="13" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C21" s="12">
         <f t="shared" si="3"/>
@@ -4748,7 +4757,7 @@
         <v>76</v>
       </c>
       <c r="J21" s="14" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K21" s="14"/>
       <c r="L21" s="14"/>
@@ -4851,10 +4860,10 @@
     </row>
     <row r="22" s="3" customFormat="1" ht="39" customHeight="1" spans="1:57">
       <c r="A22" s="10" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C22" s="12">
         <f t="shared" si="3"/>
@@ -4880,7 +4889,7 @@
         <v>76</v>
       </c>
       <c r="J22" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K22" s="11"/>
       <c r="L22" s="11"/>
@@ -4923,10 +4932,10 @@
         <v>79</v>
       </c>
       <c r="AL22" s="11" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AM22" s="30" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AN22" s="11">
         <v>800</v>
@@ -4979,10 +4988,10 @@
     </row>
     <row r="23" s="3" customFormat="1" ht="39" customHeight="1" spans="1:57">
       <c r="A23" s="13" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C23" s="12">
         <f t="shared" si="3"/>
@@ -5008,7 +5017,7 @@
         <v>76</v>
       </c>
       <c r="J23" s="14" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K23" s="14"/>
       <c r="L23" s="14"/>
@@ -5061,10 +5070,10 @@
         <v>79</v>
       </c>
       <c r="AL23" s="14" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AM23" s="32" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AN23" s="14">
         <v>600</v>
@@ -5117,10 +5126,10 @@
     </row>
     <row r="24" s="3" customFormat="1" ht="39" customHeight="1" spans="1:57">
       <c r="A24" s="13" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C24" s="12">
         <f t="shared" si="3"/>
@@ -5146,7 +5155,7 @@
         <v>76</v>
       </c>
       <c r="J24" s="14" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K24" s="14"/>
       <c r="L24" s="14"/>
@@ -5255,10 +5264,10 @@
     </row>
     <row r="25" s="3" customFormat="1" ht="39" customHeight="1" spans="1:57">
       <c r="A25" s="13" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C25" s="12">
         <f t="shared" si="3"/>
@@ -5284,7 +5293,7 @@
         <v>76</v>
       </c>
       <c r="J25" s="14" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K25" s="14"/>
       <c r="L25" s="14"/>
@@ -5391,10 +5400,10 @@
     </row>
     <row r="26" s="3" customFormat="1" ht="39" customHeight="1" spans="1:57">
       <c r="A26" s="13" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C26" s="12">
         <f t="shared" si="3"/>
@@ -5420,7 +5429,7 @@
         <v>76</v>
       </c>
       <c r="J26" s="14" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K26" s="14"/>
       <c r="L26" s="14"/>
@@ -5523,10 +5532,10 @@
     </row>
     <row r="27" s="3" customFormat="1" ht="39" customHeight="1" spans="1:57">
       <c r="A27" s="13" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C27" s="12">
         <f t="shared" si="3"/>
@@ -5552,7 +5561,7 @@
         <v>76</v>
       </c>
       <c r="J27" s="14" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K27" s="14"/>
       <c r="L27" s="14"/>

--- a/excels/units/monster/boss.xlsx
+++ b/excels/units/monster/boss.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12345"/>
   </bookViews>
   <sheets>
     <sheet name="boss" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="195">
   <si>
     <t>主键</t>
   </si>
@@ -278,6 +278,9 @@
     <t>DOTA_HULL_SIZE_SMALL</t>
   </si>
   <si>
+    <t>ai/ai_boss.lua</t>
+  </si>
+  <si>
     <t>npc_creature_boss_1</t>
   </si>
   <si>
@@ -287,6 +290,21 @@
     <t>models/heroes/invoker/invoker.vmdl</t>
   </si>
   <si>
+    <t>28859 4</t>
+  </si>
+  <si>
+    <t>29026 4</t>
+  </si>
+  <si>
+    <t>29028 4</t>
+  </si>
+  <si>
+    <t>29029 4</t>
+  </si>
+  <si>
+    <t>29031 4</t>
+  </si>
+  <si>
     <t>creature_boss_4</t>
   </si>
   <si>
@@ -308,6 +326,21 @@
     <t>寒冰使</t>
   </si>
   <si>
+    <t>28859 1</t>
+  </si>
+  <si>
+    <t>29026 1</t>
+  </si>
+  <si>
+    <t>29028 1</t>
+  </si>
+  <si>
+    <t>29029 1</t>
+  </si>
+  <si>
+    <t>29031 1</t>
+  </si>
+  <si>
     <t>creature_boss_21</t>
   </si>
   <si>
@@ -320,6 +353,21 @@
     <t>霹雳使</t>
   </si>
   <si>
+    <t>28859 2</t>
+  </si>
+  <si>
+    <t>29026 2</t>
+  </si>
+  <si>
+    <t>29028 2</t>
+  </si>
+  <si>
+    <t>29029 2</t>
+  </si>
+  <si>
+    <t>29031 2</t>
+  </si>
+  <si>
     <t>creature_boss_3</t>
   </si>
   <si>
@@ -330,6 +378,21 @@
   </si>
   <si>
     <t>烈火使</t>
+  </si>
+  <si>
+    <t>28859 3</t>
+  </si>
+  <si>
+    <t>29026 3</t>
+  </si>
+  <si>
+    <t>29028 3</t>
+  </si>
+  <si>
+    <t>29029 3</t>
+  </si>
+  <si>
+    <t>29031 3</t>
   </si>
   <si>
     <t>creature_boss_1</t>
@@ -1457,7 +1520,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1564,9 +1627,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1939,9 +1999,9 @@
   <dimension ref="A1:BE27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="F8" sqref="F8"/>
+      <selection pane="topRight" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2104,7 +2164,7 @@
       <c r="BB1" s="5"/>
       <c r="BC1" s="15"/>
       <c r="BD1" s="33"/>
-      <c r="BE1" s="38"/>
+      <c r="BE1" s="37"/>
     </row>
     <row r="2" s="2" customFormat="1" ht="118.5" customHeight="1" spans="1:57">
       <c r="A2" s="7" t="s">
@@ -2275,7 +2335,7 @@
       <c r="BD2" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="BE2" s="39" t="s">
+      <c r="BE2" s="38" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2389,7 +2449,9 @@
       <c r="AV3" s="11">
         <v>20000</v>
       </c>
-      <c r="AW3" s="12"/>
+      <c r="AW3" s="12" t="s">
+        <v>83</v>
+      </c>
       <c r="AX3" s="11">
         <v>8192</v>
       </c>
@@ -2407,16 +2469,16 @@
         <v>373</v>
       </c>
       <c r="BD3" s="35"/>
-      <c r="BE3" s="40">
+      <c r="BE3" s="39">
         <v>0</v>
       </c>
     </row>
     <row r="4" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:57">
       <c r="A4" s="10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C4" s="12">
         <v>20000</v>
@@ -2441,26 +2503,28 @@
         <v>76</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K4" s="11"/>
       <c r="L4" s="11"/>
-      <c r="M4" s="11">
-        <v>28859</v>
-      </c>
-      <c r="N4" s="11">
-        <v>29026</v>
-      </c>
-      <c r="O4" s="11">
-        <v>29028</v>
-      </c>
-      <c r="P4" s="11">
-        <v>29029</v>
-      </c>
-      <c r="Q4" s="11">
-        <v>29031</v>
-      </c>
-      <c r="R4" s="11"/>
+      <c r="M4" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="N4" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="O4" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="P4" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q4" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="R4" s="11">
+        <v>98</v>
+      </c>
       <c r="S4" s="11"/>
       <c r="T4" s="11"/>
       <c r="U4" s="11"/>
@@ -2476,19 +2540,19 @@
         <v>78</v>
       </c>
       <c r="Z4" s="11" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="AA4" s="11" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="AB4" s="11" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="AC4" s="11" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="AD4" s="25" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="AE4" s="11"/>
       <c r="AF4" s="11"/>
@@ -2532,7 +2596,9 @@
       <c r="AV4" s="11">
         <v>20000</v>
       </c>
-      <c r="AW4" s="12"/>
+      <c r="AW4" s="12" t="s">
+        <v>83</v>
+      </c>
       <c r="AX4" s="11">
         <v>8192</v>
       </c>
@@ -2550,16 +2616,16 @@
         <v>373</v>
       </c>
       <c r="BD4" s="35"/>
-      <c r="BE4" s="40">
+      <c r="BE4" s="39">
         <v>0</v>
       </c>
     </row>
     <row r="5" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:57">
       <c r="A5" s="13" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="C5" s="12">
         <v>20000</v>
@@ -2584,54 +2650,56 @@
         <v>76</v>
       </c>
       <c r="J5" s="14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K5" s="14"/>
       <c r="L5" s="14"/>
-      <c r="M5" s="11">
-        <v>28859</v>
-      </c>
-      <c r="N5" s="11">
-        <v>29026</v>
-      </c>
-      <c r="O5" s="11">
-        <v>29028</v>
-      </c>
-      <c r="P5" s="11">
-        <v>29029</v>
-      </c>
-      <c r="Q5" s="11">
-        <v>29031</v>
-      </c>
-      <c r="R5" s="14"/>
+      <c r="M5" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="N5" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="O5" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="P5" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q5" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="R5" s="11">
+        <v>98</v>
+      </c>
       <c r="S5" s="14"/>
       <c r="T5" s="14"/>
       <c r="U5" s="14"/>
       <c r="V5" s="14"/>
-      <c r="W5" s="14">
-        <v>2</v>
+      <c r="W5" s="11">
+        <v>2.3</v>
       </c>
       <c r="X5" s="26">
         <f t="shared" ref="X5:X27" si="1">100+W5*60</f>
-        <v>220</v>
+        <v>238</v>
       </c>
       <c r="Y5" s="11" t="s">
         <v>78</v>
       </c>
       <c r="Z5" s="14" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="AA5" s="14" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="AB5" s="14" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="AC5" s="14" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="AD5" s="26" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="AE5" s="14"/>
       <c r="AF5" s="14"/>
@@ -2675,7 +2743,9 @@
       <c r="AV5" s="14">
         <v>20000</v>
       </c>
-      <c r="AW5" s="36"/>
+      <c r="AW5" s="12" t="s">
+        <v>83</v>
+      </c>
       <c r="AX5" s="14">
         <v>8192</v>
       </c>
@@ -2692,17 +2762,17 @@
       <c r="BC5" s="14">
         <v>373</v>
       </c>
-      <c r="BD5" s="37"/>
-      <c r="BE5" s="41">
+      <c r="BD5" s="36"/>
+      <c r="BE5" s="40">
         <v>0</v>
       </c>
     </row>
     <row r="6" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:57">
       <c r="A6" s="10" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="C6" s="12">
         <v>20000</v>
@@ -2727,54 +2797,56 @@
         <v>76</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K6" s="11"/>
       <c r="L6" s="11"/>
-      <c r="M6" s="11">
-        <v>28859</v>
-      </c>
-      <c r="N6" s="11">
-        <v>29026</v>
-      </c>
-      <c r="O6" s="11">
-        <v>29028</v>
-      </c>
-      <c r="P6" s="11">
-        <v>29029</v>
-      </c>
-      <c r="Q6" s="11">
-        <v>29031</v>
-      </c>
-      <c r="R6" s="11"/>
+      <c r="M6" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="N6" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="O6" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="P6" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q6" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="R6" s="11">
+        <v>98</v>
+      </c>
       <c r="S6" s="11"/>
       <c r="T6" s="11"/>
       <c r="U6" s="11"/>
       <c r="V6" s="11"/>
       <c r="W6" s="11">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="X6" s="25">
         <f t="shared" si="1"/>
-        <v>256</v>
+        <v>238</v>
       </c>
       <c r="Y6" s="11" t="s">
         <v>78</v>
       </c>
       <c r="Z6" s="11" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="AA6" s="11" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="AB6" s="11" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="AC6" s="11" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="AD6" s="25" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="AE6" s="11"/>
       <c r="AF6" s="11"/>
@@ -2818,7 +2890,9 @@
       <c r="AV6" s="11">
         <v>20000</v>
       </c>
-      <c r="AW6" s="12"/>
+      <c r="AW6" s="12" t="s">
+        <v>83</v>
+      </c>
       <c r="AX6" s="11">
         <v>8192</v>
       </c>
@@ -2836,16 +2910,16 @@
         <v>373</v>
       </c>
       <c r="BD6" s="35"/>
-      <c r="BE6" s="42">
+      <c r="BE6" s="41">
         <v>1</v>
       </c>
     </row>
     <row r="7" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:57">
       <c r="A7" s="13" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="C7" s="12">
         <v>20000</v>
@@ -2870,54 +2944,56 @@
         <v>76</v>
       </c>
       <c r="J7" s="14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K7" s="14"/>
       <c r="L7" s="14"/>
-      <c r="M7" s="11">
-        <v>28859</v>
-      </c>
-      <c r="N7" s="11">
-        <v>29026</v>
-      </c>
-      <c r="O7" s="11">
-        <v>29028</v>
-      </c>
-      <c r="P7" s="11">
-        <v>29029</v>
-      </c>
-      <c r="Q7" s="11">
-        <v>29031</v>
-      </c>
-      <c r="R7" s="14"/>
+      <c r="M7" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N7" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O7" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="P7" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q7" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="R7" s="11">
+        <v>98</v>
+      </c>
       <c r="S7" s="14"/>
       <c r="T7" s="14"/>
       <c r="U7" s="14"/>
       <c r="V7" s="14"/>
-      <c r="W7" s="14">
-        <v>2</v>
+      <c r="W7" s="11">
+        <v>2.3</v>
       </c>
       <c r="X7" s="26">
         <f t="shared" si="1"/>
-        <v>220</v>
+        <v>238</v>
       </c>
       <c r="Y7" s="11" t="s">
         <v>78</v>
       </c>
       <c r="Z7" s="14" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="AA7" s="14" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="AB7" s="14" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="AC7" s="14" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="AD7" s="26" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="AE7" s="14"/>
       <c r="AF7" s="14"/>
@@ -2961,7 +3037,9 @@
       <c r="AV7" s="14">
         <v>20000</v>
       </c>
-      <c r="AW7" s="36"/>
+      <c r="AW7" s="12" t="s">
+        <v>83</v>
+      </c>
       <c r="AX7" s="14">
         <v>8192</v>
       </c>
@@ -2978,17 +3056,17 @@
       <c r="BC7" s="14">
         <v>373</v>
       </c>
-      <c r="BD7" s="37"/>
-      <c r="BE7" s="41">
+      <c r="BD7" s="36"/>
+      <c r="BE7" s="40">
         <v>0</v>
       </c>
     </row>
     <row r="8" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:57">
       <c r="A8" s="10" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="C8" s="12">
         <v>20000</v>
@@ -3013,7 +3091,7 @@
         <v>76</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="K8" s="11"/>
       <c r="L8" s="11"/>
@@ -3046,31 +3124,31 @@
         <v>78</v>
       </c>
       <c r="Z8" s="11" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="AA8" s="11" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="AB8" s="11" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="AC8" s="11" t="s">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="AD8" s="25" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="AE8" s="11" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="AF8" s="11" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="AG8" s="11" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="AH8" s="11" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="AI8" s="11">
         <v>225</v>
@@ -3110,7 +3188,9 @@
       <c r="AV8" s="11">
         <v>20000</v>
       </c>
-      <c r="AW8" s="12"/>
+      <c r="AW8" s="12" t="s">
+        <v>83</v>
+      </c>
       <c r="AX8" s="11">
         <v>8192</v>
       </c>
@@ -3128,16 +3208,16 @@
         <v>373</v>
       </c>
       <c r="BD8" s="35"/>
-      <c r="BE8" s="42">
+      <c r="BE8" s="41">
         <v>0</v>
       </c>
     </row>
     <row r="9" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:57">
       <c r="A9" s="13" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="C9" s="12">
         <f t="shared" ref="C5:C14" si="2">10000</f>
@@ -3163,7 +3243,7 @@
         <v>76</v>
       </c>
       <c r="J9" s="14" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="K9" s="14"/>
       <c r="L9" s="14"/>
@@ -3246,7 +3326,9 @@
       <c r="AV9" s="14">
         <v>20000</v>
       </c>
-      <c r="AW9" s="36"/>
+      <c r="AW9" s="12" t="s">
+        <v>83</v>
+      </c>
       <c r="AX9" s="14">
         <v>8192</v>
       </c>
@@ -3263,17 +3345,17 @@
       <c r="BC9" s="14">
         <v>373</v>
       </c>
-      <c r="BD9" s="37"/>
-      <c r="BE9" s="41">
+      <c r="BD9" s="36"/>
+      <c r="BE9" s="40">
         <v>0</v>
       </c>
     </row>
     <row r="10" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:57">
       <c r="A10" s="10" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="C10" s="12">
         <f t="shared" si="2"/>
@@ -3299,7 +3381,7 @@
         <v>76</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>119</v>
+        <v>140</v>
       </c>
       <c r="K10" s="11"/>
       <c r="L10" s="11"/>
@@ -3382,7 +3464,9 @@
       <c r="AV10" s="11">
         <v>20000</v>
       </c>
-      <c r="AW10" s="12"/>
+      <c r="AW10" s="12" t="s">
+        <v>83</v>
+      </c>
       <c r="AX10" s="11">
         <v>8192</v>
       </c>
@@ -3400,16 +3484,16 @@
         <v>373</v>
       </c>
       <c r="BD10" s="35"/>
-      <c r="BE10" s="42">
+      <c r="BE10" s="41">
         <v>0</v>
       </c>
     </row>
     <row r="11" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:57">
       <c r="A11" s="13" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="C11" s="12">
         <f t="shared" si="2"/>
@@ -3435,7 +3519,7 @@
         <v>76</v>
       </c>
       <c r="J11" s="14" t="s">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="K11" s="14"/>
       <c r="L11" s="14"/>
@@ -3514,7 +3598,9 @@
       <c r="AV11" s="14">
         <v>20000</v>
       </c>
-      <c r="AW11" s="36"/>
+      <c r="AW11" s="12" t="s">
+        <v>83</v>
+      </c>
       <c r="AX11" s="14">
         <v>8192</v>
       </c>
@@ -3531,17 +3617,17 @@
       <c r="BC11" s="14">
         <v>373</v>
       </c>
-      <c r="BD11" s="37"/>
-      <c r="BE11" s="41">
+      <c r="BD11" s="36"/>
+      <c r="BE11" s="40">
         <v>0</v>
       </c>
     </row>
     <row r="12" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:57">
       <c r="A12" s="10" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="C12" s="12">
         <f t="shared" si="2"/>
@@ -3567,7 +3653,7 @@
         <v>76</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>125</v>
+        <v>146</v>
       </c>
       <c r="K12" s="11"/>
       <c r="L12" s="11"/>
@@ -3642,7 +3728,9 @@
       <c r="AV12" s="11">
         <v>20000</v>
       </c>
-      <c r="AW12" s="12"/>
+      <c r="AW12" s="12" t="s">
+        <v>83</v>
+      </c>
       <c r="AX12" s="11">
         <v>8192</v>
       </c>
@@ -3660,16 +3748,16 @@
         <v>373</v>
       </c>
       <c r="BD12" s="35"/>
-      <c r="BE12" s="42">
+      <c r="BE12" s="41">
         <v>0</v>
       </c>
     </row>
     <row r="13" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:57">
       <c r="A13" s="13" t="s">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="C13" s="12">
         <f t="shared" si="2"/>
@@ -3695,7 +3783,7 @@
         <v>76</v>
       </c>
       <c r="J13" s="14" t="s">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="K13" s="14"/>
       <c r="L13" s="14"/>
@@ -3772,7 +3860,9 @@
       <c r="AV13" s="14">
         <v>20000</v>
       </c>
-      <c r="AW13" s="36"/>
+      <c r="AW13" s="12" t="s">
+        <v>83</v>
+      </c>
       <c r="AX13" s="14">
         <v>8192</v>
       </c>
@@ -3789,17 +3879,17 @@
       <c r="BC13" s="14">
         <v>373</v>
       </c>
-      <c r="BD13" s="37"/>
-      <c r="BE13" s="41">
+      <c r="BD13" s="36"/>
+      <c r="BE13" s="40">
         <v>0</v>
       </c>
     </row>
     <row r="14" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:57">
       <c r="A14" s="10" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="C14" s="12">
         <f t="shared" si="2"/>
@@ -3825,7 +3915,7 @@
         <v>76</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="K14" s="11"/>
       <c r="L14" s="11"/>
@@ -3904,7 +3994,9 @@
       <c r="AV14" s="11">
         <v>20000</v>
       </c>
-      <c r="AW14" s="12"/>
+      <c r="AW14" s="12" t="s">
+        <v>83</v>
+      </c>
       <c r="AX14" s="11">
         <v>8192</v>
       </c>
@@ -3922,16 +4014,16 @@
         <v>373</v>
       </c>
       <c r="BD14" s="35"/>
-      <c r="BE14" s="42">
+      <c r="BE14" s="41">
         <v>1</v>
       </c>
     </row>
     <row r="15" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:57">
       <c r="A15" s="13" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="C15" s="12">
         <f t="shared" ref="C15:C27" si="3">10000</f>
@@ -3957,7 +4049,7 @@
         <v>76</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>134</v>
+        <v>155</v>
       </c>
       <c r="K15" s="14"/>
       <c r="L15" s="14"/>
@@ -4038,7 +4130,9 @@
       <c r="AV15" s="14">
         <v>20000</v>
       </c>
-      <c r="AW15" s="36"/>
+      <c r="AW15" s="12" t="s">
+        <v>83</v>
+      </c>
       <c r="AX15" s="14">
         <v>8192</v>
       </c>
@@ -4055,17 +4149,17 @@
       <c r="BC15" s="14">
         <v>373</v>
       </c>
-      <c r="BD15" s="37"/>
-      <c r="BE15" s="41">
+      <c r="BD15" s="36"/>
+      <c r="BE15" s="40">
         <v>1</v>
       </c>
     </row>
     <row r="16" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:57">
       <c r="A16" s="10" t="s">
-        <v>135</v>
+        <v>156</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>136</v>
+        <v>157</v>
       </c>
       <c r="C16" s="12">
         <f t="shared" si="3"/>
@@ -4091,7 +4185,7 @@
         <v>76</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>137</v>
+        <v>158</v>
       </c>
       <c r="K16" s="11"/>
       <c r="L16" s="11"/>
@@ -4172,7 +4266,9 @@
       <c r="AV16" s="11">
         <v>20000</v>
       </c>
-      <c r="AW16" s="12"/>
+      <c r="AW16" s="12" t="s">
+        <v>83</v>
+      </c>
       <c r="AX16" s="11">
         <v>8192</v>
       </c>
@@ -4190,16 +4286,16 @@
         <v>373</v>
       </c>
       <c r="BD16" s="35"/>
-      <c r="BE16" s="42">
+      <c r="BE16" s="41">
         <v>0</v>
       </c>
     </row>
     <row r="17" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:57">
       <c r="A17" s="13" t="s">
-        <v>138</v>
+        <v>159</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>139</v>
+        <v>160</v>
       </c>
       <c r="C17" s="12">
         <f t="shared" si="3"/>
@@ -4225,7 +4321,7 @@
         <v>76</v>
       </c>
       <c r="J17" s="14" t="s">
-        <v>140</v>
+        <v>161</v>
       </c>
       <c r="K17" s="14"/>
       <c r="L17" s="14"/>
@@ -4306,7 +4402,9 @@
       <c r="AV17" s="14">
         <v>20000</v>
       </c>
-      <c r="AW17" s="36"/>
+      <c r="AW17" s="12" t="s">
+        <v>83</v>
+      </c>
       <c r="AX17" s="14">
         <v>8192</v>
       </c>
@@ -4323,17 +4421,17 @@
       <c r="BC17" s="14">
         <v>373</v>
       </c>
-      <c r="BD17" s="37"/>
-      <c r="BE17" s="41">
+      <c r="BD17" s="36"/>
+      <c r="BE17" s="40">
         <v>0</v>
       </c>
     </row>
     <row r="18" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:57">
       <c r="A18" s="10" t="s">
-        <v>141</v>
+        <v>162</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="C18" s="12">
         <f t="shared" si="3"/>
@@ -4359,7 +4457,7 @@
         <v>76</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="K18" s="11"/>
       <c r="L18" s="11"/>
@@ -4438,7 +4536,9 @@
       <c r="AV18" s="11">
         <v>20000</v>
       </c>
-      <c r="AW18" s="12"/>
+      <c r="AW18" s="12" t="s">
+        <v>83</v>
+      </c>
       <c r="AX18" s="11">
         <v>8192</v>
       </c>
@@ -4456,16 +4556,16 @@
         <v>373</v>
       </c>
       <c r="BD18" s="35"/>
-      <c r="BE18" s="42">
+      <c r="BE18" s="41">
         <v>0</v>
       </c>
     </row>
     <row r="19" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:57">
       <c r="A19" s="13" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="C19" s="12">
         <f t="shared" si="3"/>
@@ -4491,7 +4591,7 @@
         <v>76</v>
       </c>
       <c r="J19" s="14" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="K19" s="14"/>
       <c r="L19" s="14"/>
@@ -4570,7 +4670,9 @@
       <c r="AV19" s="14">
         <v>20000</v>
       </c>
-      <c r="AW19" s="36"/>
+      <c r="AW19" s="12" t="s">
+        <v>83</v>
+      </c>
       <c r="AX19" s="14">
         <v>8192</v>
       </c>
@@ -4587,17 +4689,17 @@
       <c r="BC19" s="14">
         <v>373</v>
       </c>
-      <c r="BD19" s="37"/>
-      <c r="BE19" s="41">
+      <c r="BD19" s="36"/>
+      <c r="BE19" s="40">
         <v>0</v>
       </c>
     </row>
     <row r="20" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:57">
       <c r="A20" s="10" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="C20" s="12">
         <f t="shared" si="3"/>
@@ -4623,7 +4725,7 @@
         <v>76</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="K20" s="11"/>
       <c r="L20" s="11"/>
@@ -4704,7 +4806,9 @@
       <c r="AV20" s="11">
         <v>20000</v>
       </c>
-      <c r="AW20" s="12"/>
+      <c r="AW20" s="12" t="s">
+        <v>83</v>
+      </c>
       <c r="AX20" s="11">
         <v>8192</v>
       </c>
@@ -4722,16 +4826,16 @@
         <v>373</v>
       </c>
       <c r="BD20" s="35"/>
-      <c r="BE20" s="42">
+      <c r="BE20" s="41">
         <v>0</v>
       </c>
     </row>
     <row r="21" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:57">
       <c r="A21" s="13" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="C21" s="12">
         <f t="shared" si="3"/>
@@ -4757,7 +4861,7 @@
         <v>76</v>
       </c>
       <c r="J21" s="14" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="K21" s="14"/>
       <c r="L21" s="14"/>
@@ -4836,7 +4940,9 @@
       <c r="AV21" s="14">
         <v>20000</v>
       </c>
-      <c r="AW21" s="36"/>
+      <c r="AW21" s="12" t="s">
+        <v>83</v>
+      </c>
       <c r="AX21" s="14">
         <v>8192</v>
       </c>
@@ -4853,17 +4959,17 @@
       <c r="BC21" s="14">
         <v>373</v>
       </c>
-      <c r="BD21" s="37"/>
-      <c r="BE21" s="41">
+      <c r="BD21" s="36"/>
+      <c r="BE21" s="40">
         <v>0</v>
       </c>
     </row>
     <row r="22" s="3" customFormat="1" ht="39" customHeight="1" spans="1:57">
       <c r="A22" s="10" t="s">
-        <v>153</v>
+        <v>174</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>154</v>
+        <v>175</v>
       </c>
       <c r="C22" s="12">
         <f t="shared" si="3"/>
@@ -4889,7 +4995,7 @@
         <v>76</v>
       </c>
       <c r="J22" s="11" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
       <c r="K22" s="11"/>
       <c r="L22" s="11"/>
@@ -4932,10 +5038,10 @@
         <v>79</v>
       </c>
       <c r="AL22" s="11" t="s">
-        <v>156</v>
+        <v>177</v>
       </c>
       <c r="AM22" s="30" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="AN22" s="11">
         <v>800</v>
@@ -4964,7 +5070,9 @@
       <c r="AV22" s="11">
         <v>20000</v>
       </c>
-      <c r="AW22" s="12"/>
+      <c r="AW22" s="12" t="s">
+        <v>83</v>
+      </c>
       <c r="AX22" s="11">
         <v>8192</v>
       </c>
@@ -4982,16 +5090,16 @@
         <v>373</v>
       </c>
       <c r="BD22" s="35"/>
-      <c r="BE22" s="42">
+      <c r="BE22" s="41">
         <v>0</v>
       </c>
     </row>
     <row r="23" s="3" customFormat="1" ht="39" customHeight="1" spans="1:57">
       <c r="A23" s="13" t="s">
-        <v>158</v>
+        <v>179</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="C23" s="12">
         <f t="shared" si="3"/>
@@ -5017,7 +5125,7 @@
         <v>76</v>
       </c>
       <c r="J23" s="14" t="s">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="K23" s="14"/>
       <c r="L23" s="14"/>
@@ -5070,10 +5178,10 @@
         <v>79</v>
       </c>
       <c r="AL23" s="14" t="s">
-        <v>156</v>
+        <v>177</v>
       </c>
       <c r="AM23" s="32" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
       <c r="AN23" s="14">
         <v>600</v>
@@ -5102,7 +5210,9 @@
       <c r="AV23" s="14">
         <v>20000</v>
       </c>
-      <c r="AW23" s="36"/>
+      <c r="AW23" s="12" t="s">
+        <v>83</v>
+      </c>
       <c r="AX23" s="14">
         <v>8192</v>
       </c>
@@ -5119,17 +5229,17 @@
       <c r="BC23" s="14">
         <v>373</v>
       </c>
-      <c r="BD23" s="37"/>
-      <c r="BE23" s="41">
+      <c r="BD23" s="36"/>
+      <c r="BE23" s="40">
         <v>0</v>
       </c>
     </row>
     <row r="24" s="3" customFormat="1" ht="39" customHeight="1" spans="1:57">
       <c r="A24" s="13" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="C24" s="12">
         <f t="shared" si="3"/>
@@ -5155,7 +5265,7 @@
         <v>76</v>
       </c>
       <c r="J24" s="14" t="s">
-        <v>164</v>
+        <v>185</v>
       </c>
       <c r="K24" s="14"/>
       <c r="L24" s="14"/>
@@ -5240,7 +5350,9 @@
       <c r="AV24" s="14">
         <v>20000</v>
       </c>
-      <c r="AW24" s="36"/>
+      <c r="AW24" s="12" t="s">
+        <v>83</v>
+      </c>
       <c r="AX24" s="14">
         <v>8192</v>
       </c>
@@ -5257,17 +5369,17 @@
       <c r="BC24" s="14">
         <v>373</v>
       </c>
-      <c r="BD24" s="37"/>
-      <c r="BE24" s="41">
+      <c r="BD24" s="36"/>
+      <c r="BE24" s="40">
         <v>0</v>
       </c>
     </row>
     <row r="25" s="3" customFormat="1" ht="39" customHeight="1" spans="1:57">
       <c r="A25" s="13" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="C25" s="12">
         <f t="shared" si="3"/>
@@ -5293,7 +5405,7 @@
         <v>76</v>
       </c>
       <c r="J25" s="14" t="s">
-        <v>167</v>
+        <v>188</v>
       </c>
       <c r="K25" s="14"/>
       <c r="L25" s="14"/>
@@ -5376,7 +5488,9 @@
       <c r="AV25" s="14">
         <v>20000</v>
       </c>
-      <c r="AW25" s="36"/>
+      <c r="AW25" s="12" t="s">
+        <v>83</v>
+      </c>
       <c r="AX25" s="14">
         <v>8192</v>
       </c>
@@ -5393,17 +5507,17 @@
       <c r="BC25" s="14">
         <v>373</v>
       </c>
-      <c r="BD25" s="37"/>
-      <c r="BE25" s="41">
+      <c r="BD25" s="36"/>
+      <c r="BE25" s="40">
         <v>0</v>
       </c>
     </row>
     <row r="26" s="3" customFormat="1" ht="39" customHeight="1" spans="1:57">
       <c r="A26" s="13" t="s">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>169</v>
+        <v>190</v>
       </c>
       <c r="C26" s="12">
         <f t="shared" si="3"/>
@@ -5429,7 +5543,7 @@
         <v>76</v>
       </c>
       <c r="J26" s="14" t="s">
-        <v>170</v>
+        <v>191</v>
       </c>
       <c r="K26" s="14"/>
       <c r="L26" s="14"/>
@@ -5508,7 +5622,9 @@
       <c r="AV26" s="14">
         <v>20000</v>
       </c>
-      <c r="AW26" s="36"/>
+      <c r="AW26" s="12" t="s">
+        <v>83</v>
+      </c>
       <c r="AX26" s="14">
         <v>8192</v>
       </c>
@@ -5525,17 +5641,17 @@
       <c r="BC26" s="14">
         <v>373</v>
       </c>
-      <c r="BD26" s="37"/>
-      <c r="BE26" s="41">
+      <c r="BD26" s="36"/>
+      <c r="BE26" s="40">
         <v>0</v>
       </c>
     </row>
     <row r="27" s="3" customFormat="1" ht="39" customHeight="1" spans="1:57">
       <c r="A27" s="13" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>172</v>
+        <v>193</v>
       </c>
       <c r="C27" s="12">
         <f t="shared" si="3"/>
@@ -5561,7 +5677,7 @@
         <v>76</v>
       </c>
       <c r="J27" s="14" t="s">
-        <v>173</v>
+        <v>194</v>
       </c>
       <c r="K27" s="14"/>
       <c r="L27" s="14"/>
@@ -5650,7 +5766,9 @@
       <c r="AV27" s="14">
         <v>20000</v>
       </c>
-      <c r="AW27" s="36"/>
+      <c r="AW27" s="12" t="s">
+        <v>83</v>
+      </c>
       <c r="AX27" s="14">
         <v>8192</v>
       </c>
@@ -5667,8 +5785,8 @@
       <c r="BC27" s="14">
         <v>373</v>
       </c>
-      <c r="BD27" s="37"/>
-      <c r="BE27" s="41">
+      <c r="BD27" s="36"/>
+      <c r="BE27" s="40">
         <v>0</v>
       </c>
     </row>

--- a/excels/units/monster/boss.xlsx
+++ b/excels/units/monster/boss.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12345"/>
+    <workbookView windowWidth="23145" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="boss" sheetId="1" r:id="rId1"/>
@@ -290,6 +290,42 @@
     <t>models/heroes/invoker/invoker.vmdl</t>
   </si>
   <si>
+    <t>28859 1</t>
+  </si>
+  <si>
+    <t>29026 1</t>
+  </si>
+  <si>
+    <t>29028 1</t>
+  </si>
+  <si>
+    <t>29029 1</t>
+  </si>
+  <si>
+    <t>29031 1</t>
+  </si>
+  <si>
+    <t>creature_boss_4</t>
+  </si>
+  <si>
+    <t>creature_boss_17</t>
+  </si>
+  <si>
+    <t>creature_boss_7</t>
+  </si>
+  <si>
+    <t>creature_boss_8</t>
+  </si>
+  <si>
+    <t>creature_boss_19</t>
+  </si>
+  <si>
+    <t>npc_creature_boss_2</t>
+  </si>
+  <si>
+    <t>寒冰使</t>
+  </si>
+  <si>
     <t>28859 4</t>
   </si>
   <si>
@@ -305,42 +341,6 @@
     <t>29031 4</t>
   </si>
   <si>
-    <t>creature_boss_4</t>
-  </si>
-  <si>
-    <t>creature_boss_17</t>
-  </si>
-  <si>
-    <t>creature_boss_7</t>
-  </si>
-  <si>
-    <t>creature_boss_8</t>
-  </si>
-  <si>
-    <t>creature_boss_19</t>
-  </si>
-  <si>
-    <t>npc_creature_boss_2</t>
-  </si>
-  <si>
-    <t>寒冰使</t>
-  </si>
-  <si>
-    <t>28859 1</t>
-  </si>
-  <si>
-    <t>29026 1</t>
-  </si>
-  <si>
-    <t>29028 1</t>
-  </si>
-  <si>
-    <t>29029 1</t>
-  </si>
-  <si>
-    <t>29031 1</t>
-  </si>
-  <si>
     <t>creature_boss_21</t>
   </si>
   <si>
@@ -353,6 +353,33 @@
     <t>霹雳使</t>
   </si>
   <si>
+    <t>28859 3</t>
+  </si>
+  <si>
+    <t>29026 3</t>
+  </si>
+  <si>
+    <t>29028 3</t>
+  </si>
+  <si>
+    <t>29029 3</t>
+  </si>
+  <si>
+    <t>29031 3</t>
+  </si>
+  <si>
+    <t>creature_boss_3</t>
+  </si>
+  <si>
+    <t>creature_boss_16</t>
+  </si>
+  <si>
+    <t>npc_creature_boss_4</t>
+  </si>
+  <si>
+    <t>烈火使</t>
+  </si>
+  <si>
     <t>28859 2</t>
   </si>
   <si>
@@ -366,33 +393,6 @@
   </si>
   <si>
     <t>29031 2</t>
-  </si>
-  <si>
-    <t>creature_boss_3</t>
-  </si>
-  <si>
-    <t>creature_boss_16</t>
-  </si>
-  <si>
-    <t>npc_creature_boss_4</t>
-  </si>
-  <si>
-    <t>烈火使</t>
-  </si>
-  <si>
-    <t>28859 3</t>
-  </si>
-  <si>
-    <t>29026 3</t>
-  </si>
-  <si>
-    <t>29028 3</t>
-  </si>
-  <si>
-    <t>29029 3</t>
-  </si>
-  <si>
-    <t>29031 3</t>
   </si>
   <si>
     <t>creature_boss_1</t>
@@ -1999,9 +1999,9 @@
   <dimension ref="A1:BE27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="A8" sqref="A8"/>
+      <selection pane="topRight" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/excels/units/monster/boss.xlsx
+++ b/excels/units/monster/boss.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23145" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12345"/>
   </bookViews>
   <sheets>
     <sheet name="boss" sheetId="1" r:id="rId1"/>
@@ -2001,7 +2001,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="G6" sqref="G6"/>
+      <selection pane="topRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/excels/units/monster/boss.xlsx
+++ b/excels/units/monster/boss.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12345"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="boss" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="206">
   <si>
     <t>主键</t>
   </si>
@@ -110,6 +110,18 @@
     <t>夜晚视野</t>
   </si>
   <si>
+    <t>攻击动作</t>
+  </si>
+  <si>
+    <t>施法动作</t>
+  </si>
+  <si>
+    <t>移动</t>
+  </si>
+  <si>
+    <t>死亡</t>
+  </si>
+  <si>
     <t>UnitName</t>
   </si>
   <si>
@@ -437,55 +449,77 @@
     <t>npc_creature_boss_6</t>
   </si>
   <si>
-    <t>伐木机</t>
-  </si>
-  <si>
-    <t>models/heroes/shredder/shredder.vmdl</t>
+    <t>远古地狱火</t>
+  </si>
+  <si>
+    <t>models/items/warlock/golem/ti_8_warlock_darkness_apostate_golem/ti_8_warlock_darkness_apostate_golem.vmdl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">golem_attack
+</t>
+  </si>
+  <si>
+    <t>golem_flail</t>
   </si>
   <si>
     <t>npc_creature_boss_7</t>
   </si>
   <si>
-    <t>帕吉</t>
-  </si>
-  <si>
-    <t>models/heroes/pudge/pudge.vmdl</t>
+    <t>熔岩巨人</t>
+  </si>
+  <si>
+    <t>models/monster/monster0100/monster0100.vmdl</t>
+  </si>
+  <si>
+    <t>attack</t>
   </si>
   <si>
     <t>npc_creature_boss_8</t>
   </si>
   <si>
-    <t>小小</t>
-  </si>
-  <si>
-    <t>models/heroes/tiny/tiny_04/tiny_04.vmdl</t>
+    <t>烈焰神狐</t>
+  </si>
+  <si>
+    <t>models/monster/monster0124/monster0124.vmdl</t>
   </si>
   <si>
     <t>npc_creature_boss_9</t>
   </si>
   <si>
-    <t>寒冰飞龙</t>
-  </si>
-  <si>
-    <t>models/heroes/winterwyvern/winterwyvern.vmdl</t>
+    <t>地狱双头犬</t>
+  </si>
+  <si>
+    <t>models/monster/monster0201/monster0201.vmdl</t>
+  </si>
+  <si>
+    <t>cast1</t>
+  </si>
+  <si>
+    <t>cast2</t>
   </si>
   <si>
     <t>npc_creature_boss_10</t>
   </si>
   <si>
-    <t>育母蜘蛛</t>
-  </si>
-  <si>
-    <t>models/heroes/broodmother/broodmother.vmdl</t>
+    <t>烈焰战神</t>
+  </si>
+  <si>
+    <t>models/monster/monster0194/monster0194.vmdl</t>
+  </si>
+  <si>
+    <t>cast7</t>
   </si>
   <si>
     <t>npc_creature_boss_11</t>
   </si>
   <si>
-    <t>马尔斯</t>
-  </si>
-  <si>
-    <t>models/heroes/mars/mars.vmdl</t>
+    <t>炼狱之王</t>
+  </si>
+  <si>
+    <t>models/monster/monster0202/monster0202.vmdl</t>
+  </si>
+  <si>
+    <t>cast4</t>
   </si>
   <si>
     <t>npc_creature_boss_12</t>
@@ -1520,7 +1554,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1645,6 +1679,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1996,12 +2033,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:BE27"/>
+  <dimension ref="A1:BI27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" topLeftCell="AV1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="B2" sqref="B2"/>
+      <selection pane="topRight" activeCell="BI14" sqref="BI14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2051,9 +2088,11 @@
     <col min="55" max="55" width="12.0083333333333" customWidth="1"/>
     <col min="56" max="56" width="3.625" customWidth="1"/>
     <col min="57" max="57" width="20.75" customWidth="1"/>
+    <col min="58" max="58" width="24.5" customWidth="1"/>
+    <col min="59" max="59" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="39" customHeight="1" spans="1:57">
+    <row r="1" s="1" customFormat="1" ht="39" customHeight="1" spans="1:61">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2165,43 +2204,55 @@
       <c r="BC1" s="15"/>
       <c r="BD1" s="33"/>
       <c r="BE1" s="37"/>
+      <c r="BF1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="2" s="2" customFormat="1" ht="118.5" customHeight="1" spans="1:57">
       <c r="A2" s="7" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M2" s="8">
         <v>1</v>
@@ -2228,123 +2279,123 @@
         <v>8</v>
       </c>
       <c r="U2" s="22" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="V2" s="23" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="W2" s="7" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="X2" s="24" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="Y2" s="8" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="Z2" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA2" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB2" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC2" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD2" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE2" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF2" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG2" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH2" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AI2" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ2" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK2" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL2" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM2" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN2" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO2" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP2" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="AQ2" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR2" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="AS2" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="AT2" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="AU2" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="AV2" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="AW2" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="AX2" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY2" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AZ2" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="BA2" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="BB2" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC2" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="BD2" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="AA2" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB2" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC2" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="AD2" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE2" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF2" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="AG2" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="AH2" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AI2" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="AJ2" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="AK2" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="AL2" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="AM2" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="AN2" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="AO2" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP2" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="AQ2" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="AR2" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="AS2" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="AT2" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="AU2" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AV2" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="AW2" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="AX2" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="AY2" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="AZ2" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="BA2" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="BB2" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="BC2" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="BD2" s="34" t="s">
-        <v>39</v>
-      </c>
       <c r="BE2" s="38" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:57">
       <c r="A3" s="10" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C3" s="12">
         <v>100000</v>
@@ -2365,10 +2416,10 @@
         <v>25</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K3" s="11"/>
       <c r="L3" s="11"/>
@@ -2400,7 +2451,7 @@
         <v>238</v>
       </c>
       <c r="Y3" s="11" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="Z3" s="11"/>
       <c r="AA3" s="11"/>
@@ -2418,15 +2469,15 @@
         <v>180</v>
       </c>
       <c r="AK3" s="11" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="AL3" s="11" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="AM3" s="30"/>
       <c r="AN3" s="11"/>
       <c r="AO3" s="11" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="AP3" s="11">
         <v>1</v>
@@ -2435,7 +2486,7 @@
         <v>1</v>
       </c>
       <c r="AR3" s="11" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AS3" s="11">
         <v>0</v>
@@ -2450,7 +2501,7 @@
         <v>20000</v>
       </c>
       <c r="AW3" s="12" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="AX3" s="11">
         <v>8192</v>
@@ -2475,10 +2526,10 @@
     </row>
     <row r="4" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:57">
       <c r="A4" s="10" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C4" s="12">
         <v>20000</v>
@@ -2500,27 +2551,27 @@
         <v>25</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="K4" s="11"/>
       <c r="L4" s="11"/>
       <c r="M4" s="11" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="N4" s="11" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="O4" s="11" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="P4" s="11" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="Q4" s="11" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="R4" s="11">
         <v>98</v>
@@ -2537,22 +2588,22 @@
         <v>238</v>
       </c>
       <c r="Y4" s="11" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="Z4" s="11" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="AA4" s="11" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="AB4" s="11" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="AC4" s="11" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="AD4" s="25" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="AE4" s="11"/>
       <c r="AF4" s="11"/>
@@ -2565,15 +2616,15 @@
         <v>180</v>
       </c>
       <c r="AK4" s="11" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="AL4" s="11" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="AM4" s="30"/>
       <c r="AN4" s="11"/>
       <c r="AO4" s="11" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="AP4" s="11">
         <v>1</v>
@@ -2582,7 +2633,7 @@
         <v>1</v>
       </c>
       <c r="AR4" s="11" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AS4" s="11">
         <v>0</v>
@@ -2597,7 +2648,7 @@
         <v>20000</v>
       </c>
       <c r="AW4" s="12" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="AX4" s="11">
         <v>8192</v>
@@ -2622,10 +2673,10 @@
     </row>
     <row r="5" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:57">
       <c r="A5" s="13" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C5" s="12">
         <v>20000</v>
@@ -2647,27 +2698,27 @@
         <v>25</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="J5" s="14" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="K5" s="14"/>
       <c r="L5" s="14"/>
       <c r="M5" s="11" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="N5" s="11" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="O5" s="11" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="P5" s="11" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="Q5" s="11" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="R5" s="11">
         <v>98</v>
@@ -2684,22 +2735,22 @@
         <v>238</v>
       </c>
       <c r="Y5" s="11" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="Z5" s="14" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="AA5" s="14" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="AB5" s="14" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="AC5" s="14" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="AD5" s="26" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="AE5" s="14"/>
       <c r="AF5" s="14"/>
@@ -2712,15 +2763,15 @@
         <v>180</v>
       </c>
       <c r="AK5" s="14" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="AL5" s="14" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="AM5" s="32"/>
       <c r="AN5" s="14"/>
       <c r="AO5" s="14" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="AP5" s="14">
         <v>1</v>
@@ -2729,7 +2780,7 @@
         <v>1</v>
       </c>
       <c r="AR5" s="14" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AS5" s="14">
         <v>0</v>
@@ -2744,7 +2795,7 @@
         <v>20000</v>
       </c>
       <c r="AW5" s="12" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="AX5" s="14">
         <v>8192</v>
@@ -2769,10 +2820,10 @@
     </row>
     <row r="6" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:57">
       <c r="A6" s="10" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C6" s="12">
         <v>20000</v>
@@ -2794,27 +2845,27 @@
         <v>25</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="K6" s="11"/>
       <c r="L6" s="11"/>
       <c r="M6" s="11" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="N6" s="11" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="O6" s="11" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="P6" s="11" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="Q6" s="11" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="R6" s="11">
         <v>98</v>
@@ -2831,22 +2882,22 @@
         <v>238</v>
       </c>
       <c r="Y6" s="11" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="Z6" s="11" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="AA6" s="11" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="AB6" s="11" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="AC6" s="11" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="AD6" s="25" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AE6" s="11"/>
       <c r="AF6" s="11"/>
@@ -2859,15 +2910,15 @@
         <v>180</v>
       </c>
       <c r="AK6" s="11" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="AL6" s="11" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="AM6" s="30"/>
       <c r="AN6" s="11"/>
       <c r="AO6" s="11" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="AP6" s="11">
         <v>1</v>
@@ -2876,7 +2927,7 @@
         <v>1</v>
       </c>
       <c r="AR6" s="11" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AS6" s="11">
         <v>0</v>
@@ -2891,7 +2942,7 @@
         <v>20000</v>
       </c>
       <c r="AW6" s="12" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="AX6" s="11">
         <v>8192</v>
@@ -2916,10 +2967,10 @@
     </row>
     <row r="7" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:57">
       <c r="A7" s="13" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C7" s="12">
         <v>20000</v>
@@ -2941,27 +2992,27 @@
         <v>25</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="J7" s="14" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="K7" s="14"/>
       <c r="L7" s="14"/>
       <c r="M7" s="11" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="N7" s="11" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="O7" s="11" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="P7" s="11" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="Q7" s="11" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="R7" s="11">
         <v>98</v>
@@ -2978,22 +3029,22 @@
         <v>238</v>
       </c>
       <c r="Y7" s="11" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="Z7" s="14" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="AA7" s="14" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="AB7" s="14" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="AC7" s="14" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="AD7" s="26" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="AE7" s="14"/>
       <c r="AF7" s="14"/>
@@ -3006,15 +3057,15 @@
         <v>180</v>
       </c>
       <c r="AK7" s="14" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="AL7" s="14" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="AM7" s="32"/>
       <c r="AN7" s="14"/>
       <c r="AO7" s="14" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="AP7" s="14">
         <v>1</v>
@@ -3023,7 +3074,7 @@
         <v>1</v>
       </c>
       <c r="AR7" s="14" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AS7" s="14">
         <v>0</v>
@@ -3038,7 +3089,7 @@
         <v>20000</v>
       </c>
       <c r="AW7" s="12" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="AX7" s="14">
         <v>8192</v>
@@ -3063,10 +3114,10 @@
     </row>
     <row r="8" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:57">
       <c r="A8" s="10" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C8" s="12">
         <v>20000</v>
@@ -3088,10 +3139,10 @@
         <v>25</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="K8" s="11"/>
       <c r="L8" s="11"/>
@@ -3121,34 +3172,34 @@
         <v>232</v>
       </c>
       <c r="Y8" s="11" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="Z8" s="11" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="AA8" s="11" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="AB8" s="11" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="AC8" s="11" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="AD8" s="25" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="AE8" s="11" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="AF8" s="11" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="AG8" s="11" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="AH8" s="11" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="AI8" s="11">
         <v>225</v>
@@ -3157,15 +3208,15 @@
         <v>180</v>
       </c>
       <c r="AK8" s="11" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="AL8" s="11" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="AM8" s="30"/>
       <c r="AN8" s="11"/>
       <c r="AO8" s="11" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="AP8" s="11">
         <v>1</v>
@@ -3174,7 +3225,7 @@
         <v>1</v>
       </c>
       <c r="AR8" s="11" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AS8" s="11">
         <v>0</v>
@@ -3189,7 +3240,7 @@
         <v>20000</v>
       </c>
       <c r="AW8" s="12" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="AX8" s="11">
         <v>8192</v>
@@ -3212,26 +3263,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:57">
+    <row r="9" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:59">
       <c r="A9" s="13" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C9" s="12">
-        <f t="shared" ref="C5:C14" si="2">10000</f>
-        <v>10000</v>
+        <f>35000</f>
+        <v>35000</v>
       </c>
       <c r="D9" s="14">
         <v>0</v>
       </c>
       <c r="E9" s="14">
-        <v>2500</v>
+        <v>100</v>
       </c>
       <c r="F9" s="11">
-        <f t="shared" si="0"/>
-        <v>2500</v>
+        <f>E9*1</f>
+        <v>100</v>
       </c>
       <c r="G9" s="14">
         <v>1</v>
@@ -3240,31 +3291,19 @@
         <v>25</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="J9" s="14" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="K9" s="14"/>
       <c r="L9" s="14"/>
-      <c r="M9" s="14">
-        <v>7581</v>
-      </c>
-      <c r="N9" s="14">
-        <v>12927</v>
-      </c>
-      <c r="O9" s="14">
-        <v>9695</v>
-      </c>
-      <c r="P9" s="14">
-        <v>9694</v>
-      </c>
-      <c r="Q9" s="14">
-        <v>9693</v>
-      </c>
-      <c r="R9" s="14">
-        <v>9692</v>
-      </c>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14"/>
       <c r="S9" s="14"/>
       <c r="T9" s="14"/>
       <c r="U9" s="14"/>
@@ -3277,7 +3316,7 @@
         <v>226</v>
       </c>
       <c r="Y9" s="11" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="Z9" s="14"/>
       <c r="AA9" s="14"/>
@@ -3295,15 +3334,15 @@
         <v>180</v>
       </c>
       <c r="AK9" s="14" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="AL9" s="14" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="AM9" s="32"/>
       <c r="AN9" s="14"/>
       <c r="AO9" s="14" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="AP9" s="14">
         <v>1</v>
@@ -3312,7 +3351,7 @@
         <v>1</v>
       </c>
       <c r="AR9" s="14" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AS9" s="14">
         <v>0</v>
@@ -3327,7 +3366,7 @@
         <v>20000</v>
       </c>
       <c r="AW9" s="12" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="AX9" s="14">
         <v>8192</v>
@@ -3349,27 +3388,33 @@
       <c r="BE9" s="40">
         <v>0</v>
       </c>
+      <c r="BF9" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="BG9" s="3" t="s">
+        <v>143</v>
+      </c>
     </row>
-    <row r="10" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:57">
+    <row r="10" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:59">
       <c r="A10" s="10" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="C10" s="12">
-        <f t="shared" si="2"/>
-        <v>10000</v>
+        <f>35000</f>
+        <v>35000</v>
       </c>
       <c r="D10" s="11">
         <v>0</v>
       </c>
-      <c r="E10" s="11">
-        <v>2500</v>
+      <c r="E10" s="14">
+        <v>100</v>
       </c>
       <c r="F10" s="11">
         <f t="shared" si="0"/>
-        <v>2500</v>
+        <v>100</v>
       </c>
       <c r="G10" s="11">
         <v>1</v>
@@ -3378,31 +3423,19 @@
         <v>25</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="K10" s="11"/>
       <c r="L10" s="11"/>
-      <c r="M10" s="11">
-        <v>47</v>
-      </c>
-      <c r="N10" s="11">
-        <v>258</v>
-      </c>
-      <c r="O10" s="11">
-        <v>259</v>
-      </c>
-      <c r="P10" s="11">
-        <v>260</v>
-      </c>
-      <c r="Q10" s="11">
-        <v>261</v>
-      </c>
-      <c r="R10" s="11">
-        <v>262</v>
-      </c>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
       <c r="S10" s="11"/>
       <c r="T10" s="11"/>
       <c r="U10" s="11"/>
@@ -3415,7 +3448,7 @@
         <v>226</v>
       </c>
       <c r="Y10" s="11" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="Z10" s="11"/>
       <c r="AA10" s="11"/>
@@ -3433,15 +3466,15 @@
         <v>180</v>
       </c>
       <c r="AK10" s="11" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="AL10" s="11" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="AM10" s="30"/>
       <c r="AN10" s="11"/>
       <c r="AO10" s="11" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="AP10" s="11">
         <v>1</v>
@@ -3450,7 +3483,7 @@
         <v>1</v>
       </c>
       <c r="AR10" s="11" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AS10" s="11">
         <v>0</v>
@@ -3465,7 +3498,7 @@
         <v>20000</v>
       </c>
       <c r="AW10" s="12" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="AX10" s="11">
         <v>8192</v>
@@ -3487,27 +3520,33 @@
       <c r="BE10" s="41">
         <v>0</v>
       </c>
+      <c r="BF10" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="BG10" s="3" t="s">
+        <v>147</v>
+      </c>
     </row>
-    <row r="11" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:57">
+    <row r="11" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:59">
       <c r="A11" s="13" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="C11" s="12">
-        <f t="shared" si="2"/>
-        <v>10000</v>
+        <f>35000</f>
+        <v>35000</v>
       </c>
       <c r="D11" s="14">
         <v>0</v>
       </c>
       <c r="E11" s="14">
-        <v>2500</v>
+        <v>100</v>
       </c>
       <c r="F11" s="11">
         <f t="shared" si="0"/>
-        <v>2500</v>
+        <v>100</v>
       </c>
       <c r="G11" s="14">
         <v>1</v>
@@ -3516,25 +3555,17 @@
         <v>25</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="J11" s="14" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="K11" s="14"/>
       <c r="L11" s="14"/>
-      <c r="M11" s="14">
-        <v>493</v>
-      </c>
-      <c r="N11" s="14">
-        <v>494</v>
-      </c>
-      <c r="O11" s="14">
-        <v>495</v>
-      </c>
-      <c r="P11" s="14">
-        <v>496</v>
-      </c>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
       <c r="Q11" s="14"/>
       <c r="R11" s="14"/>
       <c r="S11" s="14"/>
@@ -3549,7 +3580,7 @@
         <v>226</v>
       </c>
       <c r="Y11" s="11" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="Z11" s="14"/>
       <c r="AA11" s="14"/>
@@ -3567,15 +3598,15 @@
         <v>180</v>
       </c>
       <c r="AK11" s="14" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="AL11" s="14" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="AM11" s="32"/>
       <c r="AN11" s="14"/>
       <c r="AO11" s="14" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="AP11" s="14">
         <v>1</v>
@@ -3584,7 +3615,7 @@
         <v>1</v>
       </c>
       <c r="AR11" s="14" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AS11" s="14">
         <v>0</v>
@@ -3599,7 +3630,7 @@
         <v>20000</v>
       </c>
       <c r="AW11" s="12" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="AX11" s="14">
         <v>8192</v>
@@ -3621,27 +3652,33 @@
       <c r="BE11" s="40">
         <v>0</v>
       </c>
+      <c r="BF11" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="BG11" s="3" t="s">
+        <v>147</v>
+      </c>
     </row>
-    <row r="12" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:57">
+    <row r="12" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:59">
       <c r="A12" s="10" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="C12" s="12">
-        <f t="shared" si="2"/>
-        <v>10000</v>
+        <f>35000</f>
+        <v>35000</v>
       </c>
       <c r="D12" s="11">
         <v>0</v>
       </c>
-      <c r="E12" s="11">
-        <v>2500</v>
+      <c r="E12" s="14">
+        <v>100</v>
       </c>
       <c r="F12" s="11">
         <f t="shared" si="0"/>
-        <v>2500</v>
+        <v>100</v>
       </c>
       <c r="G12" s="11">
         <v>1</v>
@@ -3650,19 +3687,15 @@
         <v>25</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="K12" s="11"/>
       <c r="L12" s="11"/>
-      <c r="M12" s="11">
-        <v>551</v>
-      </c>
-      <c r="N12" s="11">
-        <v>552</v>
-      </c>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
       <c r="O12" s="11"/>
       <c r="P12" s="11"/>
       <c r="Q12" s="11"/>
@@ -3679,7 +3712,7 @@
         <v>226</v>
       </c>
       <c r="Y12" s="11" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="Z12" s="11"/>
       <c r="AA12" s="11"/>
@@ -3697,15 +3730,15 @@
         <v>180</v>
       </c>
       <c r="AK12" s="11" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="AL12" s="11" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="AM12" s="30"/>
       <c r="AN12" s="11"/>
       <c r="AO12" s="11" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="AP12" s="11">
         <v>1</v>
@@ -3714,7 +3747,7 @@
         <v>1</v>
       </c>
       <c r="AR12" s="11" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AS12" s="11">
         <v>0</v>
@@ -3729,7 +3762,7 @@
         <v>20000</v>
       </c>
       <c r="AW12" s="12" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="AX12" s="11">
         <v>8192</v>
@@ -3751,27 +3784,33 @@
       <c r="BE12" s="41">
         <v>0</v>
       </c>
+      <c r="BF12" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="BG12" s="3" t="s">
+        <v>155</v>
+      </c>
     </row>
-    <row r="13" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:57">
+    <row r="13" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:59">
       <c r="A13" s="13" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="C13" s="12">
-        <f t="shared" si="2"/>
-        <v>10000</v>
+        <f>35000</f>
+        <v>35000</v>
       </c>
       <c r="D13" s="14">
         <v>0</v>
       </c>
       <c r="E13" s="14">
-        <v>2500</v>
+        <v>100</v>
       </c>
       <c r="F13" s="11">
         <f t="shared" si="0"/>
-        <v>2500</v>
+        <v>100</v>
       </c>
       <c r="G13" s="14">
         <v>1</v>
@@ -3780,22 +3819,16 @@
         <v>25</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="J13" s="14" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="K13" s="14"/>
       <c r="L13" s="14"/>
-      <c r="M13" s="14">
-        <v>101</v>
-      </c>
-      <c r="N13" s="14">
-        <v>102</v>
-      </c>
-      <c r="O13" s="14">
-        <v>103</v>
-      </c>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
       <c r="P13" s="14"/>
       <c r="Q13" s="14"/>
       <c r="R13" s="14"/>
@@ -3811,7 +3844,7 @@
         <v>244</v>
       </c>
       <c r="Y13" s="11" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="Z13" s="14"/>
       <c r="AA13" s="14"/>
@@ -3829,15 +3862,15 @@
         <v>180</v>
       </c>
       <c r="AK13" s="14" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="AL13" s="14" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="AM13" s="32"/>
       <c r="AN13" s="14"/>
       <c r="AO13" s="14" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="AP13" s="14">
         <v>1</v>
@@ -3846,7 +3879,7 @@
         <v>1</v>
       </c>
       <c r="AR13" s="14" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AS13" s="14">
         <v>0</v>
@@ -3861,7 +3894,7 @@
         <v>20000</v>
       </c>
       <c r="AW13" s="12" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="AX13" s="14">
         <v>8192</v>
@@ -3883,27 +3916,33 @@
       <c r="BE13" s="40">
         <v>0</v>
       </c>
+      <c r="BF13" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="BG13" s="3" t="s">
+        <v>159</v>
+      </c>
     </row>
-    <row r="14" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:57">
+    <row r="14" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:59">
       <c r="A14" s="10" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="C14" s="12">
-        <f t="shared" si="2"/>
-        <v>10000</v>
+        <f>50000</f>
+        <v>50000</v>
       </c>
       <c r="D14" s="11">
         <v>0</v>
       </c>
       <c r="E14" s="11">
-        <v>2500</v>
+        <v>200</v>
       </c>
       <c r="F14" s="11">
         <f t="shared" si="0"/>
-        <v>2500</v>
+        <v>200</v>
       </c>
       <c r="G14" s="11">
         <v>1</v>
@@ -3912,25 +3951,17 @@
         <v>25</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="K14" s="11"/>
       <c r="L14" s="11"/>
-      <c r="M14" s="11">
-        <v>17675</v>
-      </c>
-      <c r="N14" s="11">
-        <v>17676</v>
-      </c>
-      <c r="O14" s="11">
-        <v>17677</v>
-      </c>
-      <c r="P14" s="11">
-        <v>17678</v>
-      </c>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
       <c r="Q14" s="11"/>
       <c r="R14" s="11"/>
       <c r="S14" s="11"/>
@@ -3945,7 +3976,7 @@
         <v>226</v>
       </c>
       <c r="Y14" s="11" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="Z14" s="11"/>
       <c r="AA14" s="11"/>
@@ -3963,15 +3994,15 @@
         <v>180</v>
       </c>
       <c r="AK14" s="11" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="AL14" s="11" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="AM14" s="30"/>
       <c r="AN14" s="11"/>
       <c r="AO14" s="11" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="AP14" s="11">
         <v>1</v>
@@ -3980,7 +4011,7 @@
         <v>1</v>
       </c>
       <c r="AR14" s="11" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AS14" s="11">
         <v>0</v>
@@ -3995,7 +4026,7 @@
         <v>20000</v>
       </c>
       <c r="AW14" s="12" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="AX14" s="11">
         <v>8192</v>
@@ -4016,17 +4047,23 @@
       <c r="BD14" s="35"/>
       <c r="BE14" s="41">
         <v>1</v>
+      </c>
+      <c r="BF14" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="BG14" s="3" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="15" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:57">
       <c r="A15" s="13" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="C15" s="12">
-        <f t="shared" ref="C15:C27" si="3">10000</f>
+        <f t="shared" ref="C15:C27" si="2">10000</f>
         <v>10000</v>
       </c>
       <c r="D15" s="14">
@@ -4046,10 +4083,10 @@
         <v>25</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="K15" s="14"/>
       <c r="L15" s="14"/>
@@ -4081,7 +4118,7 @@
         <v>226</v>
       </c>
       <c r="Y15" s="11" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="Z15" s="14"/>
       <c r="AA15" s="14"/>
@@ -4099,15 +4136,15 @@
         <v>180</v>
       </c>
       <c r="AK15" s="14" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="AL15" s="14" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="AM15" s="32"/>
       <c r="AN15" s="14"/>
       <c r="AO15" s="14" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="AP15" s="14">
         <v>1</v>
@@ -4116,7 +4153,7 @@
         <v>1</v>
       </c>
       <c r="AR15" s="14" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AS15" s="14">
         <v>0</v>
@@ -4131,7 +4168,7 @@
         <v>20000</v>
       </c>
       <c r="AW15" s="12" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="AX15" s="14">
         <v>8192</v>
@@ -4156,13 +4193,13 @@
     </row>
     <row r="16" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:57">
       <c r="A16" s="10" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="C16" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
       <c r="D16" s="11">
@@ -4182,10 +4219,10 @@
         <v>25</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="K16" s="11"/>
       <c r="L16" s="11"/>
@@ -4217,7 +4254,7 @@
         <v>226</v>
       </c>
       <c r="Y16" s="11" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="Z16" s="11"/>
       <c r="AA16" s="11"/>
@@ -4235,15 +4272,15 @@
         <v>180</v>
       </c>
       <c r="AK16" s="11" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="AL16" s="11" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="AM16" s="30"/>
       <c r="AN16" s="11"/>
       <c r="AO16" s="11" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="AP16" s="11">
         <v>1</v>
@@ -4252,7 +4289,7 @@
         <v>1</v>
       </c>
       <c r="AR16" s="11" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AS16" s="11">
         <v>0</v>
@@ -4267,7 +4304,7 @@
         <v>20000</v>
       </c>
       <c r="AW16" s="12" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="AX16" s="11">
         <v>8192</v>
@@ -4292,13 +4329,13 @@
     </row>
     <row r="17" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:57">
       <c r="A17" s="13" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="C17" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
       <c r="D17" s="14">
@@ -4318,10 +4355,10 @@
         <v>25</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="J17" s="14" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="K17" s="14"/>
       <c r="L17" s="14"/>
@@ -4353,7 +4390,7 @@
         <v>226</v>
       </c>
       <c r="Y17" s="11" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="Z17" s="14"/>
       <c r="AA17" s="14"/>
@@ -4371,15 +4408,15 @@
         <v>180</v>
       </c>
       <c r="AK17" s="14" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="AL17" s="14" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="AM17" s="32"/>
       <c r="AN17" s="14"/>
       <c r="AO17" s="14" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="AP17" s="14">
         <v>1</v>
@@ -4388,7 +4425,7 @@
         <v>1</v>
       </c>
       <c r="AR17" s="14" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AS17" s="14">
         <v>0</v>
@@ -4403,7 +4440,7 @@
         <v>20000</v>
       </c>
       <c r="AW17" s="12" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="AX17" s="14">
         <v>8192</v>
@@ -4428,13 +4465,13 @@
     </row>
     <row r="18" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:57">
       <c r="A18" s="10" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="C18" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
       <c r="D18" s="11">
@@ -4454,10 +4491,10 @@
         <v>25</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="K18" s="11"/>
       <c r="L18" s="11"/>
@@ -4487,7 +4524,7 @@
         <v>226</v>
       </c>
       <c r="Y18" s="11" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="Z18" s="11"/>
       <c r="AA18" s="11"/>
@@ -4505,15 +4542,15 @@
         <v>180</v>
       </c>
       <c r="AK18" s="11" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="AL18" s="11" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="AM18" s="30"/>
       <c r="AN18" s="11"/>
       <c r="AO18" s="11" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="AP18" s="11">
         <v>1</v>
@@ -4522,7 +4559,7 @@
         <v>1</v>
       </c>
       <c r="AR18" s="11" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AS18" s="11">
         <v>0</v>
@@ -4537,7 +4574,7 @@
         <v>20000</v>
       </c>
       <c r="AW18" s="12" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="AX18" s="11">
         <v>8192</v>
@@ -4562,13 +4599,13 @@
     </row>
     <row r="19" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:57">
       <c r="A19" s="13" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="C19" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
       <c r="D19" s="14">
@@ -4588,10 +4625,10 @@
         <v>25</v>
       </c>
       <c r="I19" s="14" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="J19" s="14" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="K19" s="14"/>
       <c r="L19" s="14"/>
@@ -4621,7 +4658,7 @@
         <v>226</v>
       </c>
       <c r="Y19" s="11" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="Z19" s="14"/>
       <c r="AA19" s="14"/>
@@ -4639,15 +4676,15 @@
         <v>180</v>
       </c>
       <c r="AK19" s="14" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="AL19" s="14" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="AM19" s="32"/>
       <c r="AN19" s="14"/>
       <c r="AO19" s="14" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="AP19" s="14">
         <v>1</v>
@@ -4656,7 +4693,7 @@
         <v>1</v>
       </c>
       <c r="AR19" s="14" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AS19" s="14">
         <v>0</v>
@@ -4671,7 +4708,7 @@
         <v>20000</v>
       </c>
       <c r="AW19" s="12" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="AX19" s="14">
         <v>8192</v>
@@ -4696,13 +4733,13 @@
     </row>
     <row r="20" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:57">
       <c r="A20" s="10" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="C20" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
       <c r="D20" s="11">
@@ -4722,10 +4759,10 @@
         <v>25</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="K20" s="11"/>
       <c r="L20" s="11"/>
@@ -4757,7 +4794,7 @@
         <v>220</v>
       </c>
       <c r="Y20" s="11" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="Z20" s="11"/>
       <c r="AA20" s="11"/>
@@ -4775,15 +4812,15 @@
         <v>180</v>
       </c>
       <c r="AK20" s="11" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="AL20" s="11" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="AM20" s="30"/>
       <c r="AN20" s="11"/>
       <c r="AO20" s="11" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="AP20" s="11">
         <v>1</v>
@@ -4792,7 +4829,7 @@
         <v>1</v>
       </c>
       <c r="AR20" s="11" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AS20" s="11">
         <v>0</v>
@@ -4807,7 +4844,7 @@
         <v>20000</v>
       </c>
       <c r="AW20" s="12" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="AX20" s="11">
         <v>8192</v>
@@ -4832,13 +4869,13 @@
     </row>
     <row r="21" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:57">
       <c r="A21" s="13" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="C21" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
       <c r="D21" s="14">
@@ -4858,10 +4895,10 @@
         <v>25</v>
       </c>
       <c r="I21" s="14" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="J21" s="14" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="K21" s="14"/>
       <c r="L21" s="14"/>
@@ -4891,7 +4928,7 @@
         <v>220</v>
       </c>
       <c r="Y21" s="11" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="Z21" s="14"/>
       <c r="AA21" s="14"/>
@@ -4909,15 +4946,15 @@
         <v>180</v>
       </c>
       <c r="AK21" s="14" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="AL21" s="14" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="AM21" s="32"/>
       <c r="AN21" s="14"/>
       <c r="AO21" s="14" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="AP21" s="14">
         <v>1</v>
@@ -4926,7 +4963,7 @@
         <v>1</v>
       </c>
       <c r="AR21" s="14" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AS21" s="14">
         <v>0</v>
@@ -4941,7 +4978,7 @@
         <v>20000</v>
       </c>
       <c r="AW21" s="12" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="AX21" s="14">
         <v>8192</v>
@@ -4966,13 +5003,13 @@
     </row>
     <row r="22" s="3" customFormat="1" ht="39" customHeight="1" spans="1:57">
       <c r="A22" s="10" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="C22" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
       <c r="D22" s="11">
@@ -4992,10 +5029,10 @@
         <v>25</v>
       </c>
       <c r="I22" s="11" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="J22" s="11" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="K22" s="11"/>
       <c r="L22" s="11"/>
@@ -5017,7 +5054,7 @@
         <v>220</v>
       </c>
       <c r="Y22" s="11" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="Z22" s="11"/>
       <c r="AA22" s="11"/>
@@ -5035,19 +5072,19 @@
         <v>180</v>
       </c>
       <c r="AK22" s="11" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="AL22" s="11" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="AM22" s="30" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="AN22" s="11">
         <v>800</v>
       </c>
       <c r="AO22" s="11" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="AP22" s="11">
         <v>1</v>
@@ -5056,7 +5093,7 @@
         <v>1</v>
       </c>
       <c r="AR22" s="11" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AS22" s="11">
         <v>0</v>
@@ -5071,7 +5108,7 @@
         <v>20000</v>
       </c>
       <c r="AW22" s="12" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="AX22" s="11">
         <v>8192</v>
@@ -5096,13 +5133,13 @@
     </row>
     <row r="23" s="3" customFormat="1" ht="39" customHeight="1" spans="1:57">
       <c r="A23" s="13" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="C23" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
       <c r="D23" s="14">
@@ -5122,10 +5159,10 @@
         <v>25</v>
       </c>
       <c r="I23" s="14" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="J23" s="14" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="K23" s="14"/>
       <c r="L23" s="14"/>
@@ -5157,7 +5194,7 @@
         <v>220</v>
       </c>
       <c r="Y23" s="11" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="Z23" s="14"/>
       <c r="AA23" s="14"/>
@@ -5175,19 +5212,19 @@
         <v>180</v>
       </c>
       <c r="AK23" s="14" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="AL23" s="14" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="AM23" s="32" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="AN23" s="14">
         <v>600</v>
       </c>
       <c r="AO23" s="14" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="AP23" s="14">
         <v>1</v>
@@ -5196,7 +5233,7 @@
         <v>1</v>
       </c>
       <c r="AR23" s="14" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AS23" s="14">
         <v>0</v>
@@ -5211,7 +5248,7 @@
         <v>20000</v>
       </c>
       <c r="AW23" s="12" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="AX23" s="14">
         <v>8192</v>
@@ -5236,13 +5273,13 @@
     </row>
     <row r="24" s="3" customFormat="1" ht="39" customHeight="1" spans="1:57">
       <c r="A24" s="13" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="C24" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
       <c r="D24" s="14">
@@ -5262,10 +5299,10 @@
         <v>25</v>
       </c>
       <c r="I24" s="14" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="J24" s="14" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="K24" s="14"/>
       <c r="L24" s="14"/>
@@ -5299,7 +5336,7 @@
         <v>220</v>
       </c>
       <c r="Y24" s="11" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="Z24" s="14"/>
       <c r="AA24" s="14"/>
@@ -5317,17 +5354,17 @@
         <v>180</v>
       </c>
       <c r="AK24" s="14" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="AL24" s="14" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="AM24" s="32"/>
       <c r="AN24" s="14">
         <v>600</v>
       </c>
       <c r="AO24" s="14" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="AP24" s="14">
         <v>1</v>
@@ -5336,7 +5373,7 @@
         <v>1</v>
       </c>
       <c r="AR24" s="14" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AS24" s="14">
         <v>0</v>
@@ -5351,7 +5388,7 @@
         <v>20000</v>
       </c>
       <c r="AW24" s="12" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="AX24" s="14">
         <v>8192</v>
@@ -5376,13 +5413,13 @@
     </row>
     <row r="25" s="3" customFormat="1" ht="39" customHeight="1" spans="1:57">
       <c r="A25" s="13" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="C25" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
       <c r="D25" s="14">
@@ -5402,10 +5439,10 @@
         <v>25</v>
       </c>
       <c r="I25" s="14" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="J25" s="14" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="K25" s="14"/>
       <c r="L25" s="14"/>
@@ -5437,7 +5474,7 @@
         <v>220</v>
       </c>
       <c r="Y25" s="11" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="Z25" s="14"/>
       <c r="AA25" s="14"/>
@@ -5455,17 +5492,17 @@
         <v>180</v>
       </c>
       <c r="AK25" s="14" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="AL25" s="14" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="AM25" s="32"/>
       <c r="AN25" s="14">
         <v>600</v>
       </c>
       <c r="AO25" s="14" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="AP25" s="14">
         <v>1</v>
@@ -5474,7 +5511,7 @@
         <v>1</v>
       </c>
       <c r="AR25" s="14" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AS25" s="14">
         <v>0</v>
@@ -5489,7 +5526,7 @@
         <v>20000</v>
       </c>
       <c r="AW25" s="12" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="AX25" s="14">
         <v>8192</v>
@@ -5514,13 +5551,13 @@
     </row>
     <row r="26" s="3" customFormat="1" ht="39" customHeight="1" spans="1:57">
       <c r="A26" s="13" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="C26" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
       <c r="D26" s="14">
@@ -5540,10 +5577,10 @@
         <v>25</v>
       </c>
       <c r="I26" s="14" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="J26" s="14" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="K26" s="14"/>
       <c r="L26" s="14"/>
@@ -5571,7 +5608,7 @@
         <v>220</v>
       </c>
       <c r="Y26" s="11" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="Z26" s="14"/>
       <c r="AA26" s="14"/>
@@ -5589,17 +5626,17 @@
         <v>180</v>
       </c>
       <c r="AK26" s="14" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="AL26" s="14" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="AM26" s="32"/>
       <c r="AN26" s="14">
         <v>600</v>
       </c>
       <c r="AO26" s="14" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="AP26" s="14">
         <v>1</v>
@@ -5608,7 +5645,7 @@
         <v>1</v>
       </c>
       <c r="AR26" s="14" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AS26" s="14">
         <v>0</v>
@@ -5623,7 +5660,7 @@
         <v>20000</v>
       </c>
       <c r="AW26" s="12" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="AX26" s="14">
         <v>8192</v>
@@ -5648,13 +5685,13 @@
     </row>
     <row r="27" s="3" customFormat="1" ht="39" customHeight="1" spans="1:57">
       <c r="A27" s="13" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="C27" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
       <c r="D27" s="14">
@@ -5674,10 +5711,10 @@
         <v>25</v>
       </c>
       <c r="I27" s="14" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="J27" s="14" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="K27" s="14"/>
       <c r="L27" s="14"/>
@@ -5715,7 +5752,7 @@
         <v>220</v>
       </c>
       <c r="Y27" s="11" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="Z27" s="14"/>
       <c r="AA27" s="14"/>
@@ -5733,17 +5770,17 @@
         <v>180</v>
       </c>
       <c r="AK27" s="14" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="AL27" s="14" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="AM27" s="32"/>
       <c r="AN27" s="14">
         <v>600</v>
       </c>
       <c r="AO27" s="14" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="AP27" s="14">
         <v>1</v>
@@ -5752,7 +5789,7 @@
         <v>1</v>
       </c>
       <c r="AR27" s="14" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AS27" s="14">
         <v>0</v>
@@ -5767,7 +5804,7 @@
         <v>20000</v>
       </c>
       <c r="AW27" s="12" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="AX27" s="14">
         <v>8192</v>

--- a/excels/units/monster/boss.xlsx
+++ b/excels/units/monster/boss.xlsx
@@ -917,7 +917,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
+        <fgColor rgb="FFF48D8D"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -947,7 +947,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
+        <fgColor rgb="FFF48D8D"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1948,6 +1948,11 @@
     <cellStyle name="常规 4" xfId="49"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="00F48D8D"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2245,10 +2250,10 @@
   <sheetPr/>
   <dimension ref="A1:BJ27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="AA10" sqref="AA10"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3549,11 +3554,11 @@
       <c r="V9" s="22"/>
       <c r="W9" s="22"/>
       <c r="X9" s="22">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Y9" s="43">
         <f t="shared" si="1"/>
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="Z9" s="22" t="s">
         <v>84</v>
@@ -3950,11 +3955,11 @@
       <c r="V12" s="22"/>
       <c r="W12" s="22"/>
       <c r="X12" s="22">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="Y12" s="43">
         <f t="shared" si="1"/>
-        <v>226</v>
+        <v>190</v>
       </c>
       <c r="Z12" s="22" t="s">
         <v>84</v>
@@ -4083,11 +4088,11 @@
       <c r="V13" s="22"/>
       <c r="W13" s="22"/>
       <c r="X13" s="22">
-        <v>2.4</v>
+        <v>1.2</v>
       </c>
       <c r="Y13" s="43">
         <f t="shared" si="1"/>
-        <v>244</v>
+        <v>172</v>
       </c>
       <c r="Z13" s="22" t="s">
         <v>84</v>
@@ -4216,11 +4221,11 @@
       <c r="V14" s="22"/>
       <c r="W14" s="22"/>
       <c r="X14" s="22">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="Y14" s="43">
         <f t="shared" si="1"/>
-        <v>226</v>
+        <v>190</v>
       </c>
       <c r="Z14" s="22" t="s">
         <v>84</v>
@@ -4488,11 +4493,11 @@
       <c r="V16" s="26"/>
       <c r="W16" s="26"/>
       <c r="X16" s="26">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="Y16" s="44">
         <f t="shared" si="1"/>
-        <v>226</v>
+        <v>166</v>
       </c>
       <c r="Z16" s="26" t="s">
         <v>84</v>
@@ -4627,11 +4632,11 @@
       <c r="V17" s="26"/>
       <c r="W17" s="26"/>
       <c r="X17" s="26">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="Y17" s="44">
         <f t="shared" si="1"/>
-        <v>226</v>
+        <v>166</v>
       </c>
       <c r="Z17" s="26" t="s">
         <v>84</v>
@@ -4766,11 +4771,11 @@
       <c r="V18" s="26"/>
       <c r="W18" s="26"/>
       <c r="X18" s="26">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="Y18" s="44">
         <f t="shared" si="1"/>
-        <v>226</v>
+        <v>244</v>
       </c>
       <c r="Z18" s="26" t="s">
         <v>84</v>
@@ -4905,11 +4910,11 @@
       <c r="V19" s="26"/>
       <c r="W19" s="26"/>
       <c r="X19" s="26">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="Y19" s="44">
         <f t="shared" si="1"/>
-        <v>226</v>
+        <v>166</v>
       </c>
       <c r="Z19" s="26" t="s">
         <v>84</v>
@@ -5044,11 +5049,11 @@
       <c r="V20" s="26"/>
       <c r="W20" s="26"/>
       <c r="X20" s="26">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="Y20" s="44">
         <f t="shared" si="1"/>
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="Z20" s="26" t="s">
         <v>84</v>

--- a/excels/units/monster/boss.xlsx
+++ b/excels/units/monster/boss.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12345"/>
   </bookViews>
   <sheets>
     <sheet name="boss" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="236">
   <si>
     <t>主键</t>
   </si>
@@ -38,7 +38,7 @@
     <t>卡片ID</t>
   </si>
   <si>
-    <t>元素类型</t>
+    <t xml:space="preserve">元素类型 </t>
   </si>
   <si>
     <t>基础生命值</t>
@@ -137,7 +137,7 @@
     <t>card_id</t>
   </si>
   <si>
-    <t>1火2雷3冰4风</t>
+    <t>ElementType</t>
   </si>
   <si>
     <t>StatusHealth</t>
@@ -273,6 +273,18 @@
   </si>
   <si>
     <t>HasAggressiveStance</t>
+  </si>
+  <si>
+    <t>Animation_Attack</t>
+  </si>
+  <si>
+    <t>Animation_Cast</t>
+  </si>
+  <si>
+    <t>Animation_Move</t>
+  </si>
+  <si>
+    <t>Animation_Death</t>
   </si>
   <si>
     <t>npc_creature_boss_0</t>
@@ -947,7 +959,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="42">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -993,18 +1005,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFE6E6E6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1651,7 +1651,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1675,16 +1675,16 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1693,90 +1693,90 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1894,34 +1894,34 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1966,10 +1966,10 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="3" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1990,10 +1990,10 @@
     <xf numFmtId="177" fontId="5" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2008,10 +2008,10 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2056,23 +2056,17 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -2431,9 +2425,11 @@
   <dimension ref="A1:BK32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="BC15" activePane="bottomRight" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F24" sqref="F24"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2621,7 +2617,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="118.5" customHeight="1" spans="1:59">
+    <row r="2" s="2" customFormat="1" ht="118.5" customHeight="1" spans="1:63">
       <c r="A2" s="13" t="s">
         <v>33</v>
       </c>
@@ -2798,14 +2794,26 @@
       </c>
       <c r="BG2" s="82" t="s">
         <v>81</v>
+      </c>
+      <c r="BH2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BI2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="BJ2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="BK2" s="2" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="3" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:59">
       <c r="A3" s="18" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C3" s="20">
         <v>1</v>
@@ -2830,10 +2838,10 @@
         <v>25</v>
       </c>
       <c r="K3" s="19" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="L3" s="19" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="M3" s="19"/>
       <c r="N3" s="19"/>
@@ -2865,7 +2873,7 @@
         <v>238</v>
       </c>
       <c r="AA3" s="19" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="AB3" s="19"/>
       <c r="AC3" s="19"/>
@@ -2883,15 +2891,15 @@
         <v>180</v>
       </c>
       <c r="AM3" s="19" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AN3" s="19" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="AO3" s="73"/>
       <c r="AP3" s="19"/>
       <c r="AQ3" s="19" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="AR3" s="19">
         <v>1</v>
@@ -2900,7 +2908,7 @@
         <v>1</v>
       </c>
       <c r="AT3" s="19" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="AU3" s="19">
         <v>0</v>
@@ -2915,7 +2923,7 @@
         <v>20000</v>
       </c>
       <c r="AY3" s="22" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="AZ3" s="19">
         <v>8192</v>
@@ -2940,10 +2948,10 @@
     </row>
     <row r="4" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:59">
       <c r="A4" s="18" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C4" s="23">
         <v>2</v>
@@ -2971,27 +2979,27 @@
         <v>25</v>
       </c>
       <c r="K4" s="19" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="L4" s="19" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="M4" s="19"/>
       <c r="N4" s="19"/>
       <c r="O4" s="19" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="P4" s="19" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="Q4" s="19" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="R4" s="19" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="S4" s="19" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="T4" s="19">
         <v>98</v>
@@ -3008,22 +3016,22 @@
         <v>238</v>
       </c>
       <c r="AA4" s="19" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="AB4" s="19" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="AC4" s="19" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="AD4" s="19" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="AE4" s="19" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="AF4" s="59" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="AG4" s="19"/>
       <c r="AH4" s="19"/>
@@ -3036,15 +3044,15 @@
         <v>180</v>
       </c>
       <c r="AM4" s="19" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AN4" s="19" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="AO4" s="73"/>
       <c r="AP4" s="19"/>
       <c r="AQ4" s="19" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="AR4" s="19">
         <v>1</v>
@@ -3053,7 +3061,7 @@
         <v>1</v>
       </c>
       <c r="AT4" s="19" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="AU4" s="19">
         <v>0</v>
@@ -3068,7 +3076,7 @@
         <v>20000</v>
       </c>
       <c r="AY4" s="22" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="AZ4" s="19">
         <v>8192</v>
@@ -3093,10 +3101,10 @@
     </row>
     <row r="5" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:59">
       <c r="A5" s="25" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C5" s="23">
         <v>3</v>
@@ -3124,27 +3132,27 @@
         <v>25</v>
       </c>
       <c r="K5" s="26" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="L5" s="26" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="M5" s="26"/>
       <c r="N5" s="26"/>
       <c r="O5" s="19" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="P5" s="19" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="Q5" s="19" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="R5" s="19" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="S5" s="19" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="T5" s="19">
         <v>98</v>
@@ -3161,22 +3169,22 @@
         <v>238</v>
       </c>
       <c r="AA5" s="19" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="AB5" s="26" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="AC5" s="26" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="AD5" s="26" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="AE5" s="26" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="AF5" s="60" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="AG5" s="26"/>
       <c r="AH5" s="26"/>
@@ -3189,15 +3197,15 @@
         <v>180</v>
       </c>
       <c r="AM5" s="26" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AN5" s="26" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="AO5" s="74"/>
       <c r="AP5" s="26"/>
       <c r="AQ5" s="26" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="AR5" s="26">
         <v>1</v>
@@ -3206,7 +3214,7 @@
         <v>1</v>
       </c>
       <c r="AT5" s="26" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="AU5" s="26">
         <v>0</v>
@@ -3221,7 +3229,7 @@
         <v>20000</v>
       </c>
       <c r="AY5" s="22" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="AZ5" s="26">
         <v>8192</v>
@@ -3246,10 +3254,10 @@
     </row>
     <row r="6" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:59">
       <c r="A6" s="18" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C6" s="23">
         <v>4</v>
@@ -3277,27 +3285,27 @@
         <v>25</v>
       </c>
       <c r="K6" s="19" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="L6" s="19" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="M6" s="19"/>
       <c r="N6" s="19"/>
       <c r="O6" s="19" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="P6" s="19" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="Q6" s="19" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="R6" s="19" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="S6" s="19" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="T6" s="19">
         <v>98</v>
@@ -3314,22 +3322,22 @@
         <v>238</v>
       </c>
       <c r="AA6" s="19" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="AB6" s="19" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="AC6" s="19" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="AD6" s="19" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="AE6" s="19" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="AF6" s="59" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="AG6" s="19"/>
       <c r="AH6" s="19"/>
@@ -3342,15 +3350,15 @@
         <v>180</v>
       </c>
       <c r="AM6" s="19" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AN6" s="19" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="AO6" s="73"/>
       <c r="AP6" s="19"/>
       <c r="AQ6" s="19" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="AR6" s="19">
         <v>1</v>
@@ -3359,7 +3367,7 @@
         <v>1</v>
       </c>
       <c r="AT6" s="19" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="AU6" s="19">
         <v>0</v>
@@ -3374,7 +3382,7 @@
         <v>20000</v>
       </c>
       <c r="AY6" s="22" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="AZ6" s="19">
         <v>8192</v>
@@ -3399,10 +3407,10 @@
     </row>
     <row r="7" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:59">
       <c r="A7" s="25" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C7" s="23">
         <v>5</v>
@@ -3430,27 +3438,27 @@
         <v>25</v>
       </c>
       <c r="K7" s="26" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="L7" s="26" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="M7" s="26"/>
       <c r="N7" s="26"/>
       <c r="O7" s="19" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="P7" s="19" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="Q7" s="19" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="R7" s="19" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="S7" s="19" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="T7" s="19">
         <v>98</v>
@@ -3467,22 +3475,22 @@
         <v>238</v>
       </c>
       <c r="AA7" s="19" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="AB7" s="26" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="AC7" s="26" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="AD7" s="26" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="AE7" s="26" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="AF7" s="60" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="AG7" s="26"/>
       <c r="AH7" s="26"/>
@@ -3495,15 +3503,15 @@
         <v>180</v>
       </c>
       <c r="AM7" s="26" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AN7" s="26" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="AO7" s="74"/>
       <c r="AP7" s="26"/>
       <c r="AQ7" s="26" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="AR7" s="26">
         <v>1</v>
@@ -3512,7 +3520,7 @@
         <v>1</v>
       </c>
       <c r="AT7" s="26" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="AU7" s="26">
         <v>0</v>
@@ -3527,7 +3535,7 @@
         <v>20000</v>
       </c>
       <c r="AY7" s="22" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="AZ7" s="26">
         <v>8192</v>
@@ -3552,10 +3560,10 @@
     </row>
     <row r="8" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:59">
       <c r="A8" s="18" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C8" s="23">
         <v>6</v>
@@ -3581,10 +3589,10 @@
         <v>25</v>
       </c>
       <c r="K8" s="19" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="L8" s="19" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="M8" s="19"/>
       <c r="N8" s="19"/>
@@ -3614,34 +3622,34 @@
         <v>232</v>
       </c>
       <c r="AA8" s="19" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="AB8" s="19" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="AC8" s="19" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="AD8" s="19" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="AE8" s="19" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="AF8" s="59" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="AG8" s="19" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="AH8" s="19" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="AI8" s="19" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="AJ8" s="19" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="AK8" s="19">
         <v>225</v>
@@ -3650,15 +3658,15 @@
         <v>180</v>
       </c>
       <c r="AM8" s="19" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AN8" s="19" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="AO8" s="73"/>
       <c r="AP8" s="19"/>
       <c r="AQ8" s="19" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="AR8" s="19">
         <v>1</v>
@@ -3667,7 +3675,7 @@
         <v>1</v>
       </c>
       <c r="AT8" s="19" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="AU8" s="19">
         <v>0</v>
@@ -3682,7 +3690,7 @@
         <v>20000</v>
       </c>
       <c r="AY8" s="22" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="AZ8" s="19">
         <v>8192</v>
@@ -3707,10 +3715,10 @@
     </row>
     <row r="9" s="4" customFormat="1" ht="22.5" customHeight="1" spans="1:61">
       <c r="A9" s="27" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C9" s="29">
         <v>7</v>
@@ -3739,10 +3747,10 @@
         <v>25</v>
       </c>
       <c r="K9" s="28" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="L9" s="28" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="M9" s="28"/>
       <c r="N9" s="28"/>
@@ -3764,7 +3772,7 @@
         <v>220</v>
       </c>
       <c r="AA9" s="28" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="AB9" s="28"/>
       <c r="AC9" s="28"/>
@@ -3782,15 +3790,15 @@
         <v>180</v>
       </c>
       <c r="AM9" s="28" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AN9" s="28" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="AO9" s="75"/>
       <c r="AP9" s="28"/>
       <c r="AQ9" s="28" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="AR9" s="28">
         <v>1</v>
@@ -3799,7 +3807,7 @@
         <v>1</v>
       </c>
       <c r="AT9" s="28" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="AU9" s="28">
         <v>0</v>
@@ -3814,7 +3822,7 @@
         <v>20000</v>
       </c>
       <c r="AY9" s="31" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="AZ9" s="28">
         <v>8192</v>
@@ -3837,18 +3845,18 @@
         <v>0</v>
       </c>
       <c r="BH9" s="90" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="BI9" s="4" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" s="4" customFormat="1" ht="22.5" customHeight="1" spans="1:61">
       <c r="A10" s="27" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C10" s="29">
         <v>8</v>
@@ -3877,10 +3885,10 @@
         <v>25</v>
       </c>
       <c r="K10" s="28" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="L10" s="28" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="M10" s="28"/>
       <c r="N10" s="28"/>
@@ -3902,7 +3910,7 @@
         <v>226</v>
       </c>
       <c r="AA10" s="28" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="AB10" s="28"/>
       <c r="AC10" s="28"/>
@@ -3920,15 +3928,15 @@
         <v>180</v>
       </c>
       <c r="AM10" s="28" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AN10" s="28" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="AO10" s="75"/>
       <c r="AP10" s="28"/>
       <c r="AQ10" s="28" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="AR10" s="28">
         <v>1</v>
@@ -3937,7 +3945,7 @@
         <v>1</v>
       </c>
       <c r="AT10" s="28" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="AU10" s="28">
         <v>0</v>
@@ -3952,7 +3960,7 @@
         <v>20000</v>
       </c>
       <c r="AY10" s="31" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="AZ10" s="28">
         <v>8192</v>
@@ -3975,18 +3983,18 @@
         <v>0</v>
       </c>
       <c r="BH10" s="4" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="BI10" s="4" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11" s="4" customFormat="1" ht="22.5" customHeight="1" spans="1:61">
       <c r="A11" s="27" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C11" s="29"/>
       <c r="D11" s="30">
@@ -4013,10 +4021,10 @@
         <v>25</v>
       </c>
       <c r="K11" s="28" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="L11" s="28" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="M11" s="28"/>
       <c r="N11" s="28"/>
@@ -4038,7 +4046,7 @@
         <v>226</v>
       </c>
       <c r="AA11" s="28" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="AB11" s="28"/>
       <c r="AC11" s="28"/>
@@ -4056,15 +4064,15 @@
         <v>180</v>
       </c>
       <c r="AM11" s="28" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AN11" s="28" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="AO11" s="75"/>
       <c r="AP11" s="28"/>
       <c r="AQ11" s="28" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="AR11" s="28">
         <v>1</v>
@@ -4073,7 +4081,7 @@
         <v>1</v>
       </c>
       <c r="AT11" s="28" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="AU11" s="28">
         <v>0</v>
@@ -4088,7 +4096,7 @@
         <v>20000</v>
       </c>
       <c r="AY11" s="31" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="AZ11" s="28">
         <v>8192</v>
@@ -4111,18 +4119,18 @@
         <v>0</v>
       </c>
       <c r="BH11" s="4" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="BI11" s="4" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" s="4" customFormat="1" ht="22.5" customHeight="1" spans="1:61">
       <c r="A12" s="27" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C12" s="29"/>
       <c r="D12" s="30">
@@ -4149,10 +4157,10 @@
         <v>25</v>
       </c>
       <c r="K12" s="28" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="L12" s="28" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="M12" s="28"/>
       <c r="N12" s="28"/>
@@ -4174,7 +4182,7 @@
         <v>190</v>
       </c>
       <c r="AA12" s="28" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="AB12" s="28"/>
       <c r="AC12" s="28"/>
@@ -4192,15 +4200,15 @@
         <v>180</v>
       </c>
       <c r="AM12" s="28" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AN12" s="28" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="AO12" s="75"/>
       <c r="AP12" s="28"/>
       <c r="AQ12" s="28" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="AR12" s="28">
         <v>1</v>
@@ -4209,7 +4217,7 @@
         <v>1</v>
       </c>
       <c r="AT12" s="28" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="AU12" s="28">
         <v>0</v>
@@ -4224,7 +4232,7 @@
         <v>20000</v>
       </c>
       <c r="AY12" s="31" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="AZ12" s="28">
         <v>8192</v>
@@ -4247,18 +4255,18 @@
         <v>0</v>
       </c>
       <c r="BH12" s="4" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="BI12" s="4" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13" s="4" customFormat="1" ht="22.5" customHeight="1" spans="1:61">
       <c r="A13" s="27" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C13" s="29"/>
       <c r="D13" s="30">
@@ -4285,10 +4293,10 @@
         <v>25</v>
       </c>
       <c r="K13" s="28" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="L13" s="28" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="M13" s="28"/>
       <c r="N13" s="28"/>
@@ -4310,7 +4318,7 @@
         <v>172</v>
       </c>
       <c r="AA13" s="28" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="AB13" s="28"/>
       <c r="AC13" s="28"/>
@@ -4328,15 +4336,15 @@
         <v>180</v>
       </c>
       <c r="AM13" s="28" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AN13" s="28" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="AO13" s="75"/>
       <c r="AP13" s="28"/>
       <c r="AQ13" s="28" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="AR13" s="28">
         <v>1</v>
@@ -4345,7 +4353,7 @@
         <v>1</v>
       </c>
       <c r="AT13" s="28" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="AU13" s="28">
         <v>0</v>
@@ -4360,7 +4368,7 @@
         <v>20000</v>
       </c>
       <c r="AY13" s="31" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="AZ13" s="28">
         <v>8192</v>
@@ -4383,18 +4391,18 @@
         <v>0</v>
       </c>
       <c r="BH13" s="4" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="BI13" s="4" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" s="4" customFormat="1" ht="22.5" customHeight="1" spans="1:61">
       <c r="A14" s="27" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C14" s="29"/>
       <c r="D14" s="30">
@@ -4421,10 +4429,10 @@
         <v>25</v>
       </c>
       <c r="K14" s="28" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="L14" s="28" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="M14" s="28"/>
       <c r="N14" s="28"/>
@@ -4446,7 +4454,7 @@
         <v>190</v>
       </c>
       <c r="AA14" s="28" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="AB14" s="28"/>
       <c r="AC14" s="28"/>
@@ -4464,15 +4472,15 @@
         <v>180</v>
       </c>
       <c r="AM14" s="28" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AN14" s="28" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="AO14" s="75"/>
       <c r="AP14" s="28"/>
       <c r="AQ14" s="28" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="AR14" s="28">
         <v>1</v>
@@ -4481,7 +4489,7 @@
         <v>1</v>
       </c>
       <c r="AT14" s="28" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="AU14" s="28">
         <v>0</v>
@@ -4496,7 +4504,7 @@
         <v>20000</v>
       </c>
       <c r="AY14" s="31" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="AZ14" s="28">
         <v>8192</v>
@@ -4519,25 +4527,25 @@
         <v>1</v>
       </c>
       <c r="BH14" s="4" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="BI14" s="4" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" s="5" customFormat="1" ht="22.5" customHeight="1" spans="1:63">
       <c r="A15" s="32" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C15" s="34"/>
       <c r="D15" s="35">
         <v>2</v>
       </c>
       <c r="E15" s="36">
-        <f>10000</f>
+        <f t="shared" ref="E15:E20" si="2">10000</f>
         <v>10000</v>
       </c>
       <c r="F15" s="33">
@@ -4547,7 +4555,7 @@
         <v>2500</v>
       </c>
       <c r="H15" s="33">
-        <f>G15*1</f>
+        <f t="shared" si="0"/>
         <v>2500</v>
       </c>
       <c r="I15" s="33">
@@ -4557,10 +4565,10 @@
         <v>25</v>
       </c>
       <c r="K15" s="33" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="L15" s="33" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="M15" s="33"/>
       <c r="N15" s="33"/>
@@ -4578,11 +4586,11 @@
         <v>1.1</v>
       </c>
       <c r="Z15" s="62">
-        <f>100+Y15*60</f>
+        <f t="shared" si="1"/>
         <v>166</v>
       </c>
       <c r="AA15" s="33" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="AB15" s="33"/>
       <c r="AC15" s="33"/>
@@ -4600,15 +4608,15 @@
         <v>180</v>
       </c>
       <c r="AM15" s="33" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AN15" s="33" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="AO15" s="76"/>
       <c r="AP15" s="33"/>
       <c r="AQ15" s="33" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="AR15" s="33">
         <v>1</v>
@@ -4617,7 +4625,7 @@
         <v>1</v>
       </c>
       <c r="AT15" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="AU15" s="33">
         <v>0</v>
@@ -4632,7 +4640,7 @@
         <v>20000</v>
       </c>
       <c r="AY15" s="36" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="AZ15" s="33">
         <v>8192</v>
@@ -4655,31 +4663,31 @@
         <v>0</v>
       </c>
       <c r="BH15" s="5" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="BI15" s="5" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="BJ15" s="5" t="s">
         <v>79</v>
       </c>
       <c r="BK15" s="5" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16" s="5" customFormat="1" ht="22.5" customHeight="1" spans="1:63">
       <c r="A16" s="32" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C16" s="37"/>
       <c r="D16" s="35">
         <v>2</v>
       </c>
       <c r="E16" s="36">
-        <f>10000</f>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
       <c r="F16" s="33">
@@ -4689,7 +4697,7 @@
         <v>2500</v>
       </c>
       <c r="H16" s="33">
-        <f>G16*1</f>
+        <f t="shared" si="0"/>
         <v>2500</v>
       </c>
       <c r="I16" s="33">
@@ -4699,10 +4707,10 @@
         <v>25</v>
       </c>
       <c r="K16" s="33" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="L16" s="33" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="M16" s="33"/>
       <c r="N16" s="33"/>
@@ -4720,11 +4728,11 @@
         <v>2.4</v>
       </c>
       <c r="Z16" s="62">
-        <f>100+Y16*60</f>
+        <f t="shared" si="1"/>
         <v>244</v>
       </c>
       <c r="AA16" s="33" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="AB16" s="33"/>
       <c r="AC16" s="33"/>
@@ -4742,15 +4750,15 @@
         <v>180</v>
       </c>
       <c r="AM16" s="33" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AN16" s="33" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="AO16" s="76"/>
       <c r="AP16" s="33"/>
       <c r="AQ16" s="33" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="AR16" s="33">
         <v>1</v>
@@ -4759,7 +4767,7 @@
         <v>1</v>
       </c>
       <c r="AT16" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="AU16" s="33">
         <v>0</v>
@@ -4774,7 +4782,7 @@
         <v>20000</v>
       </c>
       <c r="AY16" s="36" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="AZ16" s="33">
         <v>8192</v>
@@ -4797,31 +4805,31 @@
         <v>0</v>
       </c>
       <c r="BH16" s="5" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="BI16" s="5" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="BJ16" s="5" t="s">
         <v>79</v>
       </c>
       <c r="BK16" s="5" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17" s="5" customFormat="1" ht="22.5" customHeight="1" spans="1:63">
       <c r="A17" s="32" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C17" s="38"/>
       <c r="D17" s="35">
         <v>2</v>
       </c>
       <c r="E17" s="36">
-        <f>10000</f>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
       <c r="F17" s="33">
@@ -4831,7 +4839,7 @@
         <v>2500</v>
       </c>
       <c r="H17" s="33">
-        <f>G17*1</f>
+        <f t="shared" si="0"/>
         <v>2500</v>
       </c>
       <c r="I17" s="33">
@@ -4841,10 +4849,10 @@
         <v>25</v>
       </c>
       <c r="K17" s="33" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="L17" s="33" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="M17" s="33"/>
       <c r="N17" s="33"/>
@@ -4862,11 +4870,11 @@
         <v>2.5</v>
       </c>
       <c r="Z17" s="62">
-        <f>100+Y17*60</f>
+        <f t="shared" si="1"/>
         <v>250</v>
       </c>
       <c r="AA17" s="33" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="AB17" s="33"/>
       <c r="AC17" s="33"/>
@@ -4884,15 +4892,15 @@
         <v>180</v>
       </c>
       <c r="AM17" s="33" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AN17" s="33" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="AO17" s="76"/>
       <c r="AP17" s="33"/>
       <c r="AQ17" s="33" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="AR17" s="33">
         <v>1</v>
@@ -4901,7 +4909,7 @@
         <v>1</v>
       </c>
       <c r="AT17" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="AU17" s="33">
         <v>0</v>
@@ -4916,7 +4924,7 @@
         <v>20000</v>
       </c>
       <c r="AY17" s="36" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="AZ17" s="33">
         <v>8192</v>
@@ -4939,31 +4947,31 @@
         <v>0</v>
       </c>
       <c r="BH17" s="5" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="BI17" s="5" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="BJ17" s="5" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="BK17" s="5" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="18" s="5" customFormat="1" ht="22.5" customHeight="1" spans="1:63">
       <c r="A18" s="32" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C18" s="34"/>
       <c r="D18" s="35">
         <v>2</v>
       </c>
       <c r="E18" s="36">
-        <f>10000</f>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
       <c r="F18" s="33">
@@ -4973,7 +4981,7 @@
         <v>2500</v>
       </c>
       <c r="H18" s="33">
-        <f>G18*1</f>
+        <f t="shared" si="0"/>
         <v>2500</v>
       </c>
       <c r="I18" s="33">
@@ -4983,10 +4991,10 @@
         <v>25</v>
       </c>
       <c r="K18" s="33" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="L18" s="33" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="M18" s="33"/>
       <c r="N18" s="33"/>
@@ -5004,11 +5012,11 @@
         <v>0.5</v>
       </c>
       <c r="Z18" s="62">
-        <f>100+Y18*60</f>
+        <f t="shared" si="1"/>
         <v>130</v>
       </c>
       <c r="AA18" s="33" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="AB18" s="33"/>
       <c r="AC18" s="33"/>
@@ -5026,15 +5034,15 @@
         <v>180</v>
       </c>
       <c r="AM18" s="33" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AN18" s="33" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="AO18" s="76"/>
       <c r="AP18" s="33"/>
       <c r="AQ18" s="33" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="AR18" s="33">
         <v>1</v>
@@ -5043,7 +5051,7 @@
         <v>1</v>
       </c>
       <c r="AT18" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="AU18" s="33">
         <v>0</v>
@@ -5058,7 +5066,7 @@
         <v>20000</v>
       </c>
       <c r="AY18" s="36" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="AZ18" s="33">
         <v>8192</v>
@@ -5081,31 +5089,31 @@
         <v>1</v>
       </c>
       <c r="BH18" s="5" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="BI18" s="5" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="BJ18" s="5" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="BK18" s="5" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="19" s="5" customFormat="1" ht="22.5" customHeight="1" spans="1:63">
       <c r="A19" s="32" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C19" s="34"/>
       <c r="D19" s="35">
         <v>2</v>
       </c>
       <c r="E19" s="36">
-        <f>10000</f>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
       <c r="F19" s="33">
@@ -5115,7 +5123,7 @@
         <v>2500</v>
       </c>
       <c r="H19" s="33">
-        <f>G19*1</f>
+        <f t="shared" si="0"/>
         <v>2500</v>
       </c>
       <c r="I19" s="33">
@@ -5125,10 +5133,10 @@
         <v>25</v>
       </c>
       <c r="K19" s="33" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="L19" s="33" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="M19" s="33"/>
       <c r="N19" s="33"/>
@@ -5146,11 +5154,11 @@
         <v>1.1</v>
       </c>
       <c r="Z19" s="62">
-        <f>100+Y19*60</f>
+        <f t="shared" si="1"/>
         <v>166</v>
       </c>
       <c r="AA19" s="33" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="AB19" s="33"/>
       <c r="AC19" s="33"/>
@@ -5168,15 +5176,15 @@
         <v>180</v>
       </c>
       <c r="AM19" s="33" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AN19" s="33" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="AO19" s="76"/>
       <c r="AP19" s="33"/>
       <c r="AQ19" s="33" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="AR19" s="33">
         <v>1</v>
@@ -5185,7 +5193,7 @@
         <v>1</v>
       </c>
       <c r="AT19" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="AU19" s="33">
         <v>0</v>
@@ -5200,7 +5208,7 @@
         <v>20000</v>
       </c>
       <c r="AY19" s="36" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="AZ19" s="33">
         <v>8192</v>
@@ -5223,31 +5231,31 @@
         <v>0</v>
       </c>
       <c r="BH19" s="5" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="BI19" s="5" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="BJ19" s="5" t="s">
         <v>79</v>
       </c>
       <c r="BK19" s="5" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="20" s="5" customFormat="1" ht="22.5" customHeight="1" spans="1:63">
       <c r="A20" s="32" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B20" s="33" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C20" s="38"/>
       <c r="D20" s="35">
         <v>2</v>
       </c>
       <c r="E20" s="36">
-        <f>10000</f>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
       <c r="F20" s="33">
@@ -5257,7 +5265,7 @@
         <v>2500</v>
       </c>
       <c r="H20" s="33">
-        <f>G20*1</f>
+        <f t="shared" si="0"/>
         <v>2500</v>
       </c>
       <c r="I20" s="33">
@@ -5267,10 +5275,10 @@
         <v>25</v>
       </c>
       <c r="K20" s="33" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="L20" s="33" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="M20" s="33"/>
       <c r="N20" s="33"/>
@@ -5288,11 +5296,11 @@
         <v>1.1</v>
       </c>
       <c r="Z20" s="62">
-        <f>100+Y20*60</f>
+        <f t="shared" si="1"/>
         <v>166</v>
       </c>
       <c r="AA20" s="33" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="AB20" s="33"/>
       <c r="AC20" s="33"/>
@@ -5310,15 +5318,15 @@
         <v>180</v>
       </c>
       <c r="AM20" s="33" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AN20" s="33" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="AO20" s="76"/>
       <c r="AP20" s="33"/>
       <c r="AQ20" s="33" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="AR20" s="33">
         <v>1</v>
@@ -5327,7 +5335,7 @@
         <v>1</v>
       </c>
       <c r="AT20" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="AU20" s="33">
         <v>0</v>
@@ -5342,7 +5350,7 @@
         <v>20000</v>
       </c>
       <c r="AY20" s="36" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="AZ20" s="33">
         <v>8192</v>
@@ -5365,31 +5373,31 @@
         <v>0</v>
       </c>
       <c r="BH20" s="5" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="BI20" s="5" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="BJ20" s="5" t="s">
         <v>79</v>
       </c>
       <c r="BK20" s="5" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="21" s="6" customFormat="1" ht="22.5" customHeight="1" spans="1:63">
       <c r="A21" s="39" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="B21" s="40" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C21" s="41"/>
       <c r="D21" s="42">
         <v>3</v>
       </c>
       <c r="E21" s="43">
-        <f t="shared" ref="E15:E32" si="2">10000</f>
+        <f t="shared" ref="E15:E32" si="3">10000</f>
         <v>10000</v>
       </c>
       <c r="F21" s="40">
@@ -5409,10 +5417,10 @@
         <v>25</v>
       </c>
       <c r="K21" s="40" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="L21" s="40" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="M21" s="40"/>
       <c r="N21" s="40"/>
@@ -5434,7 +5442,7 @@
         <v>220</v>
       </c>
       <c r="AA21" s="40" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="AB21" s="40"/>
       <c r="AC21" s="40"/>
@@ -5452,15 +5460,15 @@
         <v>180</v>
       </c>
       <c r="AM21" s="40" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AN21" s="40" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="AO21" s="77"/>
       <c r="AP21" s="40"/>
       <c r="AQ21" s="40" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="AR21" s="40">
         <v>1</v>
@@ -5469,7 +5477,7 @@
         <v>1</v>
       </c>
       <c r="AT21" s="40" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="AU21" s="40">
         <v>0</v>
@@ -5484,7 +5492,7 @@
         <v>20000</v>
       </c>
       <c r="AY21" s="43" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="AZ21" s="40">
         <v>8192</v>
@@ -5507,31 +5515,31 @@
         <v>0</v>
       </c>
       <c r="BH21" s="6" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="BI21" s="6" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="BJ21" s="6" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="BK21" s="6" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="22" s="6" customFormat="1" ht="39" customHeight="1" spans="1:63">
       <c r="A22" s="39" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B22" s="40" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C22" s="41"/>
       <c r="D22" s="42">
         <v>3</v>
       </c>
       <c r="E22" s="43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10000</v>
       </c>
       <c r="F22" s="40">
@@ -5551,10 +5559,10 @@
         <v>25</v>
       </c>
       <c r="K22" s="40" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="L22" s="40" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="M22" s="40"/>
       <c r="N22" s="40"/>
@@ -5576,7 +5584,7 @@
         <v>256</v>
       </c>
       <c r="AA22" s="40" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="AB22" s="40"/>
       <c r="AC22" s="40"/>
@@ -5594,17 +5602,17 @@
         <v>180</v>
       </c>
       <c r="AM22" s="40" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AN22" s="40" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="AO22" s="77"/>
       <c r="AP22" s="40">
         <v>800</v>
       </c>
       <c r="AQ22" s="40" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="AR22" s="40">
         <v>1</v>
@@ -5613,7 +5621,7 @@
         <v>1</v>
       </c>
       <c r="AT22" s="40" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="AU22" s="40">
         <v>0</v>
@@ -5628,7 +5636,7 @@
         <v>20000</v>
       </c>
       <c r="AY22" s="43" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="AZ22" s="40">
         <v>8192</v>
@@ -5651,31 +5659,31 @@
         <v>0</v>
       </c>
       <c r="BH22" s="6" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="BI22" s="6" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="BJ22" s="6" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="BK22" s="6" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="23" s="6" customFormat="1" ht="39" customHeight="1" spans="1:63">
       <c r="A23" s="39" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B23" s="40" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C23" s="41"/>
       <c r="D23" s="42">
         <v>3</v>
       </c>
       <c r="E23" s="43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10000</v>
       </c>
       <c r="F23" s="40">
@@ -5695,10 +5703,10 @@
         <v>25</v>
       </c>
       <c r="K23" s="40" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="L23" s="40" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="M23" s="40"/>
       <c r="N23" s="40"/>
@@ -5720,7 +5728,7 @@
         <v>160</v>
       </c>
       <c r="AA23" s="40" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="AB23" s="40"/>
       <c r="AC23" s="40"/>
@@ -5738,17 +5746,17 @@
         <v>180</v>
       </c>
       <c r="AM23" s="40" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AN23" s="40" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="AO23" s="77"/>
       <c r="AP23" s="40">
         <v>600</v>
       </c>
       <c r="AQ23" s="40" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="AR23" s="40">
         <v>1</v>
@@ -5757,7 +5765,7 @@
         <v>1</v>
       </c>
       <c r="AT23" s="40" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="AU23" s="40">
         <v>0</v>
@@ -5772,7 +5780,7 @@
         <v>20000</v>
       </c>
       <c r="AY23" s="43" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="AZ23" s="40">
         <v>8192</v>
@@ -5795,31 +5803,31 @@
         <v>0</v>
       </c>
       <c r="BH23" s="6" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="BI23" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="BJ23" s="95" t="s">
+        <v>163</v>
+      </c>
+      <c r="BJ23" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="BK23" s="95" t="s">
-        <v>171</v>
+      <c r="BK23" s="6" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="24" s="6" customFormat="1" ht="39" customHeight="1" spans="1:63">
       <c r="A24" s="39" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="B24" s="40" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C24" s="41"/>
       <c r="D24" s="42">
         <v>3</v>
       </c>
       <c r="E24" s="43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10000</v>
       </c>
       <c r="F24" s="40">
@@ -5839,10 +5847,10 @@
         <v>25</v>
       </c>
       <c r="K24" s="40" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="L24" s="40" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="M24" s="40"/>
       <c r="N24" s="40"/>
@@ -5864,7 +5872,7 @@
         <v>184</v>
       </c>
       <c r="AA24" s="40" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="AB24" s="40"/>
       <c r="AC24" s="40"/>
@@ -5882,17 +5890,17 @@
         <v>180</v>
       </c>
       <c r="AM24" s="40" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AN24" s="40" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="AO24" s="77"/>
       <c r="AP24" s="40">
         <v>600</v>
       </c>
       <c r="AQ24" s="40" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="AR24" s="40">
         <v>1</v>
@@ -5901,7 +5909,7 @@
         <v>1</v>
       </c>
       <c r="AT24" s="40" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="AU24" s="40">
         <v>0</v>
@@ -5916,7 +5924,7 @@
         <v>20000</v>
       </c>
       <c r="AY24" s="43" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="AZ24" s="40">
         <v>8192</v>
@@ -5939,31 +5947,31 @@
         <v>0</v>
       </c>
       <c r="BH24" s="6" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="BI24" s="6" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="BJ24" s="6" t="s">
         <v>79</v>
       </c>
       <c r="BK24" s="6" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="25" s="6" customFormat="1" ht="39" customHeight="1" spans="1:63">
       <c r="A25" s="39" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="B25" s="40" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="C25" s="41"/>
       <c r="D25" s="42">
         <v>3</v>
       </c>
       <c r="E25" s="43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10000</v>
       </c>
       <c r="F25" s="40">
@@ -5983,10 +5991,10 @@
         <v>25</v>
       </c>
       <c r="K25" s="40" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="L25" s="40" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="M25" s="40"/>
       <c r="N25" s="40"/>
@@ -6008,7 +6016,7 @@
         <v>172</v>
       </c>
       <c r="AA25" s="40" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="AB25" s="40"/>
       <c r="AC25" s="40"/>
@@ -6026,17 +6034,17 @@
         <v>180</v>
       </c>
       <c r="AM25" s="40" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AN25" s="40" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="AO25" s="77"/>
       <c r="AP25" s="40">
         <v>600</v>
       </c>
       <c r="AQ25" s="40" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="AR25" s="40">
         <v>1</v>
@@ -6045,7 +6053,7 @@
         <v>1</v>
       </c>
       <c r="AT25" s="40" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="AU25" s="40">
         <v>0</v>
@@ -6060,7 +6068,7 @@
         <v>20000</v>
       </c>
       <c r="AY25" s="43" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="AZ25" s="40">
         <v>8192</v>
@@ -6083,31 +6091,31 @@
         <v>0</v>
       </c>
       <c r="BH25" s="6" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="BI25" s="6" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="BJ25" s="6" t="s">
         <v>79</v>
       </c>
       <c r="BK25" s="6" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="26" s="6" customFormat="1" ht="39" customHeight="1" spans="1:63">
       <c r="A26" s="39" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="B26" s="40" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C26" s="41"/>
       <c r="D26" s="42">
         <v>3</v>
       </c>
       <c r="E26" s="43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10000</v>
       </c>
       <c r="F26" s="40">
@@ -6127,10 +6135,10 @@
         <v>25</v>
       </c>
       <c r="K26" s="40" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="L26" s="40" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="M26" s="40"/>
       <c r="N26" s="40"/>
@@ -6152,7 +6160,7 @@
         <v>250</v>
       </c>
       <c r="AA26" s="40" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="AB26" s="40"/>
       <c r="AC26" s="40"/>
@@ -6170,17 +6178,17 @@
         <v>180</v>
       </c>
       <c r="AM26" s="40" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AN26" s="40" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="AO26" s="77"/>
       <c r="AP26" s="40">
         <v>600</v>
       </c>
       <c r="AQ26" s="40" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="AR26" s="40">
         <v>1</v>
@@ -6189,7 +6197,7 @@
         <v>1</v>
       </c>
       <c r="AT26" s="40" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="AU26" s="40">
         <v>0</v>
@@ -6204,7 +6212,7 @@
         <v>20000</v>
       </c>
       <c r="AY26" s="43" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="AZ26" s="40">
         <v>8192</v>
@@ -6227,31 +6235,31 @@
         <v>0</v>
       </c>
       <c r="BH26" s="6" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="BI26" s="6" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="BJ26" s="6" t="s">
         <v>79</v>
       </c>
       <c r="BK26" s="6" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="27" s="7" customFormat="1" ht="22.5" customHeight="1" spans="1:63">
       <c r="A27" s="44" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B27" s="45" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C27" s="46"/>
       <c r="D27" s="47">
         <v>3</v>
       </c>
       <c r="E27" s="48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10000</v>
       </c>
       <c r="F27" s="45">
@@ -6271,10 +6279,10 @@
         <v>25</v>
       </c>
       <c r="K27" s="45" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="L27" s="45" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="M27" s="45"/>
       <c r="N27" s="45"/>
@@ -6296,7 +6304,7 @@
         <v>220</v>
       </c>
       <c r="AA27" s="45" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="AB27" s="45"/>
       <c r="AC27" s="45"/>
@@ -6314,15 +6322,15 @@
         <v>180</v>
       </c>
       <c r="AM27" s="45" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AN27" s="45" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="AO27" s="78"/>
       <c r="AP27" s="45"/>
       <c r="AQ27" s="45" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="AR27" s="45">
         <v>1</v>
@@ -6331,7 +6339,7 @@
         <v>1</v>
       </c>
       <c r="AT27" s="45" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="AU27" s="45">
         <v>0</v>
@@ -6346,7 +6354,7 @@
         <v>20000</v>
       </c>
       <c r="AY27" s="48" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="AZ27" s="45">
         <v>8192</v>
@@ -6364,36 +6372,36 @@
       <c r="BE27" s="45">
         <v>373</v>
       </c>
-      <c r="BF27" s="96"/>
-      <c r="BG27" s="97">
+      <c r="BF27" s="95"/>
+      <c r="BG27" s="96">
         <v>0</v>
       </c>
       <c r="BH27" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="BI27" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="BJ27" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="BK27" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="28" s="7" customFormat="1" ht="39" customHeight="1" spans="1:63">
       <c r="A28" s="44" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="B28" s="45" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C28" s="46"/>
       <c r="D28" s="47">
         <v>3</v>
       </c>
       <c r="E28" s="48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10000</v>
       </c>
       <c r="F28" s="45">
@@ -6413,10 +6421,10 @@
         <v>25</v>
       </c>
       <c r="K28" s="45" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="L28" s="45" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="M28" s="45"/>
       <c r="N28" s="45"/>
@@ -6438,7 +6446,7 @@
         <v>256</v>
       </c>
       <c r="AA28" s="45" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="AB28" s="45"/>
       <c r="AC28" s="45"/>
@@ -6456,17 +6464,17 @@
         <v>180</v>
       </c>
       <c r="AM28" s="45" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AN28" s="45" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="AO28" s="78"/>
       <c r="AP28" s="45">
         <v>800</v>
       </c>
       <c r="AQ28" s="45" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="AR28" s="45">
         <v>1</v>
@@ -6475,7 +6483,7 @@
         <v>1</v>
       </c>
       <c r="AT28" s="45" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="AU28" s="45">
         <v>0</v>
@@ -6490,7 +6498,7 @@
         <v>20000</v>
       </c>
       <c r="AY28" s="48" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="AZ28" s="45">
         <v>8192</v>
@@ -6508,36 +6516,36 @@
       <c r="BE28" s="45">
         <v>373</v>
       </c>
-      <c r="BF28" s="96"/>
-      <c r="BG28" s="97">
+      <c r="BF28" s="95"/>
+      <c r="BG28" s="96">
         <v>0</v>
       </c>
       <c r="BH28" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="BI28" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="BJ28" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="BK28" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="29" s="7" customFormat="1" ht="39" customHeight="1" spans="1:63">
       <c r="A29" s="44" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="B29" s="45" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C29" s="46"/>
       <c r="D29" s="47">
         <v>3</v>
       </c>
       <c r="E29" s="48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10000</v>
       </c>
       <c r="F29" s="45">
@@ -6557,10 +6565,10 @@
         <v>25</v>
       </c>
       <c r="K29" s="45" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="L29" s="45" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="M29" s="45"/>
       <c r="N29" s="45"/>
@@ -6582,7 +6590,7 @@
         <v>160</v>
       </c>
       <c r="AA29" s="45" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="AB29" s="45"/>
       <c r="AC29" s="45"/>
@@ -6600,17 +6608,17 @@
         <v>180</v>
       </c>
       <c r="AM29" s="45" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AN29" s="45" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="AO29" s="78"/>
       <c r="AP29" s="45">
         <v>600</v>
       </c>
       <c r="AQ29" s="45" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="AR29" s="45">
         <v>1</v>
@@ -6619,7 +6627,7 @@
         <v>1</v>
       </c>
       <c r="AT29" s="45" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="AU29" s="45">
         <v>0</v>
@@ -6634,7 +6642,7 @@
         <v>20000</v>
       </c>
       <c r="AY29" s="48" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="AZ29" s="45">
         <v>8192</v>
@@ -6652,36 +6660,36 @@
       <c r="BE29" s="45">
         <v>373</v>
       </c>
-      <c r="BF29" s="96"/>
-      <c r="BG29" s="97">
+      <c r="BF29" s="95"/>
+      <c r="BG29" s="96">
         <v>0</v>
       </c>
       <c r="BH29" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="BI29" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="BJ29" s="98" t="s">
+        <v>163</v>
+      </c>
+      <c r="BJ29" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="BK29" s="98" t="s">
-        <v>171</v>
+      <c r="BK29" s="7" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="30" s="7" customFormat="1" ht="39" customHeight="1" spans="1:63">
       <c r="A30" s="44" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="B30" s="45" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C30" s="46"/>
       <c r="D30" s="47">
         <v>3</v>
       </c>
       <c r="E30" s="48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10000</v>
       </c>
       <c r="F30" s="45">
@@ -6701,10 +6709,10 @@
         <v>25</v>
       </c>
       <c r="K30" s="45" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="L30" s="45" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="M30" s="45"/>
       <c r="N30" s="45"/>
@@ -6726,7 +6734,7 @@
         <v>184</v>
       </c>
       <c r="AA30" s="45" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="AB30" s="45"/>
       <c r="AC30" s="45"/>
@@ -6744,17 +6752,17 @@
         <v>180</v>
       </c>
       <c r="AM30" s="45" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AN30" s="45" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="AO30" s="78"/>
       <c r="AP30" s="45">
         <v>600</v>
       </c>
       <c r="AQ30" s="45" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="AR30" s="45">
         <v>1</v>
@@ -6763,7 +6771,7 @@
         <v>1</v>
       </c>
       <c r="AT30" s="45" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="AU30" s="45">
         <v>0</v>
@@ -6778,7 +6786,7 @@
         <v>20000</v>
       </c>
       <c r="AY30" s="48" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="AZ30" s="45">
         <v>8192</v>
@@ -6796,36 +6804,36 @@
       <c r="BE30" s="45">
         <v>373</v>
       </c>
-      <c r="BF30" s="96"/>
-      <c r="BG30" s="97">
+      <c r="BF30" s="95"/>
+      <c r="BG30" s="96">
         <v>0</v>
       </c>
       <c r="BH30" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="BI30" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="BJ30" s="7" t="s">
         <v>79</v>
       </c>
       <c r="BK30" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="31" s="7" customFormat="1" ht="39" customHeight="1" spans="1:63">
       <c r="A31" s="44" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B31" s="45" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="C31" s="46"/>
       <c r="D31" s="47">
         <v>3</v>
       </c>
       <c r="E31" s="48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10000</v>
       </c>
       <c r="F31" s="45">
@@ -6845,10 +6853,10 @@
         <v>25</v>
       </c>
       <c r="K31" s="45" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="L31" s="45" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="M31" s="45"/>
       <c r="N31" s="45"/>
@@ -6870,7 +6878,7 @@
         <v>172</v>
       </c>
       <c r="AA31" s="45" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="AB31" s="45"/>
       <c r="AC31" s="45"/>
@@ -6888,17 +6896,17 @@
         <v>180</v>
       </c>
       <c r="AM31" s="45" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AN31" s="45" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="AO31" s="78"/>
       <c r="AP31" s="45">
         <v>600</v>
       </c>
       <c r="AQ31" s="45" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="AR31" s="45">
         <v>1</v>
@@ -6907,7 +6915,7 @@
         <v>1</v>
       </c>
       <c r="AT31" s="45" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="AU31" s="45">
         <v>0</v>
@@ -6922,7 +6930,7 @@
         <v>20000</v>
       </c>
       <c r="AY31" s="48" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="AZ31" s="45">
         <v>8192</v>
@@ -6940,36 +6948,36 @@
       <c r="BE31" s="45">
         <v>373</v>
       </c>
-      <c r="BF31" s="96"/>
-      <c r="BG31" s="97">
+      <c r="BF31" s="95"/>
+      <c r="BG31" s="96">
         <v>0</v>
       </c>
       <c r="BH31" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="BI31" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="BJ31" s="7" t="s">
         <v>79</v>
       </c>
       <c r="BK31" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="32" s="7" customFormat="1" ht="39" customHeight="1" spans="1:63">
       <c r="A32" s="44" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="B32" s="45" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C32" s="46"/>
       <c r="D32" s="47">
         <v>3</v>
       </c>
       <c r="E32" s="48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10000</v>
       </c>
       <c r="F32" s="45">
@@ -6989,10 +6997,10 @@
         <v>25</v>
       </c>
       <c r="K32" s="45" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="L32" s="45" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="M32" s="45"/>
       <c r="N32" s="45"/>
@@ -7014,7 +7022,7 @@
         <v>250</v>
       </c>
       <c r="AA32" s="45" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="AB32" s="45"/>
       <c r="AC32" s="45"/>
@@ -7032,17 +7040,17 @@
         <v>180</v>
       </c>
       <c r="AM32" s="45" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AN32" s="45" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="AO32" s="78"/>
       <c r="AP32" s="45">
         <v>600</v>
       </c>
       <c r="AQ32" s="45" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="AR32" s="45">
         <v>1</v>
@@ -7051,7 +7059,7 @@
         <v>1</v>
       </c>
       <c r="AT32" s="45" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="AU32" s="45">
         <v>0</v>
@@ -7066,7 +7074,7 @@
         <v>20000</v>
       </c>
       <c r="AY32" s="48" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="AZ32" s="45">
         <v>8192</v>
@@ -7084,21 +7092,21 @@
       <c r="BE32" s="45">
         <v>373</v>
       </c>
-      <c r="BF32" s="96"/>
-      <c r="BG32" s="97">
+      <c r="BF32" s="95"/>
+      <c r="BG32" s="96">
         <v>0</v>
       </c>
       <c r="BH32" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="BI32" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="BJ32" s="7" t="s">
         <v>79</v>
       </c>
       <c r="BK32" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>

--- a/excels/units/monster/boss.xlsx
+++ b/excels/units/monster/boss.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12345"/>
+    <workbookView windowWidth="23145" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="boss" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="256">
   <si>
     <t>主键</t>
   </si>
@@ -479,11 +479,12 @@
     <t>models/items/warlock/golem/ti_8_warlock_darkness_apostate_golem/ti_8_warlock_darkness_apostate_golem.vmdl</t>
   </si>
   <si>
-    <t xml:space="preserve">golem_attack
-</t>
-  </si>
-  <si>
-    <t>golem_flail</t>
+    <t>golem_attack
+ACT_DOTA_ATTACK</t>
+  </si>
+  <si>
+    <t>golem_flail
+ACT_DOTA_FLAIL</t>
   </si>
   <si>
     <t>npc_creature_boss_7</t>
@@ -495,247 +496,340 @@
     <t>models/monster/monster0100/monster0100.vmdl</t>
   </si>
   <si>
+    <t>attack
+ACT_DOTA_ATTACK</t>
+  </si>
+  <si>
+    <t>npc_creature_boss_8</t>
+  </si>
+  <si>
+    <t>烈焰神狐</t>
+  </si>
+  <si>
+    <t>models/monster/monster0124/monster0124.vmdl</t>
+  </si>
+  <si>
+    <t>npc_creature_boss_9</t>
+  </si>
+  <si>
+    <t>地狱双头犬</t>
+  </si>
+  <si>
+    <t>models/monster/monster0201/monster0201.vmdl</t>
+  </si>
+  <si>
+    <t>cast1
+ACT_DOTA_TAUNT</t>
+  </si>
+  <si>
+    <t>cast2
+ACT_DOTA_TAUNT</t>
+  </si>
+  <si>
+    <t>npc_creature_boss_10</t>
+  </si>
+  <si>
+    <t>烈焰战神</t>
+  </si>
+  <si>
+    <t>models/monster/monster0194/monster0194.vmdl</t>
+  </si>
+  <si>
+    <t>cast7
+ACT_DOTA_TAUNT</t>
+  </si>
+  <si>
+    <t>npc_creature_boss_11</t>
+  </si>
+  <si>
+    <t>炼狱之王</t>
+  </si>
+  <si>
+    <t>models/monster/monster0202/monster0202.vmdl</t>
+  </si>
+  <si>
+    <t>cast4
+ACT_DOTA_TAUNT</t>
+  </si>
+  <si>
+    <t>npc_creature_boss_12</t>
+  </si>
+  <si>
+    <t>雷霆梦魇</t>
+  </si>
+  <si>
+    <t>models/monster/monster0190/monster0190.vmdl</t>
+  </si>
+  <si>
+    <t>npc_creature_boss_13</t>
+  </si>
+  <si>
+    <t>雷压飞翼兽</t>
+  </si>
+  <si>
+    <t>models/monster/monster0227/monster0227.vmdl</t>
+  </si>
+  <si>
+    <t>attack1
+ACT_DOTA_ATTACK</t>
+  </si>
+  <si>
+    <t>cast1
+ACT_DOTA_CAST_ABILITY_1</t>
+  </si>
+  <si>
+    <t>npc_creature_boss_14</t>
+  </si>
+  <si>
+    <t>雷电掌控者</t>
+  </si>
+  <si>
+    <t>models/heroes/zeus/zeus_arcana.vmdl</t>
+  </si>
+  <si>
+    <t>zeus_attack2_arcana
+ACT_DOTA_ATTACK2</t>
+  </si>
+  <si>
+    <t>zeus_cast1_arcana
+ACT_DOTA_CAST_ABILITY_1</t>
+  </si>
+  <si>
+    <t>zeus_run_arcana
+ACT_DOTA_RUN</t>
+  </si>
+  <si>
+    <t>zeus_lightning_death_alt_arcana
+ACT_DOTA_DIE</t>
+  </si>
+  <si>
+    <t>npc_creature_boss_15</t>
+  </si>
+  <si>
+    <t>雷神鸟</t>
+  </si>
+  <si>
+    <t>models/monster/monster0186/monster0186.vmdl</t>
+  </si>
+  <si>
+    <t>cast4_fly
+ACT_DOTA_TAUNT</t>
+  </si>
+  <si>
+    <t>cast1_fly
+ACT_DOTA_TAUNT</t>
+  </si>
+  <si>
+    <t>run_fly
+ACT_DOTA_RUN</t>
+  </si>
+  <si>
+    <t>die_fly
+ACT_DOTA_DIE</t>
+  </si>
+  <si>
+    <t>npc_creature_boss_16</t>
+  </si>
+  <si>
+    <t>闪电制造者</t>
+  </si>
+  <si>
+    <t>models/monster/monster0204/monster0204.vmdl</t>
+  </si>
+  <si>
+    <t>run
+ACT_DOTA_RUN</t>
+  </si>
+  <si>
+    <t>die
+ACT_DOTA_DIE</t>
+  </si>
+  <si>
+    <t>npc_creature_boss_17</t>
+  </si>
+  <si>
+    <t>雷神</t>
+  </si>
+  <si>
+    <t>models/monster/monster0207/monster0207.vmdl</t>
+  </si>
+  <si>
+    <t>cast3
+ACT_DOTA_TAUNT</t>
+  </si>
+  <si>
+    <t>npc_creature_boss_18</t>
+  </si>
+  <si>
+    <t>极冰守卫</t>
+  </si>
+  <si>
+    <t>models/items/tiny/frozen_stonehenge/frozen_stonehenge_lvl_04.vmdl</t>
+  </si>
+  <si>
+    <t>tiny_04_attack1
+ACT_DOTA_ATTACK</t>
+  </si>
+  <si>
+    <t>tiny_04_taunt
+ACT_DOTA_TAUNT</t>
+  </si>
+  <si>
+    <t>tiny_04_run
+ACT_DOTA_RUN</t>
+  </si>
+  <si>
+    <t>tiny_04_death
+ACT_DOTA_DIE</t>
+  </si>
+  <si>
+    <t>npc_creature_boss_19</t>
+  </si>
+  <si>
+    <t>冰原守卫</t>
+  </si>
+  <si>
+    <t>models/items/tiny/glacial/glacial_tiny03.vmdl</t>
+  </si>
+  <si>
+    <t>DOTA_UNIT_CAP_RANGED_ATTACK</t>
+  </si>
+  <si>
+    <t>tiny_03_attack1
+ACT_DOTA_ATTACK</t>
+  </si>
+  <si>
+    <t>tiny_03_growl
+ACT_TINY_GROWL</t>
+  </si>
+  <si>
+    <t>tiny_03_run
+ACT_DOTA_RUN</t>
+  </si>
+  <si>
+    <t>tiny_03_death
+ACT_DOTA_DIE</t>
+  </si>
+  <si>
+    <t>npc_creature_boss_20</t>
+  </si>
+  <si>
+    <t>极寒领主</t>
+  </si>
+  <si>
+    <t>models/monster/monster0152/monster0152.vmdl</t>
+  </si>
+  <si>
+    <t>cast5
+ACT_DOTA_TAUNT</t>
+  </si>
+  <si>
+    <t>npc_creature_boss_21</t>
+  </si>
+  <si>
+    <t>极寒蛛美丽</t>
+  </si>
+  <si>
+    <t>models/monster/monster0200/monster0200.vmdl</t>
+  </si>
+  <si>
+    <t>npc_creature_boss_22</t>
+  </si>
+  <si>
+    <t>冰原领主</t>
+  </si>
+  <si>
+    <t>models/monster/monster0195/monster0195.vmdl</t>
+  </si>
+  <si>
+    <t>cast6
+ACT_DOTA_TAUNT</t>
+  </si>
+  <si>
+    <t>npc_creature_boss_23</t>
+  </si>
+  <si>
+    <t>冰宫女王</t>
+  </si>
+  <si>
+    <t>models/monster/monster0240/monster0240.vmdl</t>
+  </si>
+  <si>
+    <t>npc_creature_boss_24</t>
+  </si>
+  <si>
+    <t>砂砾小巨人</t>
+  </si>
+  <si>
+    <t>models/items/tiny/burning_stone_giant/burning_stone_giant_04.vmdl</t>
+  </si>
+  <si>
+    <t>npc_creature_boss_25</t>
+  </si>
+  <si>
+    <t>狂沙熊战士</t>
+  </si>
+  <si>
+    <t>models/items/lone_druid/true_form/ld_enslaved_wanderer_ability_2/ld_enslaved_wanderer_ability_2.vmdl</t>
+  </si>
+  <si>
+    <t>tf_attackb
+ACT_DOTA_ATTACK</t>
+  </si>
+  <si>
+    <t>tf_battlecry
+ACT_DOTA_CAST_ABILITY_4</t>
+  </si>
+  <si>
+    <t>tf_run_haste
+ACT_DOTA_RUN</t>
+  </si>
+  <si>
+    <t>tf_death
+ACT_DOTA_DIE</t>
+  </si>
+  <si>
+    <t>npc_creature_boss_26</t>
+  </si>
+  <si>
+    <t>黄沙护卫</t>
+  </si>
+  <si>
+    <t>models/monster/monster0133/monster0133.vmdl</t>
+  </si>
+  <si>
     <t>attack</t>
   </si>
   <si>
-    <t>npc_creature_boss_8</t>
-  </si>
-  <si>
-    <t>烈焰神狐</t>
-  </si>
-  <si>
-    <t>models/monster/monster0124/monster0124.vmdl</t>
-  </si>
-  <si>
-    <t>npc_creature_boss_9</t>
-  </si>
-  <si>
-    <t>地狱双头犬</t>
-  </si>
-  <si>
-    <t>models/monster/monster0201/monster0201.vmdl</t>
-  </si>
-  <si>
-    <t>cast1</t>
-  </si>
-  <si>
-    <t>cast2</t>
-  </si>
-  <si>
-    <t>npc_creature_boss_10</t>
-  </si>
-  <si>
-    <t>烈焰战神</t>
-  </si>
-  <si>
-    <t>models/monster/monster0194/monster0194.vmdl</t>
-  </si>
-  <si>
-    <t>cast7</t>
-  </si>
-  <si>
-    <t>npc_creature_boss_11</t>
-  </si>
-  <si>
-    <t>炼狱之王</t>
-  </si>
-  <si>
-    <t>models/monster/monster0202/monster0202.vmdl</t>
-  </si>
-  <si>
-    <t>cast4</t>
-  </si>
-  <si>
-    <t>npc_creature_boss_12</t>
-  </si>
-  <si>
-    <t>雷霆梦魇</t>
-  </si>
-  <si>
-    <t>models/monster/monster0190/monster0190.vmdl</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>npc_creature_boss_13</t>
-  </si>
-  <si>
-    <t>雷压飞翼兽</t>
-  </si>
-  <si>
-    <t>models/monster/monster0227/monster0227.vmdl</t>
-  </si>
-  <si>
-    <t>attack1</t>
-  </si>
-  <si>
-    <t>npc_creature_boss_14</t>
-  </si>
-  <si>
-    <t>雷电掌控者</t>
-  </si>
-  <si>
-    <t>models/heroes/zeus/zeus_arcana.vmdl</t>
-  </si>
-  <si>
-    <t>zeus_attack2_arcana</t>
-  </si>
-  <si>
-    <t>zeus_cast1_arcana</t>
-  </si>
-  <si>
-    <t>zeus_run_arcana</t>
-  </si>
-  <si>
-    <t>zeus_lightning_death_alt_arcana</t>
-  </si>
-  <si>
-    <t>npc_creature_boss_15</t>
-  </si>
-  <si>
-    <t>雷神鸟</t>
-  </si>
-  <si>
-    <t>models/monster/monster0186/monster0186.vmdl</t>
-  </si>
-  <si>
-    <t>cast4_fly</t>
-  </si>
-  <si>
-    <t>cast1_fly</t>
-  </si>
-  <si>
-    <t>run_fly</t>
-  </si>
-  <si>
-    <t>die_fly</t>
-  </si>
-  <si>
-    <t>npc_creature_boss_16</t>
-  </si>
-  <si>
-    <t>闪电制造者</t>
-  </si>
-  <si>
-    <t>models/monster/monster0204/monster0204.vmdl</t>
-  </si>
-  <si>
-    <t>npc_creature_boss_17</t>
-  </si>
-  <si>
-    <t>雷神</t>
-  </si>
-  <si>
-    <t>models/monster/monster0207/monster0207.vmdl</t>
-  </si>
-  <si>
-    <t>cast3</t>
-  </si>
-  <si>
-    <t>npc_creature_boss_18</t>
-  </si>
-  <si>
-    <t>极冰守卫</t>
-  </si>
-  <si>
-    <t>models/items/tiny/frozen_stonehenge/frozen_stonehenge_lvl_04.vmdl</t>
-  </si>
-  <si>
-    <t>tiny_04_attack1</t>
-  </si>
-  <si>
-    <t>tiny_04_taunt</t>
-  </si>
-  <si>
-    <t>tiny_04_run</t>
-  </si>
-  <si>
-    <t>tiny_04_death</t>
-  </si>
-  <si>
-    <t>npc_creature_boss_19</t>
-  </si>
-  <si>
-    <t>冰原守卫</t>
-  </si>
-  <si>
-    <t>models/items/tiny/glacial/glacial_tiny03.vmdl</t>
-  </si>
-  <si>
-    <t>DOTA_UNIT_CAP_RANGED_ATTACK</t>
-  </si>
-  <si>
-    <t>tiny_03_attack1</t>
-  </si>
-  <si>
-    <t>tiny_03_growl</t>
-  </si>
-  <si>
-    <t>tiny_03_run</t>
-  </si>
-  <si>
-    <t>tiny_03_death</t>
-  </si>
-  <si>
-    <t>npc_creature_boss_20</t>
-  </si>
-  <si>
-    <t>极寒领主</t>
-  </si>
-  <si>
-    <t>models/monster/monster0152/monster0152.vmdl</t>
-  </si>
-  <si>
-    <t>cast5</t>
-  </si>
-  <si>
-    <t>npc_creature_boss_21</t>
-  </si>
-  <si>
-    <t>极寒蛛美丽</t>
-  </si>
-  <si>
-    <t>models/monster/monster0200/monster0200.vmdl</t>
-  </si>
-  <si>
-    <t>npc_creature_boss_22</t>
-  </si>
-  <si>
-    <t>冰原领主</t>
-  </si>
-  <si>
-    <t>models/monster/monster0195/monster0195.vmdl</t>
-  </si>
-  <si>
-    <t>cast6</t>
-  </si>
-  <si>
-    <t>npc_creature_boss_23</t>
-  </si>
-  <si>
-    <t>冰宫女王</t>
-  </si>
-  <si>
-    <t>models/monster/monster0240/monster0240.vmdl</t>
-  </si>
-  <si>
-    <t>npc_creature_boss_24</t>
-  </si>
-  <si>
-    <t>npc_creature_boss_25</t>
-  </si>
-  <si>
-    <t>npc_creature_boss_26</t>
-  </si>
-  <si>
     <t>npc_creature_boss_27</t>
   </si>
   <si>
+    <t>绿洲之主</t>
+  </si>
+  <si>
+    <t>models/monster/monster0191/monster0191.vmdl</t>
+  </si>
+  <si>
     <t>npc_creature_boss_28</t>
   </si>
   <si>
+    <t>黄沙之主</t>
+  </si>
+  <si>
+    <t>models/monster/monster0131/monster0131.vmdl</t>
+  </si>
+  <si>
     <t>npc_creature_boss_29</t>
+  </si>
+  <si>
+    <t>风神</t>
+  </si>
+  <si>
+    <t>models/monster/monster0203/monster0203.vmdl</t>
+  </si>
+  <si>
+    <t>cast10
+ACT_DOTA_TAUNT</t>
   </si>
 </sst>
 </file>
@@ -1776,7 +1870,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2056,16 +2150,25 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2425,11 +2528,11 @@
   <dimension ref="A1:BK32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="BC15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomRight" activeCell="B4" sqref="B4:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2479,10 +2582,9 @@
     <col min="56" max="56" width="8.00833333333333" customWidth="1"/>
     <col min="57" max="57" width="12.0083333333333" customWidth="1"/>
     <col min="58" max="58" width="3.625" customWidth="1"/>
-    <col min="59" max="59" width="20.75" customWidth="1"/>
-    <col min="60" max="60" width="24.5" customWidth="1"/>
-    <col min="61" max="61" width="18.625" customWidth="1"/>
-    <col min="62" max="62" width="16.625" customWidth="1"/>
+    <col min="59" max="60" width="20.75" customWidth="1"/>
+    <col min="61" max="61" width="44.375" customWidth="1"/>
+    <col min="62" max="62" width="29" customWidth="1"/>
     <col min="63" max="63" width="32.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3713,7 +3815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" s="4" customFormat="1" ht="22.5" customHeight="1" spans="1:61">
+    <row r="9" s="4" customFormat="1" ht="33" spans="1:61">
       <c r="A9" s="27" t="s">
         <v>147</v>
       </c>
@@ -3847,11 +3949,11 @@
       <c r="BH9" s="90" t="s">
         <v>150</v>
       </c>
-      <c r="BI9" s="4" t="s">
+      <c r="BI9" s="90" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="10" s="4" customFormat="1" ht="22.5" customHeight="1" spans="1:61">
+    <row r="10" s="4" customFormat="1" ht="33" spans="1:61">
       <c r="A10" s="27" t="s">
         <v>152</v>
       </c>
@@ -3982,14 +4084,14 @@
       <c r="BG10" s="89">
         <v>0</v>
       </c>
-      <c r="BH10" s="4" t="s">
+      <c r="BH10" s="90" t="s">
         <v>155</v>
       </c>
-      <c r="BI10" s="4" t="s">
+      <c r="BI10" s="90" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="11" s="4" customFormat="1" ht="22.5" customHeight="1" spans="1:61">
+    <row r="11" s="4" customFormat="1" ht="33" spans="1:61">
       <c r="A11" s="27" t="s">
         <v>156</v>
       </c>
@@ -4118,14 +4220,14 @@
       <c r="BG11" s="89">
         <v>0</v>
       </c>
-      <c r="BH11" s="4" t="s">
+      <c r="BH11" s="90" t="s">
         <v>155</v>
       </c>
-      <c r="BI11" s="4" t="s">
+      <c r="BI11" s="90" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="12" s="4" customFormat="1" ht="22.5" customHeight="1" spans="1:61">
+    <row r="12" s="4" customFormat="1" ht="33" spans="1:61">
       <c r="A12" s="27" t="s">
         <v>159</v>
       </c>
@@ -4254,14 +4356,14 @@
       <c r="BG12" s="89">
         <v>0</v>
       </c>
-      <c r="BH12" s="4" t="s">
+      <c r="BH12" s="90" t="s">
         <v>162</v>
       </c>
-      <c r="BI12" s="4" t="s">
+      <c r="BI12" s="90" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="13" s="4" customFormat="1" ht="22.5" customHeight="1" spans="1:61">
+    <row r="13" s="4" customFormat="1" ht="33" spans="1:61">
       <c r="A13" s="27" t="s">
         <v>164</v>
       </c>
@@ -4390,14 +4492,14 @@
       <c r="BG13" s="89">
         <v>0</v>
       </c>
-      <c r="BH13" s="4" t="s">
+      <c r="BH13" s="90" t="s">
         <v>162</v>
       </c>
-      <c r="BI13" s="4" t="s">
+      <c r="BI13" s="90" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="14" s="4" customFormat="1" ht="22.5" customHeight="1" spans="1:61">
+    <row r="14" s="4" customFormat="1" ht="33" spans="1:61">
       <c r="A14" s="27" t="s">
         <v>168</v>
       </c>
@@ -4526,14 +4628,14 @@
       <c r="BG14" s="89">
         <v>1</v>
       </c>
-      <c r="BH14" s="4" t="s">
+      <c r="BH14" s="90" t="s">
         <v>162</v>
       </c>
-      <c r="BI14" s="4" t="s">
+      <c r="BI14" s="90" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="15" s="5" customFormat="1" ht="22.5" customHeight="1" spans="1:63">
+    <row r="15" s="5" customFormat="1" ht="33" spans="1:61">
       <c r="A15" s="32" t="s">
         <v>172</v>
       </c>
@@ -4662,25 +4764,19 @@
       <c r="BG15" s="92">
         <v>0</v>
       </c>
-      <c r="BH15" s="5" t="s">
+      <c r="BH15" s="93" t="s">
         <v>162</v>
       </c>
-      <c r="BI15" s="5" t="s">
+      <c r="BI15" s="93" t="s">
         <v>163</v>
       </c>
-      <c r="BJ15" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="BK15" s="5" t="s">
+    </row>
+    <row r="16" s="5" customFormat="1" ht="33" spans="1:61">
+      <c r="A16" s="32" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="16" s="5" customFormat="1" ht="22.5" customHeight="1" spans="1:63">
-      <c r="A16" s="32" t="s">
+      <c r="B16" s="33" t="s">
         <v>176</v>
-      </c>
-      <c r="B16" s="33" t="s">
-        <v>177</v>
       </c>
       <c r="C16" s="37"/>
       <c r="D16" s="35">
@@ -4710,7 +4806,7 @@
         <v>88</v>
       </c>
       <c r="L16" s="33" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M16" s="33"/>
       <c r="N16" s="33"/>
@@ -4804,20 +4900,14 @@
       <c r="BG16" s="92">
         <v>0</v>
       </c>
-      <c r="BH16" s="5" t="s">
+      <c r="BH16" s="93" t="s">
+        <v>178</v>
+      </c>
+      <c r="BI16" s="93" t="s">
         <v>179</v>
       </c>
-      <c r="BI16" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="BJ16" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="BK16" s="5" t="s">
-        <v>175</v>
-      </c>
     </row>
-    <row r="17" s="5" customFormat="1" ht="22.5" customHeight="1" spans="1:63">
+    <row r="17" s="5" customFormat="1" ht="33" spans="1:63">
       <c r="A17" s="32" t="s">
         <v>180</v>
       </c>
@@ -4946,20 +5036,20 @@
       <c r="BG17" s="92">
         <v>0</v>
       </c>
-      <c r="BH17" s="5" t="s">
+      <c r="BH17" s="93" t="s">
         <v>183</v>
       </c>
-      <c r="BI17" s="5" t="s">
+      <c r="BI17" s="93" t="s">
         <v>184</v>
       </c>
-      <c r="BJ17" s="5" t="s">
+      <c r="BJ17" s="93" t="s">
         <v>185</v>
       </c>
-      <c r="BK17" s="5" t="s">
+      <c r="BK17" s="93" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="18" s="5" customFormat="1" ht="22.5" customHeight="1" spans="1:63">
+    <row r="18" s="5" customFormat="1" ht="33" spans="1:63">
       <c r="A18" s="32" t="s">
         <v>187</v>
       </c>
@@ -5088,20 +5178,20 @@
       <c r="BG18" s="92">
         <v>1</v>
       </c>
-      <c r="BH18" s="5" t="s">
+      <c r="BH18" s="93" t="s">
         <v>190</v>
       </c>
-      <c r="BI18" s="5" t="s">
+      <c r="BI18" s="93" t="s">
         <v>191</v>
       </c>
-      <c r="BJ18" s="5" t="s">
+      <c r="BJ18" s="93" t="s">
         <v>192</v>
       </c>
-      <c r="BK18" s="5" t="s">
+      <c r="BK18" s="93" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="19" s="5" customFormat="1" ht="22.5" customHeight="1" spans="1:63">
+    <row r="19" s="5" customFormat="1" ht="33" spans="1:63">
       <c r="A19" s="32" t="s">
         <v>194</v>
       </c>
@@ -5230,25 +5320,25 @@
       <c r="BG19" s="92">
         <v>0</v>
       </c>
-      <c r="BH19" s="5" t="s">
+      <c r="BH19" s="93" t="s">
         <v>162</v>
       </c>
-      <c r="BI19" s="5" t="s">
+      <c r="BI19" s="93" t="s">
         <v>163</v>
       </c>
-      <c r="BJ19" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="BK19" s="5" t="s">
-        <v>175</v>
+      <c r="BJ19" s="93" t="s">
+        <v>197</v>
+      </c>
+      <c r="BK19" s="93" t="s">
+        <v>198</v>
       </c>
     </row>
-    <row r="20" s="5" customFormat="1" ht="22.5" customHeight="1" spans="1:63">
+    <row r="20" s="5" customFormat="1" ht="33" spans="1:63">
       <c r="A20" s="32" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B20" s="33" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C20" s="38"/>
       <c r="D20" s="35">
@@ -5278,7 +5368,7 @@
         <v>88</v>
       </c>
       <c r="L20" s="33" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="M20" s="33"/>
       <c r="N20" s="33"/>
@@ -5372,25 +5462,25 @@
       <c r="BG20" s="92">
         <v>0</v>
       </c>
-      <c r="BH20" s="5" t="s">
+      <c r="BH20" s="93" t="s">
         <v>162</v>
       </c>
-      <c r="BI20" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="BJ20" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="BK20" s="5" t="s">
-        <v>175</v>
+      <c r="BI20" s="93" t="s">
+        <v>202</v>
+      </c>
+      <c r="BJ20" s="93" t="s">
+        <v>197</v>
+      </c>
+      <c r="BK20" s="93" t="s">
+        <v>198</v>
       </c>
     </row>
-    <row r="21" s="6" customFormat="1" ht="22.5" customHeight="1" spans="1:63">
+    <row r="21" s="6" customFormat="1" ht="33" spans="1:63">
       <c r="A21" s="39" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B21" s="40" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C21" s="41"/>
       <c r="D21" s="42">
@@ -5420,7 +5510,7 @@
         <v>88</v>
       </c>
       <c r="L21" s="40" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="M21" s="40"/>
       <c r="N21" s="40"/>
@@ -5510,29 +5600,29 @@
       <c r="BE21" s="40">
         <v>373</v>
       </c>
-      <c r="BF21" s="93"/>
-      <c r="BG21" s="94">
-        <v>0</v>
-      </c>
-      <c r="BH21" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="BI21" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="BJ21" s="6" t="s">
+      <c r="BF21" s="94"/>
+      <c r="BG21" s="95">
+        <v>0</v>
+      </c>
+      <c r="BH21" s="96" t="s">
         <v>206</v>
       </c>
-      <c r="BK21" s="6" t="s">
+      <c r="BI21" s="96" t="s">
         <v>207</v>
+      </c>
+      <c r="BJ21" s="96" t="s">
+        <v>208</v>
+      </c>
+      <c r="BK21" s="96" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="22" s="6" customFormat="1" ht="39" customHeight="1" spans="1:63">
       <c r="A22" s="39" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B22" s="40" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C22" s="41"/>
       <c r="D22" s="42">
@@ -5562,7 +5652,7 @@
         <v>88</v>
       </c>
       <c r="L22" s="40" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="M22" s="40"/>
       <c r="N22" s="40"/>
@@ -5605,7 +5695,7 @@
         <v>91</v>
       </c>
       <c r="AN22" s="40" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AO22" s="77"/>
       <c r="AP22" s="40">
@@ -5654,29 +5744,29 @@
       <c r="BE22" s="40">
         <v>373</v>
       </c>
-      <c r="BF22" s="93"/>
-      <c r="BG22" s="94">
-        <v>0</v>
-      </c>
-      <c r="BH22" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="BI22" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="BJ22" s="6" t="s">
+      <c r="BF22" s="94"/>
+      <c r="BG22" s="95">
+        <v>0</v>
+      </c>
+      <c r="BH22" s="96" t="s">
         <v>214</v>
       </c>
-      <c r="BK22" s="6" t="s">
+      <c r="BI22" s="96" t="s">
         <v>215</v>
       </c>
+      <c r="BJ22" s="96" t="s">
+        <v>216</v>
+      </c>
+      <c r="BK22" s="96" t="s">
+        <v>217</v>
+      </c>
     </row>
-    <row r="23" s="6" customFormat="1" ht="39" customHeight="1" spans="1:63">
+    <row r="23" s="6" customFormat="1" ht="39" customHeight="1" spans="1:61">
       <c r="A23" s="39" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B23" s="40" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C23" s="41"/>
       <c r="D23" s="42">
@@ -5706,7 +5796,7 @@
         <v>88</v>
       </c>
       <c r="L23" s="40" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="M23" s="40"/>
       <c r="N23" s="40"/>
@@ -5749,7 +5839,7 @@
         <v>91</v>
       </c>
       <c r="AN23" s="40" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AO23" s="77"/>
       <c r="AP23" s="40">
@@ -5798,29 +5888,23 @@
       <c r="BE23" s="40">
         <v>373</v>
       </c>
-      <c r="BF23" s="93"/>
-      <c r="BG23" s="94">
-        <v>0</v>
-      </c>
-      <c r="BH23" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="BI23" s="6" t="s">
+      <c r="BF23" s="94"/>
+      <c r="BG23" s="95">
+        <v>0</v>
+      </c>
+      <c r="BH23" s="96" t="s">
+        <v>221</v>
+      </c>
+      <c r="BI23" s="96" t="s">
         <v>163</v>
       </c>
-      <c r="BJ23" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="BK23" s="6" t="s">
-        <v>175</v>
-      </c>
     </row>
-    <row r="24" s="6" customFormat="1" ht="39" customHeight="1" spans="1:63">
+    <row r="24" s="6" customFormat="1" ht="39" customHeight="1" spans="1:61">
       <c r="A24" s="39" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B24" s="40" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C24" s="41"/>
       <c r="D24" s="42">
@@ -5850,7 +5934,7 @@
         <v>88</v>
       </c>
       <c r="L24" s="40" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="M24" s="40"/>
       <c r="N24" s="40"/>
@@ -5942,29 +6026,23 @@
       <c r="BE24" s="40">
         <v>373</v>
       </c>
-      <c r="BF24" s="93"/>
-      <c r="BG24" s="94">
-        <v>0</v>
-      </c>
-      <c r="BH24" s="6" t="s">
+      <c r="BF24" s="94"/>
+      <c r="BG24" s="95">
+        <v>0</v>
+      </c>
+      <c r="BH24" s="96" t="s">
         <v>162</v>
       </c>
-      <c r="BI24" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="BJ24" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="BK24" s="6" t="s">
-        <v>175</v>
+      <c r="BI24" s="96" t="s">
+        <v>221</v>
       </c>
     </row>
-    <row r="25" s="6" customFormat="1" ht="39" customHeight="1" spans="1:63">
+    <row r="25" s="6" customFormat="1" ht="39" customHeight="1" spans="1:61">
       <c r="A25" s="39" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B25" s="40" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C25" s="41"/>
       <c r="D25" s="42">
@@ -5994,7 +6072,7 @@
         <v>88</v>
       </c>
       <c r="L25" s="40" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="M25" s="40"/>
       <c r="N25" s="40"/>
@@ -6086,29 +6164,23 @@
       <c r="BE25" s="40">
         <v>373</v>
       </c>
-      <c r="BF25" s="93"/>
-      <c r="BG25" s="94">
-        <v>0</v>
-      </c>
-      <c r="BH25" s="6" t="s">
+      <c r="BF25" s="94"/>
+      <c r="BG25" s="95">
+        <v>0</v>
+      </c>
+      <c r="BH25" s="96" t="s">
         <v>162</v>
       </c>
-      <c r="BI25" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="BJ25" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="BK25" s="6" t="s">
-        <v>175</v>
+      <c r="BI25" s="96" t="s">
+        <v>228</v>
       </c>
     </row>
-    <row r="26" s="6" customFormat="1" ht="39" customHeight="1" spans="1:63">
+    <row r="26" s="6" customFormat="1" ht="39" customHeight="1" spans="1:61">
       <c r="A26" s="39" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B26" s="40" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C26" s="41"/>
       <c r="D26" s="42">
@@ -6138,7 +6210,7 @@
         <v>88</v>
       </c>
       <c r="L26" s="40" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="M26" s="40"/>
       <c r="N26" s="40"/>
@@ -6230,29 +6302,23 @@
       <c r="BE26" s="40">
         <v>373</v>
       </c>
-      <c r="BF26" s="93"/>
-      <c r="BG26" s="94">
-        <v>0</v>
-      </c>
-      <c r="BH26" s="6" t="s">
+      <c r="BF26" s="94"/>
+      <c r="BG26" s="95">
+        <v>0</v>
+      </c>
+      <c r="BH26" s="96" t="s">
         <v>162</v>
       </c>
-      <c r="BI26" s="6" t="s">
+      <c r="BI26" s="96" t="s">
         <v>171</v>
       </c>
-      <c r="BJ26" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="BK26" s="6" t="s">
-        <v>175</v>
-      </c>
     </row>
-    <row r="27" s="7" customFormat="1" ht="22.5" customHeight="1" spans="1:63">
+    <row r="27" s="7" customFormat="1" ht="33" spans="1:63">
       <c r="A27" s="44" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B27" s="45" t="s">
-        <v>202</v>
+        <v>233</v>
       </c>
       <c r="C27" s="46"/>
       <c r="D27" s="47">
@@ -6282,7 +6348,7 @@
         <v>88</v>
       </c>
       <c r="L27" s="45" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="M27" s="45"/>
       <c r="N27" s="45"/>
@@ -6372,29 +6438,29 @@
       <c r="BE27" s="45">
         <v>373</v>
       </c>
-      <c r="BF27" s="95"/>
-      <c r="BG27" s="96">
-        <v>0</v>
-      </c>
-      <c r="BH27" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="BI27" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="BJ27" s="7" t="s">
+      <c r="BF27" s="97"/>
+      <c r="BG27" s="98">
+        <v>0</v>
+      </c>
+      <c r="BH27" s="99" t="s">
         <v>206</v>
       </c>
-      <c r="BK27" s="7" t="s">
+      <c r="BI27" s="99" t="s">
         <v>207</v>
+      </c>
+      <c r="BJ27" s="99" t="s">
+        <v>208</v>
+      </c>
+      <c r="BK27" s="99" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="28" s="7" customFormat="1" ht="39" customHeight="1" spans="1:63">
       <c r="A28" s="44" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="B28" s="45" t="s">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="C28" s="46"/>
       <c r="D28" s="47">
@@ -6424,7 +6490,7 @@
         <v>88</v>
       </c>
       <c r="L28" s="45" t="s">
-        <v>210</v>
+        <v>237</v>
       </c>
       <c r="M28" s="45"/>
       <c r="N28" s="45"/>
@@ -6467,7 +6533,7 @@
         <v>91</v>
       </c>
       <c r="AN28" s="45" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AO28" s="78"/>
       <c r="AP28" s="45">
@@ -6516,29 +6582,29 @@
       <c r="BE28" s="45">
         <v>373</v>
       </c>
-      <c r="BF28" s="95"/>
-      <c r="BG28" s="96">
-        <v>0</v>
-      </c>
-      <c r="BH28" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="BI28" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="BJ28" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="BK28" s="7" t="s">
-        <v>215</v>
+      <c r="BF28" s="97"/>
+      <c r="BG28" s="98">
+        <v>0</v>
+      </c>
+      <c r="BH28" s="99" t="s">
+        <v>238</v>
+      </c>
+      <c r="BI28" s="99" t="s">
+        <v>239</v>
+      </c>
+      <c r="BJ28" s="99" t="s">
+        <v>240</v>
+      </c>
+      <c r="BK28" s="99" t="s">
+        <v>241</v>
       </c>
     </row>
-    <row r="29" s="7" customFormat="1" ht="39" customHeight="1" spans="1:63">
+    <row r="29" s="7" customFormat="1" ht="39" customHeight="1" spans="1:60">
       <c r="A29" s="44" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="B29" s="45" t="s">
-        <v>217</v>
+        <v>243</v>
       </c>
       <c r="C29" s="46"/>
       <c r="D29" s="47">
@@ -6568,7 +6634,7 @@
         <v>88</v>
       </c>
       <c r="L29" s="45" t="s">
-        <v>218</v>
+        <v>244</v>
       </c>
       <c r="M29" s="45"/>
       <c r="N29" s="45"/>
@@ -6611,7 +6677,7 @@
         <v>91</v>
       </c>
       <c r="AN29" s="45" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AO29" s="78"/>
       <c r="AP29" s="45">
@@ -6660,29 +6726,20 @@
       <c r="BE29" s="45">
         <v>373</v>
       </c>
-      <c r="BF29" s="95"/>
-      <c r="BG29" s="96">
+      <c r="BF29" s="97"/>
+      <c r="BG29" s="98">
         <v>0</v>
       </c>
       <c r="BH29" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="BI29" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="BJ29" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="BK29" s="7" t="s">
-        <v>175</v>
+        <v>245</v>
       </c>
     </row>
-    <row r="30" s="7" customFormat="1" ht="39" customHeight="1" spans="1:63">
+    <row r="30" s="7" customFormat="1" ht="39" customHeight="1" spans="1:61">
       <c r="A30" s="44" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="B30" s="45" t="s">
-        <v>221</v>
+        <v>247</v>
       </c>
       <c r="C30" s="46"/>
       <c r="D30" s="47">
@@ -6712,7 +6769,7 @@
         <v>88</v>
       </c>
       <c r="L30" s="45" t="s">
-        <v>222</v>
+        <v>248</v>
       </c>
       <c r="M30" s="45"/>
       <c r="N30" s="45"/>
@@ -6804,29 +6861,23 @@
       <c r="BE30" s="45">
         <v>373</v>
       </c>
-      <c r="BF30" s="95"/>
-      <c r="BG30" s="96">
-        <v>0</v>
-      </c>
-      <c r="BH30" s="7" t="s">
+      <c r="BF30" s="97"/>
+      <c r="BG30" s="98">
+        <v>0</v>
+      </c>
+      <c r="BH30" s="99" t="s">
         <v>162</v>
       </c>
-      <c r="BI30" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="BJ30" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="BK30" s="7" t="s">
-        <v>175</v>
+      <c r="BI30" s="99" t="s">
+        <v>221</v>
       </c>
     </row>
-    <row r="31" s="7" customFormat="1" ht="39" customHeight="1" spans="1:63">
+    <row r="31" s="7" customFormat="1" ht="39" customHeight="1" spans="1:60">
       <c r="A31" s="44" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="B31" s="45" t="s">
-        <v>224</v>
+        <v>250</v>
       </c>
       <c r="C31" s="46"/>
       <c r="D31" s="47">
@@ -6856,7 +6907,7 @@
         <v>88</v>
       </c>
       <c r="L31" s="45" t="s">
-        <v>225</v>
+        <v>251</v>
       </c>
       <c r="M31" s="45"/>
       <c r="N31" s="45"/>
@@ -6948,29 +6999,20 @@
       <c r="BE31" s="45">
         <v>373</v>
       </c>
-      <c r="BF31" s="95"/>
-      <c r="BG31" s="96">
+      <c r="BF31" s="97"/>
+      <c r="BG31" s="98">
         <v>0</v>
       </c>
       <c r="BH31" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="BI31" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="BJ31" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="BK31" s="7" t="s">
-        <v>175</v>
+        <v>245</v>
       </c>
     </row>
-    <row r="32" s="7" customFormat="1" ht="39" customHeight="1" spans="1:63">
+    <row r="32" s="7" customFormat="1" ht="39" customHeight="1" spans="1:61">
       <c r="A32" s="44" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="B32" s="45" t="s">
-        <v>228</v>
+        <v>253</v>
       </c>
       <c r="C32" s="46"/>
       <c r="D32" s="47">
@@ -7000,7 +7042,7 @@
         <v>88</v>
       </c>
       <c r="L32" s="45" t="s">
-        <v>229</v>
+        <v>254</v>
       </c>
       <c r="M32" s="45"/>
       <c r="N32" s="45"/>
@@ -7092,21 +7134,15 @@
       <c r="BE32" s="45">
         <v>373</v>
       </c>
-      <c r="BF32" s="95"/>
-      <c r="BG32" s="96">
-        <v>0</v>
-      </c>
-      <c r="BH32" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="BI32" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="BJ32" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="BK32" s="7" t="s">
-        <v>175</v>
+      <c r="BF32" s="97"/>
+      <c r="BG32" s="98">
+        <v>0</v>
+      </c>
+      <c r="BH32" s="99" t="s">
+        <v>163</v>
+      </c>
+      <c r="BI32" s="99" t="s">
+        <v>255</v>
       </c>
     </row>
   </sheetData>

--- a/excels/units/monster/boss.xlsx
+++ b/excels/units/monster/boss.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23145" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12345"/>
   </bookViews>
   <sheets>
     <sheet name="boss" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="251">
   <si>
     <t>主键</t>
   </si>
@@ -272,6 +272,9 @@
     <t>run_fast</t>
   </si>
   <si>
+    <t>fly</t>
+  </si>
+  <si>
     <t>HasAggressiveStance</t>
   </si>
   <si>
@@ -296,7 +299,7 @@
     <t>npc_dota_creature</t>
   </si>
   <si>
-    <t>models/heroes/brewmaster/brewmaster.vmdl</t>
+    <t>models/heroes/juggernaut/juggernaut.vmdl</t>
   </si>
   <si>
     <t>public_creature</t>
@@ -480,11 +483,11 @@
   </si>
   <si>
     <t>golem_attack
-ACT_DOTA_ATTACK</t>
+1503</t>
   </si>
   <si>
     <t>golem_flail
-ACT_DOTA_FLAIL</t>
+1508</t>
   </si>
   <si>
     <t>npc_creature_boss_7</t>
@@ -497,7 +500,7 @@
   </si>
   <si>
     <t>attack
-ACT_DOTA_ATTACK</t>
+1503</t>
   </si>
   <si>
     <t>npc_creature_boss_8</t>
@@ -519,11 +522,11 @@
   </si>
   <si>
     <t>cast1
-ACT_DOTA_TAUNT</t>
+1536</t>
   </si>
   <si>
     <t>cast2
-ACT_DOTA_TAUNT</t>
+1536</t>
   </si>
   <si>
     <t>npc_creature_boss_10</t>
@@ -536,7 +539,7 @@
   </si>
   <si>
     <t>cast7
-ACT_DOTA_TAUNT</t>
+1536</t>
   </si>
   <si>
     <t>npc_creature_boss_11</t>
@@ -549,7 +552,7 @@
   </si>
   <si>
     <t>cast4
-ACT_DOTA_TAUNT</t>
+1536</t>
   </si>
   <si>
     <t>npc_creature_boss_12</t>
@@ -571,11 +574,11 @@
   </si>
   <si>
     <t>attack1
-ACT_DOTA_ATTACK</t>
+1503</t>
   </si>
   <si>
     <t>cast1
-ACT_DOTA_CAST_ABILITY_1</t>
+1510</t>
   </si>
   <si>
     <t>npc_creature_boss_14</t>
@@ -588,19 +591,17 @@
   </si>
   <si>
     <t>zeus_attack2_arcana
-ACT_DOTA_ATTACK2</t>
+1504</t>
   </si>
   <si>
     <t>zeus_cast1_arcana
-ACT_DOTA_CAST_ABILITY_1</t>
-  </si>
-  <si>
-    <t>zeus_run_arcana
-ACT_DOTA_RUN</t>
-  </si>
-  <si>
-    <t>zeus_lightning_death_alt_arcana
-ACT_DOTA_DIE</t>
+1510</t>
+  </si>
+  <si>
+    <t>zeus_run_arcana</t>
+  </si>
+  <si>
+    <t>zeus_lightning_death_alt_arcana</t>
   </si>
   <si>
     <t>npc_creature_boss_15</t>
@@ -612,22 +613,6 @@
     <t>models/monster/monster0186/monster0186.vmdl</t>
   </si>
   <si>
-    <t>cast4_fly
-ACT_DOTA_TAUNT</t>
-  </si>
-  <si>
-    <t>cast1_fly
-ACT_DOTA_TAUNT</t>
-  </si>
-  <si>
-    <t>run_fly
-ACT_DOTA_RUN</t>
-  </si>
-  <si>
-    <t>die_fly
-ACT_DOTA_DIE</t>
-  </si>
-  <si>
     <t>npc_creature_boss_16</t>
   </si>
   <si>
@@ -637,12 +622,7 @@
     <t>models/monster/monster0204/monster0204.vmdl</t>
   </si>
   <si>
-    <t>run
-ACT_DOTA_RUN</t>
-  </si>
-  <si>
-    <t>die
-ACT_DOTA_DIE</t>
+    <t>die</t>
   </si>
   <si>
     <t>npc_creature_boss_17</t>
@@ -655,7 +635,7 @@
   </si>
   <si>
     <t>cast3
-ACT_DOTA_TAUNT</t>
+1536</t>
   </si>
   <si>
     <t>npc_creature_boss_18</t>
@@ -668,19 +648,17 @@
   </si>
   <si>
     <t>tiny_04_attack1
-ACT_DOTA_ATTACK</t>
+1503</t>
   </si>
   <si>
     <t>tiny_04_taunt
-ACT_DOTA_TAUNT</t>
-  </si>
-  <si>
-    <t>tiny_04_run
-ACT_DOTA_RUN</t>
-  </si>
-  <si>
-    <t>tiny_04_death
-ACT_DOTA_DIE</t>
+1536</t>
+  </si>
+  <si>
+    <t>tiny_04_run</t>
+  </si>
+  <si>
+    <t>tiny_04_death</t>
   </si>
   <si>
     <t>npc_creature_boss_19</t>
@@ -696,19 +674,17 @@
   </si>
   <si>
     <t>tiny_03_attack1
-ACT_DOTA_ATTACK</t>
+1503</t>
   </si>
   <si>
     <t>tiny_03_growl
-ACT_TINY_GROWL</t>
-  </si>
-  <si>
-    <t>tiny_03_run
-ACT_DOTA_RUN</t>
-  </si>
-  <si>
-    <t>tiny_03_death
-ACT_DOTA_DIE</t>
+1560</t>
+  </si>
+  <si>
+    <t>tiny_03_run</t>
+  </si>
+  <si>
+    <t>tiny_03_death</t>
   </si>
   <si>
     <t>npc_creature_boss_20</t>
@@ -721,7 +697,7 @@
   </si>
   <si>
     <t>cast5
-ACT_DOTA_TAUNT</t>
+1536</t>
   </si>
   <si>
     <t>npc_creature_boss_21</t>
@@ -743,7 +719,7 @@
   </si>
   <si>
     <t>cast6
-ACT_DOTA_TAUNT</t>
+1536</t>
   </si>
   <si>
     <t>npc_creature_boss_23</t>
@@ -774,19 +750,17 @@
   </si>
   <si>
     <t>tf_attackb
-ACT_DOTA_ATTACK</t>
+1503</t>
   </si>
   <si>
     <t>tf_battlecry
-ACT_DOTA_CAST_ABILITY_4</t>
-  </si>
-  <si>
-    <t>tf_run_haste
-ACT_DOTA_RUN</t>
-  </si>
-  <si>
-    <t>tf_death
-ACT_DOTA_DIE</t>
+1513</t>
+  </si>
+  <si>
+    <t>tf_run_haste</t>
+  </si>
+  <si>
+    <t>tf_death</t>
   </si>
   <si>
     <t>npc_creature_boss_26</t>
@@ -798,9 +772,6 @@
     <t>models/monster/monster0133/monster0133.vmdl</t>
   </si>
   <si>
-    <t>attack</t>
-  </si>
-  <si>
     <t>npc_creature_boss_27</t>
   </si>
   <si>
@@ -829,7 +800,7 @@
   </si>
   <si>
     <t>cast10
-ACT_DOTA_TAUNT</t>
+1536</t>
   </si>
 </sst>
 </file>
@@ -1289,7 +1260,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -1559,6 +1530,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF5A5A5A"/>
       </top>
@@ -1575,6 +1555,17 @@
         <color rgb="FF5A5A5A"/>
       </right>
       <top/>
+      <bottom style="thin">
+        <color rgb="FF5A5A5A"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="thin">
         <color rgb="FF5A5A5A"/>
       </bottom>
@@ -1601,21 +1592,6 @@
         <color rgb="FF5A5A5A"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color rgb="FF5A5A5A"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF5A5A5A"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF5A5A5A"/>
-      </top>
       <bottom style="thin">
         <color rgb="FF5A5A5A"/>
       </bottom>
@@ -1745,7 +1721,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1757,34 +1733,34 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1870,7 +1846,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2108,64 +2084,52 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2525,14 +2489,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:BK32"/>
+  <dimension ref="A1:BL32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="BB15" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4:B8"/>
+      <selection pane="bottomRight" activeCell="BJ31" sqref="BJ31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2580,15 +2544,15 @@
     <col min="54" max="54" width="21.625" customWidth="1"/>
     <col min="55" max="55" width="9.00833333333333" customWidth="1"/>
     <col min="56" max="56" width="8.00833333333333" customWidth="1"/>
-    <col min="57" max="57" width="12.0083333333333" customWidth="1"/>
-    <col min="58" max="58" width="3.625" customWidth="1"/>
-    <col min="59" max="60" width="20.75" customWidth="1"/>
-    <col min="61" max="61" width="44.375" customWidth="1"/>
-    <col min="62" max="62" width="29" customWidth="1"/>
-    <col min="63" max="63" width="32.625" customWidth="1"/>
+    <col min="57" max="58" width="12.0083333333333" customWidth="1"/>
+    <col min="59" max="59" width="3.625" customWidth="1"/>
+    <col min="60" max="61" width="20.75" customWidth="1"/>
+    <col min="62" max="62" width="44.375" customWidth="1"/>
+    <col min="63" max="63" width="29" customWidth="1"/>
+    <col min="64" max="64" width="32.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="39" customHeight="1" spans="1:63">
+    <row r="1" s="1" customFormat="1" ht="39" customHeight="1" spans="1:64">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2706,20 +2670,21 @@
       <c r="BE1" s="49"/>
       <c r="BF1" s="79"/>
       <c r="BG1" s="80"/>
-      <c r="BH1" s="1" t="s">
+      <c r="BH1" s="81"/>
+      <c r="BI1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="118.5" customHeight="1" spans="1:63">
+    <row r="2" s="2" customFormat="1" ht="118.5" customHeight="1" spans="1:64">
       <c r="A2" s="13" t="s">
         <v>33</v>
       </c>
@@ -2891,13 +2856,13 @@
       <c r="BE2" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="BF2" s="81" t="s">
+      <c r="BF2" s="82" t="s">
+        <v>81</v>
+      </c>
+      <c r="BG2" s="83" t="s">
         <v>47</v>
       </c>
-      <c r="BG2" s="82" t="s">
-        <v>81</v>
-      </c>
-      <c r="BH2" s="2" t="s">
+      <c r="BH2" s="84" t="s">
         <v>82</v>
       </c>
       <c r="BI2" s="2" t="s">
@@ -2909,13 +2874,16 @@
       <c r="BK2" s="2" t="s">
         <v>85</v>
       </c>
+      <c r="BL2" s="2" t="s">
+        <v>86</v>
+      </c>
     </row>
-    <row r="3" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:59">
+    <row r="3" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:60">
       <c r="A3" s="18" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C3" s="20">
         <v>1</v>
@@ -2940,28 +2908,18 @@
         <v>25</v>
       </c>
       <c r="K3" s="19" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L3" s="19" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M3" s="19"/>
       <c r="N3" s="19"/>
-      <c r="O3" s="19">
-        <v>158</v>
-      </c>
-      <c r="P3" s="19">
-        <v>159</v>
-      </c>
-      <c r="Q3" s="19">
-        <v>160</v>
-      </c>
-      <c r="R3" s="19">
-        <v>161</v>
-      </c>
-      <c r="S3" s="19">
-        <v>162</v>
-      </c>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="19"/>
       <c r="T3" s="19"/>
       <c r="U3" s="19"/>
       <c r="V3" s="19"/>
@@ -2975,7 +2933,7 @@
         <v>238</v>
       </c>
       <c r="AA3" s="19" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AB3" s="19"/>
       <c r="AC3" s="19"/>
@@ -2993,15 +2951,15 @@
         <v>180</v>
       </c>
       <c r="AM3" s="19" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AN3" s="19" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AO3" s="73"/>
       <c r="AP3" s="19"/>
       <c r="AQ3" s="19" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AR3" s="19">
         <v>1</v>
@@ -3010,7 +2968,7 @@
         <v>1</v>
       </c>
       <c r="AT3" s="19" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AU3" s="19">
         <v>0</v>
@@ -3025,7 +2983,7 @@
         <v>20000</v>
       </c>
       <c r="AY3" s="22" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AZ3" s="19">
         <v>8192</v>
@@ -3038,22 +2996,25 @@
         <v>0</v>
       </c>
       <c r="BD3" s="19">
-        <v>345</v>
+        <v>100</v>
       </c>
       <c r="BE3" s="19">
-        <v>373</v>
-      </c>
-      <c r="BF3" s="83"/>
-      <c r="BG3" s="84">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="BF3" s="19">
+        <v>200</v>
+      </c>
+      <c r="BG3" s="85"/>
+      <c r="BH3" s="86">
+        <v>1</v>
       </c>
     </row>
-    <row r="4" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:59">
+    <row r="4" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:60">
       <c r="A4" s="18" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C4" s="23">
         <v>2</v>
@@ -3081,27 +3042,27 @@
         <v>25</v>
       </c>
       <c r="K4" s="19" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L4" s="19" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M4" s="19"/>
       <c r="N4" s="19"/>
       <c r="O4" s="19" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P4" s="19" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q4" s="19" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="R4" s="19" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="S4" s="19" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="T4" s="19">
         <v>98</v>
@@ -3118,22 +3079,22 @@
         <v>238</v>
       </c>
       <c r="AA4" s="19" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AB4" s="19" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AC4" s="19" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AD4" s="19" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AE4" s="19" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AF4" s="59" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AG4" s="19"/>
       <c r="AH4" s="19"/>
@@ -3146,15 +3107,15 @@
         <v>180</v>
       </c>
       <c r="AM4" s="19" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AN4" s="19" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AO4" s="73"/>
       <c r="AP4" s="19"/>
       <c r="AQ4" s="19" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AR4" s="19">
         <v>1</v>
@@ -3163,7 +3124,7 @@
         <v>1</v>
       </c>
       <c r="AT4" s="19" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AU4" s="19">
         <v>0</v>
@@ -3178,7 +3139,7 @@
         <v>20000</v>
       </c>
       <c r="AY4" s="22" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AZ4" s="19">
         <v>8192</v>
@@ -3191,22 +3152,25 @@
         <v>0</v>
       </c>
       <c r="BD4" s="19">
-        <v>345</v>
+        <v>100</v>
       </c>
       <c r="BE4" s="19">
-        <v>373</v>
-      </c>
-      <c r="BF4" s="83"/>
-      <c r="BG4" s="84">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="BF4" s="19">
+        <v>200</v>
+      </c>
+      <c r="BG4" s="85"/>
+      <c r="BH4" s="86">
+        <v>1</v>
       </c>
     </row>
-    <row r="5" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:59">
+    <row r="5" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:60">
       <c r="A5" s="25" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C5" s="23">
         <v>3</v>
@@ -3234,27 +3198,27 @@
         <v>25</v>
       </c>
       <c r="K5" s="26" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L5" s="26" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M5" s="26"/>
       <c r="N5" s="26"/>
       <c r="O5" s="19" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P5" s="19" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q5" s="19" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="R5" s="19" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="S5" s="19" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="T5" s="19">
         <v>98</v>
@@ -3271,22 +3235,22 @@
         <v>238</v>
       </c>
       <c r="AA5" s="19" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AB5" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC5" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="AC5" s="26" t="s">
+      <c r="AD5" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="AD5" s="26" t="s">
-        <v>106</v>
-      </c>
       <c r="AE5" s="26" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AF5" s="60" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AG5" s="26"/>
       <c r="AH5" s="26"/>
@@ -3299,15 +3263,15 @@
         <v>180</v>
       </c>
       <c r="AM5" s="26" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AN5" s="26" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AO5" s="74"/>
       <c r="AP5" s="26"/>
       <c r="AQ5" s="26" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AR5" s="26">
         <v>1</v>
@@ -3316,7 +3280,7 @@
         <v>1</v>
       </c>
       <c r="AT5" s="26" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AU5" s="26">
         <v>0</v>
@@ -3331,7 +3295,7 @@
         <v>20000</v>
       </c>
       <c r="AY5" s="22" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AZ5" s="26">
         <v>8192</v>
@@ -3343,23 +3307,26 @@
       <c r="BC5" s="26">
         <v>0</v>
       </c>
-      <c r="BD5" s="26">
-        <v>345</v>
-      </c>
-      <c r="BE5" s="26">
-        <v>373</v>
-      </c>
-      <c r="BF5" s="85"/>
-      <c r="BG5" s="86">
-        <v>0</v>
+      <c r="BD5" s="19">
+        <v>100</v>
+      </c>
+      <c r="BE5" s="19">
+        <v>200</v>
+      </c>
+      <c r="BF5" s="19">
+        <v>200</v>
+      </c>
+      <c r="BG5" s="87"/>
+      <c r="BH5" s="86">
+        <v>1</v>
       </c>
     </row>
-    <row r="6" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:59">
+    <row r="6" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:60">
       <c r="A6" s="18" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C6" s="23">
         <v>4</v>
@@ -3387,27 +3354,27 @@
         <v>25</v>
       </c>
       <c r="K6" s="19" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L6" s="19" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M6" s="19"/>
       <c r="N6" s="19"/>
       <c r="O6" s="19" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P6" s="19" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q6" s="19" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="R6" s="19" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="S6" s="19" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="T6" s="19">
         <v>98</v>
@@ -3424,22 +3391,22 @@
         <v>238</v>
       </c>
       <c r="AA6" s="19" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AB6" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC6" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="AC6" s="19" t="s">
+      <c r="AD6" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="AD6" s="19" t="s">
-        <v>106</v>
-      </c>
       <c r="AE6" s="19" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AF6" s="59" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG6" s="19"/>
       <c r="AH6" s="19"/>
@@ -3452,15 +3419,15 @@
         <v>180</v>
       </c>
       <c r="AM6" s="19" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AN6" s="19" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AO6" s="73"/>
       <c r="AP6" s="19"/>
       <c r="AQ6" s="19" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AR6" s="19">
         <v>1</v>
@@ -3469,7 +3436,7 @@
         <v>1</v>
       </c>
       <c r="AT6" s="19" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AU6" s="19">
         <v>0</v>
@@ -3484,7 +3451,7 @@
         <v>20000</v>
       </c>
       <c r="AY6" s="22" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AZ6" s="19">
         <v>8192</v>
@@ -3497,22 +3464,25 @@
         <v>0</v>
       </c>
       <c r="BD6" s="19">
-        <v>345</v>
+        <v>100</v>
       </c>
       <c r="BE6" s="19">
-        <v>373</v>
-      </c>
-      <c r="BF6" s="83"/>
-      <c r="BG6" s="87">
+        <v>200</v>
+      </c>
+      <c r="BF6" s="19">
+        <v>200</v>
+      </c>
+      <c r="BG6" s="85"/>
+      <c r="BH6" s="86">
         <v>1</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:59">
+    <row r="7" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:60">
       <c r="A7" s="25" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C7" s="23">
         <v>5</v>
@@ -3540,27 +3510,27 @@
         <v>25</v>
       </c>
       <c r="K7" s="26" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L7" s="26" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M7" s="26"/>
       <c r="N7" s="26"/>
       <c r="O7" s="19" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P7" s="19" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q7" s="19" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="R7" s="19" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="S7" s="19" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="T7" s="19">
         <v>98</v>
@@ -3577,22 +3547,22 @@
         <v>238</v>
       </c>
       <c r="AA7" s="19" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AB7" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC7" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="AC7" s="26" t="s">
+      <c r="AD7" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="AD7" s="26" t="s">
-        <v>106</v>
-      </c>
       <c r="AE7" s="26" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AF7" s="60" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AG7" s="26"/>
       <c r="AH7" s="26"/>
@@ -3605,15 +3575,15 @@
         <v>180</v>
       </c>
       <c r="AM7" s="26" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AN7" s="26" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AO7" s="74"/>
       <c r="AP7" s="26"/>
       <c r="AQ7" s="26" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AR7" s="26">
         <v>1</v>
@@ -3622,7 +3592,7 @@
         <v>1</v>
       </c>
       <c r="AT7" s="26" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AU7" s="26">
         <v>0</v>
@@ -3637,7 +3607,7 @@
         <v>20000</v>
       </c>
       <c r="AY7" s="22" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AZ7" s="26">
         <v>8192</v>
@@ -3649,23 +3619,26 @@
       <c r="BC7" s="26">
         <v>0</v>
       </c>
-      <c r="BD7" s="26">
-        <v>345</v>
-      </c>
-      <c r="BE7" s="26">
-        <v>373</v>
-      </c>
-      <c r="BF7" s="85"/>
-      <c r="BG7" s="86">
-        <v>0</v>
+      <c r="BD7" s="19">
+        <v>100</v>
+      </c>
+      <c r="BE7" s="19">
+        <v>200</v>
+      </c>
+      <c r="BF7" s="19">
+        <v>200</v>
+      </c>
+      <c r="BG7" s="87"/>
+      <c r="BH7" s="86">
+        <v>1</v>
       </c>
     </row>
-    <row r="8" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:59">
+    <row r="8" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:60">
       <c r="A8" s="18" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C8" s="23">
         <v>6</v>
@@ -3691,10 +3664,10 @@
         <v>25</v>
       </c>
       <c r="K8" s="19" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L8" s="19" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M8" s="19"/>
       <c r="N8" s="19"/>
@@ -3724,34 +3697,34 @@
         <v>232</v>
       </c>
       <c r="AA8" s="19" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AB8" s="19" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AC8" s="19" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AD8" s="19" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AE8" s="19" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AF8" s="59" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AG8" s="19" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AH8" s="19" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AI8" s="19" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AJ8" s="19" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AK8" s="19">
         <v>225</v>
@@ -3760,15 +3733,15 @@
         <v>180</v>
       </c>
       <c r="AM8" s="19" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AN8" s="19" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AO8" s="73"/>
       <c r="AP8" s="19"/>
       <c r="AQ8" s="19" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AR8" s="19">
         <v>1</v>
@@ -3777,7 +3750,7 @@
         <v>1</v>
       </c>
       <c r="AT8" s="19" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AU8" s="19">
         <v>0</v>
@@ -3792,7 +3765,7 @@
         <v>20000</v>
       </c>
       <c r="AY8" s="22" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AZ8" s="19">
         <v>8192</v>
@@ -3805,22 +3778,25 @@
         <v>0</v>
       </c>
       <c r="BD8" s="19">
-        <v>345</v>
+        <v>100</v>
       </c>
       <c r="BE8" s="19">
-        <v>373</v>
-      </c>
-      <c r="BF8" s="83"/>
-      <c r="BG8" s="87">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="BF8" s="19">
+        <v>200</v>
+      </c>
+      <c r="BG8" s="85"/>
+      <c r="BH8" s="86">
+        <v>1</v>
       </c>
     </row>
-    <row r="9" s="4" customFormat="1" ht="33" spans="1:61">
+    <row r="9" s="4" customFormat="1" ht="33" spans="1:62">
       <c r="A9" s="27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C9" s="29">
         <v>7</v>
@@ -3849,10 +3825,10 @@
         <v>25</v>
       </c>
       <c r="K9" s="28" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L9" s="28" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M9" s="28"/>
       <c r="N9" s="28"/>
@@ -3874,7 +3850,7 @@
         <v>220</v>
       </c>
       <c r="AA9" s="28" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AB9" s="28"/>
       <c r="AC9" s="28"/>
@@ -3892,15 +3868,15 @@
         <v>180</v>
       </c>
       <c r="AM9" s="28" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AN9" s="28" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AO9" s="75"/>
       <c r="AP9" s="28"/>
       <c r="AQ9" s="28" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AR9" s="28">
         <v>1</v>
@@ -3909,7 +3885,7 @@
         <v>1</v>
       </c>
       <c r="AT9" s="28" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AU9" s="28">
         <v>0</v>
@@ -3924,7 +3900,7 @@
         <v>20000</v>
       </c>
       <c r="AY9" s="31" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AZ9" s="28">
         <v>8192</v>
@@ -3936,29 +3912,32 @@
       <c r="BC9" s="28">
         <v>0</v>
       </c>
-      <c r="BD9" s="28">
-        <v>345</v>
-      </c>
-      <c r="BE9" s="28">
-        <v>373</v>
-      </c>
-      <c r="BF9" s="88"/>
-      <c r="BG9" s="89">
-        <v>0</v>
-      </c>
-      <c r="BH9" s="90" t="s">
-        <v>150</v>
-      </c>
-      <c r="BI9" s="90" t="s">
+      <c r="BD9" s="19">
+        <v>100</v>
+      </c>
+      <c r="BE9" s="19">
+        <v>200</v>
+      </c>
+      <c r="BF9" s="19">
+        <v>200</v>
+      </c>
+      <c r="BG9" s="88"/>
+      <c r="BH9" s="86">
+        <v>1</v>
+      </c>
+      <c r="BI9" s="89" t="s">
         <v>151</v>
       </c>
+      <c r="BJ9" s="89" t="s">
+        <v>152</v>
+      </c>
     </row>
-    <row r="10" s="4" customFormat="1" ht="33" spans="1:61">
+    <row r="10" s="4" customFormat="1" ht="33" spans="1:62">
       <c r="A10" s="27" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C10" s="29">
         <v>8</v>
@@ -3987,10 +3966,10 @@
         <v>25</v>
       </c>
       <c r="K10" s="28" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L10" s="28" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M10" s="28"/>
       <c r="N10" s="28"/>
@@ -4012,7 +3991,7 @@
         <v>226</v>
       </c>
       <c r="AA10" s="28" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AB10" s="28"/>
       <c r="AC10" s="28"/>
@@ -4030,15 +4009,15 @@
         <v>180</v>
       </c>
       <c r="AM10" s="28" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AN10" s="28" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AO10" s="75"/>
       <c r="AP10" s="28"/>
       <c r="AQ10" s="28" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AR10" s="28">
         <v>1</v>
@@ -4047,7 +4026,7 @@
         <v>1</v>
       </c>
       <c r="AT10" s="28" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AU10" s="28">
         <v>0</v>
@@ -4062,7 +4041,7 @@
         <v>20000</v>
       </c>
       <c r="AY10" s="31" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AZ10" s="28">
         <v>8192</v>
@@ -4074,29 +4053,32 @@
       <c r="BC10" s="28">
         <v>0</v>
       </c>
-      <c r="BD10" s="28">
-        <v>345</v>
-      </c>
-      <c r="BE10" s="28">
-        <v>373</v>
-      </c>
-      <c r="BF10" s="88"/>
-      <c r="BG10" s="89">
-        <v>0</v>
-      </c>
-      <c r="BH10" s="90" t="s">
-        <v>155</v>
-      </c>
-      <c r="BI10" s="90" t="s">
-        <v>155</v>
+      <c r="BD10" s="19">
+        <v>100</v>
+      </c>
+      <c r="BE10" s="19">
+        <v>200</v>
+      </c>
+      <c r="BF10" s="19">
+        <v>200</v>
+      </c>
+      <c r="BG10" s="88"/>
+      <c r="BH10" s="86">
+        <v>1</v>
+      </c>
+      <c r="BI10" s="89" t="s">
+        <v>156</v>
+      </c>
+      <c r="BJ10" s="89" t="s">
+        <v>156</v>
       </c>
     </row>
-    <row r="11" s="4" customFormat="1" ht="33" spans="1:61">
+    <row r="11" s="4" customFormat="1" ht="33" spans="1:62">
       <c r="A11" s="27" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C11" s="29"/>
       <c r="D11" s="30">
@@ -4123,10 +4105,10 @@
         <v>25</v>
       </c>
       <c r="K11" s="28" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L11" s="28" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M11" s="28"/>
       <c r="N11" s="28"/>
@@ -4148,7 +4130,7 @@
         <v>226</v>
       </c>
       <c r="AA11" s="28" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AB11" s="28"/>
       <c r="AC11" s="28"/>
@@ -4166,15 +4148,15 @@
         <v>180</v>
       </c>
       <c r="AM11" s="28" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AN11" s="28" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AO11" s="75"/>
       <c r="AP11" s="28"/>
       <c r="AQ11" s="28" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AR11" s="28">
         <v>1</v>
@@ -4183,7 +4165,7 @@
         <v>1</v>
       </c>
       <c r="AT11" s="28" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AU11" s="28">
         <v>0</v>
@@ -4198,7 +4180,7 @@
         <v>20000</v>
       </c>
       <c r="AY11" s="31" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AZ11" s="28">
         <v>8192</v>
@@ -4210,29 +4192,32 @@
       <c r="BC11" s="28">
         <v>0</v>
       </c>
-      <c r="BD11" s="28">
-        <v>345</v>
-      </c>
-      <c r="BE11" s="28">
-        <v>373</v>
-      </c>
-      <c r="BF11" s="88"/>
-      <c r="BG11" s="89">
-        <v>0</v>
-      </c>
-      <c r="BH11" s="90" t="s">
-        <v>155</v>
-      </c>
-      <c r="BI11" s="90" t="s">
-        <v>155</v>
+      <c r="BD11" s="19">
+        <v>100</v>
+      </c>
+      <c r="BE11" s="19">
+        <v>200</v>
+      </c>
+      <c r="BF11" s="19">
+        <v>200</v>
+      </c>
+      <c r="BG11" s="88"/>
+      <c r="BH11" s="86">
+        <v>1</v>
+      </c>
+      <c r="BI11" s="89" t="s">
+        <v>156</v>
+      </c>
+      <c r="BJ11" s="89" t="s">
+        <v>156</v>
       </c>
     </row>
-    <row r="12" s="4" customFormat="1" ht="33" spans="1:61">
+    <row r="12" s="4" customFormat="1" ht="33" spans="1:62">
       <c r="A12" s="27" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C12" s="29"/>
       <c r="D12" s="30">
@@ -4259,10 +4244,10 @@
         <v>25</v>
       </c>
       <c r="K12" s="28" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L12" s="28" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M12" s="28"/>
       <c r="N12" s="28"/>
@@ -4284,7 +4269,7 @@
         <v>190</v>
       </c>
       <c r="AA12" s="28" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AB12" s="28"/>
       <c r="AC12" s="28"/>
@@ -4302,15 +4287,15 @@
         <v>180</v>
       </c>
       <c r="AM12" s="28" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AN12" s="28" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AO12" s="75"/>
       <c r="AP12" s="28"/>
       <c r="AQ12" s="28" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AR12" s="28">
         <v>1</v>
@@ -4319,7 +4304,7 @@
         <v>1</v>
       </c>
       <c r="AT12" s="28" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AU12" s="28">
         <v>0</v>
@@ -4334,7 +4319,7 @@
         <v>20000</v>
       </c>
       <c r="AY12" s="31" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AZ12" s="28">
         <v>8192</v>
@@ -4346,29 +4331,32 @@
       <c r="BC12" s="28">
         <v>0</v>
       </c>
-      <c r="BD12" s="28">
-        <v>345</v>
-      </c>
-      <c r="BE12" s="28">
-        <v>373</v>
-      </c>
-      <c r="BF12" s="88"/>
-      <c r="BG12" s="89">
-        <v>0</v>
-      </c>
-      <c r="BH12" s="90" t="s">
-        <v>162</v>
-      </c>
-      <c r="BI12" s="90" t="s">
+      <c r="BD12" s="19">
+        <v>100</v>
+      </c>
+      <c r="BE12" s="19">
+        <v>200</v>
+      </c>
+      <c r="BF12" s="19">
+        <v>200</v>
+      </c>
+      <c r="BG12" s="88"/>
+      <c r="BH12" s="86">
+        <v>1</v>
+      </c>
+      <c r="BI12" s="89" t="s">
         <v>163</v>
       </c>
+      <c r="BJ12" s="89" t="s">
+        <v>164</v>
+      </c>
     </row>
-    <row r="13" s="4" customFormat="1" ht="33" spans="1:61">
+    <row r="13" s="4" customFormat="1" ht="33" spans="1:62">
       <c r="A13" s="27" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C13" s="29"/>
       <c r="D13" s="30">
@@ -4395,10 +4383,10 @@
         <v>25</v>
       </c>
       <c r="K13" s="28" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L13" s="28" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M13" s="28"/>
       <c r="N13" s="28"/>
@@ -4420,7 +4408,7 @@
         <v>172</v>
       </c>
       <c r="AA13" s="28" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AB13" s="28"/>
       <c r="AC13" s="28"/>
@@ -4438,15 +4426,15 @@
         <v>180</v>
       </c>
       <c r="AM13" s="28" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AN13" s="28" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AO13" s="75"/>
       <c r="AP13" s="28"/>
       <c r="AQ13" s="28" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AR13" s="28">
         <v>1</v>
@@ -4455,7 +4443,7 @@
         <v>1</v>
       </c>
       <c r="AT13" s="28" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AU13" s="28">
         <v>0</v>
@@ -4470,7 +4458,7 @@
         <v>20000</v>
       </c>
       <c r="AY13" s="31" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AZ13" s="28">
         <v>8192</v>
@@ -4482,29 +4470,32 @@
       <c r="BC13" s="28">
         <v>0</v>
       </c>
-      <c r="BD13" s="28">
-        <v>345</v>
-      </c>
-      <c r="BE13" s="28">
-        <v>373</v>
-      </c>
-      <c r="BF13" s="88"/>
-      <c r="BG13" s="89">
-        <v>0</v>
-      </c>
-      <c r="BH13" s="90" t="s">
-        <v>162</v>
-      </c>
-      <c r="BI13" s="90" t="s">
-        <v>167</v>
+      <c r="BD13" s="19">
+        <v>100</v>
+      </c>
+      <c r="BE13" s="19">
+        <v>200</v>
+      </c>
+      <c r="BF13" s="19">
+        <v>200</v>
+      </c>
+      <c r="BG13" s="88"/>
+      <c r="BH13" s="86">
+        <v>1</v>
+      </c>
+      <c r="BI13" s="89" t="s">
+        <v>163</v>
+      </c>
+      <c r="BJ13" s="89" t="s">
+        <v>168</v>
       </c>
     </row>
-    <row r="14" s="4" customFormat="1" ht="33" spans="1:61">
+    <row r="14" s="4" customFormat="1" ht="33" spans="1:62">
       <c r="A14" s="27" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C14" s="29"/>
       <c r="D14" s="30">
@@ -4531,10 +4522,10 @@
         <v>25</v>
       </c>
       <c r="K14" s="28" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L14" s="28" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M14" s="28"/>
       <c r="N14" s="28"/>
@@ -4556,7 +4547,7 @@
         <v>190</v>
       </c>
       <c r="AA14" s="28" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AB14" s="28"/>
       <c r="AC14" s="28"/>
@@ -4574,15 +4565,15 @@
         <v>180</v>
       </c>
       <c r="AM14" s="28" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AN14" s="28" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AO14" s="75"/>
       <c r="AP14" s="28"/>
       <c r="AQ14" s="28" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AR14" s="28">
         <v>1</v>
@@ -4591,7 +4582,7 @@
         <v>1</v>
       </c>
       <c r="AT14" s="28" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AU14" s="28">
         <v>0</v>
@@ -4606,7 +4597,7 @@
         <v>20000</v>
       </c>
       <c r="AY14" s="31" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AZ14" s="28">
         <v>8192</v>
@@ -4618,29 +4609,32 @@
       <c r="BC14" s="28">
         <v>0</v>
       </c>
-      <c r="BD14" s="28">
-        <v>345</v>
-      </c>
-      <c r="BE14" s="28">
-        <v>373</v>
-      </c>
-      <c r="BF14" s="88"/>
-      <c r="BG14" s="89">
-        <v>1</v>
-      </c>
-      <c r="BH14" s="90" t="s">
-        <v>162</v>
-      </c>
-      <c r="BI14" s="90" t="s">
-        <v>171</v>
+      <c r="BD14" s="19">
+        <v>100</v>
+      </c>
+      <c r="BE14" s="19">
+        <v>200</v>
+      </c>
+      <c r="BF14" s="19">
+        <v>200</v>
+      </c>
+      <c r="BG14" s="88"/>
+      <c r="BH14" s="86">
+        <v>1</v>
+      </c>
+      <c r="BI14" s="89" t="s">
+        <v>163</v>
+      </c>
+      <c r="BJ14" s="89" t="s">
+        <v>172</v>
       </c>
     </row>
-    <row r="15" s="5" customFormat="1" ht="33" spans="1:61">
+    <row r="15" s="5" customFormat="1" ht="33" spans="1:62">
       <c r="A15" s="32" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C15" s="34"/>
       <c r="D15" s="35">
@@ -4667,10 +4661,10 @@
         <v>25</v>
       </c>
       <c r="K15" s="33" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L15" s="33" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M15" s="33"/>
       <c r="N15" s="33"/>
@@ -4692,7 +4686,7 @@
         <v>166</v>
       </c>
       <c r="AA15" s="33" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AB15" s="33"/>
       <c r="AC15" s="33"/>
@@ -4710,15 +4704,15 @@
         <v>180</v>
       </c>
       <c r="AM15" s="33" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AN15" s="33" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AO15" s="76"/>
       <c r="AP15" s="33"/>
       <c r="AQ15" s="33" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AR15" s="33">
         <v>1</v>
@@ -4727,7 +4721,7 @@
         <v>1</v>
       </c>
       <c r="AT15" s="33" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AU15" s="33">
         <v>0</v>
@@ -4742,7 +4736,7 @@
         <v>20000</v>
       </c>
       <c r="AY15" s="36" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AZ15" s="33">
         <v>8192</v>
@@ -4754,29 +4748,32 @@
       <c r="BC15" s="33">
         <v>0</v>
       </c>
-      <c r="BD15" s="33">
-        <v>345</v>
-      </c>
-      <c r="BE15" s="33">
-        <v>373</v>
-      </c>
-      <c r="BF15" s="91"/>
-      <c r="BG15" s="92">
-        <v>0</v>
-      </c>
-      <c r="BH15" s="93" t="s">
-        <v>162</v>
-      </c>
-      <c r="BI15" s="93" t="s">
+      <c r="BD15" s="19">
+        <v>100</v>
+      </c>
+      <c r="BE15" s="19">
+        <v>200</v>
+      </c>
+      <c r="BF15" s="19">
+        <v>200</v>
+      </c>
+      <c r="BG15" s="90"/>
+      <c r="BH15" s="86">
+        <v>1</v>
+      </c>
+      <c r="BI15" s="91" t="s">
         <v>163</v>
       </c>
+      <c r="BJ15" s="91" t="s">
+        <v>164</v>
+      </c>
     </row>
-    <row r="16" s="5" customFormat="1" ht="33" spans="1:61">
+    <row r="16" s="5" customFormat="1" ht="33" spans="1:62">
       <c r="A16" s="32" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C16" s="37"/>
       <c r="D16" s="35">
@@ -4803,10 +4800,10 @@
         <v>25</v>
       </c>
       <c r="K16" s="33" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L16" s="33" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M16" s="33"/>
       <c r="N16" s="33"/>
@@ -4828,7 +4825,7 @@
         <v>244</v>
       </c>
       <c r="AA16" s="33" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AB16" s="33"/>
       <c r="AC16" s="33"/>
@@ -4846,15 +4843,15 @@
         <v>180</v>
       </c>
       <c r="AM16" s="33" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AN16" s="33" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AO16" s="76"/>
       <c r="AP16" s="33"/>
       <c r="AQ16" s="33" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AR16" s="33">
         <v>1</v>
@@ -4863,7 +4860,7 @@
         <v>1</v>
       </c>
       <c r="AT16" s="33" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AU16" s="33">
         <v>0</v>
@@ -4878,7 +4875,7 @@
         <v>20000</v>
       </c>
       <c r="AY16" s="36" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AZ16" s="33">
         <v>8192</v>
@@ -4890,29 +4887,32 @@
       <c r="BC16" s="33">
         <v>0</v>
       </c>
-      <c r="BD16" s="33">
-        <v>345</v>
-      </c>
-      <c r="BE16" s="33">
-        <v>373</v>
-      </c>
-      <c r="BF16" s="91"/>
-      <c r="BG16" s="92">
-        <v>0</v>
-      </c>
-      <c r="BH16" s="93" t="s">
-        <v>178</v>
-      </c>
-      <c r="BI16" s="93" t="s">
+      <c r="BD16" s="19">
+        <v>100</v>
+      </c>
+      <c r="BE16" s="19">
+        <v>200</v>
+      </c>
+      <c r="BF16" s="19">
+        <v>200</v>
+      </c>
+      <c r="BG16" s="90"/>
+      <c r="BH16" s="86">
+        <v>1</v>
+      </c>
+      <c r="BI16" s="91" t="s">
         <v>179</v>
       </c>
+      <c r="BJ16" s="91" t="s">
+        <v>180</v>
+      </c>
     </row>
-    <row r="17" s="5" customFormat="1" ht="33" spans="1:63">
+    <row r="17" s="5" customFormat="1" ht="33" spans="1:64">
       <c r="A17" s="32" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C17" s="38"/>
       <c r="D17" s="35">
@@ -4939,10 +4939,10 @@
         <v>25</v>
       </c>
       <c r="K17" s="33" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L17" s="33" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M17" s="33"/>
       <c r="N17" s="33"/>
@@ -4964,7 +4964,7 @@
         <v>250</v>
       </c>
       <c r="AA17" s="33" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AB17" s="33"/>
       <c r="AC17" s="33"/>
@@ -4982,15 +4982,15 @@
         <v>180</v>
       </c>
       <c r="AM17" s="33" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AN17" s="33" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AO17" s="76"/>
       <c r="AP17" s="33"/>
       <c r="AQ17" s="33" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AR17" s="33">
         <v>1</v>
@@ -4999,7 +4999,7 @@
         <v>1</v>
       </c>
       <c r="AT17" s="33" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AU17" s="33">
         <v>0</v>
@@ -5014,7 +5014,7 @@
         <v>20000</v>
       </c>
       <c r="AY17" s="36" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AZ17" s="33">
         <v>8192</v>
@@ -5026,35 +5026,38 @@
       <c r="BC17" s="33">
         <v>0</v>
       </c>
-      <c r="BD17" s="33">
-        <v>345</v>
-      </c>
-      <c r="BE17" s="33">
-        <v>373</v>
-      </c>
-      <c r="BF17" s="91"/>
-      <c r="BG17" s="92">
-        <v>0</v>
-      </c>
-      <c r="BH17" s="93" t="s">
-        <v>183</v>
-      </c>
-      <c r="BI17" s="93" t="s">
+      <c r="BD17" s="19">
+        <v>100</v>
+      </c>
+      <c r="BE17" s="19">
+        <v>200</v>
+      </c>
+      <c r="BF17" s="19">
+        <v>200</v>
+      </c>
+      <c r="BG17" s="90"/>
+      <c r="BH17" s="86">
+        <v>1</v>
+      </c>
+      <c r="BI17" s="91" t="s">
         <v>184</v>
       </c>
-      <c r="BJ17" s="93" t="s">
+      <c r="BJ17" s="91" t="s">
         <v>185</v>
       </c>
-      <c r="BK17" s="93" t="s">
+      <c r="BK17" s="91" t="s">
         <v>186</v>
       </c>
+      <c r="BL17" s="91" t="s">
+        <v>187</v>
+      </c>
     </row>
-    <row r="18" s="5" customFormat="1" ht="33" spans="1:63">
+    <row r="18" s="5" customFormat="1" ht="33" spans="1:64">
       <c r="A18" s="32" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C18" s="34"/>
       <c r="D18" s="35">
@@ -5081,10 +5084,10 @@
         <v>25</v>
       </c>
       <c r="K18" s="33" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L18" s="33" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M18" s="33"/>
       <c r="N18" s="33"/>
@@ -5106,7 +5109,7 @@
         <v>130</v>
       </c>
       <c r="AA18" s="33" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AB18" s="33"/>
       <c r="AC18" s="33"/>
@@ -5124,15 +5127,15 @@
         <v>180</v>
       </c>
       <c r="AM18" s="33" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AN18" s="33" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AO18" s="76"/>
       <c r="AP18" s="33"/>
       <c r="AQ18" s="33" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AR18" s="33">
         <v>1</v>
@@ -5141,7 +5144,7 @@
         <v>1</v>
       </c>
       <c r="AT18" s="33" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AU18" s="33">
         <v>0</v>
@@ -5156,7 +5159,7 @@
         <v>20000</v>
       </c>
       <c r="AY18" s="36" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AZ18" s="33">
         <v>8192</v>
@@ -5168,35 +5171,38 @@
       <c r="BC18" s="33">
         <v>0</v>
       </c>
-      <c r="BD18" s="33">
-        <v>345</v>
-      </c>
-      <c r="BE18" s="33">
-        <v>373</v>
-      </c>
-      <c r="BF18" s="91"/>
-      <c r="BG18" s="92">
-        <v>1</v>
-      </c>
-      <c r="BH18" s="93" t="s">
-        <v>190</v>
-      </c>
-      <c r="BI18" s="93" t="s">
+      <c r="BD18" s="19">
+        <v>100</v>
+      </c>
+      <c r="BE18" s="19">
+        <v>200</v>
+      </c>
+      <c r="BF18" s="19">
+        <v>200</v>
+      </c>
+      <c r="BG18" s="90"/>
+      <c r="BH18" s="86">
+        <v>1</v>
+      </c>
+      <c r="BI18" s="91" t="s">
+        <v>172</v>
+      </c>
+      <c r="BJ18" s="91" t="s">
+        <v>163</v>
+      </c>
+      <c r="BK18" s="91" t="s">
+        <v>81</v>
+      </c>
+      <c r="BL18" s="91" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" s="5" customFormat="1" ht="33" spans="1:64">
+      <c r="A19" s="32" t="s">
         <v>191</v>
       </c>
-      <c r="BJ18" s="93" t="s">
+      <c r="B19" s="33" t="s">
         <v>192</v>
-      </c>
-      <c r="BK18" s="93" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="19" s="5" customFormat="1" ht="33" spans="1:63">
-      <c r="A19" s="32" t="s">
-        <v>194</v>
-      </c>
-      <c r="B19" s="33" t="s">
-        <v>195</v>
       </c>
       <c r="C19" s="34"/>
       <c r="D19" s="35">
@@ -5223,10 +5229,10 @@
         <v>25</v>
       </c>
       <c r="K19" s="33" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L19" s="33" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="M19" s="33"/>
       <c r="N19" s="33"/>
@@ -5248,7 +5254,7 @@
         <v>166</v>
       </c>
       <c r="AA19" s="33" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AB19" s="33"/>
       <c r="AC19" s="33"/>
@@ -5266,15 +5272,15 @@
         <v>180</v>
       </c>
       <c r="AM19" s="33" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AN19" s="33" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AO19" s="76"/>
       <c r="AP19" s="33"/>
       <c r="AQ19" s="33" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AR19" s="33">
         <v>1</v>
@@ -5283,7 +5289,7 @@
         <v>1</v>
       </c>
       <c r="AT19" s="33" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AU19" s="33">
         <v>0</v>
@@ -5298,7 +5304,7 @@
         <v>20000</v>
       </c>
       <c r="AY19" s="36" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AZ19" s="33">
         <v>8192</v>
@@ -5310,35 +5316,38 @@
       <c r="BC19" s="33">
         <v>0</v>
       </c>
-      <c r="BD19" s="33">
-        <v>345</v>
-      </c>
-      <c r="BE19" s="33">
-        <v>373</v>
-      </c>
-      <c r="BF19" s="91"/>
-      <c r="BG19" s="92">
-        <v>0</v>
-      </c>
-      <c r="BH19" s="93" t="s">
-        <v>162</v>
-      </c>
-      <c r="BI19" s="93" t="s">
+      <c r="BD19" s="19">
+        <v>100</v>
+      </c>
+      <c r="BE19" s="19">
+        <v>200</v>
+      </c>
+      <c r="BF19" s="19">
+        <v>200</v>
+      </c>
+      <c r="BG19" s="90"/>
+      <c r="BH19" s="86">
+        <v>1</v>
+      </c>
+      <c r="BI19" s="91" t="s">
         <v>163</v>
       </c>
-      <c r="BJ19" s="93" t="s">
-        <v>197</v>
-      </c>
-      <c r="BK19" s="93" t="s">
-        <v>198</v>
+      <c r="BJ19" s="91" t="s">
+        <v>164</v>
+      </c>
+      <c r="BK19" s="91" t="s">
+        <v>79</v>
+      </c>
+      <c r="BL19" s="91" t="s">
+        <v>194</v>
       </c>
     </row>
-    <row r="20" s="5" customFormat="1" ht="33" spans="1:63">
+    <row r="20" s="5" customFormat="1" ht="33" spans="1:64">
       <c r="A20" s="32" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B20" s="33" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C20" s="38"/>
       <c r="D20" s="35">
@@ -5365,10 +5374,10 @@
         <v>25</v>
       </c>
       <c r="K20" s="33" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L20" s="33" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="M20" s="33"/>
       <c r="N20" s="33"/>
@@ -5390,7 +5399,7 @@
         <v>166</v>
       </c>
       <c r="AA20" s="33" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AB20" s="33"/>
       <c r="AC20" s="33"/>
@@ -5408,15 +5417,15 @@
         <v>180</v>
       </c>
       <c r="AM20" s="33" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AN20" s="33" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AO20" s="76"/>
       <c r="AP20" s="33"/>
       <c r="AQ20" s="33" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AR20" s="33">
         <v>1</v>
@@ -5425,7 +5434,7 @@
         <v>1</v>
       </c>
       <c r="AT20" s="33" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AU20" s="33">
         <v>0</v>
@@ -5440,7 +5449,7 @@
         <v>20000</v>
       </c>
       <c r="AY20" s="36" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AZ20" s="33">
         <v>8192</v>
@@ -5452,35 +5461,38 @@
       <c r="BC20" s="33">
         <v>0</v>
       </c>
-      <c r="BD20" s="33">
-        <v>345</v>
-      </c>
-      <c r="BE20" s="33">
-        <v>373</v>
-      </c>
-      <c r="BF20" s="91"/>
-      <c r="BG20" s="92">
-        <v>0</v>
-      </c>
-      <c r="BH20" s="93" t="s">
-        <v>162</v>
-      </c>
-      <c r="BI20" s="93" t="s">
-        <v>202</v>
-      </c>
-      <c r="BJ20" s="93" t="s">
-        <v>197</v>
-      </c>
-      <c r="BK20" s="93" t="s">
+      <c r="BD20" s="19">
+        <v>100</v>
+      </c>
+      <c r="BE20" s="19">
+        <v>200</v>
+      </c>
+      <c r="BF20" s="19">
+        <v>200</v>
+      </c>
+      <c r="BG20" s="90"/>
+      <c r="BH20" s="86">
+        <v>1</v>
+      </c>
+      <c r="BI20" s="91" t="s">
+        <v>163</v>
+      </c>
+      <c r="BJ20" s="91" t="s">
         <v>198</v>
       </c>
+      <c r="BK20" s="91" t="s">
+        <v>79</v>
+      </c>
+      <c r="BL20" s="91" t="s">
+        <v>194</v>
+      </c>
     </row>
-    <row r="21" s="6" customFormat="1" ht="33" spans="1:63">
+    <row r="21" s="6" customFormat="1" ht="33" spans="1:64">
       <c r="A21" s="39" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B21" s="40" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C21" s="41"/>
       <c r="D21" s="42">
@@ -5507,10 +5519,10 @@
         <v>25</v>
       </c>
       <c r="K21" s="40" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L21" s="40" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="M21" s="40"/>
       <c r="N21" s="40"/>
@@ -5532,7 +5544,7 @@
         <v>220</v>
       </c>
       <c r="AA21" s="40" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AB21" s="40"/>
       <c r="AC21" s="40"/>
@@ -5550,15 +5562,15 @@
         <v>180</v>
       </c>
       <c r="AM21" s="40" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AN21" s="40" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AO21" s="77"/>
       <c r="AP21" s="40"/>
       <c r="AQ21" s="40" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AR21" s="40">
         <v>1</v>
@@ -5567,7 +5579,7 @@
         <v>1</v>
       </c>
       <c r="AT21" s="40" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AU21" s="40">
         <v>0</v>
@@ -5582,7 +5594,7 @@
         <v>20000</v>
       </c>
       <c r="AY21" s="43" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AZ21" s="40">
         <v>8192</v>
@@ -5594,35 +5606,38 @@
       <c r="BC21" s="40">
         <v>0</v>
       </c>
-      <c r="BD21" s="40">
-        <v>345</v>
-      </c>
-      <c r="BE21" s="40">
-        <v>373</v>
-      </c>
-      <c r="BF21" s="94"/>
-      <c r="BG21" s="95">
-        <v>0</v>
-      </c>
-      <c r="BH21" s="96" t="s">
+      <c r="BD21" s="19">
+        <v>100</v>
+      </c>
+      <c r="BE21" s="19">
+        <v>200</v>
+      </c>
+      <c r="BF21" s="19">
+        <v>200</v>
+      </c>
+      <c r="BG21" s="92"/>
+      <c r="BH21" s="86">
+        <v>1</v>
+      </c>
+      <c r="BI21" s="93" t="s">
+        <v>202</v>
+      </c>
+      <c r="BJ21" s="93" t="s">
+        <v>203</v>
+      </c>
+      <c r="BK21" s="93" t="s">
+        <v>204</v>
+      </c>
+      <c r="BL21" s="93" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="22" s="6" customFormat="1" ht="39" customHeight="1" spans="1:64">
+      <c r="A22" s="39" t="s">
         <v>206</v>
       </c>
-      <c r="BI21" s="96" t="s">
+      <c r="B22" s="40" t="s">
         <v>207</v>
-      </c>
-      <c r="BJ21" s="96" t="s">
-        <v>208</v>
-      </c>
-      <c r="BK21" s="96" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="22" s="6" customFormat="1" ht="39" customHeight="1" spans="1:63">
-      <c r="A22" s="39" t="s">
-        <v>210</v>
-      </c>
-      <c r="B22" s="40" t="s">
-        <v>211</v>
       </c>
       <c r="C22" s="41"/>
       <c r="D22" s="42">
@@ -5649,10 +5664,10 @@
         <v>25</v>
       </c>
       <c r="K22" s="40" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L22" s="40" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="M22" s="40"/>
       <c r="N22" s="40"/>
@@ -5674,7 +5689,7 @@
         <v>256</v>
       </c>
       <c r="AA22" s="40" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AB22" s="40"/>
       <c r="AC22" s="40"/>
@@ -5692,17 +5707,17 @@
         <v>180</v>
       </c>
       <c r="AM22" s="40" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AN22" s="40" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="AO22" s="77"/>
       <c r="AP22" s="40">
         <v>800</v>
       </c>
       <c r="AQ22" s="40" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AR22" s="40">
         <v>1</v>
@@ -5711,7 +5726,7 @@
         <v>1</v>
       </c>
       <c r="AT22" s="40" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AU22" s="40">
         <v>0</v>
@@ -5726,7 +5741,7 @@
         <v>20000</v>
       </c>
       <c r="AY22" s="43" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AZ22" s="40">
         <v>8192</v>
@@ -5738,35 +5753,38 @@
       <c r="BC22" s="40">
         <v>0</v>
       </c>
-      <c r="BD22" s="40">
-        <v>345</v>
-      </c>
-      <c r="BE22" s="40">
-        <v>373</v>
-      </c>
-      <c r="BF22" s="94"/>
-      <c r="BG22" s="95">
-        <v>0</v>
-      </c>
-      <c r="BH22" s="96" t="s">
+      <c r="BD22" s="19">
+        <v>100</v>
+      </c>
+      <c r="BE22" s="19">
+        <v>200</v>
+      </c>
+      <c r="BF22" s="19">
+        <v>200</v>
+      </c>
+      <c r="BG22" s="92"/>
+      <c r="BH22" s="86">
+        <v>1</v>
+      </c>
+      <c r="BI22" s="93" t="s">
+        <v>210</v>
+      </c>
+      <c r="BJ22" s="93" t="s">
+        <v>211</v>
+      </c>
+      <c r="BK22" s="93" t="s">
+        <v>212</v>
+      </c>
+      <c r="BL22" s="93" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="23" s="6" customFormat="1" ht="39" customHeight="1" spans="1:62">
+      <c r="A23" s="39" t="s">
         <v>214</v>
       </c>
-      <c r="BI22" s="96" t="s">
+      <c r="B23" s="40" t="s">
         <v>215</v>
-      </c>
-      <c r="BJ22" s="96" t="s">
-        <v>216</v>
-      </c>
-      <c r="BK22" s="96" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="23" s="6" customFormat="1" ht="39" customHeight="1" spans="1:61">
-      <c r="A23" s="39" t="s">
-        <v>218</v>
-      </c>
-      <c r="B23" s="40" t="s">
-        <v>219</v>
       </c>
       <c r="C23" s="41"/>
       <c r="D23" s="42">
@@ -5793,10 +5811,10 @@
         <v>25</v>
       </c>
       <c r="K23" s="40" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L23" s="40" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="M23" s="40"/>
       <c r="N23" s="40"/>
@@ -5818,7 +5836,7 @@
         <v>160</v>
       </c>
       <c r="AA23" s="40" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AB23" s="40"/>
       <c r="AC23" s="40"/>
@@ -5836,17 +5854,17 @@
         <v>180</v>
       </c>
       <c r="AM23" s="40" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AN23" s="40" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="AO23" s="77"/>
       <c r="AP23" s="40">
         <v>600</v>
       </c>
       <c r="AQ23" s="40" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AR23" s="40">
         <v>1</v>
@@ -5855,7 +5873,7 @@
         <v>1</v>
       </c>
       <c r="AT23" s="40" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AU23" s="40">
         <v>0</v>
@@ -5870,7 +5888,7 @@
         <v>20000</v>
       </c>
       <c r="AY23" s="43" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AZ23" s="40">
         <v>8192</v>
@@ -5882,29 +5900,32 @@
       <c r="BC23" s="40">
         <v>0</v>
       </c>
-      <c r="BD23" s="40">
-        <v>345</v>
-      </c>
-      <c r="BE23" s="40">
-        <v>373</v>
-      </c>
-      <c r="BF23" s="94"/>
-      <c r="BG23" s="95">
-        <v>0</v>
-      </c>
-      <c r="BH23" s="96" t="s">
-        <v>221</v>
-      </c>
-      <c r="BI23" s="96" t="s">
-        <v>163</v>
+      <c r="BD23" s="19">
+        <v>100</v>
+      </c>
+      <c r="BE23" s="19">
+        <v>200</v>
+      </c>
+      <c r="BF23" s="19">
+        <v>200</v>
+      </c>
+      <c r="BG23" s="92"/>
+      <c r="BH23" s="86">
+        <v>1</v>
+      </c>
+      <c r="BI23" s="93" t="s">
+        <v>217</v>
+      </c>
+      <c r="BJ23" s="93" t="s">
+        <v>164</v>
       </c>
     </row>
-    <row r="24" s="6" customFormat="1" ht="39" customHeight="1" spans="1:61">
+    <row r="24" s="6" customFormat="1" ht="39" customHeight="1" spans="1:62">
       <c r="A24" s="39" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B24" s="40" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C24" s="41"/>
       <c r="D24" s="42">
@@ -5931,10 +5952,10 @@
         <v>25</v>
       </c>
       <c r="K24" s="40" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L24" s="40" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="M24" s="40"/>
       <c r="N24" s="40"/>
@@ -5956,7 +5977,7 @@
         <v>184</v>
       </c>
       <c r="AA24" s="40" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AB24" s="40"/>
       <c r="AC24" s="40"/>
@@ -5974,17 +5995,17 @@
         <v>180</v>
       </c>
       <c r="AM24" s="40" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AN24" s="40" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AO24" s="77"/>
       <c r="AP24" s="40">
         <v>600</v>
       </c>
       <c r="AQ24" s="40" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AR24" s="40">
         <v>1</v>
@@ -5993,7 +6014,7 @@
         <v>1</v>
       </c>
       <c r="AT24" s="40" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AU24" s="40">
         <v>0</v>
@@ -6008,7 +6029,7 @@
         <v>20000</v>
       </c>
       <c r="AY24" s="43" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AZ24" s="40">
         <v>8192</v>
@@ -6020,29 +6041,32 @@
       <c r="BC24" s="40">
         <v>0</v>
       </c>
-      <c r="BD24" s="40">
-        <v>345</v>
-      </c>
-      <c r="BE24" s="40">
-        <v>373</v>
-      </c>
-      <c r="BF24" s="94"/>
-      <c r="BG24" s="95">
-        <v>0</v>
-      </c>
-      <c r="BH24" s="96" t="s">
-        <v>162</v>
-      </c>
-      <c r="BI24" s="96" t="s">
+      <c r="BD24" s="19">
+        <v>100</v>
+      </c>
+      <c r="BE24" s="19">
+        <v>200</v>
+      </c>
+      <c r="BF24" s="19">
+        <v>200</v>
+      </c>
+      <c r="BG24" s="92"/>
+      <c r="BH24" s="86">
+        <v>1</v>
+      </c>
+      <c r="BI24" s="93" t="s">
+        <v>163</v>
+      </c>
+      <c r="BJ24" s="93" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="25" s="6" customFormat="1" ht="39" customHeight="1" spans="1:62">
+      <c r="A25" s="39" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="25" s="6" customFormat="1" ht="39" customHeight="1" spans="1:61">
-      <c r="A25" s="39" t="s">
-        <v>225</v>
-      </c>
       <c r="B25" s="40" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C25" s="41"/>
       <c r="D25" s="42">
@@ -6069,10 +6093,10 @@
         <v>25</v>
       </c>
       <c r="K25" s="40" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L25" s="40" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="M25" s="40"/>
       <c r="N25" s="40"/>
@@ -6094,7 +6118,7 @@
         <v>172</v>
       </c>
       <c r="AA25" s="40" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AB25" s="40"/>
       <c r="AC25" s="40"/>
@@ -6112,17 +6136,17 @@
         <v>180</v>
       </c>
       <c r="AM25" s="40" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AN25" s="40" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AO25" s="77"/>
       <c r="AP25" s="40">
         <v>600</v>
       </c>
       <c r="AQ25" s="40" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AR25" s="40">
         <v>1</v>
@@ -6131,7 +6155,7 @@
         <v>1</v>
       </c>
       <c r="AT25" s="40" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AU25" s="40">
         <v>0</v>
@@ -6146,7 +6170,7 @@
         <v>20000</v>
       </c>
       <c r="AY25" s="43" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AZ25" s="40">
         <v>8192</v>
@@ -6158,29 +6182,32 @@
       <c r="BC25" s="40">
         <v>0</v>
       </c>
-      <c r="BD25" s="40">
-        <v>345</v>
-      </c>
-      <c r="BE25" s="40">
-        <v>373</v>
-      </c>
-      <c r="BF25" s="94"/>
-      <c r="BG25" s="95">
-        <v>0</v>
-      </c>
-      <c r="BH25" s="96" t="s">
-        <v>162</v>
-      </c>
-      <c r="BI25" s="96" t="s">
-        <v>228</v>
+      <c r="BD25" s="19">
+        <v>100</v>
+      </c>
+      <c r="BE25" s="19">
+        <v>200</v>
+      </c>
+      <c r="BF25" s="19">
+        <v>200</v>
+      </c>
+      <c r="BG25" s="92"/>
+      <c r="BH25" s="86">
+        <v>1</v>
+      </c>
+      <c r="BI25" s="93" t="s">
+        <v>163</v>
+      </c>
+      <c r="BJ25" s="93" t="s">
+        <v>224</v>
       </c>
     </row>
-    <row r="26" s="6" customFormat="1" ht="39" customHeight="1" spans="1:61">
+    <row r="26" s="6" customFormat="1" ht="39" customHeight="1" spans="1:62">
       <c r="A26" s="39" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B26" s="40" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C26" s="41"/>
       <c r="D26" s="42">
@@ -6207,10 +6234,10 @@
         <v>25</v>
       </c>
       <c r="K26" s="40" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L26" s="40" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="M26" s="40"/>
       <c r="N26" s="40"/>
@@ -6232,7 +6259,7 @@
         <v>250</v>
       </c>
       <c r="AA26" s="40" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AB26" s="40"/>
       <c r="AC26" s="40"/>
@@ -6250,17 +6277,17 @@
         <v>180</v>
       </c>
       <c r="AM26" s="40" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AN26" s="40" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AO26" s="77"/>
       <c r="AP26" s="40">
         <v>600</v>
       </c>
       <c r="AQ26" s="40" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AR26" s="40">
         <v>1</v>
@@ -6269,7 +6296,7 @@
         <v>1</v>
       </c>
       <c r="AT26" s="40" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AU26" s="40">
         <v>0</v>
@@ -6284,7 +6311,7 @@
         <v>20000</v>
       </c>
       <c r="AY26" s="43" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AZ26" s="40">
         <v>8192</v>
@@ -6296,29 +6323,32 @@
       <c r="BC26" s="40">
         <v>0</v>
       </c>
-      <c r="BD26" s="40">
-        <v>345</v>
-      </c>
-      <c r="BE26" s="40">
-        <v>373</v>
-      </c>
-      <c r="BF26" s="94"/>
-      <c r="BG26" s="95">
-        <v>0</v>
-      </c>
-      <c r="BH26" s="96" t="s">
-        <v>162</v>
-      </c>
-      <c r="BI26" s="96" t="s">
-        <v>171</v>
+      <c r="BD26" s="19">
+        <v>100</v>
+      </c>
+      <c r="BE26" s="19">
+        <v>200</v>
+      </c>
+      <c r="BF26" s="19">
+        <v>200</v>
+      </c>
+      <c r="BG26" s="92"/>
+      <c r="BH26" s="86">
+        <v>1</v>
+      </c>
+      <c r="BI26" s="93" t="s">
+        <v>163</v>
+      </c>
+      <c r="BJ26" s="93" t="s">
+        <v>172</v>
       </c>
     </row>
-    <row r="27" s="7" customFormat="1" ht="33" spans="1:63">
+    <row r="27" s="7" customFormat="1" ht="33" spans="1:64">
       <c r="A27" s="44" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B27" s="45" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C27" s="46"/>
       <c r="D27" s="47">
@@ -6345,10 +6375,10 @@
         <v>25</v>
       </c>
       <c r="K27" s="45" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L27" s="45" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="M27" s="45"/>
       <c r="N27" s="45"/>
@@ -6370,7 +6400,7 @@
         <v>220</v>
       </c>
       <c r="AA27" s="45" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AB27" s="45"/>
       <c r="AC27" s="45"/>
@@ -6388,15 +6418,15 @@
         <v>180</v>
       </c>
       <c r="AM27" s="45" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AN27" s="45" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AO27" s="78"/>
       <c r="AP27" s="45"/>
       <c r="AQ27" s="45" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AR27" s="45">
         <v>1</v>
@@ -6405,7 +6435,7 @@
         <v>1</v>
       </c>
       <c r="AT27" s="45" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AU27" s="45">
         <v>0</v>
@@ -6420,7 +6450,7 @@
         <v>20000</v>
       </c>
       <c r="AY27" s="48" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AZ27" s="45">
         <v>8192</v>
@@ -6432,35 +6462,38 @@
       <c r="BC27" s="45">
         <v>0</v>
       </c>
-      <c r="BD27" s="45">
-        <v>345</v>
-      </c>
-      <c r="BE27" s="45">
-        <v>373</v>
-      </c>
-      <c r="BF27" s="97"/>
-      <c r="BG27" s="98">
-        <v>0</v>
-      </c>
-      <c r="BH27" s="99" t="s">
-        <v>206</v>
-      </c>
-      <c r="BI27" s="99" t="s">
-        <v>207</v>
-      </c>
-      <c r="BJ27" s="99" t="s">
-        <v>208</v>
-      </c>
-      <c r="BK27" s="99" t="s">
-        <v>209</v>
+      <c r="BD27" s="19">
+        <v>100</v>
+      </c>
+      <c r="BE27" s="19">
+        <v>200</v>
+      </c>
+      <c r="BF27" s="19">
+        <v>200</v>
+      </c>
+      <c r="BG27" s="94"/>
+      <c r="BH27" s="86">
+        <v>1</v>
+      </c>
+      <c r="BI27" s="95" t="s">
+        <v>202</v>
+      </c>
+      <c r="BJ27" s="95" t="s">
+        <v>203</v>
+      </c>
+      <c r="BK27" s="95" t="s">
+        <v>204</v>
+      </c>
+      <c r="BL27" s="95" t="s">
+        <v>205</v>
       </c>
     </row>
-    <row r="28" s="7" customFormat="1" ht="39" customHeight="1" spans="1:63">
+    <row r="28" s="7" customFormat="1" ht="39" customHeight="1" spans="1:64">
       <c r="A28" s="44" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B28" s="45" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C28" s="46"/>
       <c r="D28" s="47">
@@ -6487,10 +6520,10 @@
         <v>25</v>
       </c>
       <c r="K28" s="45" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L28" s="45" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="M28" s="45"/>
       <c r="N28" s="45"/>
@@ -6512,7 +6545,7 @@
         <v>256</v>
       </c>
       <c r="AA28" s="45" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AB28" s="45"/>
       <c r="AC28" s="45"/>
@@ -6530,17 +6563,17 @@
         <v>180</v>
       </c>
       <c r="AM28" s="45" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AN28" s="45" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="AO28" s="78"/>
       <c r="AP28" s="45">
         <v>800</v>
       </c>
       <c r="AQ28" s="45" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AR28" s="45">
         <v>1</v>
@@ -6549,7 +6582,7 @@
         <v>1</v>
       </c>
       <c r="AT28" s="45" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AU28" s="45">
         <v>0</v>
@@ -6564,7 +6597,7 @@
         <v>20000</v>
       </c>
       <c r="AY28" s="48" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AZ28" s="45">
         <v>8192</v>
@@ -6576,35 +6609,38 @@
       <c r="BC28" s="45">
         <v>0</v>
       </c>
-      <c r="BD28" s="45">
-        <v>345</v>
-      </c>
-      <c r="BE28" s="45">
-        <v>373</v>
-      </c>
-      <c r="BF28" s="97"/>
-      <c r="BG28" s="98">
-        <v>0</v>
-      </c>
-      <c r="BH28" s="99" t="s">
-        <v>238</v>
-      </c>
-      <c r="BI28" s="99" t="s">
-        <v>239</v>
-      </c>
-      <c r="BJ28" s="99" t="s">
-        <v>240</v>
-      </c>
-      <c r="BK28" s="99" t="s">
-        <v>241</v>
+      <c r="BD28" s="19">
+        <v>100</v>
+      </c>
+      <c r="BE28" s="19">
+        <v>200</v>
+      </c>
+      <c r="BF28" s="19">
+        <v>200</v>
+      </c>
+      <c r="BG28" s="94"/>
+      <c r="BH28" s="86">
+        <v>1</v>
+      </c>
+      <c r="BI28" s="95" t="s">
+        <v>234</v>
+      </c>
+      <c r="BJ28" s="95" t="s">
+        <v>235</v>
+      </c>
+      <c r="BK28" s="95" t="s">
+        <v>236</v>
+      </c>
+      <c r="BL28" s="95" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="29" s="7" customFormat="1" ht="39" customHeight="1" spans="1:60">
       <c r="A29" s="44" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B29" s="45" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C29" s="46"/>
       <c r="D29" s="47">
@@ -6631,10 +6667,10 @@
         <v>25</v>
       </c>
       <c r="K29" s="45" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L29" s="45" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="M29" s="45"/>
       <c r="N29" s="45"/>
@@ -6656,7 +6692,7 @@
         <v>160</v>
       </c>
       <c r="AA29" s="45" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AB29" s="45"/>
       <c r="AC29" s="45"/>
@@ -6674,17 +6710,17 @@
         <v>180</v>
       </c>
       <c r="AM29" s="45" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AN29" s="45" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="AO29" s="78"/>
       <c r="AP29" s="45">
         <v>600</v>
       </c>
       <c r="AQ29" s="45" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AR29" s="45">
         <v>1</v>
@@ -6693,7 +6729,7 @@
         <v>1</v>
       </c>
       <c r="AT29" s="45" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AU29" s="45">
         <v>0</v>
@@ -6708,7 +6744,7 @@
         <v>20000</v>
       </c>
       <c r="AY29" s="48" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AZ29" s="45">
         <v>8192</v>
@@ -6720,26 +6756,26 @@
       <c r="BC29" s="45">
         <v>0</v>
       </c>
-      <c r="BD29" s="45">
-        <v>345</v>
-      </c>
-      <c r="BE29" s="45">
-        <v>373</v>
-      </c>
-      <c r="BF29" s="97"/>
-      <c r="BG29" s="98">
-        <v>0</v>
-      </c>
-      <c r="BH29" s="7" t="s">
-        <v>245</v>
+      <c r="BD29" s="19">
+        <v>100</v>
+      </c>
+      <c r="BE29" s="19">
+        <v>200</v>
+      </c>
+      <c r="BF29" s="19">
+        <v>200</v>
+      </c>
+      <c r="BG29" s="94"/>
+      <c r="BH29" s="86">
+        <v>1</v>
       </c>
     </row>
-    <row r="30" s="7" customFormat="1" ht="39" customHeight="1" spans="1:61">
+    <row r="30" s="7" customFormat="1" ht="39" customHeight="1" spans="1:62">
       <c r="A30" s="44" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="B30" s="45" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C30" s="46"/>
       <c r="D30" s="47">
@@ -6766,10 +6802,10 @@
         <v>25</v>
       </c>
       <c r="K30" s="45" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L30" s="45" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="M30" s="45"/>
       <c r="N30" s="45"/>
@@ -6791,7 +6827,7 @@
         <v>184</v>
       </c>
       <c r="AA30" s="45" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AB30" s="45"/>
       <c r="AC30" s="45"/>
@@ -6809,17 +6845,17 @@
         <v>180</v>
       </c>
       <c r="AM30" s="45" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AN30" s="45" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AO30" s="78"/>
       <c r="AP30" s="45">
         <v>600</v>
       </c>
       <c r="AQ30" s="45" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AR30" s="45">
         <v>1</v>
@@ -6828,7 +6864,7 @@
         <v>1</v>
       </c>
       <c r="AT30" s="45" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AU30" s="45">
         <v>0</v>
@@ -6843,7 +6879,7 @@
         <v>20000</v>
       </c>
       <c r="AY30" s="48" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AZ30" s="45">
         <v>8192</v>
@@ -6855,29 +6891,32 @@
       <c r="BC30" s="45">
         <v>0</v>
       </c>
-      <c r="BD30" s="45">
-        <v>345</v>
-      </c>
-      <c r="BE30" s="45">
-        <v>373</v>
-      </c>
-      <c r="BF30" s="97"/>
-      <c r="BG30" s="98">
-        <v>0</v>
-      </c>
-      <c r="BH30" s="99" t="s">
-        <v>162</v>
-      </c>
-      <c r="BI30" s="99" t="s">
-        <v>221</v>
+      <c r="BD30" s="19">
+        <v>100</v>
+      </c>
+      <c r="BE30" s="19">
+        <v>200</v>
+      </c>
+      <c r="BF30" s="19">
+        <v>200</v>
+      </c>
+      <c r="BG30" s="94"/>
+      <c r="BH30" s="86">
+        <v>1</v>
+      </c>
+      <c r="BI30" s="95" t="s">
+        <v>163</v>
+      </c>
+      <c r="BJ30" s="95" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="31" s="7" customFormat="1" ht="39" customHeight="1" spans="1:60">
       <c r="A31" s="44" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="B31" s="45" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C31" s="46"/>
       <c r="D31" s="47">
@@ -6904,10 +6943,10 @@
         <v>25</v>
       </c>
       <c r="K31" s="45" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L31" s="45" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="M31" s="45"/>
       <c r="N31" s="45"/>
@@ -6929,7 +6968,7 @@
         <v>172</v>
       </c>
       <c r="AA31" s="45" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AB31" s="45"/>
       <c r="AC31" s="45"/>
@@ -6947,17 +6986,17 @@
         <v>180</v>
       </c>
       <c r="AM31" s="45" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AN31" s="45" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AO31" s="78"/>
       <c r="AP31" s="45">
         <v>600</v>
       </c>
       <c r="AQ31" s="45" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AR31" s="45">
         <v>1</v>
@@ -6966,7 +7005,7 @@
         <v>1</v>
       </c>
       <c r="AT31" s="45" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AU31" s="45">
         <v>0</v>
@@ -6981,7 +7020,7 @@
         <v>20000</v>
       </c>
       <c r="AY31" s="48" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AZ31" s="45">
         <v>8192</v>
@@ -6993,26 +7032,26 @@
       <c r="BC31" s="45">
         <v>0</v>
       </c>
-      <c r="BD31" s="45">
-        <v>345</v>
-      </c>
-      <c r="BE31" s="45">
-        <v>373</v>
-      </c>
-      <c r="BF31" s="97"/>
-      <c r="BG31" s="98">
-        <v>0</v>
-      </c>
-      <c r="BH31" s="7" t="s">
-        <v>245</v>
+      <c r="BD31" s="19">
+        <v>100</v>
+      </c>
+      <c r="BE31" s="19">
+        <v>200</v>
+      </c>
+      <c r="BF31" s="19">
+        <v>200</v>
+      </c>
+      <c r="BG31" s="94"/>
+      <c r="BH31" s="86">
+        <v>1</v>
       </c>
     </row>
-    <row r="32" s="7" customFormat="1" ht="39" customHeight="1" spans="1:61">
+    <row r="32" s="7" customFormat="1" ht="39" customHeight="1" spans="1:62">
       <c r="A32" s="44" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="B32" s="45" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C32" s="46"/>
       <c r="D32" s="47">
@@ -7039,10 +7078,10 @@
         <v>25</v>
       </c>
       <c r="K32" s="45" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L32" s="45" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="M32" s="45"/>
       <c r="N32" s="45"/>
@@ -7064,7 +7103,7 @@
         <v>250</v>
       </c>
       <c r="AA32" s="45" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AB32" s="45"/>
       <c r="AC32" s="45"/>
@@ -7082,17 +7121,17 @@
         <v>180</v>
       </c>
       <c r="AM32" s="45" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AN32" s="45" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AO32" s="78"/>
       <c r="AP32" s="45">
         <v>600</v>
       </c>
       <c r="AQ32" s="45" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AR32" s="45">
         <v>1</v>
@@ -7101,7 +7140,7 @@
         <v>1</v>
       </c>
       <c r="AT32" s="45" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AU32" s="45">
         <v>0</v>
@@ -7116,7 +7155,7 @@
         <v>20000</v>
       </c>
       <c r="AY32" s="48" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AZ32" s="45">
         <v>8192</v>
@@ -7128,21 +7167,24 @@
       <c r="BC32" s="45">
         <v>0</v>
       </c>
-      <c r="BD32" s="45">
-        <v>345</v>
-      </c>
-      <c r="BE32" s="45">
-        <v>373</v>
-      </c>
-      <c r="BF32" s="97"/>
-      <c r="BG32" s="98">
-        <v>0</v>
-      </c>
-      <c r="BH32" s="99" t="s">
-        <v>163</v>
-      </c>
-      <c r="BI32" s="99" t="s">
-        <v>255</v>
+      <c r="BD32" s="19">
+        <v>100</v>
+      </c>
+      <c r="BE32" s="19">
+        <v>200</v>
+      </c>
+      <c r="BF32" s="19">
+        <v>200</v>
+      </c>
+      <c r="BG32" s="94"/>
+      <c r="BH32" s="86">
+        <v>1</v>
+      </c>
+      <c r="BI32" s="95" t="s">
+        <v>164</v>
+      </c>
+      <c r="BJ32" s="95" t="s">
+        <v>250</v>
       </c>
     </row>
   </sheetData>

--- a/excels/units/monster/boss.xlsx
+++ b/excels/units/monster/boss.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12345"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="boss" sheetId="1" r:id="rId1"/>
@@ -476,7 +476,7 @@
     <t>npc_creature_boss_6</t>
   </si>
   <si>
-    <t>远古地狱火</t>
+    <t>远古炼狱火</t>
   </si>
   <si>
     <t>models/items/warlock/golem/ti_8_warlock_darkness_apostate_golem/ti_8_warlock_darkness_apostate_golem.vmdl</t>
@@ -515,7 +515,7 @@
     <t>npc_creature_boss_9</t>
   </si>
   <si>
-    <t>地狱双头犬</t>
+    <t>炼狱双头犬</t>
   </si>
   <si>
     <t>models/monster/monster0201/monster0201.vmdl</t>
@@ -2492,7 +2492,7 @@
   <dimension ref="A1:BL32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="BB15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="BB3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>

--- a/excels/units/monster/boss.xlsx
+++ b/excels/units/monster/boss.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowHeight="17775"/>
   </bookViews>
   <sheets>
     <sheet name="boss" sheetId="1" r:id="rId1"/>
@@ -2492,11 +2492,11 @@
   <dimension ref="A1:BL32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="BB3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D16" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="BJ31" sqref="BJ31"/>
+      <selection pane="bottomRight" activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2885,9 +2885,7 @@
       <c r="B3" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="C3" s="20">
-        <v>1</v>
-      </c>
+      <c r="C3" s="20"/>
       <c r="D3" s="21"/>
       <c r="E3" s="22">
         <v>100000</v>
@@ -3016,9 +3014,7 @@
       <c r="B4" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="C4" s="23">
-        <v>2</v>
-      </c>
+      <c r="C4" s="23"/>
       <c r="D4" s="24">
         <v>4</v>
       </c>
@@ -3172,9 +3168,7 @@
       <c r="B5" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="C5" s="23">
-        <v>3</v>
-      </c>
+      <c r="C5" s="23"/>
       <c r="D5" s="24">
         <v>3</v>
       </c>
@@ -3328,9 +3322,7 @@
       <c r="B6" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="C6" s="23">
-        <v>4</v>
-      </c>
+      <c r="C6" s="23"/>
       <c r="D6" s="24">
         <v>2</v>
       </c>
@@ -3484,9 +3476,7 @@
       <c r="B7" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="C7" s="23">
-        <v>5</v>
-      </c>
+      <c r="C7" s="23"/>
       <c r="D7" s="24">
         <v>1</v>
       </c>
@@ -3640,9 +3630,7 @@
       <c r="B8" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="C8" s="23">
-        <v>6</v>
-      </c>
+      <c r="C8" s="23"/>
       <c r="D8" s="24"/>
       <c r="E8" s="22">
         <v>20000</v>
@@ -3798,9 +3786,7 @@
       <c r="B9" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="C9" s="29">
-        <v>7</v>
-      </c>
+      <c r="C9" s="29"/>
       <c r="D9" s="30">
         <v>1</v>
       </c>
@@ -3939,9 +3925,7 @@
       <c r="B10" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="C10" s="29">
-        <v>8</v>
-      </c>
+      <c r="C10" s="29"/>
       <c r="D10" s="30">
         <v>1</v>
       </c>

--- a/excels/units/monster/boss.xlsx
+++ b/excels/units/monster/boss.xlsx
@@ -45,13 +45,11 @@
   </si>
   <si>
     <t>元素克制
-1火2雷3冰4风
-5光6暗</t>
+1火2冰3雷4风5光6暗</t>
   </si>
   <si>
     <t>克制元素
-1火2雷3冰4风
-5光6暗</t>
+1火2冰3雷4风5光6暗</t>
   </si>
   <si>
     <t>基础生命值</t>
@@ -2284,7 +2282,7 @@
         <row r="1">
           <cell r="A1" t="str">
             <v>怪物携带元素
-1火2雷3冰4风5光6暗</v>
+1火2冰3雷4风5光6暗</v>
           </cell>
           <cell r="B1" t="str">
             <v>克制的元素
@@ -2300,7 +2298,7 @@
             <v>1</v>
           </cell>
           <cell r="B2" t="str">
-            <v>3|0</v>
+            <v>2|0</v>
           </cell>
           <cell r="C2" t="str">
             <v>4|5|6</v>
@@ -2311,10 +2309,10 @@
             <v>2</v>
           </cell>
           <cell r="B3" t="str">
-            <v>4|0</v>
+            <v>3|0</v>
           </cell>
           <cell r="C3" t="str">
-            <v>3|5|6</v>
+            <v>1|5|6</v>
           </cell>
         </row>
         <row r="4">
@@ -2322,10 +2320,10 @@
             <v>3</v>
           </cell>
           <cell r="B4" t="str">
-            <v>2|0</v>
+            <v>4|0</v>
           </cell>
           <cell r="C4" t="str">
-            <v>1|5|6</v>
+            <v>2|5|6</v>
           </cell>
         </row>
         <row r="5">
@@ -2336,7 +2334,7 @@
             <v>1|0</v>
           </cell>
           <cell r="C5" t="str">
-            <v>2|5|6</v>
+            <v>3|5|6</v>
           </cell>
         </row>
         <row r="6">
@@ -2657,11 +2655,11 @@
   <dimension ref="A1:BN32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E1" sqref="E$1:F$1048576"/>
+      <selection pane="bottomRight" activeCell="E3" sqref="E3:F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3067,7 +3065,7 @@
       </c>
       <c r="E3" s="24" t="str">
         <f>IF(ISBLANK(D3),"",VLOOKUP(D3,[1]__Sheet1!$A:$C,2,FALSE))</f>
-        <v>3|0</v>
+        <v>2|0</v>
       </c>
       <c r="F3" s="24" t="str">
         <f>IF(ISBLANK(D3),"",VLOOKUP(D3,[1]__Sheet1!$A:$C,3,FALSE))</f>
@@ -3210,7 +3208,7 @@
       </c>
       <c r="F4" s="24" t="str">
         <f>IF(ISBLANK(D4),"",VLOOKUP(D4,[1]__Sheet1!$A:$C,3,FALSE))</f>
-        <v>2|5|6</v>
+        <v>3|5|6</v>
       </c>
       <c r="G4" s="25">
         <v>20000</v>
@@ -3368,11 +3366,11 @@
       </c>
       <c r="E5" s="24" t="str">
         <f>IF(ISBLANK(D5),"",VLOOKUP(D5,[1]__Sheet1!$A:$C,2,FALSE))</f>
-        <v>2|0</v>
+        <v>4|0</v>
       </c>
       <c r="F5" s="24" t="str">
         <f>IF(ISBLANK(D5),"",VLOOKUP(D5,[1]__Sheet1!$A:$C,3,FALSE))</f>
-        <v>1|5|6</v>
+        <v>2|5|6</v>
       </c>
       <c r="G5" s="25">
         <v>20000</v>
@@ -3530,11 +3528,11 @@
       </c>
       <c r="E6" s="24" t="str">
         <f>IF(ISBLANK(D6),"",VLOOKUP(D6,[1]__Sheet1!$A:$C,2,FALSE))</f>
-        <v>4|0</v>
+        <v>3|0</v>
       </c>
       <c r="F6" s="24" t="str">
         <f>IF(ISBLANK(D6),"",VLOOKUP(D6,[1]__Sheet1!$A:$C,3,FALSE))</f>
-        <v>3|5|6</v>
+        <v>1|5|6</v>
       </c>
       <c r="G6" s="25">
         <v>20000</v>
@@ -3692,7 +3690,7 @@
       </c>
       <c r="E7" s="24" t="str">
         <f>IF(ISBLANK(D7),"",VLOOKUP(D7,[1]__Sheet1!$A:$C,2,FALSE))</f>
-        <v>3|0</v>
+        <v>2|0</v>
       </c>
       <c r="F7" s="24" t="str">
         <f>IF(ISBLANK(D7),"",VLOOKUP(D7,[1]__Sheet1!$A:$C,3,FALSE))</f>
@@ -4018,7 +4016,7 @@
       </c>
       <c r="E9" s="24" t="str">
         <f>IF(ISBLANK(D9),"",VLOOKUP(D9,[1]__Sheet1!$A:$C,2,FALSE))</f>
-        <v>3|0</v>
+        <v>2|0</v>
       </c>
       <c r="F9" s="24" t="str">
         <f>IF(ISBLANK(D9),"",VLOOKUP(D9,[1]__Sheet1!$A:$C,3,FALSE))</f>
@@ -4165,7 +4163,7 @@
       </c>
       <c r="E10" s="24" t="str">
         <f>IF(ISBLANK(D10),"",VLOOKUP(D10,[1]__Sheet1!$A:$C,2,FALSE))</f>
-        <v>3|0</v>
+        <v>2|0</v>
       </c>
       <c r="F10" s="24" t="str">
         <f>IF(ISBLANK(D10),"",VLOOKUP(D10,[1]__Sheet1!$A:$C,3,FALSE))</f>
@@ -4312,7 +4310,7 @@
       </c>
       <c r="E11" s="24" t="str">
         <f>IF(ISBLANK(D11),"",VLOOKUP(D11,[1]__Sheet1!$A:$C,2,FALSE))</f>
-        <v>3|0</v>
+        <v>2|0</v>
       </c>
       <c r="F11" s="24" t="str">
         <f>IF(ISBLANK(D11),"",VLOOKUP(D11,[1]__Sheet1!$A:$C,3,FALSE))</f>
@@ -4459,7 +4457,7 @@
       </c>
       <c r="E12" s="24" t="str">
         <f>IF(ISBLANK(D12),"",VLOOKUP(D12,[1]__Sheet1!$A:$C,2,FALSE))</f>
-        <v>3|0</v>
+        <v>2|0</v>
       </c>
       <c r="F12" s="24" t="str">
         <f>IF(ISBLANK(D12),"",VLOOKUP(D12,[1]__Sheet1!$A:$C,3,FALSE))</f>
@@ -4606,7 +4604,7 @@
       </c>
       <c r="E13" s="24" t="str">
         <f>IF(ISBLANK(D13),"",VLOOKUP(D13,[1]__Sheet1!$A:$C,2,FALSE))</f>
-        <v>3|0</v>
+        <v>2|0</v>
       </c>
       <c r="F13" s="24" t="str">
         <f>IF(ISBLANK(D13),"",VLOOKUP(D13,[1]__Sheet1!$A:$C,3,FALSE))</f>
@@ -4753,7 +4751,7 @@
       </c>
       <c r="E14" s="24" t="str">
         <f>IF(ISBLANK(D14),"",VLOOKUP(D14,[1]__Sheet1!$A:$C,2,FALSE))</f>
-        <v>3|0</v>
+        <v>2|0</v>
       </c>
       <c r="F14" s="24" t="str">
         <f>IF(ISBLANK(D14),"",VLOOKUP(D14,[1]__Sheet1!$A:$C,3,FALSE))</f>
@@ -4900,11 +4898,11 @@
       </c>
       <c r="E15" s="24" t="str">
         <f>IF(ISBLANK(D15),"",VLOOKUP(D15,[1]__Sheet1!$A:$C,2,FALSE))</f>
-        <v>4|0</v>
+        <v>3|0</v>
       </c>
       <c r="F15" s="24" t="str">
         <f>IF(ISBLANK(D15),"",VLOOKUP(D15,[1]__Sheet1!$A:$C,3,FALSE))</f>
-        <v>3|5|6</v>
+        <v>1|5|6</v>
       </c>
       <c r="G15" s="39">
         <f t="shared" ref="G15:G20" si="2">10000</f>
@@ -5047,11 +5045,11 @@
       </c>
       <c r="E16" s="24" t="str">
         <f>IF(ISBLANK(D16),"",VLOOKUP(D16,[1]__Sheet1!$A:$C,2,FALSE))</f>
-        <v>4|0</v>
+        <v>3|0</v>
       </c>
       <c r="F16" s="24" t="str">
         <f>IF(ISBLANK(D16),"",VLOOKUP(D16,[1]__Sheet1!$A:$C,3,FALSE))</f>
-        <v>3|5|6</v>
+        <v>1|5|6</v>
       </c>
       <c r="G16" s="39">
         <f t="shared" si="2"/>
@@ -5194,11 +5192,11 @@
       </c>
       <c r="E17" s="24" t="str">
         <f>IF(ISBLANK(D17),"",VLOOKUP(D17,[1]__Sheet1!$A:$C,2,FALSE))</f>
-        <v>4|0</v>
+        <v>3|0</v>
       </c>
       <c r="F17" s="24" t="str">
         <f>IF(ISBLANK(D17),"",VLOOKUP(D17,[1]__Sheet1!$A:$C,3,FALSE))</f>
-        <v>3|5|6</v>
+        <v>1|5|6</v>
       </c>
       <c r="G17" s="39">
         <f t="shared" si="2"/>
@@ -5347,11 +5345,11 @@
       </c>
       <c r="E18" s="24" t="str">
         <f>IF(ISBLANK(D18),"",VLOOKUP(D18,[1]__Sheet1!$A:$C,2,FALSE))</f>
-        <v>4|0</v>
+        <v>3|0</v>
       </c>
       <c r="F18" s="24" t="str">
         <f>IF(ISBLANK(D18),"",VLOOKUP(D18,[1]__Sheet1!$A:$C,3,FALSE))</f>
-        <v>3|5|6</v>
+        <v>1|5|6</v>
       </c>
       <c r="G18" s="39">
         <f t="shared" si="2"/>
@@ -5500,11 +5498,11 @@
       </c>
       <c r="E19" s="24" t="str">
         <f>IF(ISBLANK(D19),"",VLOOKUP(D19,[1]__Sheet1!$A:$C,2,FALSE))</f>
-        <v>4|0</v>
+        <v>3|0</v>
       </c>
       <c r="F19" s="24" t="str">
         <f>IF(ISBLANK(D19),"",VLOOKUP(D19,[1]__Sheet1!$A:$C,3,FALSE))</f>
-        <v>3|5|6</v>
+        <v>1|5|6</v>
       </c>
       <c r="G19" s="39">
         <f t="shared" si="2"/>
@@ -5653,11 +5651,11 @@
       </c>
       <c r="E20" s="24" t="str">
         <f>IF(ISBLANK(D20),"",VLOOKUP(D20,[1]__Sheet1!$A:$C,2,FALSE))</f>
-        <v>4|0</v>
+        <v>3|0</v>
       </c>
       <c r="F20" s="24" t="str">
         <f>IF(ISBLANK(D20),"",VLOOKUP(D20,[1]__Sheet1!$A:$C,3,FALSE))</f>
-        <v>3|5|6</v>
+        <v>1|5|6</v>
       </c>
       <c r="G20" s="39">
         <f t="shared" si="2"/>
@@ -5806,11 +5804,11 @@
       </c>
       <c r="E21" s="24" t="str">
         <f>IF(ISBLANK(D21),"",VLOOKUP(D21,[1]__Sheet1!$A:$C,2,FALSE))</f>
-        <v>2|0</v>
+        <v>4|0</v>
       </c>
       <c r="F21" s="24" t="str">
         <f>IF(ISBLANK(D21),"",VLOOKUP(D21,[1]__Sheet1!$A:$C,3,FALSE))</f>
-        <v>1|5|6</v>
+        <v>2|5|6</v>
       </c>
       <c r="G21" s="46">
         <f t="shared" ref="G15:G32" si="3">10000</f>
@@ -5959,11 +5957,11 @@
       </c>
       <c r="E22" s="24" t="str">
         <f>IF(ISBLANK(D22),"",VLOOKUP(D22,[1]__Sheet1!$A:$C,2,FALSE))</f>
-        <v>2|0</v>
+        <v>4|0</v>
       </c>
       <c r="F22" s="24" t="str">
         <f>IF(ISBLANK(D22),"",VLOOKUP(D22,[1]__Sheet1!$A:$C,3,FALSE))</f>
-        <v>1|5|6</v>
+        <v>2|5|6</v>
       </c>
       <c r="G22" s="46">
         <f t="shared" si="3"/>
@@ -6114,11 +6112,11 @@
       </c>
       <c r="E23" s="24" t="str">
         <f>IF(ISBLANK(D23),"",VLOOKUP(D23,[1]__Sheet1!$A:$C,2,FALSE))</f>
-        <v>2|0</v>
+        <v>4|0</v>
       </c>
       <c r="F23" s="24" t="str">
         <f>IF(ISBLANK(D23),"",VLOOKUP(D23,[1]__Sheet1!$A:$C,3,FALSE))</f>
-        <v>1|5|6</v>
+        <v>2|5|6</v>
       </c>
       <c r="G23" s="46">
         <f t="shared" si="3"/>
@@ -6263,11 +6261,11 @@
       </c>
       <c r="E24" s="24" t="str">
         <f>IF(ISBLANK(D24),"",VLOOKUP(D24,[1]__Sheet1!$A:$C,2,FALSE))</f>
-        <v>2|0</v>
+        <v>4|0</v>
       </c>
       <c r="F24" s="24" t="str">
         <f>IF(ISBLANK(D24),"",VLOOKUP(D24,[1]__Sheet1!$A:$C,3,FALSE))</f>
-        <v>1|5|6</v>
+        <v>2|5|6</v>
       </c>
       <c r="G24" s="46">
         <f t="shared" si="3"/>
@@ -6412,11 +6410,11 @@
       </c>
       <c r="E25" s="24" t="str">
         <f>IF(ISBLANK(D25),"",VLOOKUP(D25,[1]__Sheet1!$A:$C,2,FALSE))</f>
-        <v>2|0</v>
+        <v>4|0</v>
       </c>
       <c r="F25" s="24" t="str">
         <f>IF(ISBLANK(D25),"",VLOOKUP(D25,[1]__Sheet1!$A:$C,3,FALSE))</f>
-        <v>1|5|6</v>
+        <v>2|5|6</v>
       </c>
       <c r="G25" s="46">
         <f t="shared" si="3"/>
@@ -6561,11 +6559,11 @@
       </c>
       <c r="E26" s="24" t="str">
         <f>IF(ISBLANK(D26),"",VLOOKUP(D26,[1]__Sheet1!$A:$C,2,FALSE))</f>
-        <v>2|0</v>
+        <v>4|0</v>
       </c>
       <c r="F26" s="24" t="str">
         <f>IF(ISBLANK(D26),"",VLOOKUP(D26,[1]__Sheet1!$A:$C,3,FALSE))</f>
-        <v>1|5|6</v>
+        <v>2|5|6</v>
       </c>
       <c r="G26" s="46">
         <f t="shared" si="3"/>
@@ -6710,11 +6708,11 @@
       </c>
       <c r="E27" s="24" t="str">
         <f>IF(ISBLANK(D27),"",VLOOKUP(D27,[1]__Sheet1!$A:$C,2,FALSE))</f>
-        <v>2|0</v>
+        <v>4|0</v>
       </c>
       <c r="F27" s="24" t="str">
         <f>IF(ISBLANK(D27),"",VLOOKUP(D27,[1]__Sheet1!$A:$C,3,FALSE))</f>
-        <v>1|5|6</v>
+        <v>2|5|6</v>
       </c>
       <c r="G27" s="51">
         <f t="shared" si="3"/>
@@ -6863,11 +6861,11 @@
       </c>
       <c r="E28" s="24" t="str">
         <f>IF(ISBLANK(D28),"",VLOOKUP(D28,[1]__Sheet1!$A:$C,2,FALSE))</f>
-        <v>2|0</v>
+        <v>4|0</v>
       </c>
       <c r="F28" s="24" t="str">
         <f>IF(ISBLANK(D28),"",VLOOKUP(D28,[1]__Sheet1!$A:$C,3,FALSE))</f>
-        <v>1|5|6</v>
+        <v>2|5|6</v>
       </c>
       <c r="G28" s="51">
         <f t="shared" si="3"/>
@@ -7018,11 +7016,11 @@
       </c>
       <c r="E29" s="24" t="str">
         <f>IF(ISBLANK(D29),"",VLOOKUP(D29,[1]__Sheet1!$A:$C,2,FALSE))</f>
-        <v>2|0</v>
+        <v>4|0</v>
       </c>
       <c r="F29" s="24" t="str">
         <f>IF(ISBLANK(D29),"",VLOOKUP(D29,[1]__Sheet1!$A:$C,3,FALSE))</f>
-        <v>1|5|6</v>
+        <v>2|5|6</v>
       </c>
       <c r="G29" s="51">
         <f t="shared" si="3"/>
@@ -7161,11 +7159,11 @@
       </c>
       <c r="E30" s="24" t="str">
         <f>IF(ISBLANK(D30),"",VLOOKUP(D30,[1]__Sheet1!$A:$C,2,FALSE))</f>
-        <v>2|0</v>
+        <v>4|0</v>
       </c>
       <c r="F30" s="24" t="str">
         <f>IF(ISBLANK(D30),"",VLOOKUP(D30,[1]__Sheet1!$A:$C,3,FALSE))</f>
-        <v>1|5|6</v>
+        <v>2|5|6</v>
       </c>
       <c r="G30" s="51">
         <f t="shared" si="3"/>
@@ -7310,11 +7308,11 @@
       </c>
       <c r="E31" s="24" t="str">
         <f>IF(ISBLANK(D31),"",VLOOKUP(D31,[1]__Sheet1!$A:$C,2,FALSE))</f>
-        <v>2|0</v>
+        <v>4|0</v>
       </c>
       <c r="F31" s="24" t="str">
         <f>IF(ISBLANK(D31),"",VLOOKUP(D31,[1]__Sheet1!$A:$C,3,FALSE))</f>
-        <v>1|5|6</v>
+        <v>2|5|6</v>
       </c>
       <c r="G31" s="51">
         <f t="shared" si="3"/>
@@ -7453,11 +7451,11 @@
       </c>
       <c r="E32" s="24" t="str">
         <f>IF(ISBLANK(D32),"",VLOOKUP(D32,[1]__Sheet1!$A:$C,2,FALSE))</f>
-        <v>2|0</v>
+        <v>4|0</v>
       </c>
       <c r="F32" s="24" t="str">
         <f>IF(ISBLANK(D32),"",VLOOKUP(D32,[1]__Sheet1!$A:$C,3,FALSE))</f>
-        <v>1|5|6</v>
+        <v>2|5|6</v>
       </c>
       <c r="G32" s="51">
         <f t="shared" si="3"/>

--- a/excels/units/monster/boss.xlsx
+++ b/excels/units/monster/boss.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="27945" windowHeight="11805"/>
   </bookViews>
   <sheets>
     <sheet name="boss" sheetId="1" r:id="rId1"/>
@@ -1035,7 +1035,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="41">
+  <fills count="43">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1087,6 +1087,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFE6E6E6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1277,7 +1289,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -1464,21 +1476,6 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="1" tint="0.6"/>
-      </left>
-      <right style="thin">
-        <color theme="1" tint="0.6"/>
-      </right>
-      <top style="thin">
-        <color theme="1" tint="0.6"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1" tint="0.6"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color auto="1"/>
       </left>
       <right style="thin">
@@ -1489,21 +1486,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1" tint="0.6"/>
-      </left>
-      <right style="thin">
-        <color theme="1" tint="0.6"/>
-      </right>
-      <top style="thin">
-        <color theme="1" tint="0.6"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1779,7 +1761,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="29" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1791,120 +1773,120 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1983,10 +1965,10 @@
     <xf numFmtId="176" fontId="5" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1995,16 +1977,16 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="5" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2016,30 +1998,18 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="5" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2052,40 +2022,37 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="5" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2151,28 +2118,28 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2655,11 +2622,11 @@
   <dimension ref="A1:BN32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D26" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E3" sqref="E3:F32"/>
+      <selection pane="bottomRight" activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2768,18 +2735,18 @@
       <c r="S1" s="9"/>
       <c r="T1" s="9"/>
       <c r="U1" s="9"/>
-      <c r="V1" s="52"/>
-      <c r="W1" s="53"/>
-      <c r="X1" s="53"/>
-      <c r="Y1" s="56"/>
-      <c r="Z1" s="57"/>
+      <c r="V1" s="47"/>
+      <c r="W1" s="48"/>
+      <c r="X1" s="48"/>
+      <c r="Y1" s="51"/>
+      <c r="Z1" s="52"/>
       <c r="AA1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="AB1" s="58" t="s">
+      <c r="AB1" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="AC1" s="58"/>
+      <c r="AC1" s="53"/>
       <c r="AD1" s="9"/>
       <c r="AE1" s="9"/>
       <c r="AF1" s="9"/>
@@ -2792,7 +2759,7 @@
       <c r="AM1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="AN1" s="68" t="s">
+      <c r="AN1" s="63" t="s">
         <v>17</v>
       </c>
       <c r="AO1" s="9" t="s">
@@ -2839,10 +2806,10 @@
       <c r="BD1" s="9"/>
       <c r="BE1" s="9"/>
       <c r="BF1" s="9"/>
-      <c r="BG1" s="52"/>
-      <c r="BH1" s="82"/>
-      <c r="BI1" s="83"/>
-      <c r="BJ1" s="84"/>
+      <c r="BG1" s="47"/>
+      <c r="BH1" s="77"/>
+      <c r="BI1" s="78"/>
+      <c r="BJ1" s="79"/>
       <c r="BK1" s="1" t="s">
         <v>31</v>
       </c>
@@ -2916,25 +2883,25 @@
       <c r="U2" s="15">
         <v>5</v>
       </c>
-      <c r="V2" s="54">
+      <c r="V2" s="49">
         <v>6</v>
       </c>
-      <c r="W2" s="55">
+      <c r="W2" s="50">
         <v>7</v>
       </c>
-      <c r="X2" s="55">
+      <c r="X2" s="50">
         <v>8</v>
       </c>
-      <c r="Y2" s="59" t="s">
+      <c r="Y2" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="Z2" s="60" t="s">
+      <c r="Z2" s="55" t="s">
         <v>49</v>
       </c>
       <c r="AA2" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="AB2" s="61" t="s">
+      <c r="AB2" s="56" t="s">
         <v>51</v>
       </c>
       <c r="AC2" s="15" t="s">
@@ -2970,7 +2937,7 @@
       <c r="AM2" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="AN2" s="69" t="s">
+      <c r="AN2" s="64" t="s">
         <v>63</v>
       </c>
       <c r="AO2" s="15" t="s">
@@ -3027,16 +2994,16 @@
       <c r="BF2" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="BG2" s="54" t="s">
+      <c r="BG2" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="BH2" s="85" t="s">
+      <c r="BH2" s="80" t="s">
         <v>83</v>
       </c>
-      <c r="BI2" s="86" t="s">
+      <c r="BI2" s="81" t="s">
         <v>49</v>
       </c>
-      <c r="BJ2" s="87" t="s">
+      <c r="BJ2" s="82" t="s">
         <v>84</v>
       </c>
       <c r="BK2" s="2" t="s">
@@ -3110,7 +3077,7 @@
       <c r="AA3" s="21">
         <v>2.3</v>
       </c>
-      <c r="AB3" s="62">
+      <c r="AB3" s="57">
         <f>100+AA3*60</f>
         <v>238</v>
       </c>
@@ -3121,7 +3088,7 @@
       <c r="AE3" s="21"/>
       <c r="AF3" s="21"/>
       <c r="AG3" s="21"/>
-      <c r="AH3" s="62"/>
+      <c r="AH3" s="57"/>
       <c r="AI3" s="21"/>
       <c r="AJ3" s="21"/>
       <c r="AK3" s="21"/>
@@ -3129,7 +3096,7 @@
       <c r="AM3" s="21">
         <v>225</v>
       </c>
-      <c r="AN3" s="70">
+      <c r="AN3" s="65">
         <v>180</v>
       </c>
       <c r="AO3" s="21" t="s">
@@ -3138,7 +3105,7 @@
       <c r="AP3" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="AQ3" s="76"/>
+      <c r="AQ3" s="71"/>
       <c r="AR3" s="21"/>
       <c r="AS3" s="21" t="s">
         <v>96</v>
@@ -3186,8 +3153,8 @@
       <c r="BH3" s="21">
         <v>200</v>
       </c>
-      <c r="BI3" s="88"/>
-      <c r="BJ3" s="89">
+      <c r="BI3" s="83"/>
+      <c r="BJ3" s="84">
         <v>1</v>
       </c>
     </row>
@@ -3198,7 +3165,9 @@
       <c r="B4" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="C4" s="26"/>
+      <c r="C4" s="26">
+        <v>2918</v>
+      </c>
       <c r="D4" s="27">
         <v>4</v>
       </c>
@@ -3262,7 +3231,7 @@
       <c r="AA4" s="21">
         <v>2.3</v>
       </c>
-      <c r="AB4" s="62">
+      <c r="AB4" s="57">
         <f>100+AA4*60</f>
         <v>238</v>
       </c>
@@ -3281,7 +3250,7 @@
       <c r="AG4" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="AH4" s="62" t="s">
+      <c r="AH4" s="57" t="s">
         <v>111</v>
       </c>
       <c r="AI4" s="21"/>
@@ -3291,7 +3260,7 @@
       <c r="AM4" s="21">
         <v>225</v>
       </c>
-      <c r="AN4" s="70">
+      <c r="AN4" s="65">
         <v>180</v>
       </c>
       <c r="AO4" s="21" t="s">
@@ -3300,7 +3269,7 @@
       <c r="AP4" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="AQ4" s="76"/>
+      <c r="AQ4" s="71"/>
       <c r="AR4" s="21"/>
       <c r="AS4" s="21" t="s">
         <v>96</v>
@@ -3348,8 +3317,8 @@
       <c r="BH4" s="21">
         <v>200</v>
       </c>
-      <c r="BI4" s="88"/>
-      <c r="BJ4" s="89">
+      <c r="BI4" s="83"/>
+      <c r="BJ4" s="84">
         <v>1</v>
       </c>
     </row>
@@ -3360,7 +3329,9 @@
       <c r="B5" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="26"/>
+      <c r="C5" s="30">
+        <v>2919</v>
+      </c>
       <c r="D5" s="27">
         <v>3</v>
       </c>
@@ -3424,7 +3395,7 @@
       <c r="AA5" s="21">
         <v>2.3</v>
       </c>
-      <c r="AB5" s="63">
+      <c r="AB5" s="58">
         <f t="shared" ref="AB5:AB32" si="1">100+AA5*60</f>
         <v>238</v>
       </c>
@@ -3443,7 +3414,7 @@
       <c r="AG5" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="AH5" s="63" t="s">
+      <c r="AH5" s="58" t="s">
         <v>120</v>
       </c>
       <c r="AI5" s="29"/>
@@ -3453,7 +3424,7 @@
       <c r="AM5" s="29">
         <v>225</v>
       </c>
-      <c r="AN5" s="71">
+      <c r="AN5" s="66">
         <v>180</v>
       </c>
       <c r="AO5" s="29" t="s">
@@ -3462,7 +3433,7 @@
       <c r="AP5" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="AQ5" s="77"/>
+      <c r="AQ5" s="72"/>
       <c r="AR5" s="29"/>
       <c r="AS5" s="29" t="s">
         <v>96</v>
@@ -3510,8 +3481,8 @@
       <c r="BH5" s="21">
         <v>200</v>
       </c>
-      <c r="BI5" s="90"/>
-      <c r="BJ5" s="89">
+      <c r="BI5" s="85"/>
+      <c r="BJ5" s="84">
         <v>1</v>
       </c>
     </row>
@@ -3522,7 +3493,9 @@
       <c r="B6" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="C6" s="26"/>
+      <c r="C6" s="26">
+        <v>2920</v>
+      </c>
       <c r="D6" s="27">
         <v>2</v>
       </c>
@@ -3586,7 +3559,7 @@
       <c r="AA6" s="21">
         <v>2.3</v>
       </c>
-      <c r="AB6" s="62">
+      <c r="AB6" s="57">
         <f t="shared" si="1"/>
         <v>238</v>
       </c>
@@ -3605,7 +3578,7 @@
       <c r="AG6" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="AH6" s="62" t="s">
+      <c r="AH6" s="57" t="s">
         <v>129</v>
       </c>
       <c r="AI6" s="21"/>
@@ -3615,7 +3588,7 @@
       <c r="AM6" s="21">
         <v>225</v>
       </c>
-      <c r="AN6" s="70">
+      <c r="AN6" s="65">
         <v>180</v>
       </c>
       <c r="AO6" s="21" t="s">
@@ -3624,7 +3597,7 @@
       <c r="AP6" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="AQ6" s="76"/>
+      <c r="AQ6" s="71"/>
       <c r="AR6" s="21"/>
       <c r="AS6" s="21" t="s">
         <v>96</v>
@@ -3672,8 +3645,8 @@
       <c r="BH6" s="21">
         <v>200</v>
       </c>
-      <c r="BI6" s="88"/>
-      <c r="BJ6" s="89">
+      <c r="BI6" s="83"/>
+      <c r="BJ6" s="84">
         <v>1</v>
       </c>
     </row>
@@ -3684,7 +3657,9 @@
       <c r="B7" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="C7" s="26"/>
+      <c r="C7" s="30">
+        <v>2921</v>
+      </c>
       <c r="D7" s="27">
         <v>1</v>
       </c>
@@ -3748,7 +3723,7 @@
       <c r="AA7" s="21">
         <v>2.3</v>
       </c>
-      <c r="AB7" s="63">
+      <c r="AB7" s="58">
         <f t="shared" si="1"/>
         <v>238</v>
       </c>
@@ -3767,7 +3742,7 @@
       <c r="AG7" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="AH7" s="63" t="s">
+      <c r="AH7" s="58" t="s">
         <v>138</v>
       </c>
       <c r="AI7" s="29"/>
@@ -3777,7 +3752,7 @@
       <c r="AM7" s="29">
         <v>225</v>
       </c>
-      <c r="AN7" s="71">
+      <c r="AN7" s="66">
         <v>180</v>
       </c>
       <c r="AO7" s="29" t="s">
@@ -3786,7 +3761,7 @@
       <c r="AP7" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="AQ7" s="77"/>
+      <c r="AQ7" s="72"/>
       <c r="AR7" s="29"/>
       <c r="AS7" s="29" t="s">
         <v>96</v>
@@ -3834,8 +3809,8 @@
       <c r="BH7" s="21">
         <v>200</v>
       </c>
-      <c r="BI7" s="90"/>
-      <c r="BJ7" s="89">
+      <c r="BI7" s="85"/>
+      <c r="BJ7" s="84">
         <v>1</v>
       </c>
     </row>
@@ -3846,7 +3821,9 @@
       <c r="B8" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="C8" s="26"/>
+      <c r="C8" s="30">
+        <v>3205</v>
+      </c>
       <c r="D8" s="27"/>
       <c r="E8" s="24" t="str">
         <f>IF(ISBLANK(D8),"",VLOOKUP(D8,[1]__Sheet1!$A:$C,2,FALSE))</f>
@@ -3904,7 +3881,7 @@
       <c r="AA8" s="21">
         <v>2.2</v>
       </c>
-      <c r="AB8" s="62">
+      <c r="AB8" s="57">
         <f t="shared" si="1"/>
         <v>232</v>
       </c>
@@ -3923,7 +3900,7 @@
       <c r="AG8" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="AH8" s="62" t="s">
+      <c r="AH8" s="57" t="s">
         <v>146</v>
       </c>
       <c r="AI8" s="21" t="s">
@@ -3941,7 +3918,7 @@
       <c r="AM8" s="21">
         <v>225</v>
       </c>
-      <c r="AN8" s="70">
+      <c r="AN8" s="65">
         <v>180</v>
       </c>
       <c r="AO8" s="21" t="s">
@@ -3950,7 +3927,7 @@
       <c r="AP8" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="AQ8" s="76"/>
+      <c r="AQ8" s="71"/>
       <c r="AR8" s="21"/>
       <c r="AS8" s="21" t="s">
         <v>96</v>
@@ -3998,19 +3975,21 @@
       <c r="BH8" s="21">
         <v>200</v>
       </c>
-      <c r="BI8" s="88"/>
-      <c r="BJ8" s="89">
+      <c r="BI8" s="83"/>
+      <c r="BJ8" s="84">
         <v>1</v>
       </c>
     </row>
     <row r="9" s="4" customFormat="1" ht="33.75" spans="1:64">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="31" t="s">
         <v>150</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="32" t="s">
         <v>151</v>
       </c>
-      <c r="C9" s="32"/>
+      <c r="C9" s="26">
+        <v>2922</v>
+      </c>
       <c r="D9" s="33">
         <v>1</v>
       </c>
@@ -4026,108 +4005,108 @@
         <f>35000</f>
         <v>35000</v>
       </c>
-      <c r="H9" s="31">
-        <v>0</v>
-      </c>
-      <c r="I9" s="31">
+      <c r="H9" s="32">
+        <v>0</v>
+      </c>
+      <c r="I9" s="32">
         <v>100</v>
       </c>
-      <c r="J9" s="31">
+      <c r="J9" s="32">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="K9" s="31">
-        <v>1</v>
-      </c>
-      <c r="L9" s="31">
+      <c r="K9" s="32">
+        <v>1</v>
+      </c>
+      <c r="L9" s="32">
         <v>25</v>
       </c>
-      <c r="M9" s="31" t="s">
+      <c r="M9" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="N9" s="31" t="s">
+      <c r="N9" s="32" t="s">
         <v>152</v>
       </c>
-      <c r="O9" s="31"/>
-      <c r="P9" s="31"/>
-      <c r="Q9" s="31"/>
-      <c r="R9" s="31"/>
-      <c r="S9" s="31"/>
-      <c r="T9" s="31"/>
-      <c r="U9" s="31"/>
-      <c r="V9" s="31"/>
-      <c r="W9" s="31"/>
-      <c r="X9" s="31"/>
-      <c r="Y9" s="31"/>
-      <c r="Z9" s="31"/>
-      <c r="AA9" s="31">
+      <c r="O9" s="32"/>
+      <c r="P9" s="32"/>
+      <c r="Q9" s="32"/>
+      <c r="R9" s="32"/>
+      <c r="S9" s="32"/>
+      <c r="T9" s="32"/>
+      <c r="U9" s="32"/>
+      <c r="V9" s="32"/>
+      <c r="W9" s="32"/>
+      <c r="X9" s="32"/>
+      <c r="Y9" s="32"/>
+      <c r="Z9" s="32"/>
+      <c r="AA9" s="32">
         <v>2</v>
       </c>
-      <c r="AB9" s="64">
+      <c r="AB9" s="59">
         <f t="shared" si="1"/>
         <v>220</v>
       </c>
-      <c r="AC9" s="31" t="s">
+      <c r="AC9" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="AD9" s="31"/>
-      <c r="AE9" s="31"/>
-      <c r="AF9" s="31"/>
-      <c r="AG9" s="31"/>
-      <c r="AH9" s="64"/>
-      <c r="AI9" s="31"/>
-      <c r="AJ9" s="31"/>
-      <c r="AK9" s="31"/>
-      <c r="AL9" s="31"/>
-      <c r="AM9" s="31">
+      <c r="AD9" s="32"/>
+      <c r="AE9" s="32"/>
+      <c r="AF9" s="32"/>
+      <c r="AG9" s="32"/>
+      <c r="AH9" s="59"/>
+      <c r="AI9" s="32"/>
+      <c r="AJ9" s="32"/>
+      <c r="AK9" s="32"/>
+      <c r="AL9" s="32"/>
+      <c r="AM9" s="32">
         <v>225</v>
       </c>
-      <c r="AN9" s="72">
+      <c r="AN9" s="67">
         <v>180</v>
       </c>
-      <c r="AO9" s="31" t="s">
+      <c r="AO9" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="AP9" s="31" t="s">
+      <c r="AP9" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="AQ9" s="78"/>
-      <c r="AR9" s="31"/>
-      <c r="AS9" s="31" t="s">
+      <c r="AQ9" s="73"/>
+      <c r="AR9" s="32"/>
+      <c r="AS9" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="AT9" s="31">
-        <v>1</v>
-      </c>
-      <c r="AU9" s="31">
-        <v>1</v>
-      </c>
-      <c r="AV9" s="31" t="s">
+      <c r="AT9" s="32">
+        <v>1</v>
+      </c>
+      <c r="AU9" s="32">
+        <v>1</v>
+      </c>
+      <c r="AV9" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="AW9" s="31">
-        <v>0</v>
-      </c>
-      <c r="AX9" s="31">
-        <v>0</v>
-      </c>
-      <c r="AY9" s="31">
-        <v>0</v>
-      </c>
-      <c r="AZ9" s="31">
+      <c r="AW9" s="32">
+        <v>0</v>
+      </c>
+      <c r="AX9" s="32">
+        <v>0</v>
+      </c>
+      <c r="AY9" s="32">
+        <v>0</v>
+      </c>
+      <c r="AZ9" s="32">
         <v>20000</v>
       </c>
       <c r="BA9" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="BB9" s="31">
+      <c r="BB9" s="32">
         <v>8192</v>
       </c>
-      <c r="BC9" s="31">
+      <c r="BC9" s="32">
         <v>8192</v>
       </c>
-      <c r="BD9" s="31"/>
-      <c r="BE9" s="31">
+      <c r="BD9" s="32"/>
+      <c r="BE9" s="32">
         <v>0</v>
       </c>
       <c r="BF9" s="21">
@@ -4139,25 +4118,27 @@
       <c r="BH9" s="21">
         <v>200</v>
       </c>
-      <c r="BI9" s="91"/>
-      <c r="BJ9" s="89">
-        <v>1</v>
-      </c>
-      <c r="BK9" s="92" t="s">
+      <c r="BI9" s="86"/>
+      <c r="BJ9" s="84">
+        <v>1</v>
+      </c>
+      <c r="BK9" s="87" t="s">
         <v>153</v>
       </c>
-      <c r="BL9" s="92" t="s">
+      <c r="BL9" s="87" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="10" s="4" customFormat="1" ht="33.75" spans="1:64">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="32" t="s">
         <v>156</v>
       </c>
-      <c r="C10" s="32"/>
+      <c r="C10" s="26">
+        <v>2902</v>
+      </c>
       <c r="D10" s="33">
         <v>1</v>
       </c>
@@ -4173,108 +4154,108 @@
         <f>35000</f>
         <v>35000</v>
       </c>
-      <c r="H10" s="31">
-        <v>0</v>
-      </c>
-      <c r="I10" s="31">
+      <c r="H10" s="32">
+        <v>0</v>
+      </c>
+      <c r="I10" s="32">
         <v>100</v>
       </c>
-      <c r="J10" s="31">
+      <c r="J10" s="32">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="K10" s="31">
-        <v>1</v>
-      </c>
-      <c r="L10" s="31">
+      <c r="K10" s="32">
+        <v>1</v>
+      </c>
+      <c r="L10" s="32">
         <v>25</v>
       </c>
-      <c r="M10" s="31" t="s">
+      <c r="M10" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="N10" s="31" t="s">
+      <c r="N10" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="O10" s="31"/>
-      <c r="P10" s="31"/>
-      <c r="Q10" s="31"/>
-      <c r="R10" s="31"/>
-      <c r="S10" s="31"/>
-      <c r="T10" s="31"/>
-      <c r="U10" s="31"/>
-      <c r="V10" s="31"/>
-      <c r="W10" s="31"/>
-      <c r="X10" s="31"/>
-      <c r="Y10" s="31"/>
-      <c r="Z10" s="31"/>
-      <c r="AA10" s="31">
+      <c r="O10" s="32"/>
+      <c r="P10" s="32"/>
+      <c r="Q10" s="32"/>
+      <c r="R10" s="32"/>
+      <c r="S10" s="32"/>
+      <c r="T10" s="32"/>
+      <c r="U10" s="32"/>
+      <c r="V10" s="32"/>
+      <c r="W10" s="32"/>
+      <c r="X10" s="32"/>
+      <c r="Y10" s="32"/>
+      <c r="Z10" s="32"/>
+      <c r="AA10" s="32">
         <v>2.1</v>
       </c>
-      <c r="AB10" s="64">
+      <c r="AB10" s="59">
         <f t="shared" si="1"/>
         <v>226</v>
       </c>
-      <c r="AC10" s="31" t="s">
+      <c r="AC10" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="AD10" s="31"/>
-      <c r="AE10" s="31"/>
-      <c r="AF10" s="31"/>
-      <c r="AG10" s="31"/>
-      <c r="AH10" s="64"/>
-      <c r="AI10" s="31"/>
-      <c r="AJ10" s="31"/>
-      <c r="AK10" s="31"/>
-      <c r="AL10" s="31"/>
-      <c r="AM10" s="31">
+      <c r="AD10" s="32"/>
+      <c r="AE10" s="32"/>
+      <c r="AF10" s="32"/>
+      <c r="AG10" s="32"/>
+      <c r="AH10" s="59"/>
+      <c r="AI10" s="32"/>
+      <c r="AJ10" s="32"/>
+      <c r="AK10" s="32"/>
+      <c r="AL10" s="32"/>
+      <c r="AM10" s="32">
         <v>225</v>
       </c>
-      <c r="AN10" s="72">
+      <c r="AN10" s="67">
         <v>180</v>
       </c>
-      <c r="AO10" s="31" t="s">
+      <c r="AO10" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="AP10" s="31" t="s">
+      <c r="AP10" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="AQ10" s="78"/>
-      <c r="AR10" s="31"/>
-      <c r="AS10" s="31" t="s">
+      <c r="AQ10" s="73"/>
+      <c r="AR10" s="32"/>
+      <c r="AS10" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="AT10" s="31">
-        <v>1</v>
-      </c>
-      <c r="AU10" s="31">
-        <v>1</v>
-      </c>
-      <c r="AV10" s="31" t="s">
+      <c r="AT10" s="32">
+        <v>1</v>
+      </c>
+      <c r="AU10" s="32">
+        <v>1</v>
+      </c>
+      <c r="AV10" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="AW10" s="31">
-        <v>0</v>
-      </c>
-      <c r="AX10" s="31">
-        <v>0</v>
-      </c>
-      <c r="AY10" s="31">
-        <v>0</v>
-      </c>
-      <c r="AZ10" s="31">
+      <c r="AW10" s="32">
+        <v>0</v>
+      </c>
+      <c r="AX10" s="32">
+        <v>0</v>
+      </c>
+      <c r="AY10" s="32">
+        <v>0</v>
+      </c>
+      <c r="AZ10" s="32">
         <v>20000</v>
       </c>
       <c r="BA10" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="BB10" s="31">
+      <c r="BB10" s="32">
         <v>8192</v>
       </c>
-      <c r="BC10" s="31">
+      <c r="BC10" s="32">
         <v>8192</v>
       </c>
-      <c r="BD10" s="31"/>
-      <c r="BE10" s="31">
+      <c r="BD10" s="32"/>
+      <c r="BE10" s="32">
         <v>0</v>
       </c>
       <c r="BF10" s="21">
@@ -4286,25 +4267,27 @@
       <c r="BH10" s="21">
         <v>200</v>
       </c>
-      <c r="BI10" s="91"/>
-      <c r="BJ10" s="89">
-        <v>1</v>
-      </c>
-      <c r="BK10" s="92" t="s">
+      <c r="BI10" s="86"/>
+      <c r="BJ10" s="84">
+        <v>1</v>
+      </c>
+      <c r="BK10" s="87" t="s">
         <v>158</v>
       </c>
-      <c r="BL10" s="92" t="s">
+      <c r="BL10" s="87" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="11" s="4" customFormat="1" ht="33.75" spans="1:64">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="31" t="s">
         <v>159</v>
       </c>
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="32" t="s">
         <v>160</v>
       </c>
-      <c r="C11" s="32"/>
+      <c r="C11" s="30">
+        <v>2903</v>
+      </c>
       <c r="D11" s="33">
         <v>1</v>
       </c>
@@ -4320,108 +4303,108 @@
         <f>35000</f>
         <v>35000</v>
       </c>
-      <c r="H11" s="31">
-        <v>0</v>
-      </c>
-      <c r="I11" s="31">
+      <c r="H11" s="32">
+        <v>0</v>
+      </c>
+      <c r="I11" s="32">
         <v>100</v>
       </c>
-      <c r="J11" s="31">
+      <c r="J11" s="32">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="K11" s="31">
-        <v>1</v>
-      </c>
-      <c r="L11" s="31">
+      <c r="K11" s="32">
+        <v>1</v>
+      </c>
+      <c r="L11" s="32">
         <v>25</v>
       </c>
-      <c r="M11" s="31" t="s">
+      <c r="M11" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="N11" s="31" t="s">
+      <c r="N11" s="32" t="s">
         <v>161</v>
       </c>
-      <c r="O11" s="31"/>
-      <c r="P11" s="31"/>
-      <c r="Q11" s="31"/>
-      <c r="R11" s="31"/>
-      <c r="S11" s="31"/>
-      <c r="T11" s="31"/>
-      <c r="U11" s="31"/>
-      <c r="V11" s="31"/>
-      <c r="W11" s="31"/>
-      <c r="X11" s="31"/>
-      <c r="Y11" s="31"/>
-      <c r="Z11" s="31"/>
-      <c r="AA11" s="31">
+      <c r="O11" s="32"/>
+      <c r="P11" s="32"/>
+      <c r="Q11" s="32"/>
+      <c r="R11" s="32"/>
+      <c r="S11" s="32"/>
+      <c r="T11" s="32"/>
+      <c r="U11" s="32"/>
+      <c r="V11" s="32"/>
+      <c r="W11" s="32"/>
+      <c r="X11" s="32"/>
+      <c r="Y11" s="32"/>
+      <c r="Z11" s="32"/>
+      <c r="AA11" s="32">
         <v>2.1</v>
       </c>
-      <c r="AB11" s="64">
+      <c r="AB11" s="59">
         <f t="shared" si="1"/>
         <v>226</v>
       </c>
-      <c r="AC11" s="31" t="s">
+      <c r="AC11" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="AD11" s="31"/>
-      <c r="AE11" s="31"/>
-      <c r="AF11" s="31"/>
-      <c r="AG11" s="31"/>
-      <c r="AH11" s="64"/>
-      <c r="AI11" s="31"/>
-      <c r="AJ11" s="31"/>
-      <c r="AK11" s="31"/>
-      <c r="AL11" s="31"/>
-      <c r="AM11" s="31">
+      <c r="AD11" s="32"/>
+      <c r="AE11" s="32"/>
+      <c r="AF11" s="32"/>
+      <c r="AG11" s="32"/>
+      <c r="AH11" s="59"/>
+      <c r="AI11" s="32"/>
+      <c r="AJ11" s="32"/>
+      <c r="AK11" s="32"/>
+      <c r="AL11" s="32"/>
+      <c r="AM11" s="32">
         <v>225</v>
       </c>
-      <c r="AN11" s="72">
+      <c r="AN11" s="67">
         <v>180</v>
       </c>
-      <c r="AO11" s="31" t="s">
+      <c r="AO11" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="AP11" s="31" t="s">
+      <c r="AP11" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="AQ11" s="78"/>
-      <c r="AR11" s="31"/>
-      <c r="AS11" s="31" t="s">
+      <c r="AQ11" s="73"/>
+      <c r="AR11" s="32"/>
+      <c r="AS11" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="AT11" s="31">
-        <v>1</v>
-      </c>
-      <c r="AU11" s="31">
-        <v>1</v>
-      </c>
-      <c r="AV11" s="31" t="s">
+      <c r="AT11" s="32">
+        <v>1</v>
+      </c>
+      <c r="AU11" s="32">
+        <v>1</v>
+      </c>
+      <c r="AV11" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="AW11" s="31">
-        <v>0</v>
-      </c>
-      <c r="AX11" s="31">
-        <v>0</v>
-      </c>
-      <c r="AY11" s="31">
-        <v>0</v>
-      </c>
-      <c r="AZ11" s="31">
+      <c r="AW11" s="32">
+        <v>0</v>
+      </c>
+      <c r="AX11" s="32">
+        <v>0</v>
+      </c>
+      <c r="AY11" s="32">
+        <v>0</v>
+      </c>
+      <c r="AZ11" s="32">
         <v>20000</v>
       </c>
       <c r="BA11" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="BB11" s="31">
+      <c r="BB11" s="32">
         <v>8192</v>
       </c>
-      <c r="BC11" s="31">
+      <c r="BC11" s="32">
         <v>8192</v>
       </c>
-      <c r="BD11" s="31"/>
-      <c r="BE11" s="31">
+      <c r="BD11" s="32"/>
+      <c r="BE11" s="32">
         <v>0</v>
       </c>
       <c r="BF11" s="21">
@@ -4433,25 +4416,27 @@
       <c r="BH11" s="21">
         <v>200</v>
       </c>
-      <c r="BI11" s="91"/>
-      <c r="BJ11" s="89">
-        <v>1</v>
-      </c>
-      <c r="BK11" s="92" t="s">
+      <c r="BI11" s="86"/>
+      <c r="BJ11" s="84">
+        <v>1</v>
+      </c>
+      <c r="BK11" s="87" t="s">
         <v>158</v>
       </c>
-      <c r="BL11" s="92" t="s">
+      <c r="BL11" s="87" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="12" s="4" customFormat="1" ht="33.75" spans="1:64">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="31" t="s">
         <v>162</v>
       </c>
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="32" t="s">
         <v>163</v>
       </c>
-      <c r="C12" s="32"/>
+      <c r="C12" s="26">
+        <v>2904</v>
+      </c>
       <c r="D12" s="33">
         <v>1</v>
       </c>
@@ -4467,108 +4452,108 @@
         <f>35000</f>
         <v>35000</v>
       </c>
-      <c r="H12" s="31">
-        <v>0</v>
-      </c>
-      <c r="I12" s="31">
+      <c r="H12" s="32">
+        <v>0</v>
+      </c>
+      <c r="I12" s="32">
         <v>100</v>
       </c>
-      <c r="J12" s="31">
+      <c r="J12" s="32">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="K12" s="31">
-        <v>1</v>
-      </c>
-      <c r="L12" s="31">
+      <c r="K12" s="32">
+        <v>1</v>
+      </c>
+      <c r="L12" s="32">
         <v>25</v>
       </c>
-      <c r="M12" s="31" t="s">
+      <c r="M12" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="N12" s="31" t="s">
+      <c r="N12" s="32" t="s">
         <v>164</v>
       </c>
-      <c r="O12" s="31"/>
-      <c r="P12" s="31"/>
-      <c r="Q12" s="31"/>
-      <c r="R12" s="31"/>
-      <c r="S12" s="31"/>
-      <c r="T12" s="31"/>
-      <c r="U12" s="31"/>
-      <c r="V12" s="31"/>
-      <c r="W12" s="31"/>
-      <c r="X12" s="31"/>
-      <c r="Y12" s="31"/>
-      <c r="Z12" s="31"/>
-      <c r="AA12" s="31">
+      <c r="O12" s="32"/>
+      <c r="P12" s="32"/>
+      <c r="Q12" s="32"/>
+      <c r="R12" s="32"/>
+      <c r="S12" s="32"/>
+      <c r="T12" s="32"/>
+      <c r="U12" s="32"/>
+      <c r="V12" s="32"/>
+      <c r="W12" s="32"/>
+      <c r="X12" s="32"/>
+      <c r="Y12" s="32"/>
+      <c r="Z12" s="32"/>
+      <c r="AA12" s="32">
         <v>1.5</v>
       </c>
-      <c r="AB12" s="64">
+      <c r="AB12" s="59">
         <f t="shared" si="1"/>
         <v>190</v>
       </c>
-      <c r="AC12" s="31" t="s">
+      <c r="AC12" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="AD12" s="31"/>
-      <c r="AE12" s="31"/>
-      <c r="AF12" s="31"/>
-      <c r="AG12" s="31"/>
-      <c r="AH12" s="64"/>
-      <c r="AI12" s="31"/>
-      <c r="AJ12" s="31"/>
-      <c r="AK12" s="31"/>
-      <c r="AL12" s="31"/>
-      <c r="AM12" s="31">
+      <c r="AD12" s="32"/>
+      <c r="AE12" s="32"/>
+      <c r="AF12" s="32"/>
+      <c r="AG12" s="32"/>
+      <c r="AH12" s="59"/>
+      <c r="AI12" s="32"/>
+      <c r="AJ12" s="32"/>
+      <c r="AK12" s="32"/>
+      <c r="AL12" s="32"/>
+      <c r="AM12" s="32">
         <v>225</v>
       </c>
-      <c r="AN12" s="72">
+      <c r="AN12" s="67">
         <v>180</v>
       </c>
-      <c r="AO12" s="31" t="s">
+      <c r="AO12" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="AP12" s="31" t="s">
+      <c r="AP12" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="AQ12" s="78"/>
-      <c r="AR12" s="31"/>
-      <c r="AS12" s="31" t="s">
+      <c r="AQ12" s="73"/>
+      <c r="AR12" s="32"/>
+      <c r="AS12" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="AT12" s="31">
-        <v>1</v>
-      </c>
-      <c r="AU12" s="31">
-        <v>1</v>
-      </c>
-      <c r="AV12" s="31" t="s">
+      <c r="AT12" s="32">
+        <v>1</v>
+      </c>
+      <c r="AU12" s="32">
+        <v>1</v>
+      </c>
+      <c r="AV12" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="AW12" s="31">
-        <v>0</v>
-      </c>
-      <c r="AX12" s="31">
-        <v>0</v>
-      </c>
-      <c r="AY12" s="31">
-        <v>0</v>
-      </c>
-      <c r="AZ12" s="31">
+      <c r="AW12" s="32">
+        <v>0</v>
+      </c>
+      <c r="AX12" s="32">
+        <v>0</v>
+      </c>
+      <c r="AY12" s="32">
+        <v>0</v>
+      </c>
+      <c r="AZ12" s="32">
         <v>20000</v>
       </c>
       <c r="BA12" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="BB12" s="31">
+      <c r="BB12" s="32">
         <v>8192</v>
       </c>
-      <c r="BC12" s="31">
+      <c r="BC12" s="32">
         <v>8192</v>
       </c>
-      <c r="BD12" s="31"/>
-      <c r="BE12" s="31">
+      <c r="BD12" s="32"/>
+      <c r="BE12" s="32">
         <v>0</v>
       </c>
       <c r="BF12" s="21">
@@ -4580,25 +4565,27 @@
       <c r="BH12" s="21">
         <v>200</v>
       </c>
-      <c r="BI12" s="91"/>
-      <c r="BJ12" s="89">
-        <v>1</v>
-      </c>
-      <c r="BK12" s="92" t="s">
+      <c r="BI12" s="86"/>
+      <c r="BJ12" s="84">
+        <v>1</v>
+      </c>
+      <c r="BK12" s="87" t="s">
         <v>165</v>
       </c>
-      <c r="BL12" s="92" t="s">
+      <c r="BL12" s="87" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="13" s="4" customFormat="1" ht="33.75" spans="1:64">
-      <c r="A13" s="30" t="s">
+      <c r="A13" s="31" t="s">
         <v>167</v>
       </c>
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="32" t="s">
         <v>168</v>
       </c>
-      <c r="C13" s="32"/>
+      <c r="C13" s="30">
+        <v>2905</v>
+      </c>
       <c r="D13" s="33">
         <v>1</v>
       </c>
@@ -4614,108 +4601,108 @@
         <f>35000</f>
         <v>35000</v>
       </c>
-      <c r="H13" s="31">
-        <v>0</v>
-      </c>
-      <c r="I13" s="31">
+      <c r="H13" s="32">
+        <v>0</v>
+      </c>
+      <c r="I13" s="32">
         <v>100</v>
       </c>
-      <c r="J13" s="31">
+      <c r="J13" s="32">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="K13" s="31">
-        <v>1</v>
-      </c>
-      <c r="L13" s="31">
+      <c r="K13" s="32">
+        <v>1</v>
+      </c>
+      <c r="L13" s="32">
         <v>25</v>
       </c>
-      <c r="M13" s="31" t="s">
+      <c r="M13" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="N13" s="31" t="s">
+      <c r="N13" s="32" t="s">
         <v>169</v>
       </c>
-      <c r="O13" s="31"/>
-      <c r="P13" s="31"/>
-      <c r="Q13" s="31"/>
-      <c r="R13" s="31"/>
-      <c r="S13" s="31"/>
-      <c r="T13" s="31"/>
-      <c r="U13" s="31"/>
-      <c r="V13" s="31"/>
-      <c r="W13" s="31"/>
-      <c r="X13" s="31"/>
-      <c r="Y13" s="31"/>
-      <c r="Z13" s="31"/>
-      <c r="AA13" s="31">
+      <c r="O13" s="32"/>
+      <c r="P13" s="32"/>
+      <c r="Q13" s="32"/>
+      <c r="R13" s="32"/>
+      <c r="S13" s="32"/>
+      <c r="T13" s="32"/>
+      <c r="U13" s="32"/>
+      <c r="V13" s="32"/>
+      <c r="W13" s="32"/>
+      <c r="X13" s="32"/>
+      <c r="Y13" s="32"/>
+      <c r="Z13" s="32"/>
+      <c r="AA13" s="32">
         <v>1.2</v>
       </c>
-      <c r="AB13" s="64">
+      <c r="AB13" s="59">
         <f t="shared" si="1"/>
         <v>172</v>
       </c>
-      <c r="AC13" s="31" t="s">
+      <c r="AC13" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="AD13" s="31"/>
-      <c r="AE13" s="31"/>
-      <c r="AF13" s="31"/>
-      <c r="AG13" s="31"/>
-      <c r="AH13" s="64"/>
-      <c r="AI13" s="31"/>
-      <c r="AJ13" s="31"/>
-      <c r="AK13" s="31"/>
-      <c r="AL13" s="31"/>
-      <c r="AM13" s="31">
+      <c r="AD13" s="32"/>
+      <c r="AE13" s="32"/>
+      <c r="AF13" s="32"/>
+      <c r="AG13" s="32"/>
+      <c r="AH13" s="59"/>
+      <c r="AI13" s="32"/>
+      <c r="AJ13" s="32"/>
+      <c r="AK13" s="32"/>
+      <c r="AL13" s="32"/>
+      <c r="AM13" s="32">
         <v>225</v>
       </c>
-      <c r="AN13" s="72">
+      <c r="AN13" s="67">
         <v>180</v>
       </c>
-      <c r="AO13" s="31" t="s">
+      <c r="AO13" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="AP13" s="31" t="s">
+      <c r="AP13" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="AQ13" s="78"/>
-      <c r="AR13" s="31"/>
-      <c r="AS13" s="31" t="s">
+      <c r="AQ13" s="73"/>
+      <c r="AR13" s="32"/>
+      <c r="AS13" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="AT13" s="31">
-        <v>1</v>
-      </c>
-      <c r="AU13" s="31">
-        <v>1</v>
-      </c>
-      <c r="AV13" s="31" t="s">
+      <c r="AT13" s="32">
+        <v>1</v>
+      </c>
+      <c r="AU13" s="32">
+        <v>1</v>
+      </c>
+      <c r="AV13" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="AW13" s="31">
-        <v>0</v>
-      </c>
-      <c r="AX13" s="31">
-        <v>0</v>
-      </c>
-      <c r="AY13" s="31">
-        <v>0</v>
-      </c>
-      <c r="AZ13" s="31">
+      <c r="AW13" s="32">
+        <v>0</v>
+      </c>
+      <c r="AX13" s="32">
+        <v>0</v>
+      </c>
+      <c r="AY13" s="32">
+        <v>0</v>
+      </c>
+      <c r="AZ13" s="32">
         <v>20000</v>
       </c>
       <c r="BA13" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="BB13" s="31">
+      <c r="BB13" s="32">
         <v>8192</v>
       </c>
-      <c r="BC13" s="31">
+      <c r="BC13" s="32">
         <v>8192</v>
       </c>
-      <c r="BD13" s="31"/>
-      <c r="BE13" s="31">
+      <c r="BD13" s="32"/>
+      <c r="BE13" s="32">
         <v>0</v>
       </c>
       <c r="BF13" s="21">
@@ -4727,25 +4714,27 @@
       <c r="BH13" s="21">
         <v>200</v>
       </c>
-      <c r="BI13" s="91"/>
-      <c r="BJ13" s="89">
-        <v>1</v>
-      </c>
-      <c r="BK13" s="92" t="s">
+      <c r="BI13" s="86"/>
+      <c r="BJ13" s="84">
+        <v>1</v>
+      </c>
+      <c r="BK13" s="87" t="s">
         <v>165</v>
       </c>
-      <c r="BL13" s="92" t="s">
+      <c r="BL13" s="87" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="14" s="4" customFormat="1" ht="33.75" spans="1:64">
-      <c r="A14" s="30" t="s">
+      <c r="A14" s="31" t="s">
         <v>171</v>
       </c>
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="32" t="s">
         <v>172</v>
       </c>
-      <c r="C14" s="32"/>
+      <c r="C14" s="30">
+        <v>3201</v>
+      </c>
       <c r="D14" s="33">
         <v>1</v>
       </c>
@@ -4761,108 +4750,108 @@
         <f>50000</f>
         <v>50000</v>
       </c>
-      <c r="H14" s="31">
-        <v>0</v>
-      </c>
-      <c r="I14" s="31">
+      <c r="H14" s="32">
+        <v>0</v>
+      </c>
+      <c r="I14" s="32">
         <v>200</v>
       </c>
-      <c r="J14" s="31">
+      <c r="J14" s="32">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="K14" s="31">
-        <v>1</v>
-      </c>
-      <c r="L14" s="31">
+      <c r="K14" s="32">
+        <v>1</v>
+      </c>
+      <c r="L14" s="32">
         <v>25</v>
       </c>
-      <c r="M14" s="31" t="s">
+      <c r="M14" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="N14" s="31" t="s">
+      <c r="N14" s="32" t="s">
         <v>173</v>
       </c>
-      <c r="O14" s="31"/>
-      <c r="P14" s="31"/>
-      <c r="Q14" s="31"/>
-      <c r="R14" s="31"/>
-      <c r="S14" s="31"/>
-      <c r="T14" s="31"/>
-      <c r="U14" s="31"/>
-      <c r="V14" s="31"/>
-      <c r="W14" s="31"/>
-      <c r="X14" s="31"/>
-      <c r="Y14" s="31"/>
-      <c r="Z14" s="31"/>
-      <c r="AA14" s="31">
+      <c r="O14" s="32"/>
+      <c r="P14" s="32"/>
+      <c r="Q14" s="32"/>
+      <c r="R14" s="32"/>
+      <c r="S14" s="32"/>
+      <c r="T14" s="32"/>
+      <c r="U14" s="32"/>
+      <c r="V14" s="32"/>
+      <c r="W14" s="32"/>
+      <c r="X14" s="32"/>
+      <c r="Y14" s="32"/>
+      <c r="Z14" s="32"/>
+      <c r="AA14" s="32">
         <v>1.5</v>
       </c>
-      <c r="AB14" s="64">
+      <c r="AB14" s="59">
         <f t="shared" si="1"/>
         <v>190</v>
       </c>
-      <c r="AC14" s="31" t="s">
+      <c r="AC14" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="AD14" s="31"/>
-      <c r="AE14" s="31"/>
-      <c r="AF14" s="31"/>
-      <c r="AG14" s="31"/>
-      <c r="AH14" s="64"/>
-      <c r="AI14" s="31"/>
-      <c r="AJ14" s="31"/>
-      <c r="AK14" s="31"/>
-      <c r="AL14" s="31"/>
-      <c r="AM14" s="31">
+      <c r="AD14" s="32"/>
+      <c r="AE14" s="32"/>
+      <c r="AF14" s="32"/>
+      <c r="AG14" s="32"/>
+      <c r="AH14" s="59"/>
+      <c r="AI14" s="32"/>
+      <c r="AJ14" s="32"/>
+      <c r="AK14" s="32"/>
+      <c r="AL14" s="32"/>
+      <c r="AM14" s="32">
         <v>225</v>
       </c>
-      <c r="AN14" s="72">
+      <c r="AN14" s="67">
         <v>180</v>
       </c>
-      <c r="AO14" s="31" t="s">
+      <c r="AO14" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="AP14" s="31" t="s">
+      <c r="AP14" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="AQ14" s="78"/>
-      <c r="AR14" s="31"/>
-      <c r="AS14" s="31" t="s">
+      <c r="AQ14" s="73"/>
+      <c r="AR14" s="32"/>
+      <c r="AS14" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="AT14" s="31">
-        <v>1</v>
-      </c>
-      <c r="AU14" s="31">
-        <v>1</v>
-      </c>
-      <c r="AV14" s="31" t="s">
+      <c r="AT14" s="32">
+        <v>1</v>
+      </c>
+      <c r="AU14" s="32">
+        <v>1</v>
+      </c>
+      <c r="AV14" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="AW14" s="31">
-        <v>0</v>
-      </c>
-      <c r="AX14" s="31">
-        <v>0</v>
-      </c>
-      <c r="AY14" s="31">
-        <v>0</v>
-      </c>
-      <c r="AZ14" s="31">
+      <c r="AW14" s="32">
+        <v>0</v>
+      </c>
+      <c r="AX14" s="32">
+        <v>0</v>
+      </c>
+      <c r="AY14" s="32">
+        <v>0</v>
+      </c>
+      <c r="AZ14" s="32">
         <v>20000</v>
       </c>
       <c r="BA14" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="BB14" s="31">
+      <c r="BB14" s="32">
         <v>8192</v>
       </c>
-      <c r="BC14" s="31">
+      <c r="BC14" s="32">
         <v>8192</v>
       </c>
-      <c r="BD14" s="31"/>
-      <c r="BE14" s="31">
+      <c r="BD14" s="32"/>
+      <c r="BE14" s="32">
         <v>0</v>
       </c>
       <c r="BF14" s="21">
@@ -4874,14 +4863,14 @@
       <c r="BH14" s="21">
         <v>200</v>
       </c>
-      <c r="BI14" s="91"/>
-      <c r="BJ14" s="89">
-        <v>1</v>
-      </c>
-      <c r="BK14" s="92" t="s">
+      <c r="BI14" s="86"/>
+      <c r="BJ14" s="84">
+        <v>1</v>
+      </c>
+      <c r="BK14" s="87" t="s">
         <v>165</v>
       </c>
-      <c r="BL14" s="92" t="s">
+      <c r="BL14" s="87" t="s">
         <v>174</v>
       </c>
     </row>
@@ -4892,8 +4881,10 @@
       <c r="B15" s="36" t="s">
         <v>176</v>
       </c>
-      <c r="C15" s="37"/>
-      <c r="D15" s="38">
+      <c r="C15" s="26">
+        <v>2530</v>
+      </c>
+      <c r="D15" s="37">
         <v>2</v>
       </c>
       <c r="E15" s="24" t="str">
@@ -4904,7 +4895,7 @@
         <f>IF(ISBLANK(D15),"",VLOOKUP(D15,[1]__Sheet1!$A:$C,3,FALSE))</f>
         <v>1|5|6</v>
       </c>
-      <c r="G15" s="39">
+      <c r="G15" s="38">
         <f t="shared" ref="G15:G20" si="2">10000</f>
         <v>10000</v>
       </c>
@@ -4945,7 +4936,7 @@
       <c r="AA15" s="36">
         <v>1.1</v>
       </c>
-      <c r="AB15" s="65">
+      <c r="AB15" s="60">
         <f t="shared" si="1"/>
         <v>166</v>
       </c>
@@ -4956,7 +4947,7 @@
       <c r="AE15" s="36"/>
       <c r="AF15" s="36"/>
       <c r="AG15" s="36"/>
-      <c r="AH15" s="65"/>
+      <c r="AH15" s="60"/>
       <c r="AI15" s="36"/>
       <c r="AJ15" s="36"/>
       <c r="AK15" s="36"/>
@@ -4964,7 +4955,7 @@
       <c r="AM15" s="36">
         <v>225</v>
       </c>
-      <c r="AN15" s="73">
+      <c r="AN15" s="68">
         <v>180</v>
       </c>
       <c r="AO15" s="36" t="s">
@@ -4973,7 +4964,7 @@
       <c r="AP15" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="AQ15" s="79"/>
+      <c r="AQ15" s="74"/>
       <c r="AR15" s="36"/>
       <c r="AS15" s="36" t="s">
         <v>96</v>
@@ -4999,7 +4990,7 @@
       <c r="AZ15" s="36">
         <v>20000</v>
       </c>
-      <c r="BA15" s="39" t="s">
+      <c r="BA15" s="38" t="s">
         <v>98</v>
       </c>
       <c r="BB15" s="36">
@@ -5021,14 +5012,14 @@
       <c r="BH15" s="21">
         <v>200</v>
       </c>
-      <c r="BI15" s="93"/>
-      <c r="BJ15" s="89">
-        <v>1</v>
-      </c>
-      <c r="BK15" s="94" t="s">
+      <c r="BI15" s="88"/>
+      <c r="BJ15" s="84">
+        <v>1</v>
+      </c>
+      <c r="BK15" s="89" t="s">
         <v>165</v>
       </c>
-      <c r="BL15" s="94" t="s">
+      <c r="BL15" s="89" t="s">
         <v>166</v>
       </c>
     </row>
@@ -5039,8 +5030,10 @@
       <c r="B16" s="36" t="s">
         <v>179</v>
       </c>
-      <c r="C16" s="40"/>
-      <c r="D16" s="38">
+      <c r="C16" s="30">
+        <v>2907</v>
+      </c>
+      <c r="D16" s="37">
         <v>2</v>
       </c>
       <c r="E16" s="24" t="str">
@@ -5051,7 +5044,7 @@
         <f>IF(ISBLANK(D16),"",VLOOKUP(D16,[1]__Sheet1!$A:$C,3,FALSE))</f>
         <v>1|5|6</v>
       </c>
-      <c r="G16" s="39">
+      <c r="G16" s="38">
         <f t="shared" si="2"/>
         <v>10000</v>
       </c>
@@ -5092,7 +5085,7 @@
       <c r="AA16" s="36">
         <v>2.4</v>
       </c>
-      <c r="AB16" s="65">
+      <c r="AB16" s="60">
         <f t="shared" si="1"/>
         <v>244</v>
       </c>
@@ -5103,7 +5096,7 @@
       <c r="AE16" s="36"/>
       <c r="AF16" s="36"/>
       <c r="AG16" s="36"/>
-      <c r="AH16" s="65"/>
+      <c r="AH16" s="60"/>
       <c r="AI16" s="36"/>
       <c r="AJ16" s="36"/>
       <c r="AK16" s="36"/>
@@ -5111,7 +5104,7 @@
       <c r="AM16" s="36">
         <v>225</v>
       </c>
-      <c r="AN16" s="73">
+      <c r="AN16" s="68">
         <v>180</v>
       </c>
       <c r="AO16" s="36" t="s">
@@ -5120,7 +5113,7 @@
       <c r="AP16" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="AQ16" s="79"/>
+      <c r="AQ16" s="74"/>
       <c r="AR16" s="36"/>
       <c r="AS16" s="36" t="s">
         <v>96</v>
@@ -5146,7 +5139,7 @@
       <c r="AZ16" s="36">
         <v>20000</v>
       </c>
-      <c r="BA16" s="39" t="s">
+      <c r="BA16" s="38" t="s">
         <v>98</v>
       </c>
       <c r="BB16" s="36">
@@ -5168,14 +5161,14 @@
       <c r="BH16" s="21">
         <v>200</v>
       </c>
-      <c r="BI16" s="93"/>
-      <c r="BJ16" s="89">
-        <v>1</v>
-      </c>
-      <c r="BK16" s="94" t="s">
+      <c r="BI16" s="88"/>
+      <c r="BJ16" s="84">
+        <v>1</v>
+      </c>
+      <c r="BK16" s="89" t="s">
         <v>181</v>
       </c>
-      <c r="BL16" s="94" t="s">
+      <c r="BL16" s="89" t="s">
         <v>182</v>
       </c>
     </row>
@@ -5186,8 +5179,10 @@
       <c r="B17" s="36" t="s">
         <v>184</v>
       </c>
-      <c r="C17" s="41"/>
-      <c r="D17" s="38">
+      <c r="C17" s="26">
+        <v>2908</v>
+      </c>
+      <c r="D17" s="37">
         <v>2</v>
       </c>
       <c r="E17" s="24" t="str">
@@ -5198,7 +5193,7 @@
         <f>IF(ISBLANK(D17),"",VLOOKUP(D17,[1]__Sheet1!$A:$C,3,FALSE))</f>
         <v>1|5|6</v>
       </c>
-      <c r="G17" s="39">
+      <c r="G17" s="38">
         <f t="shared" si="2"/>
         <v>10000</v>
       </c>
@@ -5239,7 +5234,7 @@
       <c r="AA17" s="36">
         <v>2.5</v>
       </c>
-      <c r="AB17" s="65">
+      <c r="AB17" s="60">
         <f t="shared" si="1"/>
         <v>250</v>
       </c>
@@ -5250,7 +5245,7 @@
       <c r="AE17" s="36"/>
       <c r="AF17" s="36"/>
       <c r="AG17" s="36"/>
-      <c r="AH17" s="65"/>
+      <c r="AH17" s="60"/>
       <c r="AI17" s="36"/>
       <c r="AJ17" s="36"/>
       <c r="AK17" s="36"/>
@@ -5258,7 +5253,7 @@
       <c r="AM17" s="36">
         <v>225</v>
       </c>
-      <c r="AN17" s="73">
+      <c r="AN17" s="68">
         <v>180</v>
       </c>
       <c r="AO17" s="36" t="s">
@@ -5267,7 +5262,7 @@
       <c r="AP17" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="AQ17" s="79"/>
+      <c r="AQ17" s="74"/>
       <c r="AR17" s="36"/>
       <c r="AS17" s="36" t="s">
         <v>96</v>
@@ -5293,7 +5288,7 @@
       <c r="AZ17" s="36">
         <v>20000</v>
       </c>
-      <c r="BA17" s="39" t="s">
+      <c r="BA17" s="38" t="s">
         <v>98</v>
       </c>
       <c r="BB17" s="36">
@@ -5315,20 +5310,20 @@
       <c r="BH17" s="21">
         <v>200</v>
       </c>
-      <c r="BI17" s="93"/>
-      <c r="BJ17" s="89">
-        <v>1</v>
-      </c>
-      <c r="BK17" s="94" t="s">
+      <c r="BI17" s="88"/>
+      <c r="BJ17" s="84">
+        <v>1</v>
+      </c>
+      <c r="BK17" s="89" t="s">
         <v>186</v>
       </c>
-      <c r="BL17" s="94" t="s">
+      <c r="BL17" s="89" t="s">
         <v>187</v>
       </c>
-      <c r="BM17" s="94" t="s">
+      <c r="BM17" s="89" t="s">
         <v>188</v>
       </c>
-      <c r="BN17" s="94" t="s">
+      <c r="BN17" s="89" t="s">
         <v>189</v>
       </c>
     </row>
@@ -5339,8 +5334,10 @@
       <c r="B18" s="36" t="s">
         <v>191</v>
       </c>
-      <c r="C18" s="37"/>
-      <c r="D18" s="38">
+      <c r="C18" s="30">
+        <v>2909</v>
+      </c>
+      <c r="D18" s="37">
         <v>2</v>
       </c>
       <c r="E18" s="24" t="str">
@@ -5351,7 +5348,7 @@
         <f>IF(ISBLANK(D18),"",VLOOKUP(D18,[1]__Sheet1!$A:$C,3,FALSE))</f>
         <v>1|5|6</v>
       </c>
-      <c r="G18" s="39">
+      <c r="G18" s="38">
         <f t="shared" si="2"/>
         <v>10000</v>
       </c>
@@ -5392,7 +5389,7 @@
       <c r="AA18" s="36">
         <v>0.5</v>
       </c>
-      <c r="AB18" s="65">
+      <c r="AB18" s="60">
         <f t="shared" si="1"/>
         <v>130</v>
       </c>
@@ -5403,7 +5400,7 @@
       <c r="AE18" s="36"/>
       <c r="AF18" s="36"/>
       <c r="AG18" s="36"/>
-      <c r="AH18" s="65"/>
+      <c r="AH18" s="60"/>
       <c r="AI18" s="36"/>
       <c r="AJ18" s="36"/>
       <c r="AK18" s="36"/>
@@ -5411,7 +5408,7 @@
       <c r="AM18" s="36">
         <v>225</v>
       </c>
-      <c r="AN18" s="73">
+      <c r="AN18" s="68">
         <v>180</v>
       </c>
       <c r="AO18" s="36" t="s">
@@ -5420,7 +5417,7 @@
       <c r="AP18" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="AQ18" s="79"/>
+      <c r="AQ18" s="74"/>
       <c r="AR18" s="36"/>
       <c r="AS18" s="36" t="s">
         <v>96</v>
@@ -5446,7 +5443,7 @@
       <c r="AZ18" s="36">
         <v>20000</v>
       </c>
-      <c r="BA18" s="39" t="s">
+      <c r="BA18" s="38" t="s">
         <v>98</v>
       </c>
       <c r="BB18" s="36">
@@ -5468,20 +5465,20 @@
       <c r="BH18" s="21">
         <v>200</v>
       </c>
-      <c r="BI18" s="93"/>
-      <c r="BJ18" s="89">
-        <v>1</v>
-      </c>
-      <c r="BK18" s="94" t="s">
+      <c r="BI18" s="88"/>
+      <c r="BJ18" s="84">
+        <v>1</v>
+      </c>
+      <c r="BK18" s="89" t="s">
         <v>174</v>
       </c>
-      <c r="BL18" s="94" t="s">
+      <c r="BL18" s="89" t="s">
         <v>165</v>
       </c>
-      <c r="BM18" s="94" t="s">
+      <c r="BM18" s="89" t="s">
         <v>83</v>
       </c>
-      <c r="BN18" s="94" t="s">
+      <c r="BN18" s="89" t="s">
         <v>83</v>
       </c>
     </row>
@@ -5492,8 +5489,10 @@
       <c r="B19" s="36" t="s">
         <v>194</v>
       </c>
-      <c r="C19" s="37"/>
-      <c r="D19" s="38">
+      <c r="C19" s="26">
+        <v>2910</v>
+      </c>
+      <c r="D19" s="37">
         <v>2</v>
       </c>
       <c r="E19" s="24" t="str">
@@ -5504,7 +5503,7 @@
         <f>IF(ISBLANK(D19),"",VLOOKUP(D19,[1]__Sheet1!$A:$C,3,FALSE))</f>
         <v>1|5|6</v>
       </c>
-      <c r="G19" s="39">
+      <c r="G19" s="38">
         <f t="shared" si="2"/>
         <v>10000</v>
       </c>
@@ -5545,7 +5544,7 @@
       <c r="AA19" s="36">
         <v>1.1</v>
       </c>
-      <c r="AB19" s="65">
+      <c r="AB19" s="60">
         <f t="shared" si="1"/>
         <v>166</v>
       </c>
@@ -5556,7 +5555,7 @@
       <c r="AE19" s="36"/>
       <c r="AF19" s="36"/>
       <c r="AG19" s="36"/>
-      <c r="AH19" s="65"/>
+      <c r="AH19" s="60"/>
       <c r="AI19" s="36"/>
       <c r="AJ19" s="36"/>
       <c r="AK19" s="36"/>
@@ -5564,7 +5563,7 @@
       <c r="AM19" s="36">
         <v>225</v>
       </c>
-      <c r="AN19" s="73">
+      <c r="AN19" s="68">
         <v>180</v>
       </c>
       <c r="AO19" s="36" t="s">
@@ -5573,7 +5572,7 @@
       <c r="AP19" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="AQ19" s="79"/>
+      <c r="AQ19" s="74"/>
       <c r="AR19" s="36"/>
       <c r="AS19" s="36" t="s">
         <v>96</v>
@@ -5599,7 +5598,7 @@
       <c r="AZ19" s="36">
         <v>20000</v>
       </c>
-      <c r="BA19" s="39" t="s">
+      <c r="BA19" s="38" t="s">
         <v>98</v>
       </c>
       <c r="BB19" s="36">
@@ -5621,20 +5620,20 @@
       <c r="BH19" s="21">
         <v>200</v>
       </c>
-      <c r="BI19" s="93"/>
-      <c r="BJ19" s="89">
-        <v>1</v>
-      </c>
-      <c r="BK19" s="94" t="s">
+      <c r="BI19" s="88"/>
+      <c r="BJ19" s="84">
+        <v>1</v>
+      </c>
+      <c r="BK19" s="89" t="s">
         <v>165</v>
       </c>
-      <c r="BL19" s="94" t="s">
+      <c r="BL19" s="89" t="s">
         <v>166</v>
       </c>
-      <c r="BM19" s="94" t="s">
+      <c r="BM19" s="89" t="s">
         <v>81</v>
       </c>
-      <c r="BN19" s="94" t="s">
+      <c r="BN19" s="89" t="s">
         <v>196</v>
       </c>
     </row>
@@ -5645,8 +5644,10 @@
       <c r="B20" s="36" t="s">
         <v>198</v>
       </c>
-      <c r="C20" s="41"/>
-      <c r="D20" s="38">
+      <c r="C20" s="26">
+        <v>3202</v>
+      </c>
+      <c r="D20" s="37">
         <v>2</v>
       </c>
       <c r="E20" s="24" t="str">
@@ -5657,7 +5658,7 @@
         <f>IF(ISBLANK(D20),"",VLOOKUP(D20,[1]__Sheet1!$A:$C,3,FALSE))</f>
         <v>1|5|6</v>
       </c>
-      <c r="G20" s="39">
+      <c r="G20" s="38">
         <f t="shared" si="2"/>
         <v>10000</v>
       </c>
@@ -5698,7 +5699,7 @@
       <c r="AA20" s="36">
         <v>1.1</v>
       </c>
-      <c r="AB20" s="65">
+      <c r="AB20" s="60">
         <f t="shared" si="1"/>
         <v>166</v>
       </c>
@@ -5709,7 +5710,7 @@
       <c r="AE20" s="36"/>
       <c r="AF20" s="36"/>
       <c r="AG20" s="36"/>
-      <c r="AH20" s="65"/>
+      <c r="AH20" s="60"/>
       <c r="AI20" s="36"/>
       <c r="AJ20" s="36"/>
       <c r="AK20" s="36"/>
@@ -5717,7 +5718,7 @@
       <c r="AM20" s="36">
         <v>225</v>
       </c>
-      <c r="AN20" s="73">
+      <c r="AN20" s="68">
         <v>180</v>
       </c>
       <c r="AO20" s="36" t="s">
@@ -5726,7 +5727,7 @@
       <c r="AP20" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="AQ20" s="79"/>
+      <c r="AQ20" s="74"/>
       <c r="AR20" s="36"/>
       <c r="AS20" s="36" t="s">
         <v>96</v>
@@ -5752,7 +5753,7 @@
       <c r="AZ20" s="36">
         <v>20000</v>
       </c>
-      <c r="BA20" s="39" t="s">
+      <c r="BA20" s="38" t="s">
         <v>98</v>
       </c>
       <c r="BB20" s="36">
@@ -5774,32 +5775,34 @@
       <c r="BH20" s="21">
         <v>200</v>
       </c>
-      <c r="BI20" s="93"/>
-      <c r="BJ20" s="89">
-        <v>1</v>
-      </c>
-      <c r="BK20" s="94" t="s">
+      <c r="BI20" s="88"/>
+      <c r="BJ20" s="84">
+        <v>1</v>
+      </c>
+      <c r="BK20" s="89" t="s">
         <v>165</v>
       </c>
-      <c r="BL20" s="94" t="s">
+      <c r="BL20" s="89" t="s">
         <v>200</v>
       </c>
-      <c r="BM20" s="94" t="s">
+      <c r="BM20" s="89" t="s">
         <v>81</v>
       </c>
-      <c r="BN20" s="94" t="s">
+      <c r="BN20" s="89" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="21" s="6" customFormat="1" ht="33.75" spans="1:66">
-      <c r="A21" s="42" t="s">
+      <c r="A21" s="39" t="s">
         <v>201</v>
       </c>
-      <c r="B21" s="43" t="s">
+      <c r="B21" s="40" t="s">
         <v>202</v>
       </c>
-      <c r="C21" s="44"/>
-      <c r="D21" s="45">
+      <c r="C21" s="26">
+        <v>2544</v>
+      </c>
+      <c r="D21" s="41">
         <v>3</v>
       </c>
       <c r="E21" s="24" t="str">
@@ -5810,112 +5813,112 @@
         <f>IF(ISBLANK(D21),"",VLOOKUP(D21,[1]__Sheet1!$A:$C,3,FALSE))</f>
         <v>2|5|6</v>
       </c>
-      <c r="G21" s="46">
+      <c r="G21" s="42">
         <f t="shared" ref="G15:G32" si="3">10000</f>
         <v>10000</v>
       </c>
-      <c r="H21" s="43">
-        <v>0</v>
-      </c>
-      <c r="I21" s="43">
+      <c r="H21" s="40">
+        <v>0</v>
+      </c>
+      <c r="I21" s="40">
         <v>2500</v>
       </c>
-      <c r="J21" s="43">
+      <c r="J21" s="40">
         <f t="shared" si="0"/>
         <v>2500</v>
       </c>
-      <c r="K21" s="43">
-        <v>1</v>
-      </c>
-      <c r="L21" s="43">
+      <c r="K21" s="40">
+        <v>1</v>
+      </c>
+      <c r="L21" s="40">
         <v>25</v>
       </c>
-      <c r="M21" s="43" t="s">
+      <c r="M21" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="N21" s="43" t="s">
+      <c r="N21" s="40" t="s">
         <v>203</v>
       </c>
-      <c r="O21" s="43"/>
-      <c r="P21" s="43"/>
-      <c r="Q21" s="43"/>
-      <c r="R21" s="43"/>
-      <c r="S21" s="43"/>
-      <c r="T21" s="43"/>
-      <c r="U21" s="43"/>
-      <c r="V21" s="43"/>
-      <c r="W21" s="43"/>
-      <c r="X21" s="43"/>
-      <c r="Y21" s="43"/>
-      <c r="Z21" s="43"/>
-      <c r="AA21" s="43">
+      <c r="O21" s="40"/>
+      <c r="P21" s="40"/>
+      <c r="Q21" s="40"/>
+      <c r="R21" s="40"/>
+      <c r="S21" s="40"/>
+      <c r="T21" s="40"/>
+      <c r="U21" s="40"/>
+      <c r="V21" s="40"/>
+      <c r="W21" s="40"/>
+      <c r="X21" s="40"/>
+      <c r="Y21" s="40"/>
+      <c r="Z21" s="40"/>
+      <c r="AA21" s="40">
         <v>2</v>
       </c>
-      <c r="AB21" s="66">
+      <c r="AB21" s="61">
         <f t="shared" si="1"/>
         <v>220</v>
       </c>
-      <c r="AC21" s="43" t="s">
+      <c r="AC21" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="AD21" s="43"/>
-      <c r="AE21" s="43"/>
-      <c r="AF21" s="43"/>
-      <c r="AG21" s="43"/>
-      <c r="AH21" s="66"/>
-      <c r="AI21" s="43"/>
-      <c r="AJ21" s="43"/>
-      <c r="AK21" s="43"/>
-      <c r="AL21" s="43"/>
-      <c r="AM21" s="43">
+      <c r="AD21" s="40"/>
+      <c r="AE21" s="40"/>
+      <c r="AF21" s="40"/>
+      <c r="AG21" s="40"/>
+      <c r="AH21" s="61"/>
+      <c r="AI21" s="40"/>
+      <c r="AJ21" s="40"/>
+      <c r="AK21" s="40"/>
+      <c r="AL21" s="40"/>
+      <c r="AM21" s="40">
         <v>225</v>
       </c>
-      <c r="AN21" s="74">
+      <c r="AN21" s="69">
         <v>180</v>
       </c>
-      <c r="AO21" s="43" t="s">
+      <c r="AO21" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="AP21" s="43" t="s">
+      <c r="AP21" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="AQ21" s="80"/>
-      <c r="AR21" s="43"/>
-      <c r="AS21" s="43" t="s">
+      <c r="AQ21" s="75"/>
+      <c r="AR21" s="40"/>
+      <c r="AS21" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="AT21" s="43">
-        <v>1</v>
-      </c>
-      <c r="AU21" s="43">
-        <v>1</v>
-      </c>
-      <c r="AV21" s="43" t="s">
+      <c r="AT21" s="40">
+        <v>1</v>
+      </c>
+      <c r="AU21" s="40">
+        <v>1</v>
+      </c>
+      <c r="AV21" s="40" t="s">
         <v>97</v>
       </c>
-      <c r="AW21" s="43">
-        <v>0</v>
-      </c>
-      <c r="AX21" s="43">
-        <v>0</v>
-      </c>
-      <c r="AY21" s="43">
-        <v>0</v>
-      </c>
-      <c r="AZ21" s="43">
+      <c r="AW21" s="40">
+        <v>0</v>
+      </c>
+      <c r="AX21" s="40">
+        <v>0</v>
+      </c>
+      <c r="AY21" s="40">
+        <v>0</v>
+      </c>
+      <c r="AZ21" s="40">
         <v>20000</v>
       </c>
-      <c r="BA21" s="46" t="s">
+      <c r="BA21" s="42" t="s">
         <v>98</v>
       </c>
-      <c r="BB21" s="43">
+      <c r="BB21" s="40">
         <v>8192</v>
       </c>
-      <c r="BC21" s="43">
+      <c r="BC21" s="40">
         <v>8192</v>
       </c>
-      <c r="BD21" s="43"/>
-      <c r="BE21" s="43">
+      <c r="BD21" s="40"/>
+      <c r="BE21" s="40">
         <v>0</v>
       </c>
       <c r="BF21" s="21">
@@ -5927,32 +5930,34 @@
       <c r="BH21" s="21">
         <v>200</v>
       </c>
-      <c r="BI21" s="95"/>
-      <c r="BJ21" s="89">
-        <v>1</v>
-      </c>
-      <c r="BK21" s="96" t="s">
+      <c r="BI21" s="90"/>
+      <c r="BJ21" s="84">
+        <v>1</v>
+      </c>
+      <c r="BK21" s="91" t="s">
         <v>204</v>
       </c>
-      <c r="BL21" s="96" t="s">
+      <c r="BL21" s="91" t="s">
         <v>205</v>
       </c>
-      <c r="BM21" s="96" t="s">
+      <c r="BM21" s="91" t="s">
         <v>206</v>
       </c>
-      <c r="BN21" s="96" t="s">
+      <c r="BN21" s="91" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="22" s="6" customFormat="1" ht="39" customHeight="1" spans="1:66">
-      <c r="A22" s="42" t="s">
+      <c r="A22" s="39" t="s">
         <v>208</v>
       </c>
-      <c r="B22" s="43" t="s">
+      <c r="B22" s="40" t="s">
         <v>209</v>
       </c>
-      <c r="C22" s="44"/>
-      <c r="D22" s="45">
+      <c r="C22" s="30">
+        <v>2545</v>
+      </c>
+      <c r="D22" s="41">
         <v>3</v>
       </c>
       <c r="E22" s="24" t="str">
@@ -5963,114 +5968,114 @@
         <f>IF(ISBLANK(D22),"",VLOOKUP(D22,[1]__Sheet1!$A:$C,3,FALSE))</f>
         <v>2|5|6</v>
       </c>
-      <c r="G22" s="46">
+      <c r="G22" s="42">
         <f t="shared" si="3"/>
         <v>10000</v>
       </c>
-      <c r="H22" s="43">
-        <v>0</v>
-      </c>
-      <c r="I22" s="43">
+      <c r="H22" s="40">
+        <v>0</v>
+      </c>
+      <c r="I22" s="40">
         <v>2500</v>
       </c>
-      <c r="J22" s="43">
+      <c r="J22" s="40">
         <f t="shared" si="0"/>
         <v>2500</v>
       </c>
-      <c r="K22" s="43">
-        <v>1</v>
-      </c>
-      <c r="L22" s="43">
+      <c r="K22" s="40">
+        <v>1</v>
+      </c>
+      <c r="L22" s="40">
         <v>25</v>
       </c>
-      <c r="M22" s="43" t="s">
+      <c r="M22" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="N22" s="43" t="s">
+      <c r="N22" s="40" t="s">
         <v>210</v>
       </c>
-      <c r="O22" s="43"/>
-      <c r="P22" s="43"/>
-      <c r="Q22" s="43"/>
-      <c r="R22" s="43"/>
-      <c r="S22" s="43"/>
-      <c r="T22" s="43"/>
-      <c r="U22" s="43"/>
-      <c r="V22" s="43"/>
-      <c r="W22" s="43"/>
-      <c r="X22" s="43"/>
-      <c r="Y22" s="43"/>
-      <c r="Z22" s="43"/>
-      <c r="AA22" s="43">
+      <c r="O22" s="40"/>
+      <c r="P22" s="40"/>
+      <c r="Q22" s="40"/>
+      <c r="R22" s="40"/>
+      <c r="S22" s="40"/>
+      <c r="T22" s="40"/>
+      <c r="U22" s="40"/>
+      <c r="V22" s="40"/>
+      <c r="W22" s="40"/>
+      <c r="X22" s="40"/>
+      <c r="Y22" s="40"/>
+      <c r="Z22" s="40"/>
+      <c r="AA22" s="40">
         <v>2.6</v>
       </c>
-      <c r="AB22" s="66">
+      <c r="AB22" s="61">
         <f t="shared" si="1"/>
         <v>256</v>
       </c>
-      <c r="AC22" s="43" t="s">
+      <c r="AC22" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="AD22" s="43"/>
-      <c r="AE22" s="43"/>
-      <c r="AF22" s="43"/>
-      <c r="AG22" s="43"/>
-      <c r="AH22" s="66"/>
-      <c r="AI22" s="43"/>
-      <c r="AJ22" s="43"/>
-      <c r="AK22" s="43"/>
-      <c r="AL22" s="43"/>
-      <c r="AM22" s="43">
+      <c r="AD22" s="40"/>
+      <c r="AE22" s="40"/>
+      <c r="AF22" s="40"/>
+      <c r="AG22" s="40"/>
+      <c r="AH22" s="61"/>
+      <c r="AI22" s="40"/>
+      <c r="AJ22" s="40"/>
+      <c r="AK22" s="40"/>
+      <c r="AL22" s="40"/>
+      <c r="AM22" s="40">
         <v>225</v>
       </c>
-      <c r="AN22" s="74">
+      <c r="AN22" s="69">
         <v>180</v>
       </c>
-      <c r="AO22" s="43" t="s">
+      <c r="AO22" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="AP22" s="43" t="s">
+      <c r="AP22" s="40" t="s">
         <v>211</v>
       </c>
-      <c r="AQ22" s="80"/>
-      <c r="AR22" s="43">
+      <c r="AQ22" s="75"/>
+      <c r="AR22" s="40">
         <v>800</v>
       </c>
-      <c r="AS22" s="43" t="s">
+      <c r="AS22" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="AT22" s="43">
-        <v>1</v>
-      </c>
-      <c r="AU22" s="43">
-        <v>1</v>
-      </c>
-      <c r="AV22" s="43" t="s">
+      <c r="AT22" s="40">
+        <v>1</v>
+      </c>
+      <c r="AU22" s="40">
+        <v>1</v>
+      </c>
+      <c r="AV22" s="40" t="s">
         <v>97</v>
       </c>
-      <c r="AW22" s="43">
-        <v>0</v>
-      </c>
-      <c r="AX22" s="43">
-        <v>0</v>
-      </c>
-      <c r="AY22" s="43">
-        <v>0</v>
-      </c>
-      <c r="AZ22" s="43">
+      <c r="AW22" s="40">
+        <v>0</v>
+      </c>
+      <c r="AX22" s="40">
+        <v>0</v>
+      </c>
+      <c r="AY22" s="40">
+        <v>0</v>
+      </c>
+      <c r="AZ22" s="40">
         <v>20000</v>
       </c>
-      <c r="BA22" s="46" t="s">
+      <c r="BA22" s="42" t="s">
         <v>98</v>
       </c>
-      <c r="BB22" s="43">
+      <c r="BB22" s="40">
         <v>8192</v>
       </c>
-      <c r="BC22" s="43">
+      <c r="BC22" s="40">
         <v>8192</v>
       </c>
-      <c r="BD22" s="43"/>
-      <c r="BE22" s="43">
+      <c r="BD22" s="40"/>
+      <c r="BE22" s="40">
         <v>0</v>
       </c>
       <c r="BF22" s="21">
@@ -6082,32 +6087,34 @@
       <c r="BH22" s="21">
         <v>200</v>
       </c>
-      <c r="BI22" s="95"/>
-      <c r="BJ22" s="89">
-        <v>1</v>
-      </c>
-      <c r="BK22" s="96" t="s">
+      <c r="BI22" s="90"/>
+      <c r="BJ22" s="84">
+        <v>1</v>
+      </c>
+      <c r="BK22" s="91" t="s">
         <v>212</v>
       </c>
-      <c r="BL22" s="96" t="s">
+      <c r="BL22" s="91" t="s">
         <v>213</v>
       </c>
-      <c r="BM22" s="96" t="s">
+      <c r="BM22" s="91" t="s">
         <v>214</v>
       </c>
-      <c r="BN22" s="96" t="s">
+      <c r="BN22" s="91" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="23" s="6" customFormat="1" ht="39" customHeight="1" spans="1:64">
-      <c r="A23" s="42" t="s">
+      <c r="A23" s="39" t="s">
         <v>216</v>
       </c>
-      <c r="B23" s="43" t="s">
+      <c r="B23" s="40" t="s">
         <v>217</v>
       </c>
-      <c r="C23" s="44"/>
-      <c r="D23" s="45">
+      <c r="C23" s="30">
+        <v>2911</v>
+      </c>
+      <c r="D23" s="41">
         <v>3</v>
       </c>
       <c r="E23" s="24" t="str">
@@ -6118,114 +6125,114 @@
         <f>IF(ISBLANK(D23),"",VLOOKUP(D23,[1]__Sheet1!$A:$C,3,FALSE))</f>
         <v>2|5|6</v>
       </c>
-      <c r="G23" s="46">
+      <c r="G23" s="42">
         <f t="shared" si="3"/>
         <v>10000</v>
       </c>
-      <c r="H23" s="43">
-        <v>0</v>
-      </c>
-      <c r="I23" s="43">
+      <c r="H23" s="40">
+        <v>0</v>
+      </c>
+      <c r="I23" s="40">
         <v>5000</v>
       </c>
-      <c r="J23" s="43">
+      <c r="J23" s="40">
         <f t="shared" si="0"/>
         <v>5000</v>
       </c>
-      <c r="K23" s="43">
-        <v>1</v>
-      </c>
-      <c r="L23" s="43">
+      <c r="K23" s="40">
+        <v>1</v>
+      </c>
+      <c r="L23" s="40">
         <v>25</v>
       </c>
-      <c r="M23" s="43" t="s">
+      <c r="M23" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="N23" s="43" t="s">
+      <c r="N23" s="40" t="s">
         <v>218</v>
       </c>
-      <c r="O23" s="43"/>
-      <c r="P23" s="43"/>
-      <c r="Q23" s="43"/>
-      <c r="R23" s="43"/>
-      <c r="S23" s="43"/>
-      <c r="T23" s="43"/>
-      <c r="U23" s="43"/>
-      <c r="V23" s="43"/>
-      <c r="W23" s="43"/>
-      <c r="X23" s="43"/>
-      <c r="Y23" s="43"/>
-      <c r="Z23" s="43"/>
-      <c r="AA23" s="43">
-        <v>1</v>
-      </c>
-      <c r="AB23" s="66">
+      <c r="O23" s="40"/>
+      <c r="P23" s="40"/>
+      <c r="Q23" s="40"/>
+      <c r="R23" s="40"/>
+      <c r="S23" s="40"/>
+      <c r="T23" s="40"/>
+      <c r="U23" s="40"/>
+      <c r="V23" s="40"/>
+      <c r="W23" s="40"/>
+      <c r="X23" s="40"/>
+      <c r="Y23" s="40"/>
+      <c r="Z23" s="40"/>
+      <c r="AA23" s="40">
+        <v>1</v>
+      </c>
+      <c r="AB23" s="61">
         <f t="shared" si="1"/>
         <v>160</v>
       </c>
-      <c r="AC23" s="43" t="s">
+      <c r="AC23" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="AD23" s="43"/>
-      <c r="AE23" s="43"/>
-      <c r="AF23" s="43"/>
-      <c r="AG23" s="43"/>
-      <c r="AH23" s="66"/>
-      <c r="AI23" s="43"/>
-      <c r="AJ23" s="43"/>
-      <c r="AK23" s="43"/>
-      <c r="AL23" s="43"/>
-      <c r="AM23" s="43">
+      <c r="AD23" s="40"/>
+      <c r="AE23" s="40"/>
+      <c r="AF23" s="40"/>
+      <c r="AG23" s="40"/>
+      <c r="AH23" s="61"/>
+      <c r="AI23" s="40"/>
+      <c r="AJ23" s="40"/>
+      <c r="AK23" s="40"/>
+      <c r="AL23" s="40"/>
+      <c r="AM23" s="40">
         <v>225</v>
       </c>
-      <c r="AN23" s="74">
+      <c r="AN23" s="69">
         <v>180</v>
       </c>
-      <c r="AO23" s="43" t="s">
+      <c r="AO23" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="AP23" s="43" t="s">
+      <c r="AP23" s="40" t="s">
         <v>211</v>
       </c>
-      <c r="AQ23" s="80"/>
-      <c r="AR23" s="43">
+      <c r="AQ23" s="75"/>
+      <c r="AR23" s="40">
         <v>600</v>
       </c>
-      <c r="AS23" s="43" t="s">
+      <c r="AS23" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="AT23" s="43">
-        <v>1</v>
-      </c>
-      <c r="AU23" s="43">
-        <v>1</v>
-      </c>
-      <c r="AV23" s="43" t="s">
+      <c r="AT23" s="40">
+        <v>1</v>
+      </c>
+      <c r="AU23" s="40">
+        <v>1</v>
+      </c>
+      <c r="AV23" s="40" t="s">
         <v>97</v>
       </c>
-      <c r="AW23" s="43">
-        <v>0</v>
-      </c>
-      <c r="AX23" s="43">
-        <v>0</v>
-      </c>
-      <c r="AY23" s="43">
-        <v>0</v>
-      </c>
-      <c r="AZ23" s="43">
+      <c r="AW23" s="40">
+        <v>0</v>
+      </c>
+      <c r="AX23" s="40">
+        <v>0</v>
+      </c>
+      <c r="AY23" s="40">
+        <v>0</v>
+      </c>
+      <c r="AZ23" s="40">
         <v>20000</v>
       </c>
-      <c r="BA23" s="46" t="s">
+      <c r="BA23" s="42" t="s">
         <v>98</v>
       </c>
-      <c r="BB23" s="43">
+      <c r="BB23" s="40">
         <v>8192</v>
       </c>
-      <c r="BC23" s="43">
+      <c r="BC23" s="40">
         <v>8192</v>
       </c>
-      <c r="BD23" s="43"/>
-      <c r="BE23" s="43">
+      <c r="BD23" s="40"/>
+      <c r="BE23" s="40">
         <v>0</v>
       </c>
       <c r="BF23" s="21">
@@ -6237,26 +6244,28 @@
       <c r="BH23" s="21">
         <v>200</v>
       </c>
-      <c r="BI23" s="95"/>
-      <c r="BJ23" s="89">
-        <v>1</v>
-      </c>
-      <c r="BK23" s="96" t="s">
+      <c r="BI23" s="90"/>
+      <c r="BJ23" s="84">
+        <v>1</v>
+      </c>
+      <c r="BK23" s="91" t="s">
         <v>219</v>
       </c>
-      <c r="BL23" s="96" t="s">
+      <c r="BL23" s="91" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="24" s="6" customFormat="1" ht="39" customHeight="1" spans="1:64">
-      <c r="A24" s="42" t="s">
+      <c r="A24" s="39" t="s">
         <v>220</v>
       </c>
-      <c r="B24" s="43" t="s">
+      <c r="B24" s="40" t="s">
         <v>221</v>
       </c>
-      <c r="C24" s="44"/>
-      <c r="D24" s="45">
+      <c r="C24" s="26">
+        <v>2912</v>
+      </c>
+      <c r="D24" s="41">
         <v>3</v>
       </c>
       <c r="E24" s="24" t="str">
@@ -6267,114 +6276,114 @@
         <f>IF(ISBLANK(D24),"",VLOOKUP(D24,[1]__Sheet1!$A:$C,3,FALSE))</f>
         <v>2|5|6</v>
       </c>
-      <c r="G24" s="46">
+      <c r="G24" s="42">
         <f t="shared" si="3"/>
         <v>10000</v>
       </c>
-      <c r="H24" s="43">
-        <v>0</v>
-      </c>
-      <c r="I24" s="43">
+      <c r="H24" s="40">
+        <v>0</v>
+      </c>
+      <c r="I24" s="40">
         <v>5000</v>
       </c>
-      <c r="J24" s="43">
+      <c r="J24" s="40">
         <f t="shared" si="0"/>
         <v>5000</v>
       </c>
-      <c r="K24" s="43">
-        <v>1</v>
-      </c>
-      <c r="L24" s="43">
+      <c r="K24" s="40">
+        <v>1</v>
+      </c>
+      <c r="L24" s="40">
         <v>25</v>
       </c>
-      <c r="M24" s="43" t="s">
+      <c r="M24" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="N24" s="43" t="s">
+      <c r="N24" s="40" t="s">
         <v>222</v>
       </c>
-      <c r="O24" s="43"/>
-      <c r="P24" s="43"/>
-      <c r="Q24" s="43"/>
-      <c r="R24" s="43"/>
-      <c r="S24" s="43"/>
-      <c r="T24" s="43"/>
-      <c r="U24" s="43"/>
-      <c r="V24" s="43"/>
-      <c r="W24" s="43"/>
-      <c r="X24" s="43"/>
-      <c r="Y24" s="43"/>
-      <c r="Z24" s="43"/>
-      <c r="AA24" s="43">
+      <c r="O24" s="40"/>
+      <c r="P24" s="40"/>
+      <c r="Q24" s="40"/>
+      <c r="R24" s="40"/>
+      <c r="S24" s="40"/>
+      <c r="T24" s="40"/>
+      <c r="U24" s="40"/>
+      <c r="V24" s="40"/>
+      <c r="W24" s="40"/>
+      <c r="X24" s="40"/>
+      <c r="Y24" s="40"/>
+      <c r="Z24" s="40"/>
+      <c r="AA24" s="40">
         <v>1.4</v>
       </c>
-      <c r="AB24" s="66">
+      <c r="AB24" s="61">
         <f t="shared" si="1"/>
         <v>184</v>
       </c>
-      <c r="AC24" s="43" t="s">
+      <c r="AC24" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="AD24" s="43"/>
-      <c r="AE24" s="43"/>
-      <c r="AF24" s="43"/>
-      <c r="AG24" s="43"/>
-      <c r="AH24" s="66"/>
-      <c r="AI24" s="43"/>
-      <c r="AJ24" s="43"/>
-      <c r="AK24" s="43"/>
-      <c r="AL24" s="43"/>
-      <c r="AM24" s="43">
+      <c r="AD24" s="40"/>
+      <c r="AE24" s="40"/>
+      <c r="AF24" s="40"/>
+      <c r="AG24" s="40"/>
+      <c r="AH24" s="61"/>
+      <c r="AI24" s="40"/>
+      <c r="AJ24" s="40"/>
+      <c r="AK24" s="40"/>
+      <c r="AL24" s="40"/>
+      <c r="AM24" s="40">
         <v>225</v>
       </c>
-      <c r="AN24" s="74">
+      <c r="AN24" s="69">
         <v>180</v>
       </c>
-      <c r="AO24" s="43" t="s">
+      <c r="AO24" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="AP24" s="43" t="s">
+      <c r="AP24" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="AQ24" s="80"/>
-      <c r="AR24" s="43">
+      <c r="AQ24" s="75"/>
+      <c r="AR24" s="40">
         <v>600</v>
       </c>
-      <c r="AS24" s="43" t="s">
+      <c r="AS24" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="AT24" s="43">
-        <v>1</v>
-      </c>
-      <c r="AU24" s="43">
-        <v>1</v>
-      </c>
-      <c r="AV24" s="43" t="s">
+      <c r="AT24" s="40">
+        <v>1</v>
+      </c>
+      <c r="AU24" s="40">
+        <v>1</v>
+      </c>
+      <c r="AV24" s="40" t="s">
         <v>97</v>
       </c>
-      <c r="AW24" s="43">
-        <v>0</v>
-      </c>
-      <c r="AX24" s="43">
-        <v>0</v>
-      </c>
-      <c r="AY24" s="43">
-        <v>0</v>
-      </c>
-      <c r="AZ24" s="43">
+      <c r="AW24" s="40">
+        <v>0</v>
+      </c>
+      <c r="AX24" s="40">
+        <v>0</v>
+      </c>
+      <c r="AY24" s="40">
+        <v>0</v>
+      </c>
+      <c r="AZ24" s="40">
         <v>20000</v>
       </c>
-      <c r="BA24" s="46" t="s">
+      <c r="BA24" s="42" t="s">
         <v>98</v>
       </c>
-      <c r="BB24" s="43">
+      <c r="BB24" s="40">
         <v>8192</v>
       </c>
-      <c r="BC24" s="43">
+      <c r="BC24" s="40">
         <v>8192</v>
       </c>
-      <c r="BD24" s="43"/>
-      <c r="BE24" s="43">
+      <c r="BD24" s="40"/>
+      <c r="BE24" s="40">
         <v>0</v>
       </c>
       <c r="BF24" s="21">
@@ -6386,26 +6395,28 @@
       <c r="BH24" s="21">
         <v>200</v>
       </c>
-      <c r="BI24" s="95"/>
-      <c r="BJ24" s="89">
-        <v>1</v>
-      </c>
-      <c r="BK24" s="96" t="s">
+      <c r="BI24" s="90"/>
+      <c r="BJ24" s="84">
+        <v>1</v>
+      </c>
+      <c r="BK24" s="91" t="s">
         <v>165</v>
       </c>
-      <c r="BL24" s="96" t="s">
+      <c r="BL24" s="91" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="25" s="6" customFormat="1" ht="39" customHeight="1" spans="1:64">
-      <c r="A25" s="42" t="s">
+      <c r="A25" s="39" t="s">
         <v>223</v>
       </c>
-      <c r="B25" s="43" t="s">
+      <c r="B25" s="40" t="s">
         <v>224</v>
       </c>
-      <c r="C25" s="44"/>
-      <c r="D25" s="45">
+      <c r="C25" s="30">
+        <v>2913</v>
+      </c>
+      <c r="D25" s="41">
         <v>3</v>
       </c>
       <c r="E25" s="24" t="str">
@@ -6416,114 +6427,114 @@
         <f>IF(ISBLANK(D25),"",VLOOKUP(D25,[1]__Sheet1!$A:$C,3,FALSE))</f>
         <v>2|5|6</v>
       </c>
-      <c r="G25" s="46">
+      <c r="G25" s="42">
         <f t="shared" si="3"/>
         <v>10000</v>
       </c>
-      <c r="H25" s="43">
-        <v>0</v>
-      </c>
-      <c r="I25" s="43">
+      <c r="H25" s="40">
+        <v>0</v>
+      </c>
+      <c r="I25" s="40">
         <v>5000</v>
       </c>
-      <c r="J25" s="43">
+      <c r="J25" s="40">
         <f t="shared" si="0"/>
         <v>5000</v>
       </c>
-      <c r="K25" s="43">
-        <v>1</v>
-      </c>
-      <c r="L25" s="43">
+      <c r="K25" s="40">
+        <v>1</v>
+      </c>
+      <c r="L25" s="40">
         <v>25</v>
       </c>
-      <c r="M25" s="43" t="s">
+      <c r="M25" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="N25" s="43" t="s">
+      <c r="N25" s="40" t="s">
         <v>225</v>
       </c>
-      <c r="O25" s="43"/>
-      <c r="P25" s="43"/>
-      <c r="Q25" s="43"/>
-      <c r="R25" s="43"/>
-      <c r="S25" s="43"/>
-      <c r="T25" s="43"/>
-      <c r="U25" s="43"/>
-      <c r="V25" s="43"/>
-      <c r="W25" s="43"/>
-      <c r="X25" s="43"/>
-      <c r="Y25" s="43"/>
-      <c r="Z25" s="43"/>
-      <c r="AA25" s="43">
+      <c r="O25" s="40"/>
+      <c r="P25" s="40"/>
+      <c r="Q25" s="40"/>
+      <c r="R25" s="40"/>
+      <c r="S25" s="40"/>
+      <c r="T25" s="40"/>
+      <c r="U25" s="40"/>
+      <c r="V25" s="40"/>
+      <c r="W25" s="40"/>
+      <c r="X25" s="40"/>
+      <c r="Y25" s="40"/>
+      <c r="Z25" s="40"/>
+      <c r="AA25" s="40">
         <v>1.2</v>
       </c>
-      <c r="AB25" s="66">
+      <c r="AB25" s="61">
         <f t="shared" si="1"/>
         <v>172</v>
       </c>
-      <c r="AC25" s="43" t="s">
+      <c r="AC25" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="AD25" s="43"/>
-      <c r="AE25" s="43"/>
-      <c r="AF25" s="43"/>
-      <c r="AG25" s="43"/>
-      <c r="AH25" s="66"/>
-      <c r="AI25" s="43"/>
-      <c r="AJ25" s="43"/>
-      <c r="AK25" s="43"/>
-      <c r="AL25" s="43"/>
-      <c r="AM25" s="43">
+      <c r="AD25" s="40"/>
+      <c r="AE25" s="40"/>
+      <c r="AF25" s="40"/>
+      <c r="AG25" s="40"/>
+      <c r="AH25" s="61"/>
+      <c r="AI25" s="40"/>
+      <c r="AJ25" s="40"/>
+      <c r="AK25" s="40"/>
+      <c r="AL25" s="40"/>
+      <c r="AM25" s="40">
         <v>225</v>
       </c>
-      <c r="AN25" s="74">
+      <c r="AN25" s="69">
         <v>180</v>
       </c>
-      <c r="AO25" s="43" t="s">
+      <c r="AO25" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="AP25" s="43" t="s">
+      <c r="AP25" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="AQ25" s="80"/>
-      <c r="AR25" s="43">
+      <c r="AQ25" s="75"/>
+      <c r="AR25" s="40">
         <v>600</v>
       </c>
-      <c r="AS25" s="43" t="s">
+      <c r="AS25" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="AT25" s="43">
-        <v>1</v>
-      </c>
-      <c r="AU25" s="43">
-        <v>1</v>
-      </c>
-      <c r="AV25" s="43" t="s">
+      <c r="AT25" s="40">
+        <v>1</v>
+      </c>
+      <c r="AU25" s="40">
+        <v>1</v>
+      </c>
+      <c r="AV25" s="40" t="s">
         <v>97</v>
       </c>
-      <c r="AW25" s="43">
-        <v>0</v>
-      </c>
-      <c r="AX25" s="43">
-        <v>0</v>
-      </c>
-      <c r="AY25" s="43">
-        <v>0</v>
-      </c>
-      <c r="AZ25" s="43">
+      <c r="AW25" s="40">
+        <v>0</v>
+      </c>
+      <c r="AX25" s="40">
+        <v>0</v>
+      </c>
+      <c r="AY25" s="40">
+        <v>0</v>
+      </c>
+      <c r="AZ25" s="40">
         <v>20000</v>
       </c>
-      <c r="BA25" s="46" t="s">
+      <c r="BA25" s="42" t="s">
         <v>98</v>
       </c>
-      <c r="BB25" s="43">
+      <c r="BB25" s="40">
         <v>8192</v>
       </c>
-      <c r="BC25" s="43">
+      <c r="BC25" s="40">
         <v>8192</v>
       </c>
-      <c r="BD25" s="43"/>
-      <c r="BE25" s="43">
+      <c r="BD25" s="40"/>
+      <c r="BE25" s="40">
         <v>0</v>
       </c>
       <c r="BF25" s="21">
@@ -6535,26 +6546,28 @@
       <c r="BH25" s="21">
         <v>200</v>
       </c>
-      <c r="BI25" s="95"/>
-      <c r="BJ25" s="89">
-        <v>1</v>
-      </c>
-      <c r="BK25" s="96" t="s">
+      <c r="BI25" s="90"/>
+      <c r="BJ25" s="84">
+        <v>1</v>
+      </c>
+      <c r="BK25" s="91" t="s">
         <v>165</v>
       </c>
-      <c r="BL25" s="96" t="s">
+      <c r="BL25" s="91" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="26" s="6" customFormat="1" ht="39" customHeight="1" spans="1:64">
-      <c r="A26" s="42" t="s">
+      <c r="A26" s="39" t="s">
         <v>227</v>
       </c>
-      <c r="B26" s="43" t="s">
+      <c r="B26" s="40" t="s">
         <v>228</v>
       </c>
-      <c r="C26" s="44"/>
-      <c r="D26" s="45">
+      <c r="C26" s="30">
+        <v>3203</v>
+      </c>
+      <c r="D26" s="41">
         <v>3</v>
       </c>
       <c r="E26" s="24" t="str">
@@ -6565,114 +6578,114 @@
         <f>IF(ISBLANK(D26),"",VLOOKUP(D26,[1]__Sheet1!$A:$C,3,FALSE))</f>
         <v>2|5|6</v>
       </c>
-      <c r="G26" s="46">
+      <c r="G26" s="42">
         <f t="shared" si="3"/>
         <v>10000</v>
       </c>
-      <c r="H26" s="43">
-        <v>0</v>
-      </c>
-      <c r="I26" s="43">
+      <c r="H26" s="40">
+        <v>0</v>
+      </c>
+      <c r="I26" s="40">
         <v>5000</v>
       </c>
-      <c r="J26" s="43">
+      <c r="J26" s="40">
         <f t="shared" si="0"/>
         <v>5000</v>
       </c>
-      <c r="K26" s="43">
-        <v>1</v>
-      </c>
-      <c r="L26" s="43">
+      <c r="K26" s="40">
+        <v>1</v>
+      </c>
+      <c r="L26" s="40">
         <v>25</v>
       </c>
-      <c r="M26" s="43" t="s">
+      <c r="M26" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="N26" s="43" t="s">
+      <c r="N26" s="40" t="s">
         <v>229</v>
       </c>
-      <c r="O26" s="43"/>
-      <c r="P26" s="43"/>
-      <c r="Q26" s="43"/>
-      <c r="R26" s="43"/>
-      <c r="S26" s="43"/>
-      <c r="T26" s="43"/>
-      <c r="U26" s="43"/>
-      <c r="V26" s="43"/>
-      <c r="W26" s="43"/>
-      <c r="X26" s="43"/>
-      <c r="Y26" s="43"/>
-      <c r="Z26" s="43"/>
-      <c r="AA26" s="43">
+      <c r="O26" s="40"/>
+      <c r="P26" s="40"/>
+      <c r="Q26" s="40"/>
+      <c r="R26" s="40"/>
+      <c r="S26" s="40"/>
+      <c r="T26" s="40"/>
+      <c r="U26" s="40"/>
+      <c r="V26" s="40"/>
+      <c r="W26" s="40"/>
+      <c r="X26" s="40"/>
+      <c r="Y26" s="40"/>
+      <c r="Z26" s="40"/>
+      <c r="AA26" s="40">
         <v>2.5</v>
       </c>
-      <c r="AB26" s="66">
+      <c r="AB26" s="61">
         <f t="shared" si="1"/>
         <v>250</v>
       </c>
-      <c r="AC26" s="43" t="s">
+      <c r="AC26" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="AD26" s="43"/>
-      <c r="AE26" s="43"/>
-      <c r="AF26" s="43"/>
-      <c r="AG26" s="43"/>
-      <c r="AH26" s="66"/>
-      <c r="AI26" s="43"/>
-      <c r="AJ26" s="43"/>
-      <c r="AK26" s="43"/>
-      <c r="AL26" s="43"/>
-      <c r="AM26" s="43">
+      <c r="AD26" s="40"/>
+      <c r="AE26" s="40"/>
+      <c r="AF26" s="40"/>
+      <c r="AG26" s="40"/>
+      <c r="AH26" s="61"/>
+      <c r="AI26" s="40"/>
+      <c r="AJ26" s="40"/>
+      <c r="AK26" s="40"/>
+      <c r="AL26" s="40"/>
+      <c r="AM26" s="40">
         <v>225</v>
       </c>
-      <c r="AN26" s="74">
+      <c r="AN26" s="69">
         <v>180</v>
       </c>
-      <c r="AO26" s="43" t="s">
+      <c r="AO26" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="AP26" s="43" t="s">
+      <c r="AP26" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="AQ26" s="80"/>
-      <c r="AR26" s="43">
+      <c r="AQ26" s="75"/>
+      <c r="AR26" s="40">
         <v>600</v>
       </c>
-      <c r="AS26" s="43" t="s">
+      <c r="AS26" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="AT26" s="43">
-        <v>1</v>
-      </c>
-      <c r="AU26" s="43">
-        <v>1</v>
-      </c>
-      <c r="AV26" s="43" t="s">
+      <c r="AT26" s="40">
+        <v>1</v>
+      </c>
+      <c r="AU26" s="40">
+        <v>1</v>
+      </c>
+      <c r="AV26" s="40" t="s">
         <v>97</v>
       </c>
-      <c r="AW26" s="43">
-        <v>0</v>
-      </c>
-      <c r="AX26" s="43">
-        <v>0</v>
-      </c>
-      <c r="AY26" s="43">
-        <v>0</v>
-      </c>
-      <c r="AZ26" s="43">
+      <c r="AW26" s="40">
+        <v>0</v>
+      </c>
+      <c r="AX26" s="40">
+        <v>0</v>
+      </c>
+      <c r="AY26" s="40">
+        <v>0</v>
+      </c>
+      <c r="AZ26" s="40">
         <v>20000</v>
       </c>
-      <c r="BA26" s="46" t="s">
+      <c r="BA26" s="42" t="s">
         <v>98</v>
       </c>
-      <c r="BB26" s="43">
+      <c r="BB26" s="40">
         <v>8192</v>
       </c>
-      <c r="BC26" s="43">
+      <c r="BC26" s="40">
         <v>8192</v>
       </c>
-      <c r="BD26" s="43"/>
-      <c r="BE26" s="43">
+      <c r="BD26" s="40"/>
+      <c r="BE26" s="40">
         <v>0</v>
       </c>
       <c r="BF26" s="21">
@@ -6684,26 +6697,28 @@
       <c r="BH26" s="21">
         <v>200</v>
       </c>
-      <c r="BI26" s="95"/>
-      <c r="BJ26" s="89">
-        <v>1</v>
-      </c>
-      <c r="BK26" s="96" t="s">
+      <c r="BI26" s="90"/>
+      <c r="BJ26" s="84">
+        <v>1</v>
+      </c>
+      <c r="BK26" s="91" t="s">
         <v>165</v>
       </c>
-      <c r="BL26" s="96" t="s">
+      <c r="BL26" s="91" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="27" s="7" customFormat="1" ht="33.75" spans="1:66">
-      <c r="A27" s="47" t="s">
+      <c r="A27" s="43" t="s">
         <v>230</v>
       </c>
-      <c r="B27" s="48" t="s">
+      <c r="B27" s="44" t="s">
         <v>231</v>
       </c>
-      <c r="C27" s="49"/>
-      <c r="D27" s="50">
+      <c r="C27" s="30">
+        <v>2559</v>
+      </c>
+      <c r="D27" s="45">
         <v>3</v>
       </c>
       <c r="E27" s="24" t="str">
@@ -6714,112 +6729,112 @@
         <f>IF(ISBLANK(D27),"",VLOOKUP(D27,[1]__Sheet1!$A:$C,3,FALSE))</f>
         <v>2|5|6</v>
       </c>
-      <c r="G27" s="51">
+      <c r="G27" s="46">
         <f t="shared" si="3"/>
         <v>10000</v>
       </c>
-      <c r="H27" s="48">
-        <v>0</v>
-      </c>
-      <c r="I27" s="48">
+      <c r="H27" s="44">
+        <v>0</v>
+      </c>
+      <c r="I27" s="44">
         <v>2500</v>
       </c>
-      <c r="J27" s="48">
+      <c r="J27" s="44">
         <f t="shared" si="0"/>
         <v>2500</v>
       </c>
-      <c r="K27" s="48">
-        <v>1</v>
-      </c>
-      <c r="L27" s="48">
+      <c r="K27" s="44">
+        <v>1</v>
+      </c>
+      <c r="L27" s="44">
         <v>25</v>
       </c>
-      <c r="M27" s="48" t="s">
+      <c r="M27" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="N27" s="48" t="s">
+      <c r="N27" s="44" t="s">
         <v>232</v>
       </c>
-      <c r="O27" s="48"/>
-      <c r="P27" s="48"/>
-      <c r="Q27" s="48"/>
-      <c r="R27" s="48"/>
-      <c r="S27" s="48"/>
-      <c r="T27" s="48"/>
-      <c r="U27" s="48"/>
-      <c r="V27" s="48"/>
-      <c r="W27" s="48"/>
-      <c r="X27" s="48"/>
-      <c r="Y27" s="48"/>
-      <c r="Z27" s="48"/>
-      <c r="AA27" s="48">
+      <c r="O27" s="44"/>
+      <c r="P27" s="44"/>
+      <c r="Q27" s="44"/>
+      <c r="R27" s="44"/>
+      <c r="S27" s="44"/>
+      <c r="T27" s="44"/>
+      <c r="U27" s="44"/>
+      <c r="V27" s="44"/>
+      <c r="W27" s="44"/>
+      <c r="X27" s="44"/>
+      <c r="Y27" s="44"/>
+      <c r="Z27" s="44"/>
+      <c r="AA27" s="44">
         <v>2</v>
       </c>
-      <c r="AB27" s="67">
+      <c r="AB27" s="62">
         <f t="shared" si="1"/>
         <v>220</v>
       </c>
-      <c r="AC27" s="48" t="s">
+      <c r="AC27" s="44" t="s">
         <v>93</v>
       </c>
-      <c r="AD27" s="48"/>
-      <c r="AE27" s="48"/>
-      <c r="AF27" s="48"/>
-      <c r="AG27" s="48"/>
-      <c r="AH27" s="67"/>
-      <c r="AI27" s="48"/>
-      <c r="AJ27" s="48"/>
-      <c r="AK27" s="48"/>
-      <c r="AL27" s="48"/>
-      <c r="AM27" s="48">
+      <c r="AD27" s="44"/>
+      <c r="AE27" s="44"/>
+      <c r="AF27" s="44"/>
+      <c r="AG27" s="44"/>
+      <c r="AH27" s="62"/>
+      <c r="AI27" s="44"/>
+      <c r="AJ27" s="44"/>
+      <c r="AK27" s="44"/>
+      <c r="AL27" s="44"/>
+      <c r="AM27" s="44">
         <v>225</v>
       </c>
-      <c r="AN27" s="75">
+      <c r="AN27" s="70">
         <v>180</v>
       </c>
-      <c r="AO27" s="48" t="s">
+      <c r="AO27" s="44" t="s">
         <v>94</v>
       </c>
-      <c r="AP27" s="48" t="s">
+      <c r="AP27" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="AQ27" s="81"/>
-      <c r="AR27" s="48"/>
-      <c r="AS27" s="48" t="s">
+      <c r="AQ27" s="76"/>
+      <c r="AR27" s="44"/>
+      <c r="AS27" s="44" t="s">
         <v>96</v>
       </c>
-      <c r="AT27" s="48">
-        <v>1</v>
-      </c>
-      <c r="AU27" s="48">
-        <v>1</v>
-      </c>
-      <c r="AV27" s="48" t="s">
+      <c r="AT27" s="44">
+        <v>1</v>
+      </c>
+      <c r="AU27" s="44">
+        <v>1</v>
+      </c>
+      <c r="AV27" s="44" t="s">
         <v>97</v>
       </c>
-      <c r="AW27" s="48">
-        <v>0</v>
-      </c>
-      <c r="AX27" s="48">
-        <v>0</v>
-      </c>
-      <c r="AY27" s="48">
-        <v>0</v>
-      </c>
-      <c r="AZ27" s="48">
+      <c r="AW27" s="44">
+        <v>0</v>
+      </c>
+      <c r="AX27" s="44">
+        <v>0</v>
+      </c>
+      <c r="AY27" s="44">
+        <v>0</v>
+      </c>
+      <c r="AZ27" s="44">
         <v>20000</v>
       </c>
-      <c r="BA27" s="51" t="s">
+      <c r="BA27" s="46" t="s">
         <v>98</v>
       </c>
-      <c r="BB27" s="48">
+      <c r="BB27" s="44">
         <v>8192</v>
       </c>
-      <c r="BC27" s="48">
+      <c r="BC27" s="44">
         <v>8192</v>
       </c>
-      <c r="BD27" s="48"/>
-      <c r="BE27" s="48">
+      <c r="BD27" s="44"/>
+      <c r="BE27" s="44">
         <v>0</v>
       </c>
       <c r="BF27" s="21">
@@ -6831,32 +6846,34 @@
       <c r="BH27" s="21">
         <v>200</v>
       </c>
-      <c r="BI27" s="97"/>
-      <c r="BJ27" s="89">
-        <v>1</v>
-      </c>
-      <c r="BK27" s="98" t="s">
+      <c r="BI27" s="92"/>
+      <c r="BJ27" s="84">
+        <v>1</v>
+      </c>
+      <c r="BK27" s="93" t="s">
         <v>204</v>
       </c>
-      <c r="BL27" s="98" t="s">
+      <c r="BL27" s="93" t="s">
         <v>205</v>
       </c>
-      <c r="BM27" s="98" t="s">
+      <c r="BM27" s="93" t="s">
         <v>206</v>
       </c>
-      <c r="BN27" s="98" t="s">
+      <c r="BN27" s="93" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="28" s="7" customFormat="1" ht="39" customHeight="1" spans="1:66">
-      <c r="A28" s="47" t="s">
+      <c r="A28" s="43" t="s">
         <v>233</v>
       </c>
-      <c r="B28" s="48" t="s">
+      <c r="B28" s="44" t="s">
         <v>234</v>
       </c>
-      <c r="C28" s="49"/>
-      <c r="D28" s="50">
+      <c r="C28" s="26">
+        <v>2914</v>
+      </c>
+      <c r="D28" s="45">
         <v>3</v>
       </c>
       <c r="E28" s="24" t="str">
@@ -6867,114 +6884,114 @@
         <f>IF(ISBLANK(D28),"",VLOOKUP(D28,[1]__Sheet1!$A:$C,3,FALSE))</f>
         <v>2|5|6</v>
       </c>
-      <c r="G28" s="51">
+      <c r="G28" s="46">
         <f t="shared" si="3"/>
         <v>10000</v>
       </c>
-      <c r="H28" s="48">
-        <v>0</v>
-      </c>
-      <c r="I28" s="48">
+      <c r="H28" s="44">
+        <v>0</v>
+      </c>
+      <c r="I28" s="44">
         <v>2500</v>
       </c>
-      <c r="J28" s="48">
+      <c r="J28" s="44">
         <f t="shared" si="0"/>
         <v>2500</v>
       </c>
-      <c r="K28" s="48">
-        <v>1</v>
-      </c>
-      <c r="L28" s="48">
+      <c r="K28" s="44">
+        <v>1</v>
+      </c>
+      <c r="L28" s="44">
         <v>25</v>
       </c>
-      <c r="M28" s="48" t="s">
+      <c r="M28" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="N28" s="48" t="s">
+      <c r="N28" s="44" t="s">
         <v>235</v>
       </c>
-      <c r="O28" s="48"/>
-      <c r="P28" s="48"/>
-      <c r="Q28" s="48"/>
-      <c r="R28" s="48"/>
-      <c r="S28" s="48"/>
-      <c r="T28" s="48"/>
-      <c r="U28" s="48"/>
-      <c r="V28" s="48"/>
-      <c r="W28" s="48"/>
-      <c r="X28" s="48"/>
-      <c r="Y28" s="48"/>
-      <c r="Z28" s="48"/>
-      <c r="AA28" s="48">
+      <c r="O28" s="44"/>
+      <c r="P28" s="44"/>
+      <c r="Q28" s="44"/>
+      <c r="R28" s="44"/>
+      <c r="S28" s="44"/>
+      <c r="T28" s="44"/>
+      <c r="U28" s="44"/>
+      <c r="V28" s="44"/>
+      <c r="W28" s="44"/>
+      <c r="X28" s="44"/>
+      <c r="Y28" s="44"/>
+      <c r="Z28" s="44"/>
+      <c r="AA28" s="44">
         <v>2.6</v>
       </c>
-      <c r="AB28" s="67">
+      <c r="AB28" s="62">
         <f t="shared" si="1"/>
         <v>256</v>
       </c>
-      <c r="AC28" s="48" t="s">
+      <c r="AC28" s="44" t="s">
         <v>93</v>
       </c>
-      <c r="AD28" s="48"/>
-      <c r="AE28" s="48"/>
-      <c r="AF28" s="48"/>
-      <c r="AG28" s="48"/>
-      <c r="AH28" s="67"/>
-      <c r="AI28" s="48"/>
-      <c r="AJ28" s="48"/>
-      <c r="AK28" s="48"/>
-      <c r="AL28" s="48"/>
-      <c r="AM28" s="48">
+      <c r="AD28" s="44"/>
+      <c r="AE28" s="44"/>
+      <c r="AF28" s="44"/>
+      <c r="AG28" s="44"/>
+      <c r="AH28" s="62"/>
+      <c r="AI28" s="44"/>
+      <c r="AJ28" s="44"/>
+      <c r="AK28" s="44"/>
+      <c r="AL28" s="44"/>
+      <c r="AM28" s="44">
         <v>225</v>
       </c>
-      <c r="AN28" s="75">
+      <c r="AN28" s="70">
         <v>180</v>
       </c>
-      <c r="AO28" s="48" t="s">
+      <c r="AO28" s="44" t="s">
         <v>94</v>
       </c>
-      <c r="AP28" s="48" t="s">
+      <c r="AP28" s="44" t="s">
         <v>211</v>
       </c>
-      <c r="AQ28" s="81"/>
-      <c r="AR28" s="48">
+      <c r="AQ28" s="76"/>
+      <c r="AR28" s="44">
         <v>800</v>
       </c>
-      <c r="AS28" s="48" t="s">
+      <c r="AS28" s="44" t="s">
         <v>96</v>
       </c>
-      <c r="AT28" s="48">
-        <v>1</v>
-      </c>
-      <c r="AU28" s="48">
-        <v>1</v>
-      </c>
-      <c r="AV28" s="48" t="s">
+      <c r="AT28" s="44">
+        <v>1</v>
+      </c>
+      <c r="AU28" s="44">
+        <v>1</v>
+      </c>
+      <c r="AV28" s="44" t="s">
         <v>97</v>
       </c>
-      <c r="AW28" s="48">
-        <v>0</v>
-      </c>
-      <c r="AX28" s="48">
-        <v>0</v>
-      </c>
-      <c r="AY28" s="48">
-        <v>0</v>
-      </c>
-      <c r="AZ28" s="48">
+      <c r="AW28" s="44">
+        <v>0</v>
+      </c>
+      <c r="AX28" s="44">
+        <v>0</v>
+      </c>
+      <c r="AY28" s="44">
+        <v>0</v>
+      </c>
+      <c r="AZ28" s="44">
         <v>20000</v>
       </c>
-      <c r="BA28" s="51" t="s">
+      <c r="BA28" s="46" t="s">
         <v>98</v>
       </c>
-      <c r="BB28" s="48">
+      <c r="BB28" s="44">
         <v>8192</v>
       </c>
-      <c r="BC28" s="48">
+      <c r="BC28" s="44">
         <v>8192</v>
       </c>
-      <c r="BD28" s="48"/>
-      <c r="BE28" s="48">
+      <c r="BD28" s="44"/>
+      <c r="BE28" s="44">
         <v>0</v>
       </c>
       <c r="BF28" s="21">
@@ -6986,32 +7003,34 @@
       <c r="BH28" s="21">
         <v>200</v>
       </c>
-      <c r="BI28" s="97"/>
-      <c r="BJ28" s="89">
-        <v>1</v>
-      </c>
-      <c r="BK28" s="98" t="s">
+      <c r="BI28" s="92"/>
+      <c r="BJ28" s="84">
+        <v>1</v>
+      </c>
+      <c r="BK28" s="93" t="s">
         <v>236</v>
       </c>
-      <c r="BL28" s="98" t="s">
+      <c r="BL28" s="93" t="s">
         <v>237</v>
       </c>
-      <c r="BM28" s="98" t="s">
+      <c r="BM28" s="93" t="s">
         <v>238</v>
       </c>
-      <c r="BN28" s="98" t="s">
+      <c r="BN28" s="93" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="29" s="7" customFormat="1" ht="39" customHeight="1" spans="1:62">
-      <c r="A29" s="47" t="s">
+      <c r="A29" s="43" t="s">
         <v>240</v>
       </c>
-      <c r="B29" s="48" t="s">
+      <c r="B29" s="44" t="s">
         <v>241</v>
       </c>
-      <c r="C29" s="49"/>
-      <c r="D29" s="50">
+      <c r="C29" s="30">
+        <v>2915</v>
+      </c>
+      <c r="D29" s="45">
         <v>3</v>
       </c>
       <c r="E29" s="24" t="str">
@@ -7022,114 +7041,114 @@
         <f>IF(ISBLANK(D29),"",VLOOKUP(D29,[1]__Sheet1!$A:$C,3,FALSE))</f>
         <v>2|5|6</v>
       </c>
-      <c r="G29" s="51">
+      <c r="G29" s="46">
         <f t="shared" si="3"/>
         <v>10000</v>
       </c>
-      <c r="H29" s="48">
-        <v>0</v>
-      </c>
-      <c r="I29" s="48">
+      <c r="H29" s="44">
+        <v>0</v>
+      </c>
+      <c r="I29" s="44">
         <v>5000</v>
       </c>
-      <c r="J29" s="48">
+      <c r="J29" s="44">
         <f t="shared" si="0"/>
         <v>5000</v>
       </c>
-      <c r="K29" s="48">
-        <v>1</v>
-      </c>
-      <c r="L29" s="48">
+      <c r="K29" s="44">
+        <v>1</v>
+      </c>
+      <c r="L29" s="44">
         <v>25</v>
       </c>
-      <c r="M29" s="48" t="s">
+      <c r="M29" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="N29" s="48" t="s">
+      <c r="N29" s="44" t="s">
         <v>242</v>
       </c>
-      <c r="O29" s="48"/>
-      <c r="P29" s="48"/>
-      <c r="Q29" s="48"/>
-      <c r="R29" s="48"/>
-      <c r="S29" s="48"/>
-      <c r="T29" s="48"/>
-      <c r="U29" s="48"/>
-      <c r="V29" s="48"/>
-      <c r="W29" s="48"/>
-      <c r="X29" s="48"/>
-      <c r="Y29" s="48"/>
-      <c r="Z29" s="48"/>
-      <c r="AA29" s="48">
-        <v>1</v>
-      </c>
-      <c r="AB29" s="67">
+      <c r="O29" s="44"/>
+      <c r="P29" s="44"/>
+      <c r="Q29" s="44"/>
+      <c r="R29" s="44"/>
+      <c r="S29" s="44"/>
+      <c r="T29" s="44"/>
+      <c r="U29" s="44"/>
+      <c r="V29" s="44"/>
+      <c r="W29" s="44"/>
+      <c r="X29" s="44"/>
+      <c r="Y29" s="44"/>
+      <c r="Z29" s="44"/>
+      <c r="AA29" s="44">
+        <v>1</v>
+      </c>
+      <c r="AB29" s="62">
         <f t="shared" si="1"/>
         <v>160</v>
       </c>
-      <c r="AC29" s="48" t="s">
+      <c r="AC29" s="44" t="s">
         <v>93</v>
       </c>
-      <c r="AD29" s="48"/>
-      <c r="AE29" s="48"/>
-      <c r="AF29" s="48"/>
-      <c r="AG29" s="48"/>
-      <c r="AH29" s="67"/>
-      <c r="AI29" s="48"/>
-      <c r="AJ29" s="48"/>
-      <c r="AK29" s="48"/>
-      <c r="AL29" s="48"/>
-      <c r="AM29" s="48">
+      <c r="AD29" s="44"/>
+      <c r="AE29" s="44"/>
+      <c r="AF29" s="44"/>
+      <c r="AG29" s="44"/>
+      <c r="AH29" s="62"/>
+      <c r="AI29" s="44"/>
+      <c r="AJ29" s="44"/>
+      <c r="AK29" s="44"/>
+      <c r="AL29" s="44"/>
+      <c r="AM29" s="44">
         <v>225</v>
       </c>
-      <c r="AN29" s="75">
+      <c r="AN29" s="70">
         <v>180</v>
       </c>
-      <c r="AO29" s="48" t="s">
+      <c r="AO29" s="44" t="s">
         <v>94</v>
       </c>
-      <c r="AP29" s="48" t="s">
+      <c r="AP29" s="44" t="s">
         <v>211</v>
       </c>
-      <c r="AQ29" s="81"/>
-      <c r="AR29" s="48">
+      <c r="AQ29" s="76"/>
+      <c r="AR29" s="44">
         <v>600</v>
       </c>
-      <c r="AS29" s="48" t="s">
+      <c r="AS29" s="44" t="s">
         <v>96</v>
       </c>
-      <c r="AT29" s="48">
-        <v>1</v>
-      </c>
-      <c r="AU29" s="48">
-        <v>1</v>
-      </c>
-      <c r="AV29" s="48" t="s">
+      <c r="AT29" s="44">
+        <v>1</v>
+      </c>
+      <c r="AU29" s="44">
+        <v>1</v>
+      </c>
+      <c r="AV29" s="44" t="s">
         <v>97</v>
       </c>
-      <c r="AW29" s="48">
-        <v>0</v>
-      </c>
-      <c r="AX29" s="48">
-        <v>0</v>
-      </c>
-      <c r="AY29" s="48">
-        <v>0</v>
-      </c>
-      <c r="AZ29" s="48">
+      <c r="AW29" s="44">
+        <v>0</v>
+      </c>
+      <c r="AX29" s="44">
+        <v>0</v>
+      </c>
+      <c r="AY29" s="44">
+        <v>0</v>
+      </c>
+      <c r="AZ29" s="44">
         <v>20000</v>
       </c>
-      <c r="BA29" s="51" t="s">
+      <c r="BA29" s="46" t="s">
         <v>98</v>
       </c>
-      <c r="BB29" s="48">
+      <c r="BB29" s="44">
         <v>8192</v>
       </c>
-      <c r="BC29" s="48">
+      <c r="BC29" s="44">
         <v>8192</v>
       </c>
-      <c r="BD29" s="48"/>
-      <c r="BE29" s="48">
+      <c r="BD29" s="44"/>
+      <c r="BE29" s="44">
         <v>0</v>
       </c>
       <c r="BF29" s="21">
@@ -7141,20 +7160,22 @@
       <c r="BH29" s="21">
         <v>200</v>
       </c>
-      <c r="BI29" s="97"/>
-      <c r="BJ29" s="89">
+      <c r="BI29" s="92"/>
+      <c r="BJ29" s="84">
         <v>1</v>
       </c>
     </row>
     <row r="30" s="7" customFormat="1" ht="39" customHeight="1" spans="1:64">
-      <c r="A30" s="47" t="s">
+      <c r="A30" s="43" t="s">
         <v>243</v>
       </c>
-      <c r="B30" s="48" t="s">
+      <c r="B30" s="44" t="s">
         <v>244</v>
       </c>
-      <c r="C30" s="49"/>
-      <c r="D30" s="50">
+      <c r="C30" s="26">
+        <v>2916</v>
+      </c>
+      <c r="D30" s="45">
         <v>3</v>
       </c>
       <c r="E30" s="24" t="str">
@@ -7165,114 +7186,114 @@
         <f>IF(ISBLANK(D30),"",VLOOKUP(D30,[1]__Sheet1!$A:$C,3,FALSE))</f>
         <v>2|5|6</v>
       </c>
-      <c r="G30" s="51">
+      <c r="G30" s="46">
         <f t="shared" si="3"/>
         <v>10000</v>
       </c>
-      <c r="H30" s="48">
-        <v>0</v>
-      </c>
-      <c r="I30" s="48">
+      <c r="H30" s="44">
+        <v>0</v>
+      </c>
+      <c r="I30" s="44">
         <v>5000</v>
       </c>
-      <c r="J30" s="48">
+      <c r="J30" s="44">
         <f t="shared" si="0"/>
         <v>5000</v>
       </c>
-      <c r="K30" s="48">
-        <v>1</v>
-      </c>
-      <c r="L30" s="48">
+      <c r="K30" s="44">
+        <v>1</v>
+      </c>
+      <c r="L30" s="44">
         <v>25</v>
       </c>
-      <c r="M30" s="48" t="s">
+      <c r="M30" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="N30" s="48" t="s">
+      <c r="N30" s="44" t="s">
         <v>245</v>
       </c>
-      <c r="O30" s="48"/>
-      <c r="P30" s="48"/>
-      <c r="Q30" s="48"/>
-      <c r="R30" s="48"/>
-      <c r="S30" s="48"/>
-      <c r="T30" s="48"/>
-      <c r="U30" s="48"/>
-      <c r="V30" s="48"/>
-      <c r="W30" s="48"/>
-      <c r="X30" s="48"/>
-      <c r="Y30" s="48"/>
-      <c r="Z30" s="48"/>
-      <c r="AA30" s="48">
+      <c r="O30" s="44"/>
+      <c r="P30" s="44"/>
+      <c r="Q30" s="44"/>
+      <c r="R30" s="44"/>
+      <c r="S30" s="44"/>
+      <c r="T30" s="44"/>
+      <c r="U30" s="44"/>
+      <c r="V30" s="44"/>
+      <c r="W30" s="44"/>
+      <c r="X30" s="44"/>
+      <c r="Y30" s="44"/>
+      <c r="Z30" s="44"/>
+      <c r="AA30" s="44">
         <v>1.4</v>
       </c>
-      <c r="AB30" s="67">
+      <c r="AB30" s="62">
         <f t="shared" si="1"/>
         <v>184</v>
       </c>
-      <c r="AC30" s="48" t="s">
+      <c r="AC30" s="44" t="s">
         <v>93</v>
       </c>
-      <c r="AD30" s="48"/>
-      <c r="AE30" s="48"/>
-      <c r="AF30" s="48"/>
-      <c r="AG30" s="48"/>
-      <c r="AH30" s="67"/>
-      <c r="AI30" s="48"/>
-      <c r="AJ30" s="48"/>
-      <c r="AK30" s="48"/>
-      <c r="AL30" s="48"/>
-      <c r="AM30" s="48">
+      <c r="AD30" s="44"/>
+      <c r="AE30" s="44"/>
+      <c r="AF30" s="44"/>
+      <c r="AG30" s="44"/>
+      <c r="AH30" s="62"/>
+      <c r="AI30" s="44"/>
+      <c r="AJ30" s="44"/>
+      <c r="AK30" s="44"/>
+      <c r="AL30" s="44"/>
+      <c r="AM30" s="44">
         <v>225</v>
       </c>
-      <c r="AN30" s="75">
+      <c r="AN30" s="70">
         <v>180</v>
       </c>
-      <c r="AO30" s="48" t="s">
+      <c r="AO30" s="44" t="s">
         <v>94</v>
       </c>
-      <c r="AP30" s="48" t="s">
+      <c r="AP30" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="AQ30" s="81"/>
-      <c r="AR30" s="48">
+      <c r="AQ30" s="76"/>
+      <c r="AR30" s="44">
         <v>600</v>
       </c>
-      <c r="AS30" s="48" t="s">
+      <c r="AS30" s="44" t="s">
         <v>96</v>
       </c>
-      <c r="AT30" s="48">
-        <v>1</v>
-      </c>
-      <c r="AU30" s="48">
-        <v>1</v>
-      </c>
-      <c r="AV30" s="48" t="s">
+      <c r="AT30" s="44">
+        <v>1</v>
+      </c>
+      <c r="AU30" s="44">
+        <v>1</v>
+      </c>
+      <c r="AV30" s="44" t="s">
         <v>97</v>
       </c>
-      <c r="AW30" s="48">
-        <v>0</v>
-      </c>
-      <c r="AX30" s="48">
-        <v>0</v>
-      </c>
-      <c r="AY30" s="48">
-        <v>0</v>
-      </c>
-      <c r="AZ30" s="48">
+      <c r="AW30" s="44">
+        <v>0</v>
+      </c>
+      <c r="AX30" s="44">
+        <v>0</v>
+      </c>
+      <c r="AY30" s="44">
+        <v>0</v>
+      </c>
+      <c r="AZ30" s="44">
         <v>20000</v>
       </c>
-      <c r="BA30" s="51" t="s">
+      <c r="BA30" s="46" t="s">
         <v>98</v>
       </c>
-      <c r="BB30" s="48">
+      <c r="BB30" s="44">
         <v>8192</v>
       </c>
-      <c r="BC30" s="48">
+      <c r="BC30" s="44">
         <v>8192</v>
       </c>
-      <c r="BD30" s="48"/>
-      <c r="BE30" s="48">
+      <c r="BD30" s="44"/>
+      <c r="BE30" s="44">
         <v>0</v>
       </c>
       <c r="BF30" s="21">
@@ -7284,26 +7305,28 @@
       <c r="BH30" s="21">
         <v>200</v>
       </c>
-      <c r="BI30" s="97"/>
-      <c r="BJ30" s="89">
-        <v>1</v>
-      </c>
-      <c r="BK30" s="98" t="s">
+      <c r="BI30" s="92"/>
+      <c r="BJ30" s="84">
+        <v>1</v>
+      </c>
+      <c r="BK30" s="93" t="s">
         <v>165</v>
       </c>
-      <c r="BL30" s="98" t="s">
+      <c r="BL30" s="93" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="31" s="7" customFormat="1" ht="39" customHeight="1" spans="1:62">
-      <c r="A31" s="47" t="s">
+      <c r="A31" s="43" t="s">
         <v>246</v>
       </c>
-      <c r="B31" s="48" t="s">
+      <c r="B31" s="44" t="s">
         <v>247</v>
       </c>
-      <c r="C31" s="49"/>
-      <c r="D31" s="50">
+      <c r="C31" s="30">
+        <v>2917</v>
+      </c>
+      <c r="D31" s="45">
         <v>3</v>
       </c>
       <c r="E31" s="24" t="str">
@@ -7314,114 +7337,114 @@
         <f>IF(ISBLANK(D31),"",VLOOKUP(D31,[1]__Sheet1!$A:$C,3,FALSE))</f>
         <v>2|5|6</v>
       </c>
-      <c r="G31" s="51">
+      <c r="G31" s="46">
         <f t="shared" si="3"/>
         <v>10000</v>
       </c>
-      <c r="H31" s="48">
-        <v>0</v>
-      </c>
-      <c r="I31" s="48">
+      <c r="H31" s="44">
+        <v>0</v>
+      </c>
+      <c r="I31" s="44">
         <v>5000</v>
       </c>
-      <c r="J31" s="48">
+      <c r="J31" s="44">
         <f t="shared" si="0"/>
         <v>5000</v>
       </c>
-      <c r="K31" s="48">
-        <v>1</v>
-      </c>
-      <c r="L31" s="48">
+      <c r="K31" s="44">
+        <v>1</v>
+      </c>
+      <c r="L31" s="44">
         <v>25</v>
       </c>
-      <c r="M31" s="48" t="s">
+      <c r="M31" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="N31" s="48" t="s">
+      <c r="N31" s="44" t="s">
         <v>248</v>
       </c>
-      <c r="O31" s="48"/>
-      <c r="P31" s="48"/>
-      <c r="Q31" s="48"/>
-      <c r="R31" s="48"/>
-      <c r="S31" s="48"/>
-      <c r="T31" s="48"/>
-      <c r="U31" s="48"/>
-      <c r="V31" s="48"/>
-      <c r="W31" s="48"/>
-      <c r="X31" s="48"/>
-      <c r="Y31" s="48"/>
-      <c r="Z31" s="48"/>
-      <c r="AA31" s="48">
+      <c r="O31" s="44"/>
+      <c r="P31" s="44"/>
+      <c r="Q31" s="44"/>
+      <c r="R31" s="44"/>
+      <c r="S31" s="44"/>
+      <c r="T31" s="44"/>
+      <c r="U31" s="44"/>
+      <c r="V31" s="44"/>
+      <c r="W31" s="44"/>
+      <c r="X31" s="44"/>
+      <c r="Y31" s="44"/>
+      <c r="Z31" s="44"/>
+      <c r="AA31" s="44">
         <v>1.2</v>
       </c>
-      <c r="AB31" s="67">
+      <c r="AB31" s="62">
         <f t="shared" si="1"/>
         <v>172</v>
       </c>
-      <c r="AC31" s="48" t="s">
+      <c r="AC31" s="44" t="s">
         <v>93</v>
       </c>
-      <c r="AD31" s="48"/>
-      <c r="AE31" s="48"/>
-      <c r="AF31" s="48"/>
-      <c r="AG31" s="48"/>
-      <c r="AH31" s="67"/>
-      <c r="AI31" s="48"/>
-      <c r="AJ31" s="48"/>
-      <c r="AK31" s="48"/>
-      <c r="AL31" s="48"/>
-      <c r="AM31" s="48">
+      <c r="AD31" s="44"/>
+      <c r="AE31" s="44"/>
+      <c r="AF31" s="44"/>
+      <c r="AG31" s="44"/>
+      <c r="AH31" s="62"/>
+      <c r="AI31" s="44"/>
+      <c r="AJ31" s="44"/>
+      <c r="AK31" s="44"/>
+      <c r="AL31" s="44"/>
+      <c r="AM31" s="44">
         <v>225</v>
       </c>
-      <c r="AN31" s="75">
+      <c r="AN31" s="70">
         <v>180</v>
       </c>
-      <c r="AO31" s="48" t="s">
+      <c r="AO31" s="44" t="s">
         <v>94</v>
       </c>
-      <c r="AP31" s="48" t="s">
+      <c r="AP31" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="AQ31" s="81"/>
-      <c r="AR31" s="48">
+      <c r="AQ31" s="76"/>
+      <c r="AR31" s="44">
         <v>600</v>
       </c>
-      <c r="AS31" s="48" t="s">
+      <c r="AS31" s="44" t="s">
         <v>96</v>
       </c>
-      <c r="AT31" s="48">
-        <v>1</v>
-      </c>
-      <c r="AU31" s="48">
-        <v>1</v>
-      </c>
-      <c r="AV31" s="48" t="s">
+      <c r="AT31" s="44">
+        <v>1</v>
+      </c>
+      <c r="AU31" s="44">
+        <v>1</v>
+      </c>
+      <c r="AV31" s="44" t="s">
         <v>97</v>
       </c>
-      <c r="AW31" s="48">
-        <v>0</v>
-      </c>
-      <c r="AX31" s="48">
-        <v>0</v>
-      </c>
-      <c r="AY31" s="48">
-        <v>0</v>
-      </c>
-      <c r="AZ31" s="48">
+      <c r="AW31" s="44">
+        <v>0</v>
+      </c>
+      <c r="AX31" s="44">
+        <v>0</v>
+      </c>
+      <c r="AY31" s="44">
+        <v>0</v>
+      </c>
+      <c r="AZ31" s="44">
         <v>20000</v>
       </c>
-      <c r="BA31" s="51" t="s">
+      <c r="BA31" s="46" t="s">
         <v>98</v>
       </c>
-      <c r="BB31" s="48">
+      <c r="BB31" s="44">
         <v>8192</v>
       </c>
-      <c r="BC31" s="48">
+      <c r="BC31" s="44">
         <v>8192</v>
       </c>
-      <c r="BD31" s="48"/>
-      <c r="BE31" s="48">
+      <c r="BD31" s="44"/>
+      <c r="BE31" s="44">
         <v>0</v>
       </c>
       <c r="BF31" s="21">
@@ -7433,20 +7456,22 @@
       <c r="BH31" s="21">
         <v>200</v>
       </c>
-      <c r="BI31" s="97"/>
-      <c r="BJ31" s="89">
+      <c r="BI31" s="92"/>
+      <c r="BJ31" s="84">
         <v>1</v>
       </c>
     </row>
     <row r="32" s="7" customFormat="1" ht="39" customHeight="1" spans="1:64">
-      <c r="A32" s="47" t="s">
+      <c r="A32" s="43" t="s">
         <v>249</v>
       </c>
-      <c r="B32" s="48" t="s">
+      <c r="B32" s="44" t="s">
         <v>250</v>
       </c>
-      <c r="C32" s="49"/>
-      <c r="D32" s="50">
+      <c r="C32" s="26">
+        <v>3204</v>
+      </c>
+      <c r="D32" s="45">
         <v>3</v>
       </c>
       <c r="E32" s="24" t="str">
@@ -7457,114 +7482,114 @@
         <f>IF(ISBLANK(D32),"",VLOOKUP(D32,[1]__Sheet1!$A:$C,3,FALSE))</f>
         <v>2|5|6</v>
       </c>
-      <c r="G32" s="51">
+      <c r="G32" s="46">
         <f t="shared" si="3"/>
         <v>10000</v>
       </c>
-      <c r="H32" s="48">
-        <v>0</v>
-      </c>
-      <c r="I32" s="48">
+      <c r="H32" s="44">
+        <v>0</v>
+      </c>
+      <c r="I32" s="44">
         <v>5000</v>
       </c>
-      <c r="J32" s="48">
+      <c r="J32" s="44">
         <f t="shared" si="0"/>
         <v>5000</v>
       </c>
-      <c r="K32" s="48">
-        <v>1</v>
-      </c>
-      <c r="L32" s="48">
+      <c r="K32" s="44">
+        <v>1</v>
+      </c>
+      <c r="L32" s="44">
         <v>25</v>
       </c>
-      <c r="M32" s="48" t="s">
+      <c r="M32" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="N32" s="48" t="s">
+      <c r="N32" s="44" t="s">
         <v>251</v>
       </c>
-      <c r="O32" s="48"/>
-      <c r="P32" s="48"/>
-      <c r="Q32" s="48"/>
-      <c r="R32" s="48"/>
-      <c r="S32" s="48"/>
-      <c r="T32" s="48"/>
-      <c r="U32" s="48"/>
-      <c r="V32" s="48"/>
-      <c r="W32" s="48"/>
-      <c r="X32" s="48"/>
-      <c r="Y32" s="48"/>
-      <c r="Z32" s="48"/>
-      <c r="AA32" s="48">
+      <c r="O32" s="44"/>
+      <c r="P32" s="44"/>
+      <c r="Q32" s="44"/>
+      <c r="R32" s="44"/>
+      <c r="S32" s="44"/>
+      <c r="T32" s="44"/>
+      <c r="U32" s="44"/>
+      <c r="V32" s="44"/>
+      <c r="W32" s="44"/>
+      <c r="X32" s="44"/>
+      <c r="Y32" s="44"/>
+      <c r="Z32" s="44"/>
+      <c r="AA32" s="44">
         <v>2.5</v>
       </c>
-      <c r="AB32" s="67">
+      <c r="AB32" s="62">
         <f t="shared" si="1"/>
         <v>250</v>
       </c>
-      <c r="AC32" s="48" t="s">
+      <c r="AC32" s="44" t="s">
         <v>93</v>
       </c>
-      <c r="AD32" s="48"/>
-      <c r="AE32" s="48"/>
-      <c r="AF32" s="48"/>
-      <c r="AG32" s="48"/>
-      <c r="AH32" s="67"/>
-      <c r="AI32" s="48"/>
-      <c r="AJ32" s="48"/>
-      <c r="AK32" s="48"/>
-      <c r="AL32" s="48"/>
-      <c r="AM32" s="48">
+      <c r="AD32" s="44"/>
+      <c r="AE32" s="44"/>
+      <c r="AF32" s="44"/>
+      <c r="AG32" s="44"/>
+      <c r="AH32" s="62"/>
+      <c r="AI32" s="44"/>
+      <c r="AJ32" s="44"/>
+      <c r="AK32" s="44"/>
+      <c r="AL32" s="44"/>
+      <c r="AM32" s="44">
         <v>225</v>
       </c>
-      <c r="AN32" s="75">
+      <c r="AN32" s="70">
         <v>180</v>
       </c>
-      <c r="AO32" s="48" t="s">
+      <c r="AO32" s="44" t="s">
         <v>94</v>
       </c>
-      <c r="AP32" s="48" t="s">
+      <c r="AP32" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="AQ32" s="81"/>
-      <c r="AR32" s="48">
+      <c r="AQ32" s="76"/>
+      <c r="AR32" s="44">
         <v>600</v>
       </c>
-      <c r="AS32" s="48" t="s">
+      <c r="AS32" s="44" t="s">
         <v>96</v>
       </c>
-      <c r="AT32" s="48">
-        <v>1</v>
-      </c>
-      <c r="AU32" s="48">
-        <v>1</v>
-      </c>
-      <c r="AV32" s="48" t="s">
+      <c r="AT32" s="44">
+        <v>1</v>
+      </c>
+      <c r="AU32" s="44">
+        <v>1</v>
+      </c>
+      <c r="AV32" s="44" t="s">
         <v>97</v>
       </c>
-      <c r="AW32" s="48">
-        <v>0</v>
-      </c>
-      <c r="AX32" s="48">
-        <v>0</v>
-      </c>
-      <c r="AY32" s="48">
-        <v>0</v>
-      </c>
-      <c r="AZ32" s="48">
+      <c r="AW32" s="44">
+        <v>0</v>
+      </c>
+      <c r="AX32" s="44">
+        <v>0</v>
+      </c>
+      <c r="AY32" s="44">
+        <v>0</v>
+      </c>
+      <c r="AZ32" s="44">
         <v>20000</v>
       </c>
-      <c r="BA32" s="51" t="s">
+      <c r="BA32" s="46" t="s">
         <v>98</v>
       </c>
-      <c r="BB32" s="48">
+      <c r="BB32" s="44">
         <v>8192</v>
       </c>
-      <c r="BC32" s="48">
+      <c r="BC32" s="44">
         <v>8192</v>
       </c>
-      <c r="BD32" s="48"/>
-      <c r="BE32" s="48">
+      <c r="BD32" s="44"/>
+      <c r="BE32" s="44">
         <v>0</v>
       </c>
       <c r="BF32" s="21">
@@ -7576,14 +7601,14 @@
       <c r="BH32" s="21">
         <v>200</v>
       </c>
-      <c r="BI32" s="97"/>
-      <c r="BJ32" s="89">
-        <v>1</v>
-      </c>
-      <c r="BK32" s="98" t="s">
+      <c r="BI32" s="92"/>
+      <c r="BJ32" s="84">
+        <v>1</v>
+      </c>
+      <c r="BK32" s="93" t="s">
         <v>166</v>
       </c>
-      <c r="BL32" s="98" t="s">
+      <c r="BL32" s="93" t="s">
         <v>252</v>
       </c>
     </row>

--- a/excels/units/monster/boss.xlsx
+++ b/excels/units/monster/boss.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="11805"/>
+    <workbookView windowWidth="22185" windowHeight="10155"/>
   </bookViews>
   <sheets>
     <sheet name="boss" sheetId="1" r:id="rId1"/>
@@ -2622,11 +2622,11 @@
   <dimension ref="A1:BN32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I36" sqref="I36"/>
+      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3026,7 +3026,9 @@
       <c r="B3" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="C3" s="22"/>
+      <c r="C3" s="22">
+        <v>2918</v>
+      </c>
       <c r="D3" s="23">
         <v>1</v>
       </c>
